--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -221,6 +221,87 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_6</t>
+  </si>
+  <si>
+    <t>商店显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2;3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2;3;4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;4;5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;6;7;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,9 +751,10 @@
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -691,8 +773,11 @@
       <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -712,12 +797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -736,8 +821,11 @@
       <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -756,8 +844,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -776,8 +867,11 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -796,8 +890,11 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -816,8 +913,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -836,8 +936,11 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -856,8 +959,11 @@
       <c r="F10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -867,8 +973,11 @@
       <c r="F11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -878,8 +987,11 @@
       <c r="F12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -889,8 +1001,11 @@
       <c r="F13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -900,8 +1015,11 @@
       <c r="F14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -911,8 +1029,11 @@
       <c r="F15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -922,8 +1043,11 @@
       <c r="F16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -931,16 +1055,22 @@
       <c r="F17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -949,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -958,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -966,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -975,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -983,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -992,31 +1122,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -192,10 +192,6 @@
   </si>
   <si>
     <t>产生的收益/秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,12 +299,16 @@
     <t>7;8;9;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TableName: "TMaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -737,14 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -754,7 +754,7 @@
     <col min="7" max="7" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>26</v>
@@ -774,10 +774,10 @@
         <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -797,12 +797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -822,10 +822,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -902,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -925,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10">
         <v>6</v>
       </c>
@@ -948,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -960,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -974,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12">
         <v>8</v>
       </c>
@@ -988,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1002,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1016,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1030,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1044,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1056,10 +1056,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1067,10 +1067,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1122,976 +1122,976 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2107,26 +2107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -303,12 +303,30 @@
     <t>TableName: "TMaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>istSpliter:";"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -737,24 +755,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -777,7 +795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -796,13 +814,19 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -825,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -848,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -871,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -894,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -917,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -940,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -963,7 +987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -991,7 +1015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1005,7 +1029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1047,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1059,7 +1083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1113,7 +1137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1122,976 +1146,976 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2107,24 +2131,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2150,7 +2174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -289,14 +289,6 @@
   </si>
   <si>
     <t>5;6;7;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;7;8;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7;8;9;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -759,7 +751,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -994,6 +986,15 @@
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
       <c r="F11">
         <v>8</v>
       </c>
@@ -1008,6 +1009,15 @@
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
       <c r="F12">
         <v>9</v>
       </c>
@@ -1022,6 +1032,15 @@
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
       <c r="F13">
         <v>10</v>
       </c>
@@ -1036,6 +1055,15 @@
       <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
       <c r="F14">
         <v>11</v>
       </c>
@@ -1050,6 +1078,15 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
       <c r="F15">
         <v>12</v>
       </c>
@@ -1064,6 +1101,15 @@
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
       <c r="F16">
         <v>13</v>
       </c>
@@ -1072,79 +1118,35 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
+      <c r="A17"/>
       <c r="B17"/>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="A18"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
+      <c r="A19"/>
       <c r="B19"/>
-      <c r="F19">
-        <v>16</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
+      <c r="A20"/>
       <c r="B20"/>
-      <c r="F20">
-        <v>17</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
+      <c r="A22"/>
       <c r="B22"/>
-      <c r="F22">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
+      <c r="A23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
+      <c r="A24"/>
       <c r="B24"/>
-      <c r="F24">
-        <v>21</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -2145,7 +2147,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -166,29 +166,6 @@
   <si>
     <t>陆晚晚</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牡丹图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉祥哭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴书来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张嬷嬷</t>
   </si>
   <si>
     <t>产生的收益/秒</t>
@@ -311,6 +288,118 @@
       </rPr>
       <t>istSpliter:";"</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉如意</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖玉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石盆景</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>送子观音</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报时妆奁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞献凤袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>玛瑙</t>
+  </si>
+  <si>
+    <t>翡翠</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+  </si>
+  <si>
+    <t>明玉</t>
+  </si>
+  <si>
+    <t>璎珞</t>
+  </si>
+  <si>
+    <t>尔晴</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_7</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_8</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_9</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_10</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_11</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_12</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_13</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_14</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_15</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_16</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_17</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_18</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_19</t>
+  </si>
+  <si>
+    <t>6;7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;9;10;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;10;11;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11;12;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;13;14;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;14;15;16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,7 +864,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>26</v>
@@ -784,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -815,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -832,13 +921,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -849,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -872,13 +961,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -895,13 +984,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -918,13 +1007,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -941,13 +1030,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -964,19 +1053,19 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -984,22 +1073,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1007,22 +1096,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1030,22 +1119,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1053,22 +1142,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,22 +1165,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1099,50 +1188,184 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="G17" s="6"/>
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>130</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="G18" s="6"/>
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>140</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>160</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21"/>
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>170</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>180</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23"/>
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>190</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -2147,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -400,6 +400,82 @@
   </si>
   <si>
     <t>13;14;15;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14;15;16;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15;16;17;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;17;18;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17;18;19;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18;19;20;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19;20;21;22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;21;22;23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;22;23;24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;23;24;25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23;24;25;26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24;25;26;27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25;26;27;28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26;27;28;29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27;28;29;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28;29;30;31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29;30;31;32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;31;32;33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31;32;33;34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32;33;34;35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -967,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -990,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1013,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1036,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1059,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1082,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1105,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1128,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1151,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -1174,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -1197,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>13</v>
@@ -1220,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>14</v>
@@ -1243,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -1266,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -1289,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>17</v>
@@ -1312,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>18</v>
@@ -1335,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>19</v>
@@ -1358,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -1367,91 +1443,462 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>39</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -219,6 +219,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -476,6 +477,18 @@
   </si>
   <si>
     <t>32;33;34;35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,9 +940,10 @@
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -951,8 +965,11 @@
       <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -968,14 +985,17 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1005,8 +1025,11 @@
       <c r="G4" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1051,8 +1077,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1074,8 +1103,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1097,8 +1129,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1120,8 +1155,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1143,8 +1181,11 @@
       <c r="G10" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1167,7 +1208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1189,8 +1230,11 @@
       <c r="G12" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1212,8 +1256,11 @@
       <c r="G13" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1235,8 +1282,11 @@
       <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1258,8 +1308,11 @@
       <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H15" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1280,6 +1333,9 @@
       </c>
       <c r="G16" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="H16" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,6 +1207,9 @@
       <c r="G11" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1338,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1360,8 +1363,11 @@
       <c r="G17" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1383,8 +1389,11 @@
       <c r="G18" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1406,8 +1415,11 @@
       <c r="G19" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1429,8 +1441,11 @@
       <c r="G20" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1452,8 +1467,11 @@
       <c r="G21" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1475,8 +1493,11 @@
       <c r="G22" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1498,8 +1519,11 @@
       <c r="G23" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1521,8 +1545,11 @@
       <c r="G24" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1544,8 +1571,11 @@
       <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1567,8 +1597,11 @@
       <c r="G26" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1590,8 +1623,11 @@
       <c r="G27" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1613,8 +1649,11 @@
       <c r="G28" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1636,8 +1675,11 @@
       <c r="G29" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1659,8 +1701,11 @@
       <c r="G30" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1682,8 +1727,11 @@
       <c r="G31" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1705,8 +1753,11 @@
       <c r="G32" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1728,8 +1779,11 @@
       <c r="G33" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1751,8 +1805,11 @@
       <c r="G34" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1774,8 +1831,11 @@
       <c r="G35" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1797,8 +1857,11 @@
       <c r="G36" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1820,8 +1883,11 @@
       <c r="G37" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1843,8 +1909,11 @@
       <c r="G38" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1866,8 +1935,11 @@
       <c r="G39" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1889,8 +1961,11 @@
       <c r="G40" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1912,8 +1987,11 @@
       <c r="G41" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1935,26 +2013,29 @@
       <c r="G42" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>83</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>86</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1520,7 +1520,7 @@
         <v>88</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
       <c r="G24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>0</v>
       </c>
     </row>
@@ -1571,8 +1571,8 @@
       <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
+      <c r="H25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1597,8 +1597,8 @@
       <c r="G26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
+      <c r="H26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1623,8 +1623,8 @@
       <c r="G27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
+      <c r="H27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1649,8 +1649,8 @@
       <c r="G28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
+      <c r="H28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>94</v>
       </c>
       <c r="H29" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>96</v>
       </c>
       <c r="H31" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>97</v>
       </c>
       <c r="H32" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>98</v>
       </c>
       <c r="H33" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
         <v>99</v>
       </c>
       <c r="H34" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1832,7 +1832,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1884,7 +1884,7 @@
         <v>102</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>103</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
         <v>104</v>
       </c>
       <c r="H39" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1962,7 +1962,7 @@
         <v>105</v>
       </c>
       <c r="H40" s="6">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>106</v>
       </c>
       <c r="H41" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>107</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -489,6 +489,14 @@
   </si>
   <si>
     <t>对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察容音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2018,8 +2026,30 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-      <c r="B43"/>
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -90,26 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所属关卡（配置关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合成后的ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,30 +110,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ath</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">胖秀女      </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑秀女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>瘦秀女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>乌雅青黛</t>
@@ -161,11 +127,11 @@
   </si>
   <si>
     <t xml:space="preserve">纳兰淳雪 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>陆晚晚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产生的收益/秒</t>
@@ -204,56 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;2;3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;2;3;4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2;3;4;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,34 +194,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>istSpliter:";"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玉如意</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暖玉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宝石盆景</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>送子观音</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报时妆奁</t>
@@ -313,7 +215,7 @@
   </si>
   <si>
     <t>璎珞献凤袍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>珍珠</t>
@@ -497,6 +399,74 @@
   </si>
   <si>
     <t>富察容音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞翘舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_22</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_23</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_24</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_25</t>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">所属关卡（配置关卡ID) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,12 +491,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -540,8 +504,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +522,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -572,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,16 +558,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,1100 +931,1106 @@
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
+      <c r="E11" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D12">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6">
+        <v>25</v>
+      </c>
+      <c r="F29" s="6">
+        <v>26</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>26</v>
+      </c>
+      <c r="F30" s="8">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8">
+        <v>27</v>
+      </c>
+      <c r="F31" s="8">
+        <v>28</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="8">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17">
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8">
+        <v>29</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="8">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="6">
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8">
+        <v>29</v>
+      </c>
+      <c r="F33" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="G34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="8">
+        <v>5</v>
+      </c>
+      <c r="E35" s="8">
+        <v>31</v>
+      </c>
+      <c r="F35" s="8">
         <v>32</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>21</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>21</v>
-      </c>
-      <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
-      </c>
-      <c r="F26">
-        <v>23</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>23</v>
-      </c>
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>24</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="G35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6</v>
+      </c>
+      <c r="E36" s="6">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6">
         <v>33</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>25</v>
-      </c>
-      <c r="F29">
-        <v>26</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>26</v>
-      </c>
-      <c r="F30">
-        <v>27</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>27</v>
-      </c>
-      <c r="F31">
-        <v>28</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>28</v>
-      </c>
-      <c r="F32">
-        <v>29</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>29</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
-        <v>31</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>31</v>
-      </c>
-      <c r="F35">
-        <v>32</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>33</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H36" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>63</v>
+      <c r="B37" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>33</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>34</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H37" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>64</v>
+      <c r="B38" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38">
+        <v>71</v>
+      </c>
+      <c r="D38" s="6">
         <v>6</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>34</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>35</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H38" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>65</v>
+      <c r="B39" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="D39" s="6">
         <v>6</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>35</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>36</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H39" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>66</v>
+      <c r="B40" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40">
+        <v>73</v>
+      </c>
+      <c r="D40" s="6">
         <v>6</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>36</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>37</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H40" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>67</v>
+      <c r="B41" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41">
+        <v>74</v>
+      </c>
+      <c r="D41" s="6">
         <v>6</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>37</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>38</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H41" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>68</v>
+      <c r="B42" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="D42" s="6">
         <v>6</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>38</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H42" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>112</v>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43">
+        <v>105</v>
+      </c>
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43" s="6">
@@ -2984,7 +2970,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleDescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆的结发妻子。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -508,6 +520,12 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -548,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,9 +953,10 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -956,8 +981,11 @@
       <c r="H1" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="I1" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -982,8 +1010,11 @@
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1028,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1022,8 +1053,11 @@
       <c r="H4" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="I4" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1049,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1075,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1127,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1179,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1205,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1231,7 +1265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1283,7 +1317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1309,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1751,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -1777,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -1803,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -1829,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -1881,7 +1915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -1907,7 +1941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -1933,7 +1967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -1959,7 +1993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -1985,7 +2019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -2011,7 +2045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -2036,22 +2070,25 @@
       <c r="H43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -941,7 +941,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +956,7 @@
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>77</v>
       </c>
       <c r="H18" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>78</v>
       </c>
       <c r="H19" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
         <v>80</v>
       </c>
       <c r="H21" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>81</v>
       </c>
       <c r="H22" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富察容音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +475,34 @@
   </si>
   <si>
     <t>乾隆的结发妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高宁馨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉发那拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆的第二任皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人嚣张跋扈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -982,7 +1006,7 @@
         <v>103</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -1024,7 +1048,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1039,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -1054,7 +1078,7 @@
         <v>104</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -1207,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="8">
         <v>6</v>
@@ -1218,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -1233,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1244,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -1259,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="6">
         <v>34</v>
@@ -1270,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -1296,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -1322,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1348,10 +1372,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -2050,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
@@ -2071,15 +2095,66 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -170,22 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2;3;4;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;4;5;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;5;6;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;6;7;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TMaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,110 +262,6 @@
     <t>Image/GameScene/Maid/maid_19</t>
   </si>
   <si>
-    <t>6;7;8;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7;8;9;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8;9;10;11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9;10;11;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;11;12;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12;13;14;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;14;15;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14;15;16;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15;16;17;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;17;18;19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17;18;19;20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18;19;20;21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;20;21;22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20;21;22;23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;22;23;24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;23;24;25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23;24;25;26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24;25;26;27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25;26;27;28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26;27;28;29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27;28;29;30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28;29;30;31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29;30;31;32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30;31;32;33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31;32;33;34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32;33;34;35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,47 +342,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleDescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆的结发妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高宁馨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉发那拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆的第二任皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人嚣张跋扈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1;2;3;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleDescribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾隆的结发妻子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高宁馨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉发那拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾隆的第二任皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为人嚣张跋扈</t>
+    <t>1;2;3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;4;5;6;7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;4;5;6;7;8;9;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6;7;8;9;10;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;6;7;8;9;10;11;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;7;8;9;10;11;12;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9;10;11;12;13;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;9;10;11;12;13;14;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;10;11;12;13;14;15;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11;12;13;14;15;16;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;12;13;14;15;16;17;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;13;14;15;16;17;18;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;14;15;16;17;18;19;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14;15;16;17;18;19;20;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15;16;17;18;19;20;21;22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;17;18;19;20;21;22;23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17;18;19;20;21;22;23;24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18;19;20;21;22;23;24;25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19;20;21;22;23;24;25;26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;21;22;23;24;25;26;27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;22;23;24;25;26;27;28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;23;24;25;26;27;28;29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23;24;25;26;27;28;29;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24;25;26;27;28;29;30;31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25;26;27;28;29;30;31;32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26;27;28;29;30;31;32;33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27;28;29;30;31;32;33;34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,7 +975,7 @@
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -1003,10 +1003,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -1026,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>27</v>
@@ -1048,7 +1048,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1063,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -1075,10 +1075,10 @@
         <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H10" s="8">
         <v>6</v>
@@ -1242,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -1257,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6">
         <v>34</v>
@@ -1294,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="H13" s="6">
         <v>35</v>
@@ -1320,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="H14" s="6">
         <v>36</v>
@@ -1346,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="H15" s="6">
         <v>37</v>
@@ -1372,10 +1372,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="H16" s="6">
         <v>38</v>
@@ -1398,10 +1398,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
@@ -1413,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8">
         <v>3</v>
@@ -1439,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H18" s="8">
         <v>8</v>
@@ -1450,10 +1450,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="H19" s="8">
         <v>9</v>
@@ -1476,10 +1476,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
@@ -1491,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H20" s="8">
         <v>10</v>
@@ -1502,10 +1502,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
@@ -1517,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="H21" s="8">
         <v>11</v>
@@ -1528,10 +1528,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="H22" s="8">
         <v>12</v>
@@ -1554,10 +1554,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="6">
         <v>4</v>
@@ -1595,7 +1595,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
@@ -1606,10 +1606,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
@@ -1621,7 +1621,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H25" s="6">
         <v>27</v>
@@ -1632,10 +1632,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6">
         <v>4</v>
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H26" s="6">
         <v>28</v>
@@ -1658,10 +1658,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" s="6">
         <v>4</v>
@@ -1673,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="H27" s="6">
         <v>29</v>
@@ -1684,10 +1684,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
@@ -1699,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="H28" s="6">
         <v>30</v>
@@ -1710,10 +1710,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D29" s="6">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         <v>26</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H29" s="6">
         <v>31</v>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H31" s="8">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>29</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H32" s="8">
         <v>3</v>
@@ -1829,7 +1829,7 @@
         <v>30</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H33" s="8">
         <v>4</v>
@@ -1855,7 +1855,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H34" s="8">
         <v>5</v>
@@ -1881,7 +1881,7 @@
         <v>32</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="H35" s="8">
         <v>6</v>
@@ -1892,10 +1892,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D36" s="6">
         <v>6</v>
@@ -1907,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H36" s="6">
         <v>0</v>
@@ -1918,10 +1918,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D37" s="6">
         <v>6</v>
@@ -1933,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H37" s="6">
         <v>26</v>
@@ -1944,10 +1944,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D38" s="6">
         <v>6</v>
@@ -1959,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H38" s="6">
         <v>27</v>
@@ -1970,10 +1970,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D39" s="6">
         <v>6</v>
@@ -1985,7 +1985,7 @@
         <v>36</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H39" s="6">
         <v>28</v>
@@ -1996,10 +1996,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40" s="6">
         <v>6</v>
@@ -2011,7 +2011,7 @@
         <v>37</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H40" s="6">
         <v>29</v>
@@ -2022,10 +2022,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6">
         <v>6</v>
@@ -2037,7 +2037,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H41" s="6">
         <v>30</v>
@@ -2048,10 +2048,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D42" s="6">
         <v>6</v>
@@ -2063,7 +2063,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="H42" s="6">
         <v>31</v>
@@ -2074,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2103,10 +2103,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2132,10 +2132,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D45" s="6">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="171">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -503,6 +503,154 @@
   </si>
   <si>
     <t>27;28;29;30;31;32;33;34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28;29;30;31;32;33;34;35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29;30;31;32;33;34;35;36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;31;32;33;34;35;36;37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31;32;33;34;35;36;37;38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32;33;34;35;36;37;38;39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33;34;35;36;37;38;39;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34;35;36;37;38;39;40;41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35;36;37;38;39;40;41;42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;37;38;39;40;41;42;43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37;38;39;40;41;42;43;44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38;39;40;41;42;43;44;45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39;40;41;42;43;44;45;46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40;41;42;43;44;45;46;47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42;43;44;45;46;47;48;49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41;42;43;44;45;46;47;48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43;44;45;46;47;48;49;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44;45;46;47;48;49;50;51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45;46;47;48;49;50;51;52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46;47;48;49;50;51;52;53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47;48;49;50;51;52;53;54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48;49;50;51;52;53;54;55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49;50;51;52;53;54;55;56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;51;52;53;54;55;56;57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51;52;53;54;55;56;57;58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52;53;54;55;56;57;58;59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53;54;55;56;57;58;59;60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54;55;56;57;58;59;60;61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55;56;57;58;59;60;61;62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56;57;58;59;60;61;62;63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57;58;59;60;61;62;63;64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58;59;60;61;62;63;64;65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59;60;61;62;63;64;65;66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60;61;62;63;64;65;66;67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61;62;63;64;65;66;67;68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62;63;64;65;66;67;68;69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63;64;65;66;67;68;69;70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64;65;66;67;68;69;70;71</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +701,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +775,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>133</v>
@@ -2073,22 +2233,22 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="13">
         <v>0</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="13">
         <v>0</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="13">
         <v>0</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="13">
         <v>0</v>
       </c>
       <c r="H43" s="6">
@@ -2102,22 +2262,22 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="13">
         <v>0</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="13">
         <v>0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="13">
         <v>0</v>
       </c>
       <c r="H44" s="6">
@@ -2131,22 +2291,22 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="13">
         <v>0</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="13">
         <v>0</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="13">
         <v>0</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="13">
         <v>0</v>
       </c>
       <c r="H45" s="6">
@@ -2156,175 +2316,1014 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="6">
+        <v>7</v>
+      </c>
+      <c r="E46" s="14">
+        <v>39</v>
+      </c>
+      <c r="F46" s="6">
+        <v>43</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="6">
+        <v>7</v>
+      </c>
+      <c r="E47" s="14">
+        <v>40</v>
+      </c>
+      <c r="F47" s="6">
+        <v>44</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="6">
+        <v>7</v>
+      </c>
+      <c r="E48" s="14">
+        <v>41</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7</v>
+      </c>
+      <c r="E49" s="14">
+        <v>42</v>
+      </c>
+      <c r="F49" s="6">
+        <v>46</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>46</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="6">
+        <v>7</v>
+      </c>
+      <c r="E50" s="14">
+        <v>43</v>
+      </c>
+      <c r="F50" s="6">
+        <v>47</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>47</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" s="14">
+        <v>44</v>
+      </c>
+      <c r="F51" s="6">
+        <v>48</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="8">
+        <v>8</v>
+      </c>
+      <c r="E52" s="14">
+        <v>45</v>
+      </c>
+      <c r="F52" s="6">
+        <v>49</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="8">
+        <v>8</v>
+      </c>
+      <c r="E53" s="14">
+        <v>46</v>
+      </c>
+      <c r="F53" s="6">
+        <v>50</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="8">
+        <v>8</v>
+      </c>
+      <c r="E54" s="14">
+        <v>47</v>
+      </c>
+      <c r="F54" s="6">
+        <v>51</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="8">
+        <v>8</v>
+      </c>
+      <c r="E55" s="14">
+        <v>48</v>
+      </c>
+      <c r="F55" s="6">
+        <v>52</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="8">
+        <v>8</v>
+      </c>
+      <c r="E56" s="14">
+        <v>49</v>
+      </c>
+      <c r="F56" s="6">
+        <v>53</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="8">
+        <v>8</v>
+      </c>
+      <c r="E57" s="14">
+        <v>50</v>
+      </c>
+      <c r="F57" s="6">
+        <v>54</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="14">
+        <v>9</v>
+      </c>
+      <c r="E58" s="14">
+        <v>51</v>
+      </c>
+      <c r="F58" s="6">
+        <v>55</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>55</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="14">
+        <v>9</v>
+      </c>
+      <c r="E59" s="14">
+        <v>52</v>
+      </c>
+      <c r="F59" s="6">
+        <v>56</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="14">
+        <v>9</v>
+      </c>
+      <c r="E60" s="14">
+        <v>53</v>
+      </c>
+      <c r="F60" s="6">
+        <v>57</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="14">
+        <v>9</v>
+      </c>
+      <c r="E61" s="14">
+        <v>54</v>
+      </c>
+      <c r="F61" s="6">
+        <v>58</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>58</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="14">
+        <v>9</v>
+      </c>
+      <c r="E62" s="14">
+        <v>55</v>
+      </c>
+      <c r="F62" s="6">
+        <v>59</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>59</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="14">
+        <v>9</v>
+      </c>
+      <c r="E63" s="14">
+        <v>56</v>
+      </c>
+      <c r="F63" s="6">
+        <v>60</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>60</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="14">
+        <v>10</v>
+      </c>
+      <c r="E64" s="14">
+        <v>57</v>
+      </c>
+      <c r="F64" s="6">
+        <v>61</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="14">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14">
+        <v>58</v>
+      </c>
+      <c r="F65" s="6">
+        <v>62</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>62</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="14">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14">
+        <v>59</v>
+      </c>
+      <c r="F66" s="6">
+        <v>63</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>63</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="14">
+        <v>10</v>
+      </c>
+      <c r="E67" s="14">
+        <v>60</v>
+      </c>
+      <c r="F67" s="6">
+        <v>64</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>64</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="14">
+        <v>10</v>
+      </c>
+      <c r="E68" s="14">
+        <v>61</v>
+      </c>
+      <c r="F68" s="6">
+        <v>65</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>65</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="14">
+        <v>10</v>
+      </c>
+      <c r="E69" s="14">
+        <v>62</v>
+      </c>
+      <c r="F69" s="6">
+        <v>66</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>66</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="14">
+        <v>11</v>
+      </c>
+      <c r="E70" s="14">
+        <v>63</v>
+      </c>
+      <c r="F70" s="6">
+        <v>67</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>67</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="14">
+        <v>11</v>
+      </c>
+      <c r="E71" s="14">
+        <v>64</v>
+      </c>
+      <c r="F71" s="6">
+        <v>68</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>68</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="14">
+        <v>11</v>
+      </c>
+      <c r="E72" s="14">
+        <v>65</v>
+      </c>
+      <c r="F72" s="6">
+        <v>69</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>69</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="14">
+        <v>11</v>
+      </c>
+      <c r="E73" s="14">
+        <v>66</v>
+      </c>
+      <c r="F73" s="6">
+        <v>70</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>70</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="14">
+        <v>11</v>
+      </c>
+      <c r="E74" s="14">
+        <v>67</v>
+      </c>
+      <c r="F74" s="6">
+        <v>71</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>71</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="14">
+        <v>11</v>
+      </c>
+      <c r="E75" s="14">
+        <v>68</v>
+      </c>
+      <c r="F75" s="6">
+        <v>72</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>72</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="14">
+        <v>12</v>
+      </c>
+      <c r="E76" s="14">
+        <v>69</v>
+      </c>
+      <c r="F76" s="6">
+        <v>73</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>73</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="14">
+        <v>12</v>
+      </c>
+      <c r="E77" s="14">
+        <v>70</v>
+      </c>
+      <c r="F77" s="6">
+        <v>74</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>74</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="14">
+        <v>12</v>
+      </c>
+      <c r="E78" s="14">
+        <v>71</v>
+      </c>
+      <c r="F78" s="6">
+        <v>75</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>75</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="14">
+        <v>12</v>
+      </c>
+      <c r="E79" s="14">
+        <v>72</v>
+      </c>
+      <c r="F79" s="6">
+        <v>76</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>76</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="14">
+        <v>12</v>
+      </c>
+      <c r="E80" s="14">
+        <v>73</v>
+      </c>
+      <c r="F80" s="6">
+        <v>77</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H80" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>77</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="14">
+        <v>12</v>
+      </c>
+      <c r="E81" s="14">
+        <v>74</v>
+      </c>
+      <c r="F81" s="6">
+        <v>78</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H81" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>78</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="14">
+        <v>12</v>
+      </c>
+      <c r="E82" s="14">
+        <v>75</v>
+      </c>
+      <c r="F82" s="6">
+        <v>79</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H82" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:H51"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3269,7 +3269,7 @@
         <v>75</v>
       </c>
       <c r="F82" s="6">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>170</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -10,12 +10,12 @@
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -651,6 +651,30 @@
   </si>
   <si>
     <t>64;65;66;67;68;69;70;71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3278,26 +3302,161 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88"/>
+    <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>123</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="13">
+        <v>0</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>124</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0</v>
+      </c>
+      <c r="F84" s="13">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13">
+        <v>0</v>
+      </c>
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>125</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>223</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0</v>
+      </c>
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0</v>
+      </c>
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>224</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="13">
+        <v>0</v>
+      </c>
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>225</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="13">
+        <v>0</v>
+      </c>
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -3309,77 +3468,87 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92"/>
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="9"/>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="9"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="9"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="9"/>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="9"/>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="9"/>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="9"/>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>夏荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:B88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1168,7 @@
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1192,8 +1196,11 @@
       <c r="I1" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J1" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1243,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1314,10 +1321,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1340,10 +1350,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1473,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1551,7 +1564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>12</v>
       </c>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>夏荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1150,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:K304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D64" sqref="D64:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1172,7 @@
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1203,11 @@
       <c r="J1" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1250,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1297,8 +1304,11 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1326,8 +1336,11 @@
       <c r="J6" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8">
         <v>3</v>
@@ -1355,8 +1368,11 @@
       <c r="J7" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1367,7 +1383,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>4</v>
@@ -1381,8 +1397,11 @@
       <c r="H8" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
         <v>5</v>
@@ -1407,8 +1426,11 @@
       <c r="H9" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="8">
         <v>6</v>
@@ -1433,8 +1455,11 @@
       <c r="H10" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1445,7 +1470,7 @@
         <v>82</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -1459,8 +1484,11 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1471,7 +1499,7 @@
         <v>83</v>
       </c>
       <c r="D12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
         <v>8</v>
@@ -1485,8 +1513,11 @@
       <c r="H12" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1497,7 +1528,7 @@
         <v>84</v>
       </c>
       <c r="D13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
         <v>9</v>
@@ -1511,8 +1542,11 @@
       <c r="H13" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1523,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="D14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
@@ -1537,8 +1571,11 @@
       <c r="H14" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1549,7 +1586,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
@@ -1563,8 +1600,11 @@
       <c r="H15" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1575,7 +1615,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6">
         <v>12</v>
@@ -1588,6 +1628,9 @@
       </c>
       <c r="H16" s="6">
         <v>38</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -1601,7 +1644,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="8">
         <v>13</v>
@@ -1627,7 +1670,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="8">
         <v>14</v>
@@ -1653,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="8">
         <v>15</v>
@@ -1679,7 +1722,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="8">
         <v>16</v>
@@ -1705,7 +1748,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="8">
         <v>17</v>
@@ -1731,7 +1774,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="8">
         <v>18</v>
@@ -1757,7 +1800,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
         <v>19</v>
@@ -1783,7 +1826,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6">
         <v>20</v>
@@ -1809,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
         <v>21</v>
@@ -1835,7 +1878,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
         <v>22</v>
@@ -1861,7 +1904,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <v>23</v>
@@ -1887,7 +1930,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>24</v>
@@ -1913,7 +1956,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6">
         <v>25</v>
@@ -1939,7 +1982,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="8">
         <v>26</v>
@@ -1965,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="8">
         <v>27</v>
@@ -1991,7 +2034,7 @@
         <v>38</v>
       </c>
       <c r="D32" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="8">
         <v>28</v>
@@ -2017,7 +2060,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="8">
         <v>29</v>
@@ -2043,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="8">
         <v>30</v>
@@ -2069,7 +2112,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="8">
         <v>31</v>
@@ -2095,7 +2138,7 @@
         <v>65</v>
       </c>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" s="6">
         <v>32</v>
@@ -2121,7 +2164,7 @@
         <v>66</v>
       </c>
       <c r="D37" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" s="6">
         <v>33</v>
@@ -2147,7 +2190,7 @@
         <v>67</v>
       </c>
       <c r="D38" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="6">
         <v>34</v>
@@ -2173,7 +2216,7 @@
         <v>68</v>
       </c>
       <c r="D39" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" s="6">
         <v>35</v>
@@ -2199,7 +2242,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" s="6">
         <v>36</v>
@@ -2225,7 +2268,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
         <v>37</v>
@@ -2251,7 +2294,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6">
         <v>38</v>
@@ -2364,7 +2407,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" s="14">
         <v>39</v>
@@ -2390,7 +2433,7 @@
         <v>83</v>
       </c>
       <c r="D47" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="14">
         <v>40</v>
@@ -2416,7 +2459,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" s="14">
         <v>41</v>
@@ -2442,7 +2485,7 @@
         <v>85</v>
       </c>
       <c r="D49" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" s="14">
         <v>42</v>
@@ -2468,7 +2511,7 @@
         <v>86</v>
       </c>
       <c r="D50" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="14">
         <v>43</v>
@@ -2494,7 +2537,7 @@
         <v>87</v>
       </c>
       <c r="D51" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" s="14">
         <v>44</v>
@@ -2520,7 +2563,7 @@
         <v>59</v>
       </c>
       <c r="D52" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="14">
         <v>45</v>
@@ -2546,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="D53" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="14">
         <v>46</v>
@@ -2572,7 +2615,7 @@
         <v>61</v>
       </c>
       <c r="D54" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="14">
         <v>47</v>
@@ -2598,7 +2641,7 @@
         <v>62</v>
       </c>
       <c r="D55" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="14">
         <v>48</v>
@@ -2624,7 +2667,7 @@
         <v>63</v>
       </c>
       <c r="D56" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="14">
         <v>49</v>
@@ -2650,7 +2693,7 @@
         <v>64</v>
       </c>
       <c r="D57" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" s="14">
         <v>50</v>
@@ -2676,7 +2719,7 @@
         <v>36</v>
       </c>
       <c r="D58" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="14">
         <v>51</v>
@@ -2702,7 +2745,7 @@
         <v>37</v>
       </c>
       <c r="D59" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" s="14">
         <v>52</v>
@@ -2728,7 +2771,7 @@
         <v>38</v>
       </c>
       <c r="D60" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" s="14">
         <v>53</v>
@@ -2754,7 +2797,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" s="14">
         <v>54</v>
@@ -2780,7 +2823,7 @@
         <v>40</v>
       </c>
       <c r="D62" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="14">
         <v>55</v>
@@ -2806,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="D63" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="14">
         <v>56</v>
@@ -2832,7 +2875,7 @@
         <v>82</v>
       </c>
       <c r="D64" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" s="14">
         <v>57</v>
@@ -2858,7 +2901,7 @@
         <v>83</v>
       </c>
       <c r="D65" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" s="14">
         <v>58</v>
@@ -2884,7 +2927,7 @@
         <v>84</v>
       </c>
       <c r="D66" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" s="14">
         <v>59</v>
@@ -2910,7 +2953,7 @@
         <v>85</v>
       </c>
       <c r="D67" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" s="14">
         <v>60</v>
@@ -2936,7 +2979,7 @@
         <v>86</v>
       </c>
       <c r="D68" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" s="14">
         <v>61</v>
@@ -2962,7 +3005,7 @@
         <v>87</v>
       </c>
       <c r="D69" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="14">
         <v>62</v>
@@ -2988,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="D70" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="14">
         <v>63</v>
@@ -3014,7 +3057,7 @@
         <v>60</v>
       </c>
       <c r="D71" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="14">
         <v>64</v>
@@ -3040,7 +3083,7 @@
         <v>61</v>
       </c>
       <c r="D72" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" s="14">
         <v>65</v>
@@ -3066,7 +3109,7 @@
         <v>62</v>
       </c>
       <c r="D73" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" s="14">
         <v>66</v>
@@ -3092,7 +3135,7 @@
         <v>63</v>
       </c>
       <c r="D74" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="14">
         <v>67</v>
@@ -3118,7 +3161,7 @@
         <v>64</v>
       </c>
       <c r="D75" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="14">
         <v>68</v>
@@ -3144,7 +3187,7 @@
         <v>65</v>
       </c>
       <c r="D76" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" s="14">
         <v>69</v>
@@ -3170,7 +3213,7 @@
         <v>66</v>
       </c>
       <c r="D77" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="14">
         <v>70</v>
@@ -3196,7 +3239,7 @@
         <v>67</v>
       </c>
       <c r="D78" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" s="14">
         <v>71</v>
@@ -3222,7 +3265,7 @@
         <v>68</v>
       </c>
       <c r="D79" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="14">
         <v>72</v>
@@ -3248,7 +3291,7 @@
         <v>69</v>
       </c>
       <c r="D80" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="14">
         <v>73</v>
@@ -3274,7 +3317,7 @@
         <v>70</v>
       </c>
       <c r="D81" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" s="14">
         <v>74</v>
@@ -3300,7 +3343,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" s="14">
         <v>75</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富察容音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牡丹图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,38 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乾隆的结发妻子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高宁馨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉发那拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾隆的第二任皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为人嚣张跋扈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1;2;3;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,30 +615,6 @@
   </si>
   <si>
     <t>64;65;66;67;68;69;70;71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芳草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,7 +673,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,12 +689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1154,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K304"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D69"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -1198,13 +1129,13 @@
         <v>73</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
@@ -1246,7 +1177,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1261,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -1276,7 +1207,7 @@
         <v>74</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
@@ -1450,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="8">
         <v>6</v>
@@ -1464,10 +1395,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -1475,11 +1406,11 @@
       <c r="E11" s="6">
         <v>7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1493,10 +1424,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -1504,11 +1435,11 @@
       <c r="E12" s="6">
         <v>8</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H12" s="6">
         <v>34</v>
@@ -1522,10 +1453,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
@@ -1533,11 +1464,11 @@
       <c r="E13" s="6">
         <v>9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13" s="6">
         <v>35</v>
@@ -1551,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -1562,11 +1493,11 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H14" s="6">
         <v>36</v>
@@ -1580,10 +1511,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
@@ -1591,11 +1522,11 @@
       <c r="E15" s="6">
         <v>11</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6">
         <v>37</v>
@@ -1609,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -1620,11 +1551,11 @@
       <c r="E16" s="6">
         <v>12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6">
         <v>38</v>
@@ -1653,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -1679,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H18" s="8">
         <v>8</v>
@@ -1705,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H19" s="8">
         <v>9</v>
@@ -1731,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H20" s="8">
         <v>10</v>
@@ -1757,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H21" s="8">
         <v>11</v>
@@ -1783,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H22" s="8">
         <v>12</v>
@@ -1805,11 +1736,11 @@
       <c r="E23" s="6">
         <v>19</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -1831,11 +1762,11 @@
       <c r="E24" s="6">
         <v>20</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
@@ -1857,11 +1788,11 @@
       <c r="E25" s="6">
         <v>21</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="8">
         <v>22</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H25" s="6">
         <v>27</v>
@@ -1883,11 +1814,11 @@
       <c r="E26" s="6">
         <v>22</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="8">
         <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H26" s="6">
         <v>28</v>
@@ -1909,11 +1840,11 @@
       <c r="E27" s="6">
         <v>23</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H27" s="6">
         <v>29</v>
@@ -1935,11 +1866,11 @@
       <c r="E28" s="6">
         <v>24</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>25</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H28" s="6">
         <v>30</v>
@@ -1961,11 +1892,11 @@
       <c r="E29" s="6">
         <v>25</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="8">
         <v>26</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H29" s="6">
         <v>31</v>
@@ -1991,7 +1922,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
@@ -2017,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H31" s="8">
         <v>2</v>
@@ -2043,13 +1974,13 @@
         <v>29</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H32" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -2069,13 +2000,13 @@
         <v>30</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H33" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -2095,13 +2026,13 @@
         <v>31</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H34" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -2121,13 +2052,13 @@
         <v>32</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H35" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -2143,17 +2074,17 @@
       <c r="E36" s="6">
         <v>32</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="8">
         <v>33</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H36" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -2169,17 +2100,17 @@
       <c r="E37" s="6">
         <v>33</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="8">
         <v>34</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H37" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -2195,17 +2126,17 @@
       <c r="E38" s="6">
         <v>34</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="8">
         <v>35</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H38" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -2221,17 +2152,17 @@
       <c r="E39" s="6">
         <v>35</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="8">
         <v>36</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H39" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -2247,17 +2178,17 @@
       <c r="E40" s="6">
         <v>36</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="8">
         <v>37</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H40" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -2273,17 +2204,17 @@
       <c r="E41" s="6">
         <v>37</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="8">
         <v>38</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H41" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -2299,257 +2230,248 @@
       <c r="E42" s="6">
         <v>38</v>
       </c>
-      <c r="F42" s="6">
-        <v>42</v>
+      <c r="F42" s="8">
+        <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H42" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0</v>
+      <c r="C43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8</v>
       </c>
       <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F43" s="8">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="13">
-        <v>0</v>
+      <c r="B44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8</v>
       </c>
       <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F44" s="8">
+        <v>41</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0</v>
+      <c r="B45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="6">
+        <v>8</v>
       </c>
       <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F45" s="8">
+        <v>42</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="14">
-        <v>39</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46" s="13">
+        <v>42</v>
+      </c>
+      <c r="F46" s="8">
         <v>43</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" s="6">
         <v>8</v>
       </c>
-      <c r="E47" s="14">
-        <v>40</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47" s="13">
+        <v>43</v>
+      </c>
+      <c r="F47" s="8">
         <v>44</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H47" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="E48" s="14">
-        <v>41</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48" s="13">
+        <v>44</v>
+      </c>
+      <c r="F48" s="8">
         <v>45</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H48" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="6">
-        <v>8</v>
-      </c>
-      <c r="E49" s="14">
-        <v>42</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="B49" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="C49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="8">
+        <v>9</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45</v>
+      </c>
+      <c r="F49" s="8">
+        <v>46</v>
+      </c>
       <c r="G49" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="6">
-        <v>36</v>
+        <v>131</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="8">
+        <v>9</v>
+      </c>
+      <c r="E50" s="13">
+        <v>46</v>
+      </c>
+      <c r="F50" s="8">
+        <v>47</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="8">
         <v>8</v>
-      </c>
-      <c r="E50" s="14">
-        <v>43</v>
-      </c>
-      <c r="F50" s="6">
-        <v>47</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="6">
-        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="6">
-        <v>8</v>
-      </c>
-      <c r="E51" s="14">
-        <v>44</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="8">
+        <v>9</v>
+      </c>
+      <c r="E51" s="13">
+        <v>47</v>
+      </c>
+      <c r="F51" s="8">
+        <v>48</v>
+      </c>
       <c r="G51" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="6">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="H51" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2557,51 +2479,51 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="14">
-        <v>45</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="E52" s="13">
+        <v>48</v>
+      </c>
+      <c r="F52" s="8">
         <v>49</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H52" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>47</v>
+      <c r="B53" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D53" s="8">
         <v>9</v>
       </c>
-      <c r="E53" s="14">
-        <v>46</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="E53" s="13">
+        <v>49</v>
+      </c>
+      <c r="F53" s="8">
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H53" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2609,25 +2531,25 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D54" s="8">
         <v>9</v>
       </c>
-      <c r="E54" s="14">
-        <v>47</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="13">
+        <v>50</v>
+      </c>
+      <c r="F54" s="8">
         <v>51</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H54" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2635,51 +2557,51 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="8">
-        <v>9</v>
-      </c>
-      <c r="E55" s="14">
-        <v>48</v>
-      </c>
-      <c r="F55" s="6">
+        <v>36</v>
+      </c>
+      <c r="D55" s="13">
+        <v>10</v>
+      </c>
+      <c r="E55" s="13">
+        <v>51</v>
+      </c>
+      <c r="F55" s="8">
         <v>52</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H55" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>50</v>
+      <c r="B56" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="8">
-        <v>9</v>
-      </c>
-      <c r="E56" s="14">
-        <v>49</v>
-      </c>
-      <c r="F56" s="6">
+        <v>37</v>
+      </c>
+      <c r="D56" s="13">
+        <v>10</v>
+      </c>
+      <c r="E56" s="13">
+        <v>52</v>
+      </c>
+      <c r="F56" s="8">
         <v>53</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H56" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2687,25 +2609,25 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="8">
-        <v>9</v>
-      </c>
-      <c r="E57" s="14">
-        <v>50</v>
-      </c>
-      <c r="F57" s="6">
+        <v>38</v>
+      </c>
+      <c r="D57" s="13">
+        <v>10</v>
+      </c>
+      <c r="E57" s="13">
+        <v>53</v>
+      </c>
+      <c r="F57" s="8">
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H57" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2713,25 +2635,25 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="14">
+        <v>39</v>
+      </c>
+      <c r="D58" s="13">
         <v>10</v>
       </c>
-      <c r="E58" s="14">
-        <v>51</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E58" s="13">
+        <v>54</v>
+      </c>
+      <c r="F58" s="8">
         <v>55</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H58" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2739,25 +2661,25 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="14">
+        <v>40</v>
+      </c>
+      <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="14">
-        <v>52</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="E59" s="13">
+        <v>55</v>
+      </c>
+      <c r="F59" s="8">
         <v>56</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H59" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2765,103 +2687,103 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="14">
+        <v>41</v>
+      </c>
+      <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="14">
-        <v>53</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="E60" s="13">
+        <v>56</v>
+      </c>
+      <c r="F60" s="8">
         <v>57</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H60" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="14">
-        <v>10</v>
-      </c>
-      <c r="E61" s="14">
-        <v>54</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="B61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="13">
+        <v>11</v>
+      </c>
+      <c r="E61" s="13">
+        <v>57</v>
+      </c>
+      <c r="F61" s="8">
         <v>58</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" s="8">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="14">
-        <v>10</v>
-      </c>
-      <c r="E62" s="14">
-        <v>55</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="B62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="13">
+        <v>11</v>
+      </c>
+      <c r="E62" s="13">
+        <v>58</v>
+      </c>
+      <c r="F62" s="8">
         <v>59</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" s="8">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="H62" s="6">
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="14">
-        <v>10</v>
-      </c>
-      <c r="E63" s="14">
-        <v>56</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="B63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="13">
+        <v>11</v>
+      </c>
+      <c r="E63" s="13">
+        <v>59</v>
+      </c>
+      <c r="F63" s="8">
         <v>60</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="8">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="H63" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2869,25 +2791,25 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="14">
+        <v>84</v>
+      </c>
+      <c r="D64" s="13">
         <v>11</v>
       </c>
-      <c r="E64" s="14">
-        <v>57</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="E64" s="13">
+        <v>60</v>
+      </c>
+      <c r="F64" s="8">
         <v>61</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H64" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2895,25 +2817,25 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="14">
+        <v>85</v>
+      </c>
+      <c r="D65" s="13">
         <v>11</v>
       </c>
-      <c r="E65" s="14">
-        <v>58</v>
-      </c>
-      <c r="F65" s="6">
+      <c r="E65" s="13">
+        <v>61</v>
+      </c>
+      <c r="F65" s="8">
         <v>62</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H65" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -2921,103 +2843,103 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="14">
+        <v>86</v>
+      </c>
+      <c r="D66" s="13">
         <v>11</v>
       </c>
-      <c r="E66" s="14">
-        <v>59</v>
-      </c>
-      <c r="F66" s="6">
+      <c r="E66" s="13">
+        <v>62</v>
+      </c>
+      <c r="F66" s="8">
         <v>63</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H66" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>63</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="14">
-        <v>11</v>
-      </c>
-      <c r="E67" s="14">
-        <v>60</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="B67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="13">
+        <v>12</v>
+      </c>
+      <c r="E67" s="13">
+        <v>63</v>
+      </c>
+      <c r="F67" s="8">
         <v>64</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H67" s="6">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>64</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="14">
-        <v>11</v>
-      </c>
-      <c r="E68" s="14">
-        <v>61</v>
-      </c>
-      <c r="F68" s="6">
+      <c r="B68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="13">
+        <v>12</v>
+      </c>
+      <c r="E68" s="13">
+        <v>64</v>
+      </c>
+      <c r="F68" s="8">
         <v>65</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H68" s="6">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="H68" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>65</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="14">
-        <v>11</v>
-      </c>
-      <c r="E69" s="14">
-        <v>62</v>
-      </c>
-      <c r="F69" s="6">
+      <c r="B69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="13">
+        <v>12</v>
+      </c>
+      <c r="E69" s="13">
+        <v>65</v>
+      </c>
+      <c r="F69" s="8">
         <v>66</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69" s="6">
-        <v>38</v>
+        <v>151</v>
+      </c>
+      <c r="H69" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3025,51 +2947,51 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="14">
+        <v>62</v>
+      </c>
+      <c r="D70" s="13">
         <v>12</v>
       </c>
-      <c r="E70" s="14">
-        <v>63</v>
-      </c>
-      <c r="F70" s="6">
+      <c r="E70" s="13">
+        <v>66</v>
+      </c>
+      <c r="F70" s="8">
         <v>67</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H70" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>67</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>47</v>
+      <c r="B71" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="14">
+        <v>63</v>
+      </c>
+      <c r="D71" s="13">
         <v>12</v>
       </c>
-      <c r="E71" s="14">
-        <v>64</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="E71" s="13">
+        <v>67</v>
+      </c>
+      <c r="F71" s="8">
         <v>68</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H71" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3077,103 +2999,103 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="14">
+        <v>64</v>
+      </c>
+      <c r="D72" s="13">
         <v>12</v>
       </c>
-      <c r="E72" s="14">
-        <v>65</v>
-      </c>
-      <c r="F72" s="6">
+      <c r="E72" s="13">
+        <v>68</v>
+      </c>
+      <c r="F72" s="8">
         <v>69</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H72" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>69</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="14">
-        <v>12</v>
-      </c>
-      <c r="E73" s="14">
-        <v>66</v>
-      </c>
-      <c r="F73" s="6">
+      <c r="B73" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="13">
+        <v>13</v>
+      </c>
+      <c r="E73" s="13">
+        <v>69</v>
+      </c>
+      <c r="F73" s="8">
         <v>70</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" s="8">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>70</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="14">
-        <v>12</v>
-      </c>
-      <c r="E74" s="14">
-        <v>67</v>
-      </c>
-      <c r="F74" s="6">
+      <c r="B74" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="13">
+        <v>13</v>
+      </c>
+      <c r="E74" s="13">
+        <v>70</v>
+      </c>
+      <c r="F74" s="8">
         <v>71</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H74" s="8">
-        <v>11</v>
+        <v>156</v>
+      </c>
+      <c r="H74" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>71</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="14">
-        <v>12</v>
-      </c>
-      <c r="E75" s="14">
-        <v>68</v>
-      </c>
-      <c r="F75" s="6">
+      <c r="B75" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="13">
+        <v>13</v>
+      </c>
+      <c r="E75" s="13">
+        <v>71</v>
+      </c>
+      <c r="F75" s="8">
         <v>72</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="8">
-        <v>12</v>
+        <v>157</v>
+      </c>
+      <c r="H75" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3181,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="14">
+        <v>68</v>
+      </c>
+      <c r="D76" s="13">
         <v>13</v>
       </c>
-      <c r="E76" s="14">
-        <v>69</v>
-      </c>
-      <c r="F76" s="6">
+      <c r="E76" s="13">
+        <v>72</v>
+      </c>
+      <c r="F76" s="8">
         <v>73</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H76" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3207,25 +3129,25 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="14">
+        <v>69</v>
+      </c>
+      <c r="D77" s="13">
         <v>13</v>
       </c>
-      <c r="E77" s="14">
-        <v>70</v>
-      </c>
-      <c r="F77" s="6">
+      <c r="E77" s="13">
+        <v>73</v>
+      </c>
+      <c r="F77" s="8">
         <v>74</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H77" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3233,25 +3155,25 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="14">
+        <v>70</v>
+      </c>
+      <c r="D78" s="13">
         <v>13</v>
       </c>
-      <c r="E78" s="14">
-        <v>71</v>
-      </c>
-      <c r="F78" s="6">
+      <c r="E78" s="13">
+        <v>74</v>
+      </c>
+      <c r="F78" s="8">
         <v>75</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H78" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3259,352 +3181,150 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="14">
+        <v>71</v>
+      </c>
+      <c r="D79" s="13">
         <v>13</v>
       </c>
-      <c r="E79" s="14">
-        <v>72</v>
+      <c r="E79" s="13">
+        <v>75</v>
       </c>
       <c r="F79" s="6">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H79" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>76</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="14">
-        <v>13</v>
-      </c>
-      <c r="E80" s="14">
-        <v>73</v>
-      </c>
-      <c r="F80" s="6">
-        <v>77</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H80" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>77</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="14">
-        <v>13</v>
-      </c>
-      <c r="E81" s="14">
-        <v>74</v>
-      </c>
-      <c r="F81" s="6">
-        <v>78</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
-        <v>78</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="14">
-        <v>13</v>
-      </c>
-      <c r="E82" s="14">
-        <v>75</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H82" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>123</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="13">
-        <v>0</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13">
-        <v>0</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>124</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="13">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13">
-        <v>0</v>
-      </c>
-      <c r="G84" s="13">
-        <v>0</v>
-      </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>125</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="13">
-        <v>0</v>
-      </c>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13">
-        <v>0</v>
-      </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
-        <v>223</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="13">
-        <v>0</v>
-      </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13">
-        <v>0</v>
-      </c>
-      <c r="H86" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>224</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="13">
-        <v>0</v>
-      </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0</v>
-      </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>225</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="13">
-        <v>0</v>
-      </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
-        <v>0</v>
-      </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
@@ -4244,41 +3964,6 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296"/>
-      <c r="B296"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298"/>
-      <c r="B298"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300"/>
-      <c r="B300"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302"/>
-      <c r="B302"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304"/>
-      <c r="B304"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -623,6 +623,22 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,6 +646,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -710,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +764,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1097,13 +1135,15 @@
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
     <col min="7" max="7" width="19.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1131,14 +1171,17 @@
       <c r="I1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="14" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>72</v>
@@ -1166,8 +1209,9 @@
       <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1225,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1209,8 +1253,17 @@
       <c r="I4" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1223,7 +1276,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="8">
@@ -1235,11 +1288,18 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="J5" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16">
+        <f>ROUNDUP(J5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1252,7 +1312,7 @@
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="17">
         <v>2</v>
       </c>
       <c r="F6" s="8">
@@ -1264,14 +1324,19 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J6" s="15">
+        <f>J5*K5</f>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" ref="L6:L69" si="0">ROUNDUP(J6,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1284,8 +1349,8 @@
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
-        <v>3</v>
+      <c r="E7" s="17">
+        <v>4</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1296,14 +1361,19 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J7" s="15">
+        <f>J6*K6</f>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1316,8 +1386,8 @@
       <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
-        <v>4</v>
+      <c r="E8" s="17">
+        <v>8</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1328,11 +1398,19 @@
       <c r="H8" s="8">
         <v>4</v>
       </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J8" s="15">
+        <f t="shared" ref="J8:L14" si="1">J7*K7</f>
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1345,8 +1423,8 @@
       <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
-        <v>5</v>
+      <c r="E9" s="17">
+        <v>16</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1357,11 +1435,19 @@
       <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1374,8 +1460,8 @@
       <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
-        <v>6</v>
+      <c r="E10" s="17">
+        <v>32</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1386,11 +1472,19 @@
       <c r="H10" s="8">
         <v>6</v>
       </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1403,8 +1497,8 @@
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>7</v>
+      <c r="E11" s="18">
+        <v>64</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1415,11 +1509,19 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1432,8 +1534,8 @@
       <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <v>8</v>
+      <c r="E12" s="18">
+        <v>128</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1444,11 +1546,19 @@
       <c r="H12" s="6">
         <v>34</v>
       </c>
-      <c r="K12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1461,8 +1571,8 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>9</v>
+      <c r="E13" s="18">
+        <v>256</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1473,11 +1583,19 @@
       <c r="H13" s="6">
         <v>35</v>
       </c>
-      <c r="K13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1490,8 +1608,8 @@
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <v>10</v>
+      <c r="E14" s="18">
+        <v>512</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -1502,11 +1620,19 @@
       <c r="H14" s="6">
         <v>36</v>
       </c>
-      <c r="K14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1519,8 +1645,8 @@
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
-        <v>11</v>
+      <c r="E15" s="18">
+        <v>1024</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -1531,11 +1657,19 @@
       <c r="H15" s="6">
         <v>37</v>
       </c>
+      <c r="J15" s="15">
+        <f>J14*K14</f>
+        <v>1024</v>
+      </c>
       <c r="K15" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L15" s="16">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1548,8 +1682,8 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="6">
-        <v>12</v>
+      <c r="E16" s="18">
+        <v>2048</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -1560,11 +1694,19 @@
       <c r="H16" s="6">
         <v>38</v>
       </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J16" s="15">
+        <f>J15*K15</f>
+        <v>2048</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -1577,8 +1719,8 @@
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
-        <v>13</v>
+      <c r="E17" s="17">
+        <v>4096</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -1589,8 +1731,19 @@
       <c r="H17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J17" s="15">
+        <f>J16*K16</f>
+        <v>4096</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -1603,8 +1756,8 @@
       <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="8">
-        <v>14</v>
+      <c r="E18" s="17">
+        <v>8192</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -1615,8 +1768,19 @@
       <c r="H18" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J18" s="15">
+        <f>J17*K17</f>
+        <v>8192</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -1629,8 +1793,8 @@
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
-        <v>15</v>
+      <c r="E19" s="17">
+        <v>16384</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -1641,8 +1805,19 @@
       <c r="H19" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J19" s="15">
+        <f>J18*K18</f>
+        <v>16384</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -1655,8 +1830,8 @@
       <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="8">
-        <v>16</v>
+      <c r="E20" s="17">
+        <v>32768</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -1667,8 +1842,19 @@
       <c r="H20" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J20" s="15">
+        <f>J19*K19</f>
+        <v>32768</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -1681,8 +1867,8 @@
       <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
-        <v>17</v>
+      <c r="E21" s="17">
+        <v>65536</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -1693,8 +1879,19 @@
       <c r="H21" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J21" s="15">
+        <f>J20*K20</f>
+        <v>65536</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -1707,8 +1904,8 @@
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
-        <v>18</v>
+      <c r="E22" s="17">
+        <v>131072</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -1719,8 +1916,19 @@
       <c r="H22" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J22" s="15">
+        <f>J21*K21</f>
+        <v>131072</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -1733,8 +1941,8 @@
       <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="6">
-        <v>19</v>
+      <c r="E23" s="18">
+        <v>262144</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -1745,8 +1953,19 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J23" s="15">
+        <f t="shared" ref="J23:L79" si="2">J22*K22</f>
+        <v>262144</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -1759,8 +1978,8 @@
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="6">
-        <v>20</v>
+      <c r="E24" s="18">
+        <v>524288</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -1771,8 +1990,19 @@
       <c r="H24" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J24" s="15">
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -1785,8 +2015,8 @@
       <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="6">
-        <v>21</v>
+      <c r="E25" s="18">
+        <v>1048576</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -1797,8 +2027,19 @@
       <c r="H25" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J25" s="15">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -1811,8 +2052,8 @@
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="6">
-        <v>22</v>
+      <c r="E26" s="18">
+        <v>2097152</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -1823,8 +2064,19 @@
       <c r="H26" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J26" s="15">
+        <f t="shared" si="2"/>
+        <v>2097152</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -1837,8 +2089,8 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
-        <v>23</v>
+      <c r="E27" s="18">
+        <v>4194304</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -1849,8 +2101,19 @@
       <c r="H27" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J27" s="15">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -1863,8 +2126,8 @@
       <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="6">
-        <v>24</v>
+      <c r="E28" s="18">
+        <v>8388608</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -1875,8 +2138,19 @@
       <c r="H28" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J28" s="15">
+        <f t="shared" si="2"/>
+        <v>8388608</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -1889,8 +2163,8 @@
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
-        <v>25</v>
+      <c r="E29" s="18">
+        <v>16777216</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -1901,8 +2175,19 @@
       <c r="H29" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J29" s="15">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -1915,8 +2200,8 @@
       <c r="D30" s="8">
         <v>6</v>
       </c>
-      <c r="E30" s="8">
-        <v>26</v>
+      <c r="E30" s="17">
+        <v>33554432</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -1927,8 +2212,19 @@
       <c r="H30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J30" s="15">
+        <f t="shared" si="2"/>
+        <v>33554432</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -1941,8 +2237,8 @@
       <c r="D31" s="8">
         <v>6</v>
       </c>
-      <c r="E31" s="8">
-        <v>27</v>
+      <c r="E31" s="17">
+        <v>67108864</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -1953,8 +2249,19 @@
       <c r="H31" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J31" s="15">
+        <f t="shared" si="2"/>
+        <v>67108864</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -1967,8 +2274,8 @@
       <c r="D32" s="8">
         <v>6</v>
       </c>
-      <c r="E32" s="8">
-        <v>28</v>
+      <c r="E32" s="17">
+        <v>134217728</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -1979,8 +2286,19 @@
       <c r="H32" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J32" s="15">
+        <f t="shared" si="2"/>
+        <v>134217728</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -1993,8 +2311,8 @@
       <c r="D33" s="8">
         <v>6</v>
       </c>
-      <c r="E33" s="8">
-        <v>29</v>
+      <c r="E33" s="17">
+        <v>268435456</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2005,8 +2323,19 @@
       <c r="H33" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J33" s="15">
+        <f t="shared" si="2"/>
+        <v>268435456</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -2019,8 +2348,8 @@
       <c r="D34" s="8">
         <v>6</v>
       </c>
-      <c r="E34" s="8">
-        <v>30</v>
+      <c r="E34" s="17">
+        <v>536870912</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2031,8 +2360,19 @@
       <c r="H34" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J34" s="15">
+        <f t="shared" si="2"/>
+        <v>536870912</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -2045,8 +2385,8 @@
       <c r="D35" s="8">
         <v>6</v>
       </c>
-      <c r="E35" s="8">
-        <v>31</v>
+      <c r="E35" s="17">
+        <v>1073741824</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2057,8 +2397,19 @@
       <c r="H35" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J35" s="15">
+        <f t="shared" si="2"/>
+        <v>1073741824</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -2071,8 +2422,8 @@
       <c r="D36" s="6">
         <v>7</v>
       </c>
-      <c r="E36" s="6">
-        <v>32</v>
+      <c r="E36" s="18">
+        <v>2147483648</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2083,8 +2434,19 @@
       <c r="H36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J36" s="15">
+        <f t="shared" si="2"/>
+        <v>2147483648</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="0"/>
+        <v>2147483648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -2097,8 +2459,8 @@
       <c r="D37" s="6">
         <v>7</v>
       </c>
-      <c r="E37" s="6">
-        <v>33</v>
+      <c r="E37" s="18">
+        <v>4294967296</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2109,8 +2471,19 @@
       <c r="H37" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J37" s="15">
+        <f t="shared" si="2"/>
+        <v>4294967296</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="0"/>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -2123,8 +2496,8 @@
       <c r="D38" s="6">
         <v>7</v>
       </c>
-      <c r="E38" s="6">
-        <v>34</v>
+      <c r="E38" s="18">
+        <v>8589934592</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2135,8 +2508,19 @@
       <c r="H38" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J38" s="15">
+        <f t="shared" si="2"/>
+        <v>8589934592</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="0"/>
+        <v>8589934592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -2149,8 +2533,8 @@
       <c r="D39" s="6">
         <v>7</v>
       </c>
-      <c r="E39" s="6">
-        <v>35</v>
+      <c r="E39" s="18">
+        <v>17179869184</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2161,8 +2545,19 @@
       <c r="H39" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J39" s="15">
+        <f t="shared" si="2"/>
+        <v>17179869184</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="0"/>
+        <v>17179869184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -2175,8 +2570,8 @@
       <c r="D40" s="6">
         <v>7</v>
       </c>
-      <c r="E40" s="6">
-        <v>36</v>
+      <c r="E40" s="18">
+        <v>34359738368</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2187,8 +2582,19 @@
       <c r="H40" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J40" s="15">
+        <f t="shared" si="2"/>
+        <v>34359738368</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -2201,8 +2607,8 @@
       <c r="D41" s="6">
         <v>7</v>
       </c>
-      <c r="E41" s="6">
-        <v>37</v>
+      <c r="E41" s="18">
+        <v>68719476736</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -2213,8 +2619,19 @@
       <c r="H41" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J41" s="15">
+        <f t="shared" si="2"/>
+        <v>68719476736</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="16">
+        <f t="shared" si="0"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -2227,8 +2644,8 @@
       <c r="D42" s="6">
         <v>7</v>
       </c>
-      <c r="E42" s="6">
-        <v>38</v>
+      <c r="E42" s="18">
+        <v>137438953472</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -2239,8 +2656,19 @@
       <c r="H42" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J42" s="15">
+        <f t="shared" si="2"/>
+        <v>137438953472</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="0"/>
+        <v>137438953472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -2253,8 +2681,8 @@
       <c r="D43" s="6">
         <v>8</v>
       </c>
-      <c r="E43" s="13">
-        <v>39</v>
+      <c r="E43" s="19">
+        <v>274877906944</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -2265,8 +2693,19 @@
       <c r="H43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J43" s="15">
+        <f t="shared" si="2"/>
+        <v>274877906944</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="0"/>
+        <v>274877906944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -2279,8 +2718,8 @@
       <c r="D44" s="6">
         <v>8</v>
       </c>
-      <c r="E44" s="13">
-        <v>40</v>
+      <c r="E44" s="19">
+        <v>549755813888</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -2291,8 +2730,19 @@
       <c r="H44" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J44" s="15">
+        <f t="shared" si="2"/>
+        <v>549755813888</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="0"/>
+        <v>549755813888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>41</v>
       </c>
@@ -2305,8 +2755,8 @@
       <c r="D45" s="6">
         <v>8</v>
       </c>
-      <c r="E45" s="13">
-        <v>41</v>
+      <c r="E45" s="19">
+        <v>1099511627776</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -2317,8 +2767,19 @@
       <c r="H45" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J45" s="15">
+        <f t="shared" si="2"/>
+        <v>1099511627776</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42</v>
       </c>
@@ -2331,8 +2792,8 @@
       <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="13">
-        <v>42</v>
+      <c r="E46" s="19">
+        <v>2199023255552</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -2343,8 +2804,19 @@
       <c r="H46" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J46" s="15">
+        <f t="shared" si="2"/>
+        <v>2199023255552</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="0"/>
+        <v>2199023255552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -2357,8 +2829,8 @@
       <c r="D47" s="6">
         <v>8</v>
       </c>
-      <c r="E47" s="13">
-        <v>43</v>
+      <c r="E47" s="19">
+        <v>4398046511104</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -2369,8 +2841,19 @@
       <c r="H47" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J47" s="15">
+        <f t="shared" si="2"/>
+        <v>4398046511104</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="16">
+        <f t="shared" si="0"/>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>44</v>
       </c>
@@ -2383,8 +2866,8 @@
       <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="E48" s="13">
-        <v>44</v>
+      <c r="E48" s="19">
+        <v>8796093022208</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -2395,8 +2878,19 @@
       <c r="H48" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J48" s="15">
+        <f t="shared" si="2"/>
+        <v>8796093022208</v>
+      </c>
+      <c r="K48" s="6">
+        <v>2</v>
+      </c>
+      <c r="L48" s="16">
+        <f t="shared" si="0"/>
+        <v>8796093022208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45</v>
       </c>
@@ -2409,8 +2903,8 @@
       <c r="D49" s="8">
         <v>9</v>
       </c>
-      <c r="E49" s="13">
-        <v>45</v>
+      <c r="E49" s="19">
+        <v>17592186044416</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -2421,8 +2915,19 @@
       <c r="H49" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J49" s="15">
+        <f t="shared" si="2"/>
+        <v>17592186044416</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" s="16">
+        <f t="shared" si="0"/>
+        <v>17592186044416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>46</v>
       </c>
@@ -2435,8 +2940,8 @@
       <c r="D50" s="8">
         <v>9</v>
       </c>
-      <c r="E50" s="13">
-        <v>46</v>
+      <c r="E50" s="19">
+        <v>35184372088832</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -2447,8 +2952,19 @@
       <c r="H50" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J50" s="15">
+        <f t="shared" si="2"/>
+        <v>35184372088832</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" s="16">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -2461,8 +2977,8 @@
       <c r="D51" s="8">
         <v>9</v>
       </c>
-      <c r="E51" s="13">
-        <v>47</v>
+      <c r="E51" s="19">
+        <v>70368744177664</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -2473,8 +2989,19 @@
       <c r="H51" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J51" s="15">
+        <f t="shared" si="2"/>
+        <v>70368744177664</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" s="16">
+        <f t="shared" si="0"/>
+        <v>70368744177664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -2487,8 +3014,8 @@
       <c r="D52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="13">
-        <v>48</v>
+      <c r="E52" s="19">
+        <v>140737488355328</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -2499,8 +3026,19 @@
       <c r="H52" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J52" s="15">
+        <f t="shared" si="2"/>
+        <v>140737488355328</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" si="0"/>
+        <v>140737488355328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -2513,8 +3051,8 @@
       <c r="D53" s="8">
         <v>9</v>
       </c>
-      <c r="E53" s="13">
-        <v>49</v>
+      <c r="E53" s="19">
+        <v>281474976710656</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -2525,8 +3063,19 @@
       <c r="H53" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J53" s="15">
+        <f t="shared" si="2"/>
+        <v>281474976710656</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="16">
+        <f t="shared" si="0"/>
+        <v>281474976710656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -2539,8 +3088,8 @@
       <c r="D54" s="8">
         <v>9</v>
       </c>
-      <c r="E54" s="13">
-        <v>50</v>
+      <c r="E54" s="19">
+        <v>562949953421312</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -2551,8 +3100,19 @@
       <c r="H54" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J54" s="15">
+        <f t="shared" si="2"/>
+        <v>562949953421312</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" s="16">
+        <f t="shared" si="0"/>
+        <v>562949953421312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -2565,8 +3125,8 @@
       <c r="D55" s="13">
         <v>10</v>
       </c>
-      <c r="E55" s="13">
-        <v>51</v>
+      <c r="E55" s="19">
+        <v>1125899906842620</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -2577,8 +3137,19 @@
       <c r="H55" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J55" s="15">
+        <f t="shared" si="2"/>
+        <v>1125899906842624</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" s="16">
+        <f t="shared" si="0"/>
+        <v>1125899906842620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>52</v>
       </c>
@@ -2591,8 +3162,8 @@
       <c r="D56" s="13">
         <v>10</v>
       </c>
-      <c r="E56" s="13">
-        <v>52</v>
+      <c r="E56" s="19">
+        <v>2251799813685250</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -2603,8 +3174,19 @@
       <c r="H56" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J56" s="15">
+        <f t="shared" si="2"/>
+        <v>2251799813685248</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="0"/>
+        <v>2251799813685250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -2617,8 +3199,8 @@
       <c r="D57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="13">
-        <v>53</v>
+      <c r="E57" s="19">
+        <v>4503599627370500</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -2629,8 +3211,19 @@
       <c r="H57" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J57" s="15">
+        <f t="shared" si="2"/>
+        <v>4503599627370496</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="16">
+        <f t="shared" si="0"/>
+        <v>4503599627370500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -2643,8 +3236,8 @@
       <c r="D58" s="13">
         <v>10</v>
       </c>
-      <c r="E58" s="13">
-        <v>54</v>
+      <c r="E58" s="19">
+        <v>9007199254740990</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -2655,8 +3248,19 @@
       <c r="H58" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J58" s="15">
+        <f t="shared" si="2"/>
+        <v>9007199254740992</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="16">
+        <f t="shared" si="0"/>
+        <v>9007199254740990</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -2669,8 +3273,8 @@
       <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="13">
-        <v>55</v>
+      <c r="E59" s="19">
+        <v>1.8014398509482E+16</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -2681,8 +3285,19 @@
       <c r="H59" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J59" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2</v>
+      </c>
+      <c r="L59" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8014398509482E+16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -2695,8 +3310,8 @@
       <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="13">
-        <v>56</v>
+      <c r="E60" s="19">
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -2707,8 +3322,19 @@
       <c r="H60" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J60" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6028797018963968E+16</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="16">
+        <f t="shared" si="0"/>
+        <v>3.6028797018964E+16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -2721,8 +3347,8 @@
       <c r="D61" s="13">
         <v>11</v>
       </c>
-      <c r="E61" s="13">
-        <v>57</v>
+      <c r="E61" s="19">
+        <v>7.2057594037927904E+16</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -2733,8 +3359,19 @@
       <c r="H61" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J61" s="15">
+        <f t="shared" si="2"/>
+        <v>7.2057594037927936E+16</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" s="16">
+        <f t="shared" si="0"/>
+        <v>7.2057594037927904E+16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -2747,8 +3384,8 @@
       <c r="D62" s="13">
         <v>11</v>
       </c>
-      <c r="E62" s="13">
-        <v>58</v>
+      <c r="E62" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -2759,8 +3396,19 @@
       <c r="H62" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J62" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4411518807585587E+17</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="16">
+        <f t="shared" si="0"/>
+        <v>1.44115188075856E+17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -2773,8 +3421,8 @@
       <c r="D63" s="13">
         <v>11</v>
       </c>
-      <c r="E63" s="13">
-        <v>59</v>
+      <c r="E63" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -2785,8 +3433,19 @@
       <c r="H63" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J63" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8823037615171174E+17</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" s="16">
+        <f t="shared" si="0"/>
+        <v>2.88230376151712E+17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -2799,8 +3458,8 @@
       <c r="D64" s="13">
         <v>11</v>
       </c>
-      <c r="E64" s="13">
-        <v>60</v>
+      <c r="E64" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -2811,8 +3470,19 @@
       <c r="H64" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J64" s="15">
+        <f t="shared" si="2"/>
+        <v>5.7646075230342349E+17</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7646075230342298E+17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>61</v>
       </c>
@@ -2825,8 +3495,8 @@
       <c r="D65" s="13">
         <v>11</v>
       </c>
-      <c r="E65" s="13">
-        <v>61</v>
+      <c r="E65" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -2837,8 +3507,19 @@
       <c r="H65" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J65" s="15">
+        <f t="shared" si="2"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" s="16">
+        <f t="shared" si="0"/>
+        <v>1.15292150460685E+18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>62</v>
       </c>
@@ -2851,8 +3532,8 @@
       <c r="D66" s="13">
         <v>11</v>
       </c>
-      <c r="E66" s="13">
-        <v>62</v>
+      <c r="E66" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -2863,8 +3544,19 @@
       <c r="H66" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J66" s="15">
+        <f t="shared" si="2"/>
+        <v>2.305843009213694E+18</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3058430092136901E+18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>63</v>
       </c>
@@ -2877,8 +3569,8 @@
       <c r="D67" s="13">
         <v>12</v>
       </c>
-      <c r="E67" s="13">
-        <v>63</v>
+      <c r="E67" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -2889,8 +3581,19 @@
       <c r="H67" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J67" s="15">
+        <f t="shared" si="2"/>
+        <v>4.6116860184273879E+18</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67" s="16">
+        <f t="shared" si="0"/>
+        <v>4.61168601842739E+18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>64</v>
       </c>
@@ -2903,8 +3606,8 @@
       <c r="D68" s="13">
         <v>12</v>
       </c>
-      <c r="E68" s="13">
-        <v>64</v>
+      <c r="E68" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -2915,8 +3618,19 @@
       <c r="H68" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J68" s="15">
+        <f t="shared" si="2"/>
+        <v>9.2233720368547758E+18</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" s="16">
+        <f t="shared" si="0"/>
+        <v>9.2233720368547799E+18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>65</v>
       </c>
@@ -2929,8 +3643,8 @@
       <c r="D69" s="13">
         <v>12</v>
       </c>
-      <c r="E69" s="13">
-        <v>65</v>
+      <c r="E69" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -2941,8 +3655,19 @@
       <c r="H69" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J69" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8446744073709552E+19</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8446744073709601E+19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>66</v>
       </c>
@@ -2955,8 +3680,8 @@
       <c r="D70" s="13">
         <v>12</v>
       </c>
-      <c r="E70" s="13">
-        <v>66</v>
+      <c r="E70" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -2967,8 +3692,19 @@
       <c r="H70" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J70" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6893488147419103E+19</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2</v>
+      </c>
+      <c r="L70" s="16">
+        <f t="shared" ref="L70:L79" si="3">ROUNDUP(J70,0)</f>
+        <v>3.6893488147419099E+19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>67</v>
       </c>
@@ -2981,8 +3717,8 @@
       <c r="D71" s="13">
         <v>12</v>
       </c>
-      <c r="E71" s="13">
-        <v>67</v>
+      <c r="E71" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -2993,8 +3729,19 @@
       <c r="H71" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J71" s="15">
+        <f t="shared" si="2"/>
+        <v>7.3786976294838206E+19</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3786976294838198E+19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>68</v>
       </c>
@@ -3007,8 +3754,8 @@
       <c r="D72" s="13">
         <v>12</v>
       </c>
-      <c r="E72" s="13">
-        <v>68</v>
+      <c r="E72" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3019,8 +3766,19 @@
       <c r="H72" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J72" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4757395258967641E+20</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="3"/>
+        <v>1.47573952589676E+20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>69</v>
       </c>
@@ -3033,8 +3791,8 @@
       <c r="D73" s="13">
         <v>13</v>
       </c>
-      <c r="E73" s="13">
-        <v>69</v>
+      <c r="E73" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3045,8 +3803,19 @@
       <c r="H73" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J73" s="15">
+        <f t="shared" si="2"/>
+        <v>2.9514790517935283E+20</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9514790517935302E+20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>70</v>
       </c>
@@ -3059,8 +3828,8 @@
       <c r="D74" s="13">
         <v>13</v>
       </c>
-      <c r="E74" s="13">
-        <v>70</v>
+      <c r="E74" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3071,8 +3840,19 @@
       <c r="H74" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J74" s="15">
+        <f t="shared" si="2"/>
+        <v>5.9029581035870565E+20</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74" s="16">
+        <f t="shared" si="3"/>
+        <v>5.9029581035870604E+20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>71</v>
       </c>
@@ -3085,8 +3865,8 @@
       <c r="D75" s="13">
         <v>13</v>
       </c>
-      <c r="E75" s="13">
-        <v>71</v>
+      <c r="E75" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -3097,8 +3877,19 @@
       <c r="H75" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J75" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1805916207174113E+21</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75" s="16">
+        <f t="shared" si="3"/>
+        <v>1.18059162071741E+21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>72</v>
       </c>
@@ -3111,8 +3902,8 @@
       <c r="D76" s="13">
         <v>13</v>
       </c>
-      <c r="E76" s="13">
-        <v>72</v>
+      <c r="E76" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -3123,8 +3914,19 @@
       <c r="H76" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J76" s="15">
+        <f t="shared" si="2"/>
+        <v>2.3611832414348226E+21</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76" s="16">
+        <f t="shared" si="3"/>
+        <v>2.36118324143482E+21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>73</v>
       </c>
@@ -3137,8 +3939,8 @@
       <c r="D77" s="13">
         <v>13</v>
       </c>
-      <c r="E77" s="13">
-        <v>73</v>
+      <c r="E77" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -3149,8 +3951,19 @@
       <c r="H77" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J77" s="15">
+        <f t="shared" si="2"/>
+        <v>4.7223664828696452E+21</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77" s="16">
+        <f t="shared" si="3"/>
+        <v>4.7223664828696505E+21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>74</v>
       </c>
@@ -3163,8 +3976,8 @@
       <c r="D78" s="13">
         <v>13</v>
       </c>
-      <c r="E78" s="13">
-        <v>74</v>
+      <c r="E78" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -3175,8 +3988,19 @@
       <c r="H78" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J78" s="15">
+        <f t="shared" si="2"/>
+        <v>9.4447329657392904E+21</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78" s="16">
+        <f t="shared" si="3"/>
+        <v>9.4447329657392904E+21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>75</v>
       </c>
@@ -3189,8 +4013,8 @@
       <c r="D79" s="13">
         <v>13</v>
       </c>
-      <c r="E79" s="13">
-        <v>75</v>
+      <c r="E79" s="19">
+        <v>1.44115188075856E+17</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -3201,8 +4025,19 @@
       <c r="H79" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J79" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8889465931478581E+22</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8889465931478602E+22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -638,7 +638,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int64</t>
+    <t>uint64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="L59" sqref="D59:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" ref="J8:L14" si="1">J7*K7</f>
+        <f t="shared" ref="J8:J14" si="1">J7*K7</f>
         <v>8</v>
       </c>
       <c r="K8">
@@ -1658,7 +1658,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="15">
-        <f>J14*K14</f>
+        <f t="shared" ref="J15:J22" si="2">J14*K14</f>
         <v>1024</v>
       </c>
       <c r="K15" s="6">
@@ -1695,7 +1695,7 @@
         <v>38</v>
       </c>
       <c r="J16" s="15">
-        <f>J15*K15</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="K16">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>J16*K16</f>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="K17">
@@ -1769,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="15">
-        <f>J17*K17</f>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="K18">
@@ -1806,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="15">
-        <f>J18*K18</f>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="K19">
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="15">
-        <f>J19*K19</f>
+        <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="K20">
@@ -1880,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="15">
-        <f>J20*K20</f>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="K21">
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="15">
-        <f>J21*K21</f>
+        <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="K22">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" ref="J23:L79" si="2">J22*K22</f>
+        <f t="shared" ref="J23:J79" si="3">J22*K22</f>
         <v>262144</v>
       </c>
       <c r="K23">
@@ -1991,7 +1991,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524288</v>
       </c>
       <c r="K24">
@@ -2028,7 +2028,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1048576</v>
       </c>
       <c r="K25">
@@ -2065,7 +2065,7 @@
         <v>28</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2097152</v>
       </c>
       <c r="K26" s="6">
@@ -2102,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4194304</v>
       </c>
       <c r="K27">
@@ -2139,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8388608</v>
       </c>
       <c r="K28">
@@ -2176,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16777216</v>
       </c>
       <c r="K29">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33554432</v>
       </c>
       <c r="K30">
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67108864</v>
       </c>
       <c r="K31">
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
       <c r="K32">
@@ -2324,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>268435456</v>
       </c>
       <c r="K33">
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>536870912</v>
       </c>
       <c r="K34">
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1073741824</v>
       </c>
       <c r="K35">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2147483648</v>
       </c>
       <c r="K36">
@@ -2472,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4294967296</v>
       </c>
       <c r="K37" s="6">
@@ -2509,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8589934592</v>
       </c>
       <c r="K38">
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17179869184</v>
       </c>
       <c r="K39">
@@ -2583,7 +2583,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34359738368</v>
       </c>
       <c r="K40">
@@ -2620,7 +2620,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68719476736</v>
       </c>
       <c r="K41">
@@ -2657,7 +2657,7 @@
         <v>31</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137438953472</v>
       </c>
       <c r="K42">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>274877906944</v>
       </c>
       <c r="K43">
@@ -2731,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>549755813888</v>
       </c>
       <c r="K44">
@@ -2768,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1099511627776</v>
       </c>
       <c r="K45">
@@ -2805,7 +2805,7 @@
         <v>36</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2199023255552</v>
       </c>
       <c r="K46">
@@ -2842,7 +2842,7 @@
         <v>37</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4398046511104</v>
       </c>
       <c r="K47">
@@ -2879,7 +2879,7 @@
         <v>38</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8796093022208</v>
       </c>
       <c r="K48" s="6">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17592186044416</v>
       </c>
       <c r="K49">
@@ -2953,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35184372088832</v>
       </c>
       <c r="K50">
@@ -2990,7 +2990,7 @@
         <v>9</v>
       </c>
       <c r="J51" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70368744177664</v>
       </c>
       <c r="K51">
@@ -3027,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="J52" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140737488355328</v>
       </c>
       <c r="K52">
@@ -3064,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>281474976710656</v>
       </c>
       <c r="K53">
@@ -3101,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>562949953421312</v>
       </c>
       <c r="K54">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1125899906842624</v>
       </c>
       <c r="K55">
@@ -3175,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2251799813685248</v>
       </c>
       <c r="K56">
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4503599627370496</v>
       </c>
       <c r="K57">
@@ -3249,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9007199254740992</v>
       </c>
       <c r="K58">
@@ -3286,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8014398509481984E+16</v>
       </c>
       <c r="K59" s="6">
@@ -3323,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6028797018963968E+16</v>
       </c>
       <c r="K60">
@@ -3348,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="19">
-        <v>7.2057594037927904E+16</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2057594037927936E+16</v>
       </c>
       <c r="K61">
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3397,7 +3397,7 @@
         <v>34</v>
       </c>
       <c r="J62" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4411518807585587E+17</v>
       </c>
       <c r="K62">
@@ -3422,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3434,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8823037615171174E+17</v>
       </c>
       <c r="K63">
@@ -3459,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3471,7 +3471,7 @@
         <v>36</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7646075230342349E+17</v>
       </c>
       <c r="K64">
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3508,7 +3508,7 @@
         <v>37</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.152921504606847E+18</v>
       </c>
       <c r="K65">
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3545,7 +3545,7 @@
         <v>38</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.305843009213694E+18</v>
       </c>
       <c r="K66">
@@ -3570,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6116860184273879E+18</v>
       </c>
       <c r="K67">
@@ -3607,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3619,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="J68" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2233720368547758E+18</v>
       </c>
       <c r="K68">
@@ -3644,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3656,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="J69" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8446744073709552E+19</v>
       </c>
       <c r="K69">
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3693,14 +3693,14 @@
         <v>10</v>
       </c>
       <c r="J70" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6893488147419103E+19</v>
       </c>
       <c r="K70" s="6">
         <v>2</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" ref="L70:L79" si="3">ROUNDUP(J70,0)</f>
+        <f t="shared" ref="L70:L79" si="4">ROUNDUP(J70,0)</f>
         <v>3.6893488147419099E+19</v>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3730,14 +3730,14 @@
         <v>11</v>
       </c>
       <c r="J71" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3786976294838206E+19</v>
       </c>
       <c r="K71">
         <v>2</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3786976294838198E+19</v>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3767,14 +3767,14 @@
         <v>12</v>
       </c>
       <c r="J72" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4757395258967641E+20</v>
       </c>
       <c r="K72">
         <v>2</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.47573952589676E+20</v>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3804,14 +3804,14 @@
         <v>0</v>
       </c>
       <c r="J73" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9514790517935283E+20</v>
       </c>
       <c r="K73">
         <v>2</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9514790517935302E+20</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3841,14 +3841,14 @@
         <v>26</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9029581035870565E+20</v>
       </c>
       <c r="K74">
         <v>2</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9029581035870604E+20</v>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -3878,14 +3878,14 @@
         <v>27</v>
       </c>
       <c r="J75" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1805916207174113E+21</v>
       </c>
       <c r="K75">
         <v>2</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.18059162071741E+21</v>
       </c>
     </row>
@@ -3903,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -3915,14 +3915,14 @@
         <v>28</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3611832414348226E+21</v>
       </c>
       <c r="K76">
         <v>2</v>
       </c>
       <c r="L76" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.36118324143482E+21</v>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -3952,14 +3952,14 @@
         <v>29</v>
       </c>
       <c r="J77" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7223664828696452E+21</v>
       </c>
       <c r="K77">
         <v>2</v>
       </c>
       <c r="L77" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7223664828696505E+21</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -3989,14 +3989,14 @@
         <v>30</v>
       </c>
       <c r="J78" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4447329657392904E+21</v>
       </c>
       <c r="K78">
         <v>2</v>
       </c>
       <c r="L78" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4447329657392904E+21</v>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="19">
-        <v>1.44115188075856E+17</v>
+        <v>3.6028797018964E+16</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -4026,14 +4026,14 @@
         <v>31</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8889465931478581E+22</v>
       </c>
       <c r="K79">
         <v>2</v>
       </c>
       <c r="L79" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8889465931478602E+22</v>
       </c>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="L59" sqref="D59:L59"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="19">
-        <v>1.8014398509482E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3348,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3422,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3459,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3570,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3607,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3644,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3718,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3792,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3829,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3866,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -3903,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -3940,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -3977,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="19">
-        <v>3.6028797018964E+16</v>
+        <v>9007199254740990</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" s="16">
         <f>ROUNDUP(J5,0)</f>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
@@ -1326,14 +1326,14 @@
       </c>
       <c r="J6" s="15">
         <f>J5*K5</f>
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L69" si="0">ROUNDUP(J6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1363,14 +1363,14 @@
       </c>
       <c r="J7" s="15">
         <f>J6*K6</f>
-        <v>4</v>
+        <v>4.41</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1400,14 +1400,14 @@
       </c>
       <c r="J8" s="15">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
-        <v>8</v>
+        <v>9.261000000000001</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>19.448100000000004</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1474,14 +1474,14 @@
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40.841010000000011</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="18">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1511,14 +1511,14 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>85.766121000000027</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1548,14 +1548,14 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>180.10885410000006</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1585,14 +1585,14 @@
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>378.22859361000013</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="18">
-        <v>512</v>
+        <v>795</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -1622,14 +1622,14 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>794.28004658100031</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>1024</v>
+        <v>1668</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -1659,14 +1659,14 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
-        <v>1024</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2</v>
+        <v>1667.9880978201006</v>
+      </c>
+      <c r="K15">
+        <v>2.1</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>2048</v>
+        <v>3503</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -1696,14 +1696,14 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" si="2"/>
-        <v>2048</v>
+        <v>3502.7750054222115</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="17">
-        <v>4096</v>
+        <v>7356</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -1733,14 +1733,14 @@
       </c>
       <c r="J17" s="15">
         <f t="shared" si="2"/>
-        <v>4096</v>
+        <v>7355.8275113866448</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="17">
-        <v>8192</v>
+        <v>15448</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -1770,14 +1770,14 @@
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>8192</v>
+        <v>15447.237773911955</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
-        <v>8192</v>
+        <v>15448</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="17">
-        <v>16384</v>
+        <v>32440</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -1807,14 +1807,14 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>16384</v>
+        <v>32439.199325215108</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
-        <v>16384</v>
+        <v>32440</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="17">
-        <v>32768</v>
+        <v>68123</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -1844,14 +1844,14 @@
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>32768</v>
+        <v>68122.318582951732</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>68123</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17">
-        <v>65536</v>
+        <v>143057</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -1881,14 +1881,14 @@
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>65536</v>
+        <v>143056.86902419865</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
-        <v>65536</v>
+        <v>143057</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="17">
-        <v>131072</v>
+        <v>300420</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -1918,14 +1918,14 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
-        <v>131072</v>
+        <v>300419.42495081719</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
-        <v>131072</v>
+        <v>300420</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="18">
-        <v>262144</v>
+        <v>630881</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -1955,14 +1955,14 @@
       </c>
       <c r="J23" s="15">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
-        <v>262144</v>
+        <v>630880.79239671608</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
-        <v>262144</v>
+        <v>630881</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="18">
-        <v>524288</v>
+        <v>1324850</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -1992,14 +1992,14 @@
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>524288</v>
+        <v>1324849.6640331037</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
-        <v>524288</v>
+        <v>1324850</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="18">
-        <v>1048576</v>
+        <v>2782185</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -2029,14 +2029,14 @@
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
-        <v>1048576</v>
+        <v>2782184.2944695181</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
-        <v>1048576</v>
+        <v>2782185</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2053,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="18">
-        <v>2097152</v>
+        <v>5842588</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>2097152</v>
-      </c>
-      <c r="K26" s="6">
-        <v>2</v>
+        <v>5842587.0183859887</v>
+      </c>
+      <c r="K26">
+        <v>2.1</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
-        <v>2097152</v>
+        <v>5842588</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="18">
-        <v>4194304</v>
+        <v>12269433</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -2103,14 +2103,14 @@
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
-        <v>4194304</v>
+        <v>12269432.738610577</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>12269433</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="18">
-        <v>8388608</v>
+        <v>25765809</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -2140,14 +2140,14 @@
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
-        <v>8388608</v>
+        <v>25765808.751082212</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="0"/>
-        <v>8388608</v>
+        <v>25765809</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="18">
-        <v>16777216</v>
+        <v>54108199</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -2177,14 +2177,14 @@
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
-        <v>16777216</v>
+        <v>54108198.377272651</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
-        <v>16777216</v>
+        <v>54108199</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="17">
-        <v>33554432</v>
+        <v>113627217</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -2214,14 +2214,14 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
-        <v>33554432</v>
+        <v>113627216.59227256</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
-        <v>33554432</v>
+        <v>113627217</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="17">
-        <v>67108864</v>
+        <v>238617155</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -2251,14 +2251,14 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
-        <v>67108864</v>
+        <v>238617154.84377238</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
-        <v>67108864</v>
+        <v>238617155</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="17">
-        <v>134217728</v>
+        <v>501096026</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -2288,14 +2288,14 @@
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
-        <v>134217728</v>
+        <v>501096025.17192203</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="0"/>
-        <v>134217728</v>
+        <v>501096026</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="17">
-        <v>268435456</v>
+        <v>1052301653</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2325,14 +2325,14 @@
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
-        <v>268435456</v>
+        <v>1052301652.8610363</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="0"/>
-        <v>268435456</v>
+        <v>1052301653</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="17">
-        <v>536870912</v>
+        <v>2209833472</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2362,14 +2362,14 @@
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
-        <v>536870912</v>
+        <v>2209833471.0081763</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="0"/>
-        <v>536870912</v>
+        <v>2209833472</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="17">
-        <v>1073741824</v>
+        <v>4640650290</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2399,14 +2399,14 @@
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
-        <v>1073741824</v>
+        <v>4640650289.1171703</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="0"/>
-        <v>1073741824</v>
+        <v>4640650290</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="18">
-        <v>2147483648</v>
+        <v>9745365608</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="J36" s="15">
         <f t="shared" si="3"/>
-        <v>2147483648</v>
+        <v>9745365607.146059</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="0"/>
-        <v>2147483648</v>
+        <v>9745365608</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2460,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="18">
-        <v>4294967296</v>
+        <v>20465267776</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2473,14 +2473,14 @@
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
-        <v>4294967296</v>
-      </c>
-      <c r="K37" s="6">
-        <v>2</v>
+        <v>20465267775.006725</v>
+      </c>
+      <c r="K37">
+        <v>2.1</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="0"/>
-        <v>4294967296</v>
+        <v>20465267776</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="18">
-        <v>8589934592</v>
+        <v>42977062328</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2510,14 +2510,14 @@
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
-        <v>8589934592</v>
+        <v>42977062327.514122</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="0"/>
-        <v>8589934592</v>
+        <v>42977062328</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="18">
-        <v>17179869184</v>
+        <v>90251830888</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2547,14 +2547,14 @@
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
-        <v>17179869184</v>
+        <v>90251830887.779663</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="0"/>
-        <v>17179869184</v>
+        <v>90251830888</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="18">
-        <v>34359738368</v>
+        <v>189528844865</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2584,14 +2584,14 @@
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
-        <v>34359738368</v>
+        <v>189528844864.33731</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="0"/>
-        <v>34359738368</v>
+        <v>189528844865</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="18">
-        <v>68719476736</v>
+        <v>398010574216</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -2621,14 +2621,14 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
-        <v>68719476736</v>
+        <v>398010574215.1084</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="0"/>
-        <v>68719476736</v>
+        <v>398010574216</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="18">
-        <v>137438953472</v>
+        <v>835822205852</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -2658,14 +2658,14 @@
       </c>
       <c r="J42" s="15">
         <f t="shared" si="3"/>
-        <v>137438953472</v>
+        <v>835822205851.72766</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="0"/>
-        <v>137438953472</v>
+        <v>835822205852</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="19">
-        <v>274877906944</v>
+        <v>1755226632289</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -2695,14 +2695,14 @@
       </c>
       <c r="J43" s="15">
         <f t="shared" si="3"/>
-        <v>274877906944</v>
+        <v>1755226632288.6282</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
-        <v>274877906944</v>
+        <v>1755226632289</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="19">
-        <v>549755813888</v>
+        <v>3685975927807</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -2732,14 +2732,14 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" si="3"/>
-        <v>549755813888</v>
+        <v>3685975927806.1191</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="0"/>
-        <v>549755813888</v>
+        <v>3685975927807</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="19">
-        <v>1099511627776</v>
+        <v>7740549448393</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -2769,14 +2769,14 @@
       </c>
       <c r="J45" s="15">
         <f t="shared" si="3"/>
-        <v>1099511627776</v>
+        <v>7740549448392.8506</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="0"/>
-        <v>1099511627776</v>
+        <v>7740549448393</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="19">
-        <v>2199023255552</v>
+        <v>16255153841625</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -2806,14 +2806,14 @@
       </c>
       <c r="J46" s="15">
         <f t="shared" si="3"/>
-        <v>2199023255552</v>
+        <v>16255153841624.986</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="0"/>
-        <v>2199023255552</v>
+        <v>16255153841625</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="19">
-        <v>4398046511104</v>
+        <v>34135823067413</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -2843,14 +2843,14 @@
       </c>
       <c r="J47" s="15">
         <f t="shared" si="3"/>
-        <v>4398046511104</v>
+        <v>34135823067412.473</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="0"/>
-        <v>4398046511104</v>
+        <v>34135823067413</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="19">
-        <v>8796093022208</v>
+        <v>71685228441567</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -2880,14 +2880,14 @@
       </c>
       <c r="J48" s="15">
         <f t="shared" si="3"/>
-        <v>8796093022208</v>
-      </c>
-      <c r="K48" s="6">
-        <v>2</v>
+        <v>71685228441566.203</v>
+      </c>
+      <c r="K48">
+        <v>2.1</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="0"/>
-        <v>8796093022208</v>
+        <v>71685228441567</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2904,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="19">
-        <v>17592186044416</v>
+        <v>150538979727289</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -2917,14 +2917,14 @@
       </c>
       <c r="J49" s="15">
         <f t="shared" si="3"/>
-        <v>17592186044416</v>
+        <v>150538979727289.03</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="0"/>
-        <v>17592186044416</v>
+        <v>150538979727289</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="19">
-        <v>35184372088832</v>
+        <v>316131857427307</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -2954,14 +2954,14 @@
       </c>
       <c r="J50" s="15">
         <f t="shared" si="3"/>
-        <v>35184372088832</v>
+        <v>316131857427307</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L50" s="16">
         <f t="shared" si="0"/>
-        <v>35184372088832</v>
+        <v>316131857427307</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="19">
-        <v>70368744177664</v>
+        <v>663876900597345</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -2991,14 +2991,14 @@
       </c>
       <c r="J51" s="15">
         <f t="shared" si="3"/>
-        <v>70368744177664</v>
+        <v>663876900597344.75</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="0"/>
-        <v>70368744177664</v>
+        <v>663876900597345</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3015,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="19">
-        <v>140737488355328</v>
+        <v>1394141491254420</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="J52" s="15">
         <f t="shared" si="3"/>
-        <v>140737488355328</v>
+        <v>1394141491254424</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="0"/>
-        <v>140737488355328</v>
+        <v>1394141491254420</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="19">
-        <v>281474976710656</v>
+        <v>2927697131634290</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -3065,14 +3065,14 @@
       </c>
       <c r="J53" s="15">
         <f t="shared" si="3"/>
-        <v>281474976710656</v>
+        <v>2927697131634290.5</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>281474976710656</v>
+        <v>2927697131634290</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="19">
-        <v>562949953421312</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -3102,14 +3102,14 @@
       </c>
       <c r="J54" s="15">
         <f t="shared" si="3"/>
-        <v>562949953421312</v>
+        <v>6148163976432010</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>562949953421312</v>
+        <v>6148163976432010</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="19">
-        <v>1125899906842620</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -3139,14 +3139,14 @@
       </c>
       <c r="J55" s="15">
         <f t="shared" si="3"/>
-        <v>1125899906842624</v>
+        <v>1.2911144350507222E+16</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="0"/>
-        <v>1125899906842620</v>
+        <v>1.29111443505072E+16</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="19">
-        <v>2251799813685250</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -3176,14 +3176,14 @@
       </c>
       <c r="J56" s="15">
         <f t="shared" si="3"/>
-        <v>2251799813685248</v>
+        <v>2.7113403136065168E+16</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="0"/>
-        <v>2251799813685250</v>
+        <v>2.71134031360652E+16</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3200,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="19">
-        <v>4503599627370500</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -3213,14 +3213,14 @@
       </c>
       <c r="J57" s="15">
         <f t="shared" si="3"/>
-        <v>4503599627370496</v>
+        <v>5.6938146585736856E+16</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="0"/>
-        <v>4503599627370500</v>
+        <v>5.6938146585736896E+16</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -3250,14 +3250,14 @@
       </c>
       <c r="J58" s="15">
         <f t="shared" si="3"/>
-        <v>9007199254740992</v>
+        <v>1.1957010783004741E+17</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L58" s="16">
         <f t="shared" si="0"/>
-        <v>9007199254740990</v>
+        <v>1.1957010783004701E+17</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3287,14 +3287,14 @@
       </c>
       <c r="J59" s="15">
         <f t="shared" si="3"/>
-        <v>1.8014398509481984E+16</v>
-      </c>
-      <c r="K59" s="6">
-        <v>2</v>
+        <v>2.5109722644309955E+17</v>
+      </c>
+      <c r="K59">
+        <v>2.1</v>
       </c>
       <c r="L59" s="16">
         <f t="shared" si="0"/>
-        <v>1.8014398509482E+16</v>
+        <v>2.510972264431E+17</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3324,14 +3324,14 @@
       </c>
       <c r="J60" s="15">
         <f t="shared" si="3"/>
-        <v>3.6028797018963968E+16</v>
+        <v>5.2730417553050906E+17</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="0"/>
-        <v>3.6028797018964E+16</v>
+        <v>5.2730417553050899E+17</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3361,14 +3361,14 @@
       </c>
       <c r="J61" s="15">
         <f t="shared" si="3"/>
-        <v>7.2057594037927936E+16</v>
+        <v>1.1073387686140691E+18</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="0"/>
-        <v>7.2057594037927904E+16</v>
+        <v>1.10733876861407E+18</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3398,14 +3398,14 @@
       </c>
       <c r="J62" s="15">
         <f t="shared" si="3"/>
-        <v>1.4411518807585587E+17</v>
+        <v>2.3254114140895452E+18</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L62" s="16">
         <f t="shared" si="0"/>
-        <v>1.44115188075856E+17</v>
+        <v>2.3254114140895498E+18</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3435,14 +3435,14 @@
       </c>
       <c r="J63" s="15">
         <f t="shared" si="3"/>
-        <v>2.8823037615171174E+17</v>
+        <v>4.8833639695880448E+18</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="0"/>
-        <v>2.88230376151712E+17</v>
+        <v>4.8833639695880397E+18</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3472,14 +3472,14 @@
       </c>
       <c r="J64" s="15">
         <f t="shared" si="3"/>
-        <v>5.7646075230342349E+17</v>
+        <v>1.0255064336134894E+19</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="0"/>
-        <v>5.7646075230342298E+17</v>
+        <v>1.02550643361349E+19</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3509,14 +3509,14 @@
       </c>
       <c r="J65" s="15">
         <f t="shared" si="3"/>
-        <v>1.152921504606847E+18</v>
+        <v>2.1535635105883279E+19</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L65" s="16">
         <f t="shared" si="0"/>
-        <v>1.15292150460685E+18</v>
+        <v>2.15356351058833E+19</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3546,14 +3546,14 @@
       </c>
       <c r="J66" s="15">
         <f t="shared" si="3"/>
-        <v>2.305843009213694E+18</v>
+        <v>4.5224833722354885E+19</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="0"/>
-        <v>2.3058430092136901E+18</v>
+        <v>4.5224833722354901E+19</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3583,14 +3583,14 @@
       </c>
       <c r="J67" s="15">
         <f t="shared" si="3"/>
-        <v>4.6116860184273879E+18</v>
+        <v>9.4972150816945258E+19</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L67" s="16">
         <f t="shared" si="0"/>
-        <v>4.61168601842739E+18</v>
+        <v>9.4972150816945308E+19</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3620,14 +3620,14 @@
       </c>
       <c r="J68" s="15">
         <f t="shared" si="3"/>
-        <v>9.2233720368547758E+18</v>
+        <v>1.9944151671558504E+20</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L68" s="16">
         <f t="shared" si="0"/>
-        <v>9.2233720368547799E+18</v>
+        <v>1.9944151671558501E+20</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3644,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3657,14 +3657,14 @@
       </c>
       <c r="J69" s="15">
         <f t="shared" si="3"/>
-        <v>1.8446744073709552E+19</v>
+        <v>4.1882718510272859E+20</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L69" s="16">
         <f t="shared" si="0"/>
-        <v>1.8446744073709601E+19</v>
+        <v>4.1882718510272899E+20</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3694,14 +3694,14 @@
       </c>
       <c r="J70" s="15">
         <f t="shared" si="3"/>
-        <v>3.6893488147419103E+19</v>
-      </c>
-      <c r="K70" s="6">
-        <v>2</v>
+        <v>8.7953708871573006E+20</v>
+      </c>
+      <c r="K70">
+        <v>2.1</v>
       </c>
       <c r="L70" s="16">
         <f t="shared" ref="L70:L79" si="4">ROUNDUP(J70,0)</f>
-        <v>3.6893488147419099E+19</v>
+        <v>8.7953708871573006E+20</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3731,14 +3731,14 @@
       </c>
       <c r="J71" s="15">
         <f t="shared" si="3"/>
-        <v>7.3786976294838206E+19</v>
+        <v>1.8470278863030332E+21</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="4"/>
-        <v>7.3786976294838198E+19</v>
+        <v>1.84702788630303E+21</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3768,14 +3768,14 @@
       </c>
       <c r="J72" s="15">
         <f t="shared" si="3"/>
-        <v>1.4757395258967641E+20</v>
+        <v>3.8787585612363701E+21</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="4"/>
-        <v>1.47573952589676E+20</v>
+        <v>3.8787585612363701E+21</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3805,14 +3805,14 @@
       </c>
       <c r="J73" s="15">
         <f t="shared" si="3"/>
-        <v>2.9514790517935283E+20</v>
+        <v>8.1453929785963777E+21</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="4"/>
-        <v>2.9514790517935302E+20</v>
+        <v>8.1453929785963798E+21</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3829,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3842,14 +3842,14 @@
       </c>
       <c r="J74" s="15">
         <f t="shared" si="3"/>
-        <v>5.9029581035870565E+20</v>
+        <v>1.7105325255052394E+22</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L74" s="16">
         <f t="shared" si="4"/>
-        <v>5.9029581035870604E+20</v>
+        <v>1.7105325255052401E+22</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -3879,14 +3879,14 @@
       </c>
       <c r="J75" s="15">
         <f t="shared" si="3"/>
-        <v>1.1805916207174113E+21</v>
+        <v>3.592118303561003E+22</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L75" s="16">
         <f t="shared" si="4"/>
-        <v>1.18059162071741E+21</v>
+        <v>3.5921183035610001E+22</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -3916,14 +3916,14 @@
       </c>
       <c r="J76" s="15">
         <f t="shared" si="3"/>
-        <v>2.3611832414348226E+21</v>
+        <v>7.5434484374781066E+22</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="4"/>
-        <v>2.36118324143482E+21</v>
+        <v>7.54344843747811E+22</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -3953,14 +3953,14 @@
       </c>
       <c r="J77" s="15">
         <f t="shared" si="3"/>
-        <v>4.7223664828696452E+21</v>
+        <v>1.5841241718704024E+23</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L77" s="16">
         <f t="shared" si="4"/>
-        <v>4.7223664828696505E+21</v>
+        <v>1.5841241718704E+23</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="J78" s="15">
         <f t="shared" si="3"/>
-        <v>9.4447329657392904E+21</v>
+        <v>3.326660760927845E+23</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L78" s="16">
         <f t="shared" si="4"/>
-        <v>9.4447329657392904E+21</v>
+        <v>3.3266607609278497E+23</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="19">
-        <v>9007199254740990</v>
+        <v>6148163976432010</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -4027,14 +4027,14 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" si="3"/>
-        <v>1.8889465931478581E+22</v>
+        <v>6.9859875979484751E+23</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="4"/>
-        <v>1.8889465931478602E+22</v>
+        <v>6.9859875979484805E+23</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="192">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -639,6 +639,102 @@
   </si>
   <si>
     <t>uint64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞发火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞拿水桶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿身锦绣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿被子的璎珞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣倒水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥吃面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥手帕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥被抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞绣常服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝穿常服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑盒饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +789,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,13 +808,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -730,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +899,12 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:E79"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1711,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
@@ -1728,7 +1851,7 @@
       <c r="G17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="15">
@@ -1748,10 +1871,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
@@ -1765,8 +1888,8 @@
       <c r="G18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="8">
-        <v>8</v>
+      <c r="H18" s="6">
+        <v>40</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
@@ -1785,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
@@ -1802,8 +1925,8 @@
       <c r="G19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="8">
-        <v>9</v>
+      <c r="H19" s="6">
+        <v>41</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
@@ -1822,10 +1945,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -1839,8 +1962,8 @@
       <c r="G20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="8">
-        <v>10</v>
+      <c r="H20" s="6">
+        <v>42</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
@@ -1859,10 +1982,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
@@ -1876,8 +1999,8 @@
       <c r="G21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="8">
-        <v>11</v>
+      <c r="H21" s="6">
+        <v>43</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
@@ -1896,10 +2019,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
@@ -1913,8 +2036,8 @@
       <c r="G22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="8">
-        <v>12</v>
+      <c r="H22" s="6">
+        <v>44</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
@@ -1933,10 +2056,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
@@ -1970,10 +2093,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
@@ -2007,10 +2130,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
@@ -2044,10 +2167,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
@@ -2081,10 +2204,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
@@ -2118,10 +2241,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
@@ -2192,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D30" s="8">
         <v>6</v>
@@ -2229,10 +2352,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D31" s="8">
         <v>6</v>
@@ -2247,7 +2370,7 @@
         <v>113</v>
       </c>
       <c r="H31" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
@@ -2266,10 +2389,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D32" s="8">
         <v>6</v>
@@ -2284,7 +2407,7 @@
         <v>114</v>
       </c>
       <c r="H32" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
@@ -2303,10 +2426,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D33" s="8">
         <v>6</v>
@@ -2321,7 +2444,7 @@
         <v>115</v>
       </c>
       <c r="H33" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
@@ -2339,11 +2462,11 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>32</v>
+      <c r="B34" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D34" s="8">
         <v>6</v>
@@ -2358,7 +2481,7 @@
         <v>116</v>
       </c>
       <c r="H34" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
@@ -2377,10 +2500,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D35" s="8">
         <v>6</v>
@@ -2395,7 +2518,7 @@
         <v>117</v>
       </c>
       <c r="H35" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
@@ -2895,10 +3018,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D49" s="8">
         <v>9</v>
@@ -2932,10 +3055,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D50" s="8">
         <v>9</v>
@@ -2950,7 +3073,7 @@
         <v>132</v>
       </c>
       <c r="H50" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="3"/>
@@ -2969,10 +3092,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D51" s="8">
         <v>9</v>
@@ -2987,7 +3110,7 @@
         <v>133</v>
       </c>
       <c r="H51" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="3"/>
@@ -3006,10 +3129,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D52" s="8">
         <v>9</v>
@@ -3024,7 +3147,7 @@
         <v>134</v>
       </c>
       <c r="H52" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J52" s="15">
         <f t="shared" si="3"/>
@@ -3042,11 +3165,11 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>50</v>
+      <c r="B53" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D53" s="8">
         <v>9</v>
@@ -3061,7 +3184,7 @@
         <v>135</v>
       </c>
       <c r="H53" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J53" s="15">
         <f t="shared" si="3"/>
@@ -3080,10 +3203,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D54" s="8">
         <v>9</v>
@@ -3098,7 +3221,7 @@
         <v>136</v>
       </c>
       <c r="H54" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="3"/>
@@ -4041,69 +4164,64 @@
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" s="9"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="9"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -634,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向上取整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,6 +731,10 @@
   </si>
   <si>
     <t>玲珑盒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下取整数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>72</v>
@@ -1383,7 +1383,7 @@
         <v>165</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L5" s="16">
-        <f>ROUNDUP(J5,0)</f>
+        <f>ROUNDDOWN(J5,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
@@ -1449,14 +1449,14 @@
       </c>
       <c r="J6" s="15">
         <f>J5*K5</f>
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L69" si="0">ROUNDUP(J6,0)</f>
-        <v>3</v>
+        <f t="shared" ref="L6:L69" si="0">ROUNDDOWN(J6,0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1486,14 +1486,14 @@
       </c>
       <c r="J7" s="15">
         <f>J6*K6</f>
-        <v>4.41</v>
+        <v>4.8400000000000007</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1523,10 +1523,10 @@
       </c>
       <c r="J8" s="15">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
-        <v>9.261000000000001</v>
+        <v>10.648000000000003</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>19.448100000000004</v>
+        <v>23.42560000000001</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1597,14 +1597,14 @@
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>40.841010000000011</v>
+        <v>51.536320000000025</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="18">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1634,14 +1634,14 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>85.766121000000027</v>
+        <v>113.37990400000007</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>180.10885410000006</v>
+        <v>249.43578880000018</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>379</v>
+        <v>548</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>378.22859361000013</v>
+        <v>548.7587353600004</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="18">
-        <v>795</v>
+        <v>1207</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>794.28004658100031</v>
+        <v>1207.269217792001</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
-        <v>795</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>1668</v>
+        <v>2655</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -1782,14 +1782,14 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
-        <v>1667.9880978201006</v>
+        <v>2655.9922791424024</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
-        <v>1668</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>3503</v>
+        <v>5843</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" si="2"/>
-        <v>3502.7750054222115</v>
+        <v>5843.1830141132859</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
-        <v>3503</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1834,16 +1834,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
       </c>
       <c r="E17" s="17">
-        <v>7356</v>
+        <v>12855</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -1856,14 +1856,14 @@
       </c>
       <c r="J17" s="15">
         <f t="shared" si="2"/>
-        <v>7355.8275113866448</v>
+        <v>12855.00263104923</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
-        <v>7356</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1871,16 +1871,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
       </c>
       <c r="E18" s="17">
-        <v>15448</v>
+        <v>28281</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>15447.237773911955</v>
+        <v>28281.00578830831</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
-        <v>15448</v>
+        <v>28281</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1908,16 +1908,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
       </c>
       <c r="E19" s="17">
-        <v>32440</v>
+        <v>62218</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -1930,14 +1930,14 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>32439.199325215108</v>
+        <v>62218.212734278284</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
-        <v>32440</v>
+        <v>62218</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1945,16 +1945,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
       </c>
       <c r="E20" s="17">
-        <v>68123</v>
+        <v>136880</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -1967,14 +1967,14 @@
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>68122.318582951732</v>
+        <v>136880.06801541222</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
-        <v>68123</v>
+        <v>136880</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1982,16 +1982,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
       </c>
       <c r="E21" s="17">
-        <v>143057</v>
+        <v>301136</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -2004,14 +2004,14 @@
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>143056.86902419865</v>
+        <v>301136.1496339069</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
-        <v>143057</v>
+        <v>301136</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2019,16 +2019,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
       </c>
       <c r="E22" s="17">
-        <v>300420</v>
+        <v>662499</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -2041,14 +2041,14 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
-        <v>300419.42495081719</v>
+        <v>662499.52919459518</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
-        <v>300420</v>
+        <v>662499</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2056,16 +2056,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
       </c>
       <c r="E23" s="18">
-        <v>630881</v>
+        <v>1457498</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -2078,14 +2078,14 @@
       </c>
       <c r="J23" s="15">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
-        <v>630880.79239671608</v>
+        <v>1457498.9642281095</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
-        <v>630881</v>
+        <v>1457498</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2093,16 +2093,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="18">
-        <v>1324850</v>
+        <v>3206497</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -2115,14 +2115,14 @@
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>1324849.6640331037</v>
+        <v>3206497.7213018411</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
-        <v>1324850</v>
+        <v>3206497</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2130,16 +2130,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
       </c>
       <c r="E25" s="18">
-        <v>2782185</v>
+        <v>7054294</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -2152,14 +2152,14 @@
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
-        <v>2782184.2944695181</v>
+        <v>7054294.9868640509</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
-        <v>2782185</v>
+        <v>7054294</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2167,16 +2167,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
       </c>
       <c r="E26" s="18">
-        <v>5842588</v>
+        <v>15519448</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -2189,14 +2189,14 @@
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>5842587.0183859887</v>
+        <v>15519448.971100913</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
-        <v>5842588</v>
+        <v>15519448</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2204,16 +2204,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
       </c>
       <c r="E27" s="18">
-        <v>12269433</v>
+        <v>34142787</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -2226,14 +2226,14 @@
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
-        <v>12269432.738610577</v>
+        <v>34142787.73642201</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
-        <v>12269433</v>
+        <v>34142787</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2241,16 +2241,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="18">
-        <v>25765809</v>
+        <v>75114133</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -2263,14 +2263,14 @@
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
-        <v>25765808.751082212</v>
+        <v>75114133.020128429</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="0"/>
-        <v>25765809</v>
+        <v>75114133</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="18">
-        <v>54108199</v>
+        <v>165251092</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
-        <v>54108198.377272651</v>
+        <v>165251092.64428255</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
-        <v>54108199</v>
+        <v>165251092</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="17">
-        <v>113627217</v>
+        <v>363552403</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -2337,14 +2337,14 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
-        <v>113627216.59227256</v>
+        <v>363552403.81742162</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
-        <v>113627217</v>
+        <v>363552403</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="17">
-        <v>238617155</v>
+        <v>799815288</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -2374,14 +2374,14 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
-        <v>238617154.84377238</v>
+        <v>799815288.39832759</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
-        <v>238617155</v>
+        <v>799815288</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="17">
-        <v>501096026</v>
+        <v>1759593634</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -2411,14 +2411,14 @@
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
-        <v>501096025.17192203</v>
+        <v>1759593634.4763207</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="0"/>
-        <v>501096026</v>
+        <v>1759593634</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="17">
-        <v>1052301653</v>
+        <v>3871105995</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2448,14 +2448,14 @@
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
-        <v>1052301652.8610363</v>
+        <v>3871105995.8479061</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="0"/>
-        <v>1052301653</v>
+        <v>3871105995</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="17">
-        <v>2209833472</v>
+        <v>8516433190</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2485,14 +2485,14 @@
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
-        <v>2209833471.0081763</v>
+        <v>8516433190.8653946</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="0"/>
-        <v>2209833472</v>
+        <v>8516433190</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="17">
-        <v>4640650290</v>
+        <v>18736153019</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2522,14 +2522,14 @@
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
-        <v>4640650289.1171703</v>
+        <v>18736153019.90387</v>
       </c>
       <c r="K35">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="0"/>
-        <v>4640650290</v>
+        <v>18736153019</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="18">
-        <v>9745365608</v>
+        <v>41219536643</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="J36" s="15">
         <f t="shared" si="3"/>
-        <v>9745365607.146059</v>
+        <v>41219536643.788513</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="0"/>
-        <v>9745365608</v>
+        <v>41219536643</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="18">
-        <v>20465267776</v>
+        <v>90682980616</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2596,14 +2596,14 @@
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
-        <v>20465267775.006725</v>
+        <v>90682980616.334732</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="0"/>
-        <v>20465267776</v>
+        <v>90682980616</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2620,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="18">
-        <v>42977062328</v>
+        <v>199502557355</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2633,14 +2633,14 @@
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
-        <v>42977062327.514122</v>
+        <v>199502557355.93643</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="0"/>
-        <v>42977062328</v>
+        <v>199502557355</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="18">
-        <v>90251830888</v>
+        <v>438905626183</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2670,14 +2670,14 @@
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
-        <v>90251830887.779663</v>
+        <v>438905626183.06018</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="0"/>
-        <v>90251830888</v>
+        <v>438905626183</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2694,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="18">
-        <v>189528844865</v>
+        <v>965592377602</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2707,14 +2707,14 @@
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
-        <v>189528844864.33731</v>
+        <v>965592377602.73242</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="0"/>
-        <v>189528844865</v>
+        <v>965592377602</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="18">
-        <v>398010574216</v>
+        <v>2124303230726</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -2744,14 +2744,14 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
-        <v>398010574215.1084</v>
+        <v>2124303230726.0115</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="0"/>
-        <v>398010574216</v>
+        <v>2124303230726</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="18">
-        <v>835822205852</v>
+        <v>4673467107597</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -2781,14 +2781,14 @@
       </c>
       <c r="J42" s="15">
         <f t="shared" si="3"/>
-        <v>835822205851.72766</v>
+        <v>4673467107597.2256</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="0"/>
-        <v>835822205852</v>
+        <v>4673467107597</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="19">
-        <v>1755226632289</v>
+        <v>10281627636713</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -2818,14 +2818,14 @@
       </c>
       <c r="J43" s="15">
         <f t="shared" si="3"/>
-        <v>1755226632288.6282</v>
+        <v>10281627636713.896</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
-        <v>1755226632289</v>
+        <v>10281627636713</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="19">
-        <v>3685975927807</v>
+        <v>22619580800770</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -2855,14 +2855,14 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" si="3"/>
-        <v>3685975927806.1191</v>
+        <v>22619580800770.574</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="0"/>
-        <v>3685975927807</v>
+        <v>22619580800770</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="19">
-        <v>7740549448393</v>
+        <v>49763077761695</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="J45" s="15">
         <f t="shared" si="3"/>
-        <v>7740549448392.8506</v>
+        <v>49763077761695.266</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="0"/>
-        <v>7740549448393</v>
+        <v>49763077761695</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="19">
-        <v>16255153841625</v>
+        <v>109478771075730</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -2929,14 +2929,14 @@
       </c>
       <c r="J46" s="15">
         <f t="shared" si="3"/>
-        <v>16255153841624.986</v>
+        <v>109478771075729.59</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="0"/>
-        <v>16255153841625</v>
+        <v>109478771075730</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="19">
-        <v>34135823067413</v>
+        <v>240853296366605</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -2966,14 +2966,14 @@
       </c>
       <c r="J47" s="15">
         <f t="shared" si="3"/>
-        <v>34135823067412.473</v>
+        <v>240853296366605.12</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="0"/>
-        <v>34135823067413</v>
+        <v>240853296366605</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="19">
-        <v>71685228441567</v>
+        <v>529877252006531</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -3003,14 +3003,14 @@
       </c>
       <c r="J48" s="15">
         <f t="shared" si="3"/>
-        <v>71685228441566.203</v>
+        <v>529877252006531.31</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="0"/>
-        <v>71685228441567</v>
+        <v>529877252006531</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="19">
-        <v>150538979727289</v>
+        <v>1165729954414370</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -3040,14 +3040,14 @@
       </c>
       <c r="J49" s="15">
         <f t="shared" si="3"/>
-        <v>150538979727289.03</v>
+        <v>1165729954414369</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="0"/>
-        <v>150538979727289</v>
+        <v>1165729954414370</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="19">
-        <v>316131857427307</v>
+        <v>2564605899711610</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -3077,14 +3077,14 @@
       </c>
       <c r="J50" s="15">
         <f t="shared" si="3"/>
-        <v>316131857427307</v>
+        <v>2564605899711612</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L50" s="16">
         <f t="shared" si="0"/>
-        <v>316131857427307</v>
+        <v>2564605899711610</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="19">
-        <v>663876900597345</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -3114,14 +3114,14 @@
       </c>
       <c r="J51" s="15">
         <f t="shared" si="3"/>
-        <v>663876900597344.75</v>
+        <v>5642132979365547</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="0"/>
-        <v>663876900597345</v>
+        <v>5642132979365550</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3138,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="19">
-        <v>1394141491254420</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -3151,14 +3151,14 @@
       </c>
       <c r="J52" s="15">
         <f t="shared" si="3"/>
-        <v>1394141491254424</v>
+        <v>1.2412692554604204E+16</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="0"/>
-        <v>1394141491254420</v>
+        <v>1.24126925546042E+16</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="19">
-        <v>2927697131634290</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -3188,14 +3188,14 @@
       </c>
       <c r="J53" s="15">
         <f t="shared" si="3"/>
-        <v>2927697131634290.5</v>
+        <v>2.7307923620129252E+16</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>2927697131634290</v>
+        <v>2.73079236201293E+16</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -3225,14 +3225,14 @@
       </c>
       <c r="J54" s="15">
         <f t="shared" si="3"/>
-        <v>6148163976432010</v>
+        <v>6.007743196428436E+16</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>6148163976432010</v>
+        <v>6.00774319642844E+16</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="J55" s="15">
         <f t="shared" si="3"/>
-        <v>1.2911144350507222E+16</v>
+        <v>1.321703503214256E+17</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="0"/>
-        <v>1.29111443505072E+16</v>
+        <v>1.32170350321426E+17</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -3299,14 +3299,14 @@
       </c>
       <c r="J56" s="15">
         <f t="shared" si="3"/>
-        <v>2.7113403136065168E+16</v>
+        <v>2.9077477070713632E+17</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="0"/>
-        <v>2.71134031360652E+16</v>
+        <v>2.90774770707136E+17</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3323,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -3336,14 +3336,14 @@
       </c>
       <c r="J57" s="15">
         <f t="shared" si="3"/>
-        <v>5.6938146585736856E+16</v>
+        <v>6.3970449555569997E+17</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="0"/>
-        <v>5.6938146585736896E+16</v>
+        <v>6.3970449555569997E+17</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -3373,14 +3373,14 @@
       </c>
       <c r="J58" s="15">
         <f t="shared" si="3"/>
-        <v>1.1957010783004741E+17</v>
+        <v>1.40734989022254E+18</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L58" s="16">
         <f t="shared" si="0"/>
-        <v>1.1957010783004701E+17</v>
+        <v>1.40734989022254E+18</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3410,14 +3410,14 @@
       </c>
       <c r="J59" s="15">
         <f t="shared" si="3"/>
-        <v>2.5109722644309955E+17</v>
+        <v>3.0961697584895882E+18</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L59" s="16">
         <f t="shared" si="0"/>
-        <v>2.510972264431E+17</v>
+        <v>3.0961697584895898E+18</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="J60" s="15">
         <f t="shared" si="3"/>
-        <v>5.2730417553050906E+17</v>
+        <v>6.8115734686770944E+18</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="0"/>
-        <v>5.2730417553050899E+17</v>
+        <v>6.8115734686770903E+18</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3484,14 +3484,14 @@
       </c>
       <c r="J61" s="15">
         <f t="shared" si="3"/>
-        <v>1.1073387686140691E+18</v>
+        <v>1.4985461631089609E+19</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="0"/>
-        <v>1.10733876861407E+18</v>
+        <v>1.4985461631089601E+19</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3508,7 +3508,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3521,14 +3521,14 @@
       </c>
       <c r="J62" s="15">
         <f t="shared" si="3"/>
-        <v>2.3254114140895452E+18</v>
+        <v>3.2968015588397142E+19</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L62" s="16">
         <f t="shared" si="0"/>
-        <v>2.3254114140895498E+18</v>
+        <v>3.2968015588397101E+19</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3558,14 +3558,14 @@
       </c>
       <c r="J63" s="15">
         <f t="shared" si="3"/>
-        <v>4.8833639695880448E+18</v>
+        <v>7.252963429447372E+19</v>
       </c>
       <c r="K63">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="0"/>
-        <v>4.8833639695880397E+18</v>
+        <v>7.2529634294473703E+19</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3595,14 +3595,14 @@
       </c>
       <c r="J64" s="15">
         <f t="shared" si="3"/>
-        <v>1.0255064336134894E+19</v>
+        <v>1.5956519544784221E+20</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="0"/>
-        <v>1.02550643361349E+19</v>
+        <v>1.5956519544784201E+20</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3632,14 +3632,14 @@
       </c>
       <c r="J65" s="15">
         <f t="shared" si="3"/>
-        <v>2.1535635105883279E+19</v>
+        <v>3.5104342998525287E+20</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L65" s="16">
         <f t="shared" si="0"/>
-        <v>2.15356351058833E+19</v>
+        <v>3.51043429985253E+20</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3669,14 +3669,14 @@
       </c>
       <c r="J66" s="15">
         <f t="shared" si="3"/>
-        <v>4.5224833722354885E+19</v>
+        <v>7.7229554596755643E+20</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="0"/>
-        <v>4.5224833722354901E+19</v>
+        <v>7.7229554596755603E+20</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3706,14 +3706,14 @@
       </c>
       <c r="J67" s="15">
         <f t="shared" si="3"/>
-        <v>9.4972150816945258E+19</v>
+        <v>1.6990502011286242E+21</v>
       </c>
       <c r="K67">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L67" s="16">
         <f t="shared" si="0"/>
-        <v>9.4972150816945308E+19</v>
+        <v>1.69905020112862E+21</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3743,14 +3743,14 @@
       </c>
       <c r="J68" s="15">
         <f t="shared" si="3"/>
-        <v>1.9944151671558504E+20</v>
+        <v>3.7379104424829733E+21</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L68" s="16">
         <f t="shared" si="0"/>
-        <v>1.9944151671558501E+20</v>
+        <v>3.7379104424829701E+21</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3780,14 +3780,14 @@
       </c>
       <c r="J69" s="15">
         <f t="shared" si="3"/>
-        <v>4.1882718510272859E+20</v>
+        <v>8.2234029734625416E+21</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L69" s="16">
         <f t="shared" si="0"/>
-        <v>4.1882718510272899E+20</v>
+        <v>8.2234029734625395E+21</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3817,14 +3817,14 @@
       </c>
       <c r="J70" s="15">
         <f t="shared" si="3"/>
-        <v>8.7953708871573006E+20</v>
+        <v>1.8091486541617593E+22</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" ref="L70:L79" si="4">ROUNDUP(J70,0)</f>
-        <v>8.7953708871573006E+20</v>
+        <f t="shared" ref="L70:L79" si="4">ROUNDDOWN(J70,0)</f>
+        <v>1.8091486541617599E+22</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3854,14 +3854,14 @@
       </c>
       <c r="J71" s="15">
         <f t="shared" si="3"/>
-        <v>1.8470278863030332E+21</v>
+        <v>3.9801270391558711E+22</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="4"/>
-        <v>1.84702788630303E+21</v>
+        <v>3.9801270391558703E+22</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3891,14 +3891,14 @@
       </c>
       <c r="J72" s="15">
         <f t="shared" si="3"/>
-        <v>3.8787585612363701E+21</v>
+        <v>8.7562794861429166E+22</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="4"/>
-        <v>3.8787585612363701E+21</v>
+        <v>8.7562794861429199E+22</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3928,14 +3928,14 @@
       </c>
       <c r="J73" s="15">
         <f t="shared" si="3"/>
-        <v>8.1453929785963777E+21</v>
+        <v>1.9263814869514418E+23</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="4"/>
-        <v>8.1453929785963798E+21</v>
+        <v>1.9263814869514401E+23</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3965,14 +3965,14 @@
       </c>
       <c r="J74" s="15">
         <f t="shared" si="3"/>
-        <v>1.7105325255052394E+22</v>
+        <v>4.2380392712931724E+23</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L74" s="16">
         <f t="shared" si="4"/>
-        <v>1.7105325255052401E+22</v>
+        <v>4.2380392712931697E+23</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -4002,14 +4002,14 @@
       </c>
       <c r="J75" s="15">
         <f t="shared" si="3"/>
-        <v>3.592118303561003E+22</v>
+        <v>9.3236863968449804E+23</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L75" s="16">
         <f t="shared" si="4"/>
-        <v>3.5921183035610001E+22</v>
+        <v>9.3236863968449804E+23</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -4039,14 +4039,14 @@
       </c>
       <c r="J76" s="15">
         <f t="shared" si="3"/>
-        <v>7.5434484374781066E+22</v>
+        <v>2.0512110073058958E+24</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="4"/>
-        <v>7.54344843747811E+22</v>
+        <v>2.0512110073059001E+24</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -4076,14 +4076,14 @@
       </c>
       <c r="J77" s="15">
         <f t="shared" si="3"/>
-        <v>1.5841241718704024E+23</v>
+        <v>4.5126642160729711E+24</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L77" s="16">
         <f t="shared" si="4"/>
-        <v>1.5841241718704E+23</v>
+        <v>4.51266421607297E+24</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -4113,14 +4113,14 @@
       </c>
       <c r="J78" s="15">
         <f t="shared" si="3"/>
-        <v>3.326660760927845E+23</v>
+        <v>9.9278612753605376E+24</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L78" s="16">
         <f t="shared" si="4"/>
-        <v>3.3266607609278497E+23</v>
+        <v>9.9278612753605398E+24</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4137,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="19">
-        <v>6148163976432010</v>
+        <v>5642132979365550</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -4150,14 +4150,14 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" si="3"/>
-        <v>6.9859875979484751E+23</v>
+        <v>2.1841294805793186E+25</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="4"/>
-        <v>6.9859875979484805E+23</v>
+        <v>2.1841294805793199E+25</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E79"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L5" s="16">
         <f>ROUNDDOWN(J5,0)</f>
@@ -1449,10 +1449,10 @@
       </c>
       <c r="J6" s="15">
         <f>J5*K5</f>
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K6">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L69" si="0">ROUNDDOWN(J6,0)</f>
@@ -1486,10 +1486,10 @@
       </c>
       <c r="J7" s="15">
         <f>J6*K6</f>
-        <v>4.8400000000000007</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="K7">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1523,14 +1523,14 @@
       </c>
       <c r="J8" s="15">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
-        <v>10.648000000000003</v>
+        <v>8.615124999999999</v>
       </c>
       <c r="K8">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>23.42560000000001</v>
+        <v>17.661006249999996</v>
       </c>
       <c r="K9">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1597,14 +1597,14 @@
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>51.536320000000025</v>
+        <v>36.205062812499989</v>
       </c>
       <c r="K10">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="18">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1634,14 +1634,14 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>113.37990400000007</v>
+        <v>74.220378765624972</v>
       </c>
       <c r="K11">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>249.43578880000018</v>
+        <v>152.15177646953117</v>
       </c>
       <c r="K12">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>548</v>
+        <v>311</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>548.7587353600004</v>
+        <v>311.91114176253888</v>
       </c>
       <c r="K13">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="18">
-        <v>1207</v>
+        <v>639</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>1207.269217792001</v>
+        <v>639.41784061320459</v>
       </c>
       <c r="K14">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
-        <v>1207</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>2655</v>
+        <v>1310</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -1782,14 +1782,14 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
-        <v>2655.9922791424024</v>
+        <v>1310.8065732570692</v>
       </c>
       <c r="K15">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
-        <v>2655</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>5843</v>
+        <v>2687</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" si="2"/>
-        <v>5843.1830141132859</v>
+        <v>2687.1534751769918</v>
       </c>
       <c r="K16">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
-        <v>5843</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="17">
-        <v>12855</v>
+        <v>5508</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -1856,14 +1856,14 @@
       </c>
       <c r="J17" s="15">
         <f t="shared" si="2"/>
-        <v>12855.00263104923</v>
+        <v>5508.6646241128328</v>
       </c>
       <c r="K17">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
-        <v>12855</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="17">
-        <v>28281</v>
+        <v>11292</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>28281.00578830831</v>
+        <v>11292.762479431307</v>
       </c>
       <c r="K18">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
-        <v>28281</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="17">
-        <v>62218</v>
+        <v>23150</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -1930,14 +1930,14 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>62218.212734278284</v>
+        <v>23150.163082834177</v>
       </c>
       <c r="K19">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
-        <v>62218</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="17">
-        <v>136880</v>
+        <v>47457</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -1967,14 +1967,14 @@
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>136880.06801541222</v>
+        <v>47457.834319810056</v>
       </c>
       <c r="K20">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
-        <v>136880</v>
+        <v>47457</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17">
-        <v>301136</v>
+        <v>97288</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -2004,14 +2004,14 @@
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>301136.1496339069</v>
+        <v>97288.560355610607</v>
       </c>
       <c r="K21">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
-        <v>301136</v>
+        <v>97288</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2028,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="17">
-        <v>662499</v>
+        <v>199441</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -2041,14 +2041,14 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
-        <v>662499.52919459518</v>
+        <v>199441.54872900172</v>
       </c>
       <c r="K22">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
-        <v>662499</v>
+        <v>199441</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="18">
-        <v>1457498</v>
+        <v>408855</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -2078,14 +2078,14 @@
       </c>
       <c r="J23" s="15">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
-        <v>1457498.9642281095</v>
+        <v>408855.17489445349</v>
       </c>
       <c r="K23">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
-        <v>1457498</v>
+        <v>408855</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="18">
-        <v>3206497</v>
+        <v>838153</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -2115,14 +2115,14 @@
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>3206497.7213018411</v>
+        <v>838153.10853362957</v>
       </c>
       <c r="K24">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
-        <v>3206497</v>
+        <v>838153</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="18">
-        <v>7054294</v>
+        <v>1718213</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -2152,14 +2152,14 @@
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
-        <v>7054294.9868640509</v>
+        <v>1718213.8724939404</v>
       </c>
       <c r="K25">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
-        <v>7054294</v>
+        <v>1718213</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="18">
-        <v>15519448</v>
+        <v>3522338</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -2189,14 +2189,14 @@
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>15519448.971100913</v>
+        <v>3522338.4386125775</v>
       </c>
       <c r="K26">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
-        <v>15519448</v>
+        <v>3522338</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="18">
-        <v>34142787</v>
+        <v>7220793</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -2226,14 +2226,14 @@
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
-        <v>34142787.73642201</v>
+        <v>7220793.7991557829</v>
       </c>
       <c r="K27">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
-        <v>34142787</v>
+        <v>7220793</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="18">
-        <v>75114133</v>
+        <v>14802627</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -2263,14 +2263,14 @@
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
-        <v>75114133.020128429</v>
+        <v>14802627.288269354</v>
       </c>
       <c r="K28">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="0"/>
-        <v>75114133</v>
+        <v>14802627</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="18">
-        <v>165251092</v>
+        <v>30345385</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
-        <v>165251092.64428255</v>
+        <v>30345385.940952174</v>
       </c>
       <c r="K29">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
-        <v>165251092</v>
+        <v>30345385</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="17">
-        <v>363552403</v>
+        <v>62208041</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -2337,14 +2337,14 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
-        <v>363552403.81742162</v>
+        <v>62208041.178951949</v>
       </c>
       <c r="K30">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
-        <v>363552403</v>
+        <v>62208041</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="17">
-        <v>799815288</v>
+        <v>127526484</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -2374,14 +2374,14 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
-        <v>799815288.39832759</v>
+        <v>127526484.41685149</v>
       </c>
       <c r="K31">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
-        <v>799815288</v>
+        <v>127526484</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="17">
-        <v>1759593634</v>
+        <v>261429293</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -2411,14 +2411,14 @@
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
-        <v>1759593634.4763207</v>
+        <v>261429293.05454552</v>
       </c>
       <c r="K32">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="0"/>
-        <v>1759593634</v>
+        <v>261429293</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="17">
-        <v>3871105995</v>
+        <v>535930050</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2448,14 +2448,14 @@
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
-        <v>3871105995.8479061</v>
+        <v>535930050.76181829</v>
       </c>
       <c r="K33">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="0"/>
-        <v>3871105995</v>
+        <v>535930050</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="17">
-        <v>8516433190</v>
+        <v>1098656604</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2485,14 +2485,14 @@
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
-        <v>8516433190.8653946</v>
+        <v>1098656604.0617273</v>
       </c>
       <c r="K34">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="0"/>
-        <v>8516433190</v>
+        <v>1098656604</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="17">
-        <v>18736153019</v>
+        <v>2252246038</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2522,14 +2522,14 @@
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
-        <v>18736153019.90387</v>
+        <v>2252246038.3265409</v>
       </c>
       <c r="K35">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="0"/>
-        <v>18736153019</v>
+        <v>2252246038</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="18">
-        <v>41219536643</v>
+        <v>4617104378</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="J36" s="15">
         <f t="shared" si="3"/>
-        <v>41219536643.788513</v>
+        <v>4617104378.5694084</v>
       </c>
       <c r="K36">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="0"/>
-        <v>41219536643</v>
+        <v>4617104378</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="18">
-        <v>90682980616</v>
+        <v>9465063976</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2596,14 +2596,14 @@
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
-        <v>90682980616.334732</v>
+        <v>9465063976.0672855</v>
       </c>
       <c r="K37">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="0"/>
-        <v>90682980616</v>
+        <v>9465063976</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2620,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="18">
-        <v>199502557355</v>
+        <v>19403381150</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2633,14 +2633,14 @@
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
-        <v>199502557355.93643</v>
+        <v>19403381150.937935</v>
       </c>
       <c r="K38">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="0"/>
-        <v>199502557355</v>
+        <v>19403381150</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="18">
-        <v>438905626183</v>
+        <v>39776931359</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2670,14 +2670,14 @@
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
-        <v>438905626183.06018</v>
+        <v>39776931359.42276</v>
       </c>
       <c r="K39">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="0"/>
-        <v>438905626183</v>
+        <v>39776931359</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2694,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="18">
-        <v>965592377602</v>
+        <v>81542709286</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2707,14 +2707,14 @@
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
-        <v>965592377602.73242</v>
+        <v>81542709286.81665</v>
       </c>
       <c r="K40">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="0"/>
-        <v>965592377602</v>
+        <v>81542709286</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="18">
-        <v>2124303230726</v>
+        <v>167162554037</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -2744,14 +2744,14 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
-        <v>2124303230726.0115</v>
+        <v>167162554037.97412</v>
       </c>
       <c r="K41">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="0"/>
-        <v>2124303230726</v>
+        <v>167162554037</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="18">
-        <v>4673467107597</v>
+        <v>342683235777</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -2781,14 +2781,14 @@
       </c>
       <c r="J42" s="15">
         <f t="shared" si="3"/>
-        <v>4673467107597.2256</v>
+        <v>342683235777.84692</v>
       </c>
       <c r="K42">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="0"/>
-        <v>4673467107597</v>
+        <v>342683235777</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="19">
-        <v>10281627636713</v>
+        <v>702500633344</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -2818,14 +2818,14 @@
       </c>
       <c r="J43" s="15">
         <f t="shared" si="3"/>
-        <v>10281627636713.896</v>
+        <v>702500633344.58618</v>
       </c>
       <c r="K43">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
-        <v>10281627636713</v>
+        <v>702500633344</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="19">
-        <v>22619580800770</v>
+        <v>1440126298356</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -2855,14 +2855,14 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" si="3"/>
-        <v>22619580800770.574</v>
+        <v>1440126298356.4016</v>
       </c>
       <c r="K44">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="0"/>
-        <v>22619580800770</v>
+        <v>1440126298356</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="19">
-        <v>49763077761695</v>
+        <v>2952258911630</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="J45" s="15">
         <f t="shared" si="3"/>
-        <v>49763077761695.266</v>
+        <v>2952258911630.623</v>
       </c>
       <c r="K45">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="0"/>
-        <v>49763077761695</v>
+        <v>2952258911630</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="19">
-        <v>109478771075730</v>
+        <v>6052130768842</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -2929,14 +2929,14 @@
       </c>
       <c r="J46" s="15">
         <f t="shared" si="3"/>
-        <v>109478771075729.59</v>
+        <v>6052130768842.7764</v>
       </c>
       <c r="K46">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="0"/>
-        <v>109478771075730</v>
+        <v>6052130768842</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="19">
-        <v>240853296366605</v>
+        <v>12406868076127</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -2966,14 +2966,14 @@
       </c>
       <c r="J47" s="15">
         <f t="shared" si="3"/>
-        <v>240853296366605.12</v>
+        <v>12406868076127.691</v>
       </c>
       <c r="K47">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="0"/>
-        <v>240853296366605</v>
+        <v>12406868076127</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="19">
-        <v>529877252006531</v>
+        <v>25434079556061</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -3003,14 +3003,14 @@
       </c>
       <c r="J48" s="15">
         <f t="shared" si="3"/>
-        <v>529877252006531.31</v>
+        <v>25434079556061.766</v>
       </c>
       <c r="K48">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="0"/>
-        <v>529877252006531</v>
+        <v>25434079556061</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="19">
-        <v>1165729954414370</v>
+        <v>52139863089926</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -3040,14 +3040,14 @@
       </c>
       <c r="J49" s="15">
         <f t="shared" si="3"/>
-        <v>1165729954414369</v>
+        <v>52139863089926.617</v>
       </c>
       <c r="K49">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="0"/>
-        <v>1165729954414370</v>
+        <v>52139863089926</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="19">
-        <v>2564605899711610</v>
+        <v>106886719334350</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -3077,14 +3077,14 @@
       </c>
       <c r="J50" s="15">
         <f t="shared" si="3"/>
-        <v>2564605899711612</v>
+        <v>106886719334349.56</v>
       </c>
       <c r="K50">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L50" s="16">
         <f t="shared" si="0"/>
-        <v>2564605899711610</v>
+        <v>106886719334350</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="19">
-        <v>5642132979365550</v>
+        <v>219117774635417</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -3114,14 +3114,14 @@
       </c>
       <c r="J51" s="15">
         <f t="shared" si="3"/>
-        <v>5642132979365547</v>
+        <v>219117774635416.59</v>
       </c>
       <c r="K51">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="0"/>
-        <v>5642132979365550</v>
+        <v>219117774635417</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3138,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="19">
-        <v>5642132979365550</v>
+        <v>449191438002604</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -3151,14 +3151,14 @@
       </c>
       <c r="J52" s="15">
         <f t="shared" si="3"/>
-        <v>1.2412692554604204E+16</v>
+        <v>449191438002604</v>
       </c>
       <c r="K52">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="0"/>
-        <v>1.24126925546042E+16</v>
+        <v>449191438002604</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="19">
-        <v>5642132979365550</v>
+        <v>920842447905338</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -3188,14 +3188,14 @@
       </c>
       <c r="J53" s="15">
         <f t="shared" si="3"/>
-        <v>2.7307923620129252E+16</v>
+        <v>920842447905338.12</v>
       </c>
       <c r="K53">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="0"/>
-        <v>2.73079236201293E+16</v>
+        <v>920842447905338</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="19">
-        <v>5642132979365550</v>
+        <v>1887727018205940</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -3225,14 +3225,14 @@
       </c>
       <c r="J54" s="15">
         <f t="shared" si="3"/>
-        <v>6.007743196428436E+16</v>
+        <v>1887727018205943</v>
       </c>
       <c r="K54">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="0"/>
-        <v>6.00774319642844E+16</v>
+        <v>1887727018205940</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="19">
-        <v>5642132979365550</v>
+        <v>3869840387322180</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="J55" s="15">
         <f t="shared" si="3"/>
-        <v>1.321703503214256E+17</v>
+        <v>3869840387322183</v>
       </c>
       <c r="K55">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="0"/>
-        <v>1.32170350321426E+17</v>
+        <v>3869840387322180</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -3299,14 +3299,14 @@
       </c>
       <c r="J56" s="15">
         <f t="shared" si="3"/>
-        <v>2.9077477070713632E+17</v>
+        <v>7933172794010474</v>
       </c>
       <c r="K56">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="0"/>
-        <v>2.90774770707136E+17</v>
+        <v>7933172794010470</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3323,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -3336,14 +3336,14 @@
       </c>
       <c r="J57" s="15">
         <f t="shared" si="3"/>
-        <v>6.3970449555569997E+17</v>
+        <v>1.626300422772147E+16</v>
       </c>
       <c r="K57">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="0"/>
-        <v>6.3970449555569997E+17</v>
+        <v>1.62630042277215E+16</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -3373,14 +3373,14 @@
       </c>
       <c r="J58" s="15">
         <f t="shared" si="3"/>
-        <v>1.40734989022254E+18</v>
+        <v>3.3339158666829012E+16</v>
       </c>
       <c r="K58">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L58" s="16">
         <f t="shared" si="0"/>
-        <v>1.40734989022254E+18</v>
+        <v>3.3339158666829E+16</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3410,14 +3410,14 @@
       </c>
       <c r="J59" s="15">
         <f t="shared" si="3"/>
-        <v>3.0961697584895882E+18</v>
+        <v>6.8345275266999472E+16</v>
       </c>
       <c r="K59">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L59" s="16">
         <f t="shared" si="0"/>
-        <v>3.0961697584895898E+18</v>
+        <v>6.8345275266999504E+16</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="J60" s="15">
         <f t="shared" si="3"/>
-        <v>6.8115734686770944E+18</v>
+        <v>1.4010781429734891E+17</v>
       </c>
       <c r="K60">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="0"/>
-        <v>6.8115734686770903E+18</v>
+        <v>1.4010781429734899E+17</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3484,14 +3484,14 @@
       </c>
       <c r="J61" s="15">
         <f t="shared" si="3"/>
-        <v>1.4985461631089609E+19</v>
+        <v>2.8722101930956525E+17</v>
       </c>
       <c r="K61">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="0"/>
-        <v>1.4985461631089601E+19</v>
+        <v>2.8722101930956499E+17</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3508,7 +3508,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3521,14 +3521,14 @@
       </c>
       <c r="J62" s="15">
         <f t="shared" si="3"/>
-        <v>3.2968015588397142E+19</v>
+        <v>5.8880308958460877E+17</v>
       </c>
       <c r="K62">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L62" s="16">
         <f t="shared" si="0"/>
-        <v>3.2968015588397101E+19</v>
+        <v>5.8880308958460902E+17</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3558,14 +3558,14 @@
       </c>
       <c r="J63" s="15">
         <f t="shared" si="3"/>
-        <v>7.252963429447372E+19</v>
+        <v>1.2070463336484477E+18</v>
       </c>
       <c r="K63">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="0"/>
-        <v>7.2529634294473703E+19</v>
+        <v>1.20704633364845E+18</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3595,14 +3595,14 @@
       </c>
       <c r="J64" s="15">
         <f t="shared" si="3"/>
-        <v>1.5956519544784221E+20</v>
+        <v>2.4744449839793178E+18</v>
       </c>
       <c r="K64">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="0"/>
-        <v>1.5956519544784201E+20</v>
+        <v>2.4744449839793198E+18</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3632,14 +3632,14 @@
       </c>
       <c r="J65" s="15">
         <f t="shared" si="3"/>
-        <v>3.5104342998525287E+20</v>
+        <v>5.0726122171576013E+18</v>
       </c>
       <c r="K65">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L65" s="16">
         <f t="shared" si="0"/>
-        <v>3.51043429985253E+20</v>
+        <v>5.0726122171576003E+18</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3669,14 +3669,14 @@
       </c>
       <c r="J66" s="15">
         <f t="shared" si="3"/>
-        <v>7.7229554596755643E+20</v>
+        <v>1.0398855045173082E+19</v>
       </c>
       <c r="K66">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="0"/>
-        <v>7.7229554596755603E+20</v>
+        <v>1.0398855045173101E+19</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3706,14 +3706,14 @@
       </c>
       <c r="J67" s="15">
         <f t="shared" si="3"/>
-        <v>1.6990502011286242E+21</v>
+        <v>2.1317652842604818E+19</v>
       </c>
       <c r="K67">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L67" s="16">
         <f t="shared" si="0"/>
-        <v>1.69905020112862E+21</v>
+        <v>2.1317652842604798E+19</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3743,14 +3743,14 @@
       </c>
       <c r="J68" s="15">
         <f t="shared" si="3"/>
-        <v>3.7379104424829733E+21</v>
+        <v>4.3701188327339876E+19</v>
       </c>
       <c r="K68">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L68" s="16">
         <f t="shared" si="0"/>
-        <v>3.7379104424829701E+21</v>
+        <v>4.3701188327339901E+19</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3780,14 +3780,14 @@
       </c>
       <c r="J69" s="15">
         <f t="shared" si="3"/>
-        <v>8.2234029734625416E+21</v>
+        <v>8.9587436071046742E+19</v>
       </c>
       <c r="K69">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L69" s="16">
         <f t="shared" si="0"/>
-        <v>8.2234029734625395E+21</v>
+        <v>8.9587436071046693E+19</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3817,14 +3817,14 @@
       </c>
       <c r="J70" s="15">
         <f t="shared" si="3"/>
-        <v>1.8091486541617593E+22</v>
+        <v>1.836542439456458E+20</v>
       </c>
       <c r="K70">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L70" s="16">
         <f t="shared" ref="L70:L79" si="4">ROUNDDOWN(J70,0)</f>
-        <v>1.8091486541617599E+22</v>
+        <v>1.83654243945646E+20</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3854,14 +3854,14 @@
       </c>
       <c r="J71" s="15">
         <f t="shared" si="3"/>
-        <v>3.9801270391558711E+22</v>
+        <v>3.7649120008857387E+20</v>
       </c>
       <c r="K71">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="4"/>
-        <v>3.9801270391558703E+22</v>
+        <v>3.76491200088574E+20</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3891,14 +3891,14 @@
       </c>
       <c r="J72" s="15">
         <f t="shared" si="3"/>
-        <v>8.7562794861429166E+22</v>
+        <v>7.7180696018157634E+20</v>
       </c>
       <c r="K72">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="4"/>
-        <v>8.7562794861429199E+22</v>
+        <v>7.7180696018157594E+20</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3928,14 +3928,14 @@
       </c>
       <c r="J73" s="15">
         <f t="shared" si="3"/>
-        <v>1.9263814869514418E+23</v>
+        <v>1.5822042683722315E+21</v>
       </c>
       <c r="K73">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="4"/>
-        <v>1.9263814869514401E+23</v>
+        <v>1.5822042683722299E+21</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3965,14 +3965,14 @@
       </c>
       <c r="J74" s="15">
         <f t="shared" si="3"/>
-        <v>4.2380392712931724E+23</v>
+        <v>3.243518750163074E+21</v>
       </c>
       <c r="K74">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L74" s="16">
         <f t="shared" si="4"/>
-        <v>4.2380392712931697E+23</v>
+        <v>3.2435187501630698E+21</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -4002,14 +4002,14 @@
       </c>
       <c r="J75" s="15">
         <f t="shared" si="3"/>
-        <v>9.3236863968449804E+23</v>
+        <v>6.6492134378343015E+21</v>
       </c>
       <c r="K75">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L75" s="16">
         <f t="shared" si="4"/>
-        <v>9.3236863968449804E+23</v>
+        <v>6.6492134378343005E+21</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -4039,14 +4039,14 @@
       </c>
       <c r="J76" s="15">
         <f t="shared" si="3"/>
-        <v>2.0512110073058958E+24</v>
+        <v>1.3630887547560316E+22</v>
       </c>
       <c r="K76">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="4"/>
-        <v>2.0512110073059001E+24</v>
+        <v>1.3630887547560299E+22</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -4076,14 +4076,14 @@
       </c>
       <c r="J77" s="15">
         <f t="shared" si="3"/>
-        <v>4.5126642160729711E+24</v>
+        <v>2.7943319472498645E+22</v>
       </c>
       <c r="K77">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L77" s="16">
         <f t="shared" si="4"/>
-        <v>4.51266421607297E+24</v>
+        <v>2.7943319472498599E+22</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -4113,14 +4113,14 @@
       </c>
       <c r="J78" s="15">
         <f t="shared" si="3"/>
-        <v>9.9278612753605376E+24</v>
+        <v>5.7283804918622217E+22</v>
       </c>
       <c r="K78">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L78" s="16">
         <f t="shared" si="4"/>
-        <v>9.9278612753605398E+24</v>
+        <v>5.72838049186222E+22</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -4137,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="19">
-        <v>5642132979365550</v>
+        <v>7933172794010470</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -4150,14 +4150,14 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" si="3"/>
-        <v>2.1841294805793186E+25</v>
+        <v>1.1743180008317553E+23</v>
       </c>
       <c r="K79">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="4"/>
-        <v>2.1841294805793199E+25</v>
+        <v>1.17431800083176E+23</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -847,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,12 +892,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:E79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
@@ -1473,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1510,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1547,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1584,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1620,8 +1614,8 @@
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
-        <v>74</v>
+      <c r="E11" s="17">
+        <v>13</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1657,8 +1651,8 @@
       <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
-        <v>152</v>
+      <c r="E12" s="17">
+        <v>15</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1694,8 +1688,8 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="18">
-        <v>311</v>
+      <c r="E13" s="17">
+        <v>17</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1731,8 +1725,8 @@
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
-        <v>639</v>
+      <c r="E14" s="17">
+        <v>19</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -1768,8 +1762,8 @@
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="18">
-        <v>1310</v>
+      <c r="E15" s="17">
+        <v>21</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -1805,8 +1799,8 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="18">
-        <v>2687</v>
+      <c r="E16" s="17">
+        <v>23</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -1843,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="17">
-        <v>5508</v>
+        <v>25</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -1880,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="17">
-        <v>11292</v>
+        <v>27</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -1917,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="17">
-        <v>23150</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -1954,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="17">
-        <v>47457</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -1991,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17">
-        <v>97288</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -2028,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="17">
-        <v>199441</v>
+        <v>35</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -2064,8 +2058,8 @@
       <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="18">
-        <v>408855</v>
+      <c r="E23" s="17">
+        <v>37</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -2101,8 +2095,8 @@
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="18">
-        <v>838153</v>
+      <c r="E24" s="17">
+        <v>39</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -2138,8 +2132,8 @@
       <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="18">
-        <v>1718213</v>
+      <c r="E25" s="17">
+        <v>41</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -2175,8 +2169,8 @@
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="18">
-        <v>3522338</v>
+      <c r="E26" s="17">
+        <v>43</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -2212,8 +2206,8 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="18">
-        <v>7220793</v>
+      <c r="E27" s="17">
+        <v>45</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -2249,8 +2243,8 @@
       <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="18">
-        <v>14802627</v>
+      <c r="E28" s="17">
+        <v>47</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -2286,8 +2280,8 @@
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="18">
-        <v>30345385</v>
+      <c r="E29" s="17">
+        <v>49</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -2324,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="17">
-        <v>62208041</v>
+        <v>51</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -2361,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="17">
-        <v>127526484</v>
+        <v>53</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -2398,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="17">
-        <v>261429293</v>
+        <v>55</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -2435,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="17">
-        <v>535930050</v>
+        <v>57</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2472,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="17">
-        <v>1098656604</v>
+        <v>59</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2509,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="17">
-        <v>2252246038</v>
+        <v>61</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2545,8 +2539,8 @@
       <c r="D36" s="6">
         <v>7</v>
       </c>
-      <c r="E36" s="18">
-        <v>4617104378</v>
+      <c r="E36" s="17">
+        <v>63</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2582,8 +2576,8 @@
       <c r="D37" s="6">
         <v>7</v>
       </c>
-      <c r="E37" s="18">
-        <v>9465063976</v>
+      <c r="E37" s="17">
+        <v>65</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2619,8 +2613,8 @@
       <c r="D38" s="6">
         <v>7</v>
       </c>
-      <c r="E38" s="18">
-        <v>19403381150</v>
+      <c r="E38" s="17">
+        <v>67</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2656,8 +2650,8 @@
       <c r="D39" s="6">
         <v>7</v>
       </c>
-      <c r="E39" s="18">
-        <v>39776931359</v>
+      <c r="E39" s="17">
+        <v>69</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2693,8 +2687,8 @@
       <c r="D40" s="6">
         <v>7</v>
       </c>
-      <c r="E40" s="18">
-        <v>81542709286</v>
+      <c r="E40" s="17">
+        <v>71</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2730,8 +2724,8 @@
       <c r="D41" s="6">
         <v>7</v>
       </c>
-      <c r="E41" s="18">
-        <v>167162554037</v>
+      <c r="E41" s="17">
+        <v>73</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -2767,8 +2761,8 @@
       <c r="D42" s="6">
         <v>7</v>
       </c>
-      <c r="E42" s="18">
-        <v>342683235777</v>
+      <c r="E42" s="17">
+        <v>75</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -2804,8 +2798,8 @@
       <c r="D43" s="6">
         <v>8</v>
       </c>
-      <c r="E43" s="19">
-        <v>702500633344</v>
+      <c r="E43" s="17">
+        <v>77</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -2841,8 +2835,8 @@
       <c r="D44" s="6">
         <v>8</v>
       </c>
-      <c r="E44" s="19">
-        <v>1440126298356</v>
+      <c r="E44" s="17">
+        <v>79</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -2878,8 +2872,8 @@
       <c r="D45" s="6">
         <v>8</v>
       </c>
-      <c r="E45" s="19">
-        <v>2952258911630</v>
+      <c r="E45" s="17">
+        <v>81</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -2915,8 +2909,8 @@
       <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="19">
-        <v>6052130768842</v>
+      <c r="E46" s="17">
+        <v>83</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -2952,8 +2946,8 @@
       <c r="D47" s="6">
         <v>8</v>
       </c>
-      <c r="E47" s="19">
-        <v>12406868076127</v>
+      <c r="E47" s="17">
+        <v>85</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -2989,8 +2983,8 @@
       <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="E48" s="19">
-        <v>25434079556061</v>
+      <c r="E48" s="17">
+        <v>87</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -3026,8 +3020,8 @@
       <c r="D49" s="8">
         <v>9</v>
       </c>
-      <c r="E49" s="19">
-        <v>52139863089926</v>
+      <c r="E49" s="17">
+        <v>89</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -3063,8 +3057,8 @@
       <c r="D50" s="8">
         <v>9</v>
       </c>
-      <c r="E50" s="19">
-        <v>106886719334350</v>
+      <c r="E50" s="17">
+        <v>91</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -3100,8 +3094,8 @@
       <c r="D51" s="8">
         <v>9</v>
       </c>
-      <c r="E51" s="19">
-        <v>219117774635417</v>
+      <c r="E51" s="17">
+        <v>93</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -3137,8 +3131,8 @@
       <c r="D52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="19">
-        <v>449191438002604</v>
+      <c r="E52" s="17">
+        <v>95</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -3174,8 +3168,8 @@
       <c r="D53" s="8">
         <v>9</v>
       </c>
-      <c r="E53" s="19">
-        <v>920842447905338</v>
+      <c r="E53" s="17">
+        <v>97</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -3211,8 +3205,8 @@
       <c r="D54" s="8">
         <v>9</v>
       </c>
-      <c r="E54" s="19">
-        <v>1887727018205940</v>
+      <c r="E54" s="17">
+        <v>99</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -3248,8 +3242,8 @@
       <c r="D55" s="13">
         <v>10</v>
       </c>
-      <c r="E55" s="19">
-        <v>3869840387322180</v>
+      <c r="E55" s="17">
+        <v>101</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -3285,8 +3279,8 @@
       <c r="D56" s="13">
         <v>10</v>
       </c>
-      <c r="E56" s="19">
-        <v>7933172794010470</v>
+      <c r="E56" s="17">
+        <v>103</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -3322,8 +3316,8 @@
       <c r="D57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="19">
-        <v>7933172794010470</v>
+      <c r="E57" s="17">
+        <v>105</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -3359,8 +3353,8 @@
       <c r="D58" s="13">
         <v>10</v>
       </c>
-      <c r="E58" s="19">
-        <v>7933172794010470</v>
+      <c r="E58" s="17">
+        <v>107</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -3396,8 +3390,8 @@
       <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="19">
-        <v>7933172794010470</v>
+      <c r="E59" s="17">
+        <v>109</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3433,8 +3427,8 @@
       <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="19">
-        <v>7933172794010470</v>
+      <c r="E60" s="17">
+        <v>111</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3470,8 +3464,8 @@
       <c r="D61" s="13">
         <v>11</v>
       </c>
-      <c r="E61" s="19">
-        <v>7933172794010470</v>
+      <c r="E61" s="17">
+        <v>113</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3507,8 +3501,8 @@
       <c r="D62" s="13">
         <v>11</v>
       </c>
-      <c r="E62" s="19">
-        <v>7933172794010470</v>
+      <c r="E62" s="17">
+        <v>115</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3544,8 +3538,8 @@
       <c r="D63" s="13">
         <v>11</v>
       </c>
-      <c r="E63" s="19">
-        <v>7933172794010470</v>
+      <c r="E63" s="17">
+        <v>117</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3581,8 +3575,8 @@
       <c r="D64" s="13">
         <v>11</v>
       </c>
-      <c r="E64" s="19">
-        <v>7933172794010470</v>
+      <c r="E64" s="17">
+        <v>119</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3618,8 +3612,8 @@
       <c r="D65" s="13">
         <v>11</v>
       </c>
-      <c r="E65" s="19">
-        <v>7933172794010470</v>
+      <c r="E65" s="17">
+        <v>121</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3655,8 +3649,8 @@
       <c r="D66" s="13">
         <v>11</v>
       </c>
-      <c r="E66" s="19">
-        <v>7933172794010470</v>
+      <c r="E66" s="17">
+        <v>123</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3692,8 +3686,8 @@
       <c r="D67" s="13">
         <v>12</v>
       </c>
-      <c r="E67" s="19">
-        <v>7933172794010470</v>
+      <c r="E67" s="17">
+        <v>125</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3729,8 +3723,8 @@
       <c r="D68" s="13">
         <v>12</v>
       </c>
-      <c r="E68" s="19">
-        <v>7933172794010470</v>
+      <c r="E68" s="17">
+        <v>127</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3766,8 +3760,8 @@
       <c r="D69" s="13">
         <v>12</v>
       </c>
-      <c r="E69" s="19">
-        <v>7933172794010470</v>
+      <c r="E69" s="17">
+        <v>129</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -3803,8 +3797,8 @@
       <c r="D70" s="13">
         <v>12</v>
       </c>
-      <c r="E70" s="19">
-        <v>7933172794010470</v>
+      <c r="E70" s="17">
+        <v>131</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -3840,8 +3834,8 @@
       <c r="D71" s="13">
         <v>12</v>
       </c>
-      <c r="E71" s="19">
-        <v>7933172794010470</v>
+      <c r="E71" s="17">
+        <v>133</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -3877,8 +3871,8 @@
       <c r="D72" s="13">
         <v>12</v>
       </c>
-      <c r="E72" s="19">
-        <v>7933172794010470</v>
+      <c r="E72" s="17">
+        <v>135</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -3914,8 +3908,8 @@
       <c r="D73" s="13">
         <v>13</v>
       </c>
-      <c r="E73" s="19">
-        <v>7933172794010470</v>
+      <c r="E73" s="17">
+        <v>137</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -3951,8 +3945,8 @@
       <c r="D74" s="13">
         <v>13</v>
       </c>
-      <c r="E74" s="19">
-        <v>7933172794010470</v>
+      <c r="E74" s="17">
+        <v>139</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -3988,8 +3982,8 @@
       <c r="D75" s="13">
         <v>13</v>
       </c>
-      <c r="E75" s="19">
-        <v>7933172794010470</v>
+      <c r="E75" s="17">
+        <v>141</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -4025,8 +4019,8 @@
       <c r="D76" s="13">
         <v>13</v>
       </c>
-      <c r="E76" s="19">
-        <v>7933172794010470</v>
+      <c r="E76" s="17">
+        <v>143</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -4062,8 +4056,8 @@
       <c r="D77" s="13">
         <v>13</v>
       </c>
-      <c r="E77" s="19">
-        <v>7933172794010470</v>
+      <c r="E77" s="17">
+        <v>145</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -4099,8 +4093,8 @@
       <c r="D78" s="13">
         <v>13</v>
       </c>
-      <c r="E78" s="19">
-        <v>7933172794010470</v>
+      <c r="E78" s="17">
+        <v>147</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -4136,8 +4130,8 @@
       <c r="D79" s="13">
         <v>13</v>
       </c>
-      <c r="E79" s="19">
-        <v>7933172794010470</v>
+      <c r="E79" s="17">
+        <v>149</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -4193,10 +4187,10 @@
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="267">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>产生的收益/秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Passlevels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>璎珞发火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,6 +728,241 @@
   <si>
     <t>向下取整数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:","</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生的收益/秒（0个、1万、2亿、3兆、4京、5垓、6秭、7穰、8沟、9涧、10正、11载 、12极）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0_5]</t>
+  </si>
+  <si>
+    <t>[0_7]</t>
+  </si>
+  <si>
+    <t>[0_9]</t>
+  </si>
+  <si>
+    <t>[0_11]</t>
+  </si>
+  <si>
+    <t>[0_13]</t>
+  </si>
+  <si>
+    <t>[0_15]</t>
+  </si>
+  <si>
+    <t>[0_17]</t>
+  </si>
+  <si>
+    <t>[0_19]</t>
+  </si>
+  <si>
+    <t>[0_21]</t>
+  </si>
+  <si>
+    <t>[0_23]</t>
+  </si>
+  <si>
+    <t>[0_25]</t>
+  </si>
+  <si>
+    <t>[0_27]</t>
+  </si>
+  <si>
+    <t>[0_29]</t>
+  </si>
+  <si>
+    <t>[0_31]</t>
+  </si>
+  <si>
+    <t>[0_33]</t>
+  </si>
+  <si>
+    <t>[0_35]</t>
+  </si>
+  <si>
+    <t>[0_37]</t>
+  </si>
+  <si>
+    <t>[0_39]</t>
+  </si>
+  <si>
+    <t>[0_41]</t>
+  </si>
+  <si>
+    <t>[0_43]</t>
+  </si>
+  <si>
+    <t>[0_45]</t>
+  </si>
+  <si>
+    <t>[0_47]</t>
+  </si>
+  <si>
+    <t>[0_49]</t>
+  </si>
+  <si>
+    <t>[0_51]</t>
+  </si>
+  <si>
+    <t>[0_53]</t>
+  </si>
+  <si>
+    <t>[0_55]</t>
+  </si>
+  <si>
+    <t>[0_57]</t>
+  </si>
+  <si>
+    <t>[0_59]</t>
+  </si>
+  <si>
+    <t>[0_61]</t>
+  </si>
+  <si>
+    <t>[0_63]</t>
+  </si>
+  <si>
+    <t>[0_65]</t>
+  </si>
+  <si>
+    <t>[0_67]</t>
+  </si>
+  <si>
+    <t>[0_69]</t>
+  </si>
+  <si>
+    <t>[0_71]</t>
+  </si>
+  <si>
+    <t>[0_73]</t>
+  </si>
+  <si>
+    <t>[0_75]</t>
+  </si>
+  <si>
+    <t>[0_77]</t>
+  </si>
+  <si>
+    <t>[0_79]</t>
+  </si>
+  <si>
+    <t>[0_81]</t>
+  </si>
+  <si>
+    <t>[0_83]</t>
+  </si>
+  <si>
+    <t>[0_85]</t>
+  </si>
+  <si>
+    <t>[0_87]</t>
+  </si>
+  <si>
+    <t>[0_89]</t>
+  </si>
+  <si>
+    <t>[0_91]</t>
+  </si>
+  <si>
+    <t>[0_93]</t>
+  </si>
+  <si>
+    <t>[0_95]</t>
+  </si>
+  <si>
+    <t>[0_97]</t>
+  </si>
+  <si>
+    <t>[0_99]</t>
+  </si>
+  <si>
+    <t>[0_101]</t>
+  </si>
+  <si>
+    <t>[0_103]</t>
+  </si>
+  <si>
+    <t>[0_105]</t>
+  </si>
+  <si>
+    <t>[0_107]</t>
+  </si>
+  <si>
+    <t>[0_109]</t>
+  </si>
+  <si>
+    <t>[0_111]</t>
+  </si>
+  <si>
+    <t>[0_113]</t>
+  </si>
+  <si>
+    <t>[0_115]</t>
+  </si>
+  <si>
+    <t>[0_117]</t>
+  </si>
+  <si>
+    <t>[0_119]</t>
+  </si>
+  <si>
+    <t>[0_121]</t>
+  </si>
+  <si>
+    <t>[0_123]</t>
+  </si>
+  <si>
+    <t>[0_125]</t>
+  </si>
+  <si>
+    <t>[0_127]</t>
+  </si>
+  <si>
+    <t>[0_129]</t>
+  </si>
+  <si>
+    <t>[0_131]</t>
+  </si>
+  <si>
+    <t>[0_133]</t>
+  </si>
+  <si>
+    <t>[0_135]</t>
+  </si>
+  <si>
+    <t>[0_137]</t>
+  </si>
+  <si>
+    <t>[0_139]</t>
+  </si>
+  <si>
+    <t>[0_141]</t>
+  </si>
+  <si>
+    <t>[0_143]</t>
+  </si>
+  <si>
+    <t>[0_145]</t>
+  </si>
+  <si>
+    <t>[0_147]</t>
+  </si>
+  <si>
+    <t>[0_149]</t>
   </si>
 </sst>
 </file>
@@ -789,7 +1016,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,6 +1038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +1131,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1479,7 @@
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E79"/>
+      <selection activeCell="E1" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1488,7 @@
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="5" max="5" width="59" customWidth="1"/>
     <col min="7" max="7" width="19.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -1268,34 +1504,34 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="L1" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1311,17 +1547,17 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>166</v>
+      <c r="E2" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>27</v>
@@ -1335,10 +1571,12 @@
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1353,31 +1591,31 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="L4" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -1388,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="17">
-        <v>1</v>
+      <c r="E5" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -1424,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="17">
-        <v>3</v>
+      <c r="E6" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
@@ -1461,13 +1699,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <v>5</v>
+      <c r="E7" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1498,13 +1736,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
-        <v>7</v>
+      <c r="E8" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1535,13 +1773,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
-        <v>9</v>
+      <c r="E9" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1572,19 +1810,19 @@
         <v>31</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
-        <v>11</v>
+      <c r="E10" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="8">
         <v>6</v>
@@ -1606,22 +1844,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
-        <v>13</v>
+      <c r="E11" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1643,22 +1881,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
-        <v>15</v>
+      <c r="E12" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="6">
         <v>34</v>
@@ -1680,22 +1918,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
-        <v>17</v>
+      <c r="E13" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6">
         <v>35</v>
@@ -1717,22 +1955,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
-        <v>19</v>
+      <c r="E14" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="6">
         <v>36</v>
@@ -1754,22 +1992,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
-        <v>21</v>
+      <c r="E15" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="6">
         <v>37</v>
@@ -1791,22 +2029,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
-        <v>23</v>
+      <c r="E16" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6">
         <v>38</v>
@@ -1828,22 +2066,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="17">
-        <v>25</v>
+      <c r="E17" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -1865,22 +2103,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="17">
-        <v>27</v>
+      <c r="E18" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="6">
         <v>40</v>
@@ -1902,22 +2140,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="17">
-        <v>29</v>
+      <c r="E19" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="6">
         <v>41</v>
@@ -1939,22 +2177,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="17">
-        <v>31</v>
+      <c r="E20" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="6">
         <v>42</v>
@@ -1976,22 +2214,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="17">
-        <v>33</v>
+      <c r="E21" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="6">
         <v>43</v>
@@ -2013,22 +2251,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="17">
-        <v>35</v>
+      <c r="E22" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="6">
         <v>44</v>
@@ -2050,22 +2288,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="17">
-        <v>37</v>
+      <c r="E23" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -2087,22 +2325,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="17">
-        <v>39</v>
+      <c r="E24" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
@@ -2124,22 +2362,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="17">
-        <v>41</v>
+      <c r="E25" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="6">
         <v>27</v>
@@ -2161,22 +2399,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="17">
-        <v>43</v>
+      <c r="E26" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="6">
         <v>28</v>
@@ -2198,22 +2436,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="17">
-        <v>45</v>
+      <c r="E27" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="6">
         <v>29</v>
@@ -2235,22 +2473,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="17">
-        <v>47</v>
+      <c r="E28" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="6">
         <v>30</v>
@@ -2272,22 +2510,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="17">
-        <v>49</v>
+      <c r="E29" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="6">
         <v>31</v>
@@ -2309,22 +2547,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="8">
         <v>6</v>
       </c>
-      <c r="E30" s="17">
-        <v>51</v>
+      <c r="E30" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
@@ -2346,22 +2584,22 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="8">
         <v>6</v>
       </c>
-      <c r="E31" s="17">
-        <v>53</v>
+      <c r="E31" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" s="8">
         <v>8</v>
@@ -2383,22 +2621,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="8">
         <v>6</v>
       </c>
-      <c r="E32" s="17">
-        <v>55</v>
+      <c r="E32" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" s="8">
         <v>9</v>
@@ -2420,22 +2658,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="8">
         <v>6</v>
       </c>
-      <c r="E33" s="17">
-        <v>57</v>
+      <c r="E33" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="8">
         <v>10</v>
@@ -2457,22 +2695,22 @@
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="8">
         <v>6</v>
       </c>
-      <c r="E34" s="17">
-        <v>59</v>
+      <c r="E34" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="8">
         <v>11</v>
@@ -2494,22 +2732,22 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="8">
         <v>6</v>
       </c>
-      <c r="E35" s="17">
-        <v>61</v>
+      <c r="E35" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" s="8">
         <v>12</v>
@@ -2531,22 +2769,22 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="6">
         <v>7</v>
       </c>
-      <c r="E36" s="17">
-        <v>63</v>
+      <c r="E36" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="6">
         <v>0</v>
@@ -2568,22 +2806,22 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="6">
         <v>7</v>
       </c>
-      <c r="E37" s="17">
-        <v>65</v>
+      <c r="E37" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="6">
         <v>26</v>
@@ -2605,22 +2843,22 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="6">
         <v>7</v>
       </c>
-      <c r="E38" s="17">
-        <v>67</v>
+      <c r="E38" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="6">
         <v>27</v>
@@ -2642,22 +2880,22 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="6">
         <v>7</v>
       </c>
-      <c r="E39" s="17">
-        <v>69</v>
+      <c r="E39" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="6">
         <v>28</v>
@@ -2679,22 +2917,22 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="6">
         <v>7</v>
       </c>
-      <c r="E40" s="17">
-        <v>71</v>
+      <c r="E40" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="6">
         <v>29</v>
@@ -2716,22 +2954,22 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="6">
         <v>7</v>
       </c>
-      <c r="E41" s="17">
-        <v>73</v>
+      <c r="E41" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" s="6">
         <v>30</v>
@@ -2753,22 +2991,22 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6">
         <v>7</v>
       </c>
-      <c r="E42" s="17">
-        <v>75</v>
+      <c r="E42" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" s="6">
         <v>31</v>
@@ -2790,22 +3028,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="6">
         <v>8</v>
       </c>
-      <c r="E43" s="17">
-        <v>77</v>
+      <c r="E43" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
@@ -2827,22 +3065,22 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="6">
         <v>8</v>
       </c>
-      <c r="E44" s="17">
-        <v>79</v>
+      <c r="E44" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" s="6">
         <v>34</v>
@@ -2864,22 +3102,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="6">
         <v>8</v>
       </c>
-      <c r="E45" s="17">
-        <v>81</v>
+      <c r="E45" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="6">
         <v>35</v>
@@ -2901,22 +3139,22 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="17">
-        <v>83</v>
+      <c r="E46" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="6">
         <v>36</v>
@@ -2938,22 +3176,22 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="6">
         <v>8</v>
       </c>
-      <c r="E47" s="17">
-        <v>85</v>
+      <c r="E47" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="6">
         <v>37</v>
@@ -2975,22 +3213,22 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="E48" s="17">
-        <v>87</v>
+      <c r="E48" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" s="6">
         <v>38</v>
@@ -3015,19 +3253,19 @@
         <v>30</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="8">
         <v>9</v>
       </c>
-      <c r="E49" s="17">
-        <v>89</v>
+      <c r="E49" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="8">
         <v>0</v>
@@ -3052,19 +3290,19 @@
         <v>28</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="8">
         <v>9</v>
       </c>
-      <c r="E50" s="17">
-        <v>91</v>
+      <c r="E50" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H50" s="8">
         <v>2</v>
@@ -3089,19 +3327,19 @@
         <v>29</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="8">
         <v>9</v>
       </c>
-      <c r="E51" s="17">
-        <v>93</v>
+      <c r="E51" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H51" s="8">
         <v>3</v>
@@ -3126,19 +3364,19 @@
         <v>33</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="17">
-        <v>95</v>
+      <c r="E52" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" s="8">
         <v>4</v>
@@ -3163,19 +3401,19 @@
         <v>32</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="8">
         <v>9</v>
       </c>
-      <c r="E53" s="17">
-        <v>97</v>
+      <c r="E53" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H53" s="8">
         <v>5</v>
@@ -3200,19 +3438,19 @@
         <v>31</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8">
         <v>9</v>
       </c>
-      <c r="E54" s="17">
-        <v>99</v>
+      <c r="E54" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" s="8">
         <v>6</v>
@@ -3237,19 +3475,19 @@
         <v>30</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="13">
         <v>10</v>
       </c>
-      <c r="E55" s="17">
-        <v>101</v>
+      <c r="E55" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H55" s="8">
         <v>0</v>
@@ -3274,19 +3512,19 @@
         <v>28</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="13">
         <v>10</v>
       </c>
-      <c r="E56" s="17">
-        <v>103</v>
+      <c r="E56" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="8">
         <v>2</v>
@@ -3311,19 +3549,19 @@
         <v>29</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="17">
-        <v>105</v>
+      <c r="E57" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H57" s="8">
         <v>3</v>
@@ -3348,19 +3586,19 @@
         <v>33</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="13">
         <v>10</v>
       </c>
-      <c r="E58" s="17">
-        <v>107</v>
+      <c r="E58" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="8">
         <v>4</v>
@@ -3385,19 +3623,19 @@
         <v>32</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="17">
-        <v>109</v>
+      <c r="E59" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H59" s="8">
         <v>5</v>
@@ -3422,19 +3660,19 @@
         <v>31</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="17">
-        <v>111</v>
+      <c r="E60" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H60" s="8">
         <v>6</v>
@@ -3456,22 +3694,22 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" s="13">
         <v>11</v>
       </c>
-      <c r="E61" s="17">
-        <v>113</v>
+      <c r="E61" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
@@ -3493,22 +3731,22 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="13">
         <v>11</v>
       </c>
-      <c r="E62" s="17">
-        <v>115</v>
+      <c r="E62" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H62" s="6">
         <v>34</v>
@@ -3530,22 +3768,22 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" s="13">
         <v>11</v>
       </c>
-      <c r="E63" s="17">
-        <v>117</v>
+      <c r="E63" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H63" s="6">
         <v>35</v>
@@ -3567,22 +3805,22 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="13">
         <v>11</v>
       </c>
-      <c r="E64" s="17">
-        <v>119</v>
+      <c r="E64" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H64" s="6">
         <v>36</v>
@@ -3604,22 +3842,22 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="13">
         <v>11</v>
       </c>
-      <c r="E65" s="17">
-        <v>121</v>
+      <c r="E65" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H65" s="6">
         <v>37</v>
@@ -3641,22 +3879,22 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="13">
         <v>11</v>
       </c>
-      <c r="E66" s="17">
-        <v>123</v>
+      <c r="E66" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H66" s="6">
         <v>38</v>
@@ -3678,22 +3916,22 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="13">
         <v>12</v>
       </c>
-      <c r="E67" s="17">
-        <v>125</v>
+      <c r="E67" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H67" s="8">
         <v>0</v>
@@ -3715,22 +3953,22 @@
         <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="13">
         <v>12</v>
       </c>
-      <c r="E68" s="17">
-        <v>127</v>
+      <c r="E68" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H68" s="8">
         <v>8</v>
@@ -3752,22 +3990,22 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="13">
         <v>12</v>
       </c>
-      <c r="E69" s="17">
-        <v>129</v>
+      <c r="E69" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" s="8">
         <v>9</v>
@@ -3789,22 +4027,22 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="13">
         <v>12</v>
       </c>
-      <c r="E70" s="17">
-        <v>131</v>
+      <c r="E70" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H70" s="8">
         <v>10</v>
@@ -3826,22 +4064,22 @@
         <v>67</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="13">
         <v>12</v>
       </c>
-      <c r="E71" s="17">
-        <v>133</v>
+      <c r="E71" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" s="8">
         <v>11</v>
@@ -3863,22 +4101,22 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="13">
         <v>12</v>
       </c>
-      <c r="E72" s="17">
-        <v>135</v>
+      <c r="E72" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H72" s="8">
         <v>12</v>
@@ -3900,22 +4138,22 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="13">
         <v>13</v>
       </c>
-      <c r="E73" s="17">
-        <v>137</v>
+      <c r="E73" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="6">
         <v>0</v>
@@ -3937,22 +4175,22 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="13">
         <v>13</v>
       </c>
-      <c r="E74" s="17">
-        <v>139</v>
+      <c r="E74" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H74" s="6">
         <v>26</v>
@@ -3974,22 +4212,22 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="13">
         <v>13</v>
       </c>
-      <c r="E75" s="17">
-        <v>141</v>
+      <c r="E75" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H75" s="6">
         <v>27</v>
@@ -4011,22 +4249,22 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="13">
         <v>13</v>
       </c>
-      <c r="E76" s="17">
-        <v>143</v>
+      <c r="E76" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H76" s="6">
         <v>28</v>
@@ -4048,22 +4286,22 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" s="13">
         <v>13</v>
       </c>
-      <c r="E77" s="17">
-        <v>145</v>
+      <c r="E77" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H77" s="6">
         <v>29</v>
@@ -4085,22 +4323,22 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="13">
         <v>13</v>
       </c>
-      <c r="E78" s="17">
-        <v>147</v>
+      <c r="E78" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H78" s="6">
         <v>30</v>
@@ -4122,22 +4360,22 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="13">
         <v>13</v>
       </c>
-      <c r="E79" s="17">
-        <v>149</v>
+      <c r="E79" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H79" s="6">
         <v>31</v>
@@ -4938,7 +5176,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2343,7 +2343,7 @@
         <v>105</v>
       </c>
       <c r="H24" s="6">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
@@ -2380,7 +2380,7 @@
         <v>106</v>
       </c>
       <c r="H25" s="6">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
@@ -2417,7 +2417,7 @@
         <v>107</v>
       </c>
       <c r="H26" s="6">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
@@ -2454,7 +2454,7 @@
         <v>108</v>
       </c>
       <c r="H27" s="6">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
@@ -2491,7 +2491,7 @@
         <v>109</v>
       </c>
       <c r="H28" s="6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="268">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -738,231 +738,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0_1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0_5]</t>
-  </si>
-  <si>
-    <t>[0_7]</t>
-  </si>
-  <si>
-    <t>[0_9]</t>
-  </si>
-  <si>
-    <t>[0_11]</t>
-  </si>
-  <si>
-    <t>[0_13]</t>
-  </si>
-  <si>
-    <t>[0_15]</t>
-  </si>
-  <si>
-    <t>[0_17]</t>
-  </si>
-  <si>
-    <t>[0_19]</t>
-  </si>
-  <si>
-    <t>[0_21]</t>
-  </si>
-  <si>
-    <t>[0_23]</t>
-  </si>
-  <si>
-    <t>[0_25]</t>
-  </si>
-  <si>
-    <t>[0_27]</t>
-  </si>
-  <si>
-    <t>[0_29]</t>
-  </si>
-  <si>
-    <t>[0_31]</t>
-  </si>
-  <si>
-    <t>[0_33]</t>
-  </si>
-  <si>
-    <t>[0_35]</t>
-  </si>
-  <si>
-    <t>[0_37]</t>
-  </si>
-  <si>
-    <t>[0_39]</t>
-  </si>
-  <si>
-    <t>[0_41]</t>
-  </si>
-  <si>
-    <t>[0_43]</t>
-  </si>
-  <si>
-    <t>[0_45]</t>
-  </si>
-  <si>
-    <t>[0_47]</t>
-  </si>
-  <si>
-    <t>[0_49]</t>
-  </si>
-  <si>
-    <t>[0_51]</t>
-  </si>
-  <si>
-    <t>[0_53]</t>
-  </si>
-  <si>
-    <t>[0_55]</t>
-  </si>
-  <si>
-    <t>[0_57]</t>
-  </si>
-  <si>
-    <t>[0_59]</t>
-  </si>
-  <si>
-    <t>[0_61]</t>
-  </si>
-  <si>
-    <t>[0_63]</t>
-  </si>
-  <si>
-    <t>[0_65]</t>
-  </si>
-  <si>
-    <t>[0_67]</t>
-  </si>
-  <si>
-    <t>[0_69]</t>
-  </si>
-  <si>
-    <t>[0_71]</t>
-  </si>
-  <si>
-    <t>[0_73]</t>
-  </si>
-  <si>
-    <t>[0_75]</t>
-  </si>
-  <si>
-    <t>[0_77]</t>
-  </si>
-  <si>
-    <t>[0_79]</t>
-  </si>
-  <si>
-    <t>[0_81]</t>
-  </si>
-  <si>
-    <t>[0_83]</t>
-  </si>
-  <si>
-    <t>[0_85]</t>
-  </si>
-  <si>
-    <t>[0_87]</t>
-  </si>
-  <si>
-    <t>[0_89]</t>
-  </si>
-  <si>
-    <t>[0_91]</t>
-  </si>
-  <si>
-    <t>[0_93]</t>
-  </si>
-  <si>
-    <t>[0_95]</t>
-  </si>
-  <si>
-    <t>[0_97]</t>
-  </si>
-  <si>
-    <t>[0_99]</t>
-  </si>
-  <si>
-    <t>[0_101]</t>
-  </si>
-  <si>
-    <t>[0_103]</t>
-  </si>
-  <si>
-    <t>[0_105]</t>
-  </si>
-  <si>
-    <t>[0_107]</t>
-  </si>
-  <si>
-    <t>[0_109]</t>
-  </si>
-  <si>
-    <t>[0_111]</t>
-  </si>
-  <si>
-    <t>[0_113]</t>
-  </si>
-  <si>
-    <t>[0_115]</t>
-  </si>
-  <si>
-    <t>[0_117]</t>
-  </si>
-  <si>
-    <t>[0_119]</t>
-  </si>
-  <si>
-    <t>[0_121]</t>
-  </si>
-  <si>
-    <t>[0_123]</t>
-  </si>
-  <si>
-    <t>[0_125]</t>
-  </si>
-  <si>
-    <t>[0_127]</t>
-  </si>
-  <si>
-    <t>[0_129]</t>
-  </si>
-  <si>
-    <t>[0_131]</t>
-  </si>
-  <si>
-    <t>[0_133]</t>
-  </si>
-  <si>
-    <t>[0_135]</t>
-  </si>
-  <si>
-    <t>[0_137]</t>
-  </si>
-  <si>
-    <t>[0_139]</t>
-  </si>
-  <si>
-    <t>[0_141]</t>
-  </si>
-  <si>
-    <t>[0_143]</t>
-  </si>
-  <si>
-    <t>[0_145]</t>
-  </si>
-  <si>
-    <t>[0_147]</t>
-  </si>
-  <si>
-    <t>[0_149]</t>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>0_7</t>
+  </si>
+  <si>
+    <t>0_9</t>
+  </si>
+  <si>
+    <t>0_11</t>
+  </si>
+  <si>
+    <t>0_13</t>
+  </si>
+  <si>
+    <t>0_15</t>
+  </si>
+  <si>
+    <t>0_17</t>
+  </si>
+  <si>
+    <t>0_19</t>
+  </si>
+  <si>
+    <t>0_21</t>
+  </si>
+  <si>
+    <t>0_23</t>
+  </si>
+  <si>
+    <t>0_25</t>
+  </si>
+  <si>
+    <t>0_27</t>
+  </si>
+  <si>
+    <t>0_29</t>
+  </si>
+  <si>
+    <t>0_31</t>
+  </si>
+  <si>
+    <t>0_33</t>
+  </si>
+  <si>
+    <t>0_35</t>
+  </si>
+  <si>
+    <t>0_37</t>
+  </si>
+  <si>
+    <t>0_39</t>
+  </si>
+  <si>
+    <t>0_41</t>
+  </si>
+  <si>
+    <t>0_43</t>
+  </si>
+  <si>
+    <t>0_45</t>
+  </si>
+  <si>
+    <t>0_47</t>
+  </si>
+  <si>
+    <t>0_49</t>
+  </si>
+  <si>
+    <t>0_51</t>
+  </si>
+  <si>
+    <t>0_53</t>
+  </si>
+  <si>
+    <t>0_55</t>
+  </si>
+  <si>
+    <t>0_57</t>
+  </si>
+  <si>
+    <t>0_59</t>
+  </si>
+  <si>
+    <t>0_61</t>
+  </si>
+  <si>
+    <t>0_63</t>
+  </si>
+  <si>
+    <t>0_65</t>
+  </si>
+  <si>
+    <t>0_67</t>
+  </si>
+  <si>
+    <t>0_69</t>
+  </si>
+  <si>
+    <t>0_71</t>
+  </si>
+  <si>
+    <t>0_73</t>
+  </si>
+  <si>
+    <t>0_75</t>
+  </si>
+  <si>
+    <t>0_77</t>
+  </si>
+  <si>
+    <t>0_79</t>
+  </si>
+  <si>
+    <t>0_81</t>
+  </si>
+  <si>
+    <t>0_83</t>
+  </si>
+  <si>
+    <t>0_85</t>
+  </si>
+  <si>
+    <t>0_87</t>
+  </si>
+  <si>
+    <t>0_89</t>
+  </si>
+  <si>
+    <t>0_91</t>
+  </si>
+  <si>
+    <t>0_93</t>
+  </si>
+  <si>
+    <t>0_95</t>
+  </si>
+  <si>
+    <t>0_97</t>
+  </si>
+  <si>
+    <t>0_99</t>
+  </si>
+  <si>
+    <t>0_101</t>
+  </si>
+  <si>
+    <t>0_103</t>
+  </si>
+  <si>
+    <t>0_105</t>
+  </si>
+  <si>
+    <t>0_107</t>
+  </si>
+  <si>
+    <t>0_109</t>
+  </si>
+  <si>
+    <t>0_111</t>
+  </si>
+  <si>
+    <t>0_113</t>
+  </si>
+  <si>
+    <t>0_115</t>
+  </si>
+  <si>
+    <t>0_117</t>
+  </si>
+  <si>
+    <t>0_119</t>
+  </si>
+  <si>
+    <t>0_121</t>
+  </si>
+  <si>
+    <t>0_123</t>
+  </si>
+  <si>
+    <t>0_125</t>
+  </si>
+  <si>
+    <t>0_127</t>
+  </si>
+  <si>
+    <t>0_129</t>
+  </si>
+  <si>
+    <t>0_131</t>
+  </si>
+  <si>
+    <t>0_133</t>
+  </si>
+  <si>
+    <t>0_135</t>
+  </si>
+  <si>
+    <t>0_137</t>
+  </si>
+  <si>
+    <t>0_139</t>
+  </si>
+  <si>
+    <t>0_141</t>
+  </si>
+  <si>
+    <t>0_143</t>
+  </si>
+  <si>
+    <t>0_145</t>
+  </si>
+  <si>
+    <t>0_147</t>
+  </si>
+  <si>
+    <t>0_149</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>71</v>
@@ -1632,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -1668,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
@@ -1705,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -1742,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
@@ -1779,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -1816,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -1853,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" s="8">
         <v>8</v>
@@ -1890,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="8">
         <v>9</v>
@@ -1927,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -1964,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" s="8">
         <v>11</v>
@@ -2001,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
@@ -2038,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F16" s="8">
         <v>13</v>
@@ -2075,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" s="8">
         <v>14</v>
@@ -2112,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F18" s="8">
         <v>15</v>
@@ -2149,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F19" s="8">
         <v>16</v>
@@ -2186,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
@@ -2223,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F21" s="8">
         <v>18</v>
@@ -2260,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F22" s="8">
         <v>19</v>
@@ -2297,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
@@ -2334,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F24" s="8">
         <v>21</v>
@@ -2371,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F25" s="8">
         <v>22</v>
@@ -2408,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F26" s="8">
         <v>23</v>
@@ -2445,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F27" s="8">
         <v>24</v>
@@ -2482,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F28" s="8">
         <v>25</v>
@@ -2519,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" s="8">
         <v>26</v>
@@ -2556,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F30" s="8">
         <v>27</v>
@@ -2593,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F31" s="8">
         <v>28</v>
@@ -2630,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="8">
         <v>29</v>
@@ -2667,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F33" s="8">
         <v>30</v>
@@ -2704,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F34" s="8">
         <v>31</v>
@@ -2741,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F35" s="8">
         <v>32</v>
@@ -2778,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" s="8">
         <v>33</v>
@@ -2815,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -2852,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F38" s="8">
         <v>35</v>
@@ -2889,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F39" s="8">
         <v>36</v>
@@ -2926,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F40" s="8">
         <v>37</v>
@@ -2963,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F41" s="8">
         <v>38</v>
@@ -3000,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F42" s="8">
         <v>39</v>
@@ -3037,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F43" s="8">
         <v>40</v>
@@ -3074,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F44" s="8">
         <v>41</v>
@@ -3111,7 +3114,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F45" s="8">
         <v>42</v>
@@ -3148,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F46" s="8">
         <v>43</v>
@@ -3185,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F47" s="8">
         <v>44</v>
@@ -3222,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F48" s="8">
         <v>45</v>
@@ -3259,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F49" s="8">
         <v>46</v>
@@ -3296,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F50" s="8">
         <v>47</v>
@@ -3333,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F51" s="8">
         <v>48</v>
@@ -3370,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F52" s="8">
         <v>49</v>
@@ -3407,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F53" s="8">
         <v>50</v>
@@ -3444,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F54" s="8">
         <v>51</v>
@@ -3481,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F55" s="8">
         <v>52</v>
@@ -3518,7 +3521,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F56" s="8">
         <v>53</v>
@@ -3555,7 +3558,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F57" s="8">
         <v>54</v>
@@ -3592,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F58" s="8">
         <v>55</v>
@@ -3629,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F59" s="8">
         <v>56</v>
@@ -3666,7 +3669,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F60" s="8">
         <v>57</v>
@@ -3703,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F61" s="8">
         <v>58</v>
@@ -3740,7 +3743,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F62" s="8">
         <v>59</v>
@@ -3777,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F63" s="8">
         <v>60</v>
@@ -3814,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F64" s="8">
         <v>61</v>
@@ -3851,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F65" s="8">
         <v>62</v>
@@ -3888,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F66" s="8">
         <v>63</v>
@@ -3925,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
@@ -3962,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F68" s="8">
         <v>65</v>
@@ -3999,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F69" s="8">
         <v>66</v>
@@ -4036,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F70" s="8">
         <v>67</v>
@@ -4073,7 +4076,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F71" s="8">
         <v>68</v>
@@ -4110,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F72" s="8">
         <v>69</v>
@@ -4147,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F73" s="8">
         <v>70</v>
@@ -4184,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F74" s="8">
         <v>71</v>
@@ -4221,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F75" s="8">
         <v>72</v>
@@ -4258,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F76" s="8">
         <v>73</v>
@@ -4295,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F77" s="8">
         <v>74</v>
@@ -4332,7 +4335,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F78" s="8">
         <v>75</v>
@@ -4369,7 +4372,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="286">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -966,6 +967,71 @@
   </si>
   <si>
     <t>0_149</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_40</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_41</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_42</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_43</t>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大肚子璎珞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>严嬷嬷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察玉佩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+  </si>
+  <si>
+    <t>大肚子璎珞</t>
+  </si>
+  <si>
+    <t>严嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察玉佩</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,6 +1113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,6 +1210,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E79"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2290,11 +2371,11 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>177</v>
+      <c r="B23" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
@@ -2327,11 +2408,11 @@
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>178</v>
+      <c r="B24" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
@@ -2346,7 +2427,7 @@
         <v>105</v>
       </c>
       <c r="H24" s="6">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
@@ -2364,11 +2445,11 @@
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>179</v>
+      <c r="B25" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
@@ -2383,7 +2464,7 @@
         <v>106</v>
       </c>
       <c r="H25" s="6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
@@ -2401,11 +2482,11 @@
       <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>180</v>
+      <c r="B26" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
@@ -2420,7 +2501,7 @@
         <v>107</v>
       </c>
       <c r="H26" s="6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
@@ -2438,11 +2519,11 @@
       <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>181</v>
+      <c r="B27" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
@@ -2457,7 +2538,7 @@
         <v>108</v>
       </c>
       <c r="H27" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
@@ -2475,11 +2556,11 @@
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>182</v>
+      <c r="B28" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
@@ -2494,7 +2575,7 @@
         <v>109</v>
       </c>
       <c r="H28" s="6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
@@ -2531,7 +2612,7 @@
         <v>110</v>
       </c>
       <c r="H29" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
@@ -2549,11 +2630,11 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>58</v>
+      <c r="B30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D30" s="8">
         <v>6</v>
@@ -2567,8 +2648,8 @@
       <c r="G30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
+      <c r="H30" s="6">
+        <v>52</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
@@ -2586,11 +2667,11 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>59</v>
+      <c r="B31" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="D31" s="8">
         <v>6</v>
@@ -2604,8 +2685,8 @@
       <c r="G31" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="8">
-        <v>8</v>
+      <c r="H31" s="6">
+        <v>53</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
@@ -2623,11 +2704,11 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
+      <c r="B32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D32" s="8">
         <v>6</v>
@@ -2641,8 +2722,8 @@
       <c r="G32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="8">
-        <v>9</v>
+      <c r="H32" s="6">
+        <v>54</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
@@ -2660,11 +2741,11 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>61</v>
+      <c r="B33" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="D33" s="8">
         <v>6</v>
@@ -2678,8 +2759,8 @@
       <c r="G33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="8">
-        <v>10</v>
+      <c r="H33" s="6">
+        <v>55</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
@@ -2697,11 +2778,11 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>62</v>
+      <c r="B34" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D34" s="8">
         <v>6</v>
@@ -2715,8 +2796,8 @@
       <c r="G34" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="8">
-        <v>11</v>
+      <c r="H34" s="6">
+        <v>56</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
@@ -2734,11 +2815,11 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>63</v>
+      <c r="B35" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D35" s="8">
         <v>6</v>
@@ -2752,8 +2833,8 @@
       <c r="G35" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="8">
-        <v>12</v>
+      <c r="H35" s="6">
+        <v>31</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
@@ -2808,11 +2889,11 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>65</v>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D37" s="6">
         <v>7</v>
@@ -2826,8 +2907,8 @@
       <c r="G37" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="6">
-        <v>26</v>
+      <c r="H37" s="8">
+        <v>0</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
@@ -2845,11 +2926,11 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D38" s="6">
         <v>7</v>
@@ -2863,8 +2944,8 @@
       <c r="G38" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="6">
-        <v>27</v>
+      <c r="H38" s="8">
+        <v>8</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
@@ -2882,11 +2963,11 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>67</v>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D39" s="6">
         <v>7</v>
@@ -2900,8 +2981,8 @@
       <c r="G39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="6">
-        <v>28</v>
+      <c r="H39" s="8">
+        <v>9</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
@@ -2919,11 +3000,11 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>68</v>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D40" s="6">
         <v>7</v>
@@ -2937,8 +3018,8 @@
       <c r="G40" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="6">
-        <v>29</v>
+      <c r="H40" s="8">
+        <v>10</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
@@ -2956,11 +3037,11 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>69</v>
+      <c r="B41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="6">
         <v>7</v>
@@ -2974,8 +3055,8 @@
       <c r="G41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="6">
-        <v>30</v>
+      <c r="H41" s="8">
+        <v>11</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
@@ -2993,11 +3074,11 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>70</v>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D42" s="6">
         <v>7</v>
@@ -3011,8 +3092,8 @@
       <c r="G42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="6">
-        <v>31</v>
+      <c r="H42" s="8">
+        <v>12</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="3"/>
@@ -3031,10 +3112,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6">
         <v>8</v>
@@ -3049,7 +3130,7 @@
         <v>124</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="3"/>
@@ -3068,10 +3149,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D44" s="6">
         <v>8</v>
@@ -3086,7 +3167,7 @@
         <v>125</v>
       </c>
       <c r="H44" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="3"/>
@@ -3105,10 +3186,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D45" s="6">
         <v>8</v>
@@ -3123,7 +3204,7 @@
         <v>126</v>
       </c>
       <c r="H45" s="6">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="3"/>
@@ -3142,10 +3223,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D46" s="6">
         <v>8</v>
@@ -3160,7 +3241,7 @@
         <v>127</v>
       </c>
       <c r="H46" s="6">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="3"/>
@@ -3179,10 +3260,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D47" s="6">
         <v>8</v>
@@ -3197,7 +3278,7 @@
         <v>128</v>
       </c>
       <c r="H47" s="6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="3"/>
@@ -3216,10 +3297,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D48" s="6">
         <v>8</v>
@@ -3234,7 +3315,7 @@
         <v>129</v>
       </c>
       <c r="H48" s="6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="3"/>
@@ -4460,59 +4541,77 @@
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
@@ -5243,4 +5342,743 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G7:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f>I7&amp;";"&amp;J7&amp;";"&amp;K7&amp;";"&amp;L7&amp;";"&amp;M7&amp;";"&amp;N7&amp;";"&amp;O7&amp;";"&amp;P7</f>
+        <v>1;2;3;4;5;6;7;8</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G30" si="0">I8&amp;";"&amp;J8&amp;";"&amp;K8&amp;";"&amp;L8&amp;";"&amp;M8&amp;";"&amp;N8&amp;";"&amp;O8&amp;";"&amp;P8</f>
+        <v>2;3;4;5;6;7;8;9</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>3;4;5;6;7;8;9;10</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>4;5;6;7;8;9;10;11</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>5;6;7;8;9;10;11;12</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>6;7;8;9;10;11;12;13</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>7;8;9;10;11;12;13;14</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>8;9;10;11;12;13;14;15</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>9;10;11;12;13;14;15;16</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>10;11;12;13;14;15;16;17</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>11;12;13;14;15;16;17;18</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>12;13;14;15;16;17;18;19</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>13;14;15;16;17;18;19;20</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>14;15;16;17;18;19;20;21</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>15;16;17;18;19;20;21;22</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>16;17;18;19;20;21;22;23</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>22</v>
+      </c>
+      <c r="P22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>17;18;19;20;21;22;23;24</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>23</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>18;19;20;21;22;23;24;25</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>24</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>19;20;21;22;23;24;25;26</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>20;21;22;23;24;25;26;27</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>21;22;23;24;25;26;27;28</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>27</v>
+      </c>
+      <c r="P27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>22;23;24;25;26;27;28;29</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>23</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>28</v>
+      </c>
+      <c r="P28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>23;24;25;26;27;28;29;30</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <v>29</v>
+      </c>
+      <c r="P29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>24;25;26;27;28;29;30;31</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>29</v>
+      </c>
+      <c r="O30">
+        <v>30</v>
+      </c>
+      <c r="P30">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1085,7 +1085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,6 +1122,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1155,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,7 +1229,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1572,8 +1602,9 @@
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="10.09765625" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.09765625" bestFit="1" customWidth="1"/>
@@ -1591,19 +1622,19 @@
         <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>92</v>
@@ -1629,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>27</v>
@@ -1655,14 +1686,14 @@
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1675,19 +1706,19 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>91</v>
@@ -1713,19 +1744,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>1</v>
@@ -1749,19 +1780,19 @@
         <v>36</v>
       </c>
       <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
       </c>
       <c r="J6" s="15">
         <f>J5*K5</f>
@@ -1779,26 +1810,26 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="26">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="26">
         <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
       </c>
       <c r="J7" s="15">
         <f>J6*K6</f>
@@ -1816,26 +1847,26 @@
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="26">
+        <v>4</v>
+      </c>
+      <c r="E8" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="26">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="26">
         <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
@@ -1853,26 +1884,26 @@
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="26">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="26">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="26">
         <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>5</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
@@ -1890,26 +1921,26 @@
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="26">
+        <v>6</v>
+      </c>
+      <c r="E10" s="26">
         <v>2</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="26">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="H10" s="8">
-        <v>6</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
@@ -1927,26 +1958,26 @@
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
@@ -1964,26 +1995,26 @@
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="H12" s="6">
-        <v>34</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
@@ -2001,26 +2032,26 @@
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="H13" s="6">
-        <v>35</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
@@ -2038,26 +2069,26 @@
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H14" s="6">
-        <v>36</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
@@ -2075,26 +2106,26 @@
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>12</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="H15" s="6">
-        <v>37</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
@@ -2112,26 +2143,26 @@
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H16" s="6">
-        <v>38</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="2"/>
@@ -2149,26 +2180,26 @@
       <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
         <v>4</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="26">
         <v>14</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="2"/>
@@ -2186,26 +2217,26 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="26">
+        <v>40</v>
+      </c>
+      <c r="E18" s="26">
         <v>4</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="26">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="H18" s="6">
-        <v>40</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
@@ -2223,26 +2254,26 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="26">
+        <v>41</v>
+      </c>
+      <c r="E19" s="26">
         <v>4</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="26">
         <v>16</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="H19" s="6">
-        <v>41</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
@@ -2260,26 +2291,26 @@
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="26">
+        <v>42</v>
+      </c>
+      <c r="E20" s="26">
         <v>4</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="26">
         <v>17</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="H20" s="6">
-        <v>42</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
@@ -2297,26 +2328,26 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="26">
+        <v>43</v>
+      </c>
+      <c r="E21" s="26">
         <v>4</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="26">
         <v>18</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" s="6">
-        <v>43</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
@@ -2334,26 +2365,26 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="26">
+        <v>44</v>
+      </c>
+      <c r="E22" s="26">
         <v>4</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="26">
         <v>19</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="6">
-        <v>44</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
@@ -2371,26 +2402,26 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23">
         <v>5</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="23">
         <v>20</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
@@ -2408,26 +2439,26 @@
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23">
         <v>5</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="F24" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="23">
         <v>21</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
@@ -2445,26 +2476,26 @@
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="23">
         <v>5</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="F25" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="23">
         <v>22</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
@@ -2482,26 +2513,26 @@
       <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23">
         <v>5</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="23">
         <v>23</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
@@ -2519,26 +2550,26 @@
       <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="F27" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="23">
         <v>24</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
@@ -2556,26 +2587,26 @@
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23">
         <v>5</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="F28" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="23">
         <v>25</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
@@ -2593,26 +2624,26 @@
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="6">
-        <v>5</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="B29" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <v>6</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="26">
         <v>26</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
@@ -2630,26 +2661,26 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="26">
+        <v>52</v>
+      </c>
+      <c r="E30" s="26">
         <v>6</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="F30" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="26">
         <v>27</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="H30" s="6">
-        <v>52</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
@@ -2667,26 +2698,26 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="26">
+        <v>53</v>
+      </c>
+      <c r="E31" s="26">
         <v>6</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F31" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="26">
         <v>28</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="H31" s="6">
-        <v>53</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
@@ -2704,26 +2735,26 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="B32" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="26">
+        <v>54</v>
+      </c>
+      <c r="E32" s="26">
         <v>6</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="F32" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="26">
         <v>29</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="H32" s="6">
-        <v>54</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
@@ -2741,26 +2772,26 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="26">
+        <v>55</v>
+      </c>
+      <c r="E33" s="26">
         <v>6</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="F33" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="26">
         <v>30</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="H33" s="6">
-        <v>55</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
@@ -2778,26 +2809,26 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="B34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="26">
+        <v>56</v>
+      </c>
+      <c r="E34" s="26">
         <v>6</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F34" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="26">
         <v>31</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="H34" s="6">
-        <v>56</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
@@ -2815,26 +2846,26 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>182</v>
+      <c r="B35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D35" s="8">
-        <v>6</v>
-      </c>
-      <c r="E35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>32</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="H35" s="6">
-        <v>31</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
@@ -2852,26 +2883,26 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6">
         <v>7</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>33</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="3"/>
@@ -2890,25 +2921,25 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="6">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6">
         <v>7</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="F37" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>34</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
@@ -2927,25 +2958,25 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="6">
+        <v>61</v>
+      </c>
+      <c r="D38" s="8">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6">
         <v>7</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="F38" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>35</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="H38" s="8">
-        <v>8</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
@@ -2963,26 +2994,26 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
+      <c r="B39" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="6">
+        <v>62</v>
+      </c>
+      <c r="D39" s="8">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6">
         <v>7</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>36</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="H39" s="8">
-        <v>9</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
@@ -3001,25 +3032,25 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="6">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6">
         <v>7</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="F40" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>37</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="H40" s="8">
-        <v>10</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
@@ -3037,26 +3068,26 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="6">
-        <v>7</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="B41" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+      <c r="E41" s="26">
+        <v>8</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>38</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H41" s="8">
-        <v>11</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
@@ -3074,26 +3105,26 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="6">
-        <v>7</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="B42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="26">
+        <v>26</v>
+      </c>
+      <c r="E42" s="26">
+        <v>8</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>39</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="H42" s="8">
-        <v>12</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="3"/>
@@ -3111,26 +3142,26 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="B43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="26">
+        <v>27</v>
+      </c>
+      <c r="E43" s="26">
         <v>8</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="F43" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>40</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="H43" s="6">
-        <v>26</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="3"/>
@@ -3148,26 +3179,26 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="B44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="26">
+        <v>28</v>
+      </c>
+      <c r="E44" s="26">
         <v>8</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
         <v>41</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="H44" s="6">
-        <v>27</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="3"/>
@@ -3185,26 +3216,26 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="B45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="26">
+        <v>29</v>
+      </c>
+      <c r="E45" s="26">
         <v>8</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="F45" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>42</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="H45" s="6">
-        <v>28</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="3"/>
@@ -3222,26 +3253,26 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="B46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="26">
+        <v>30</v>
+      </c>
+      <c r="E46" s="26">
         <v>8</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="F46" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>43</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="H46" s="6">
-        <v>29</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="3"/>
@@ -3259,26 +3290,26 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="B47" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="26">
+        <v>31</v>
+      </c>
+      <c r="E47" s="26">
         <v>8</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
         <v>44</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="H47" s="6">
-        <v>30</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="3"/>
@@ -3296,26 +3327,26 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="6">
-        <v>8</v>
-      </c>
-      <c r="E48" s="17" t="s">
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>9</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>45</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="H48" s="6">
-        <v>31</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="3"/>
@@ -3334,25 +3365,25 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
         <v>9</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="F49" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
         <v>46</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0</v>
       </c>
       <c r="J49" s="15">
         <f t="shared" si="3"/>
@@ -3371,25 +3402,25 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
         <v>9</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G50" s="8">
         <v>47</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="H50" s="8">
-        <v>2</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="3"/>
@@ -3408,25 +3439,25 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" s="8">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
         <v>9</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F51" s="8">
+      <c r="G51" s="8">
         <v>48</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="H51" s="8">
-        <v>3</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="3"/>
@@ -3445,25 +3476,25 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" s="8">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>49</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H52" s="8">
-        <v>4</v>
       </c>
       <c r="J52" s="15">
         <f t="shared" si="3"/>
@@ -3482,25 +3513,25 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" s="8">
+        <v>6</v>
+      </c>
+      <c r="E53" s="8">
         <v>9</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="F53" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="8">
+      <c r="G53" s="8">
         <v>50</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="H53" s="8">
-        <v>5</v>
       </c>
       <c r="J53" s="15">
         <f t="shared" si="3"/>
@@ -3519,25 +3550,25 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D54" s="8">
-        <v>9</v>
-      </c>
-      <c r="E54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>10</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
         <v>51</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="H54" s="8">
-        <v>6</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="3"/>
@@ -3556,25 +3587,25 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="13">
+        <v>36</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13">
         <v>10</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
         <v>52</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="3"/>
@@ -3593,25 +3624,25 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="13">
+        <v>37</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="13">
         <v>10</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="F56" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F56" s="8">
+      <c r="G56" s="8">
         <v>53</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="H56" s="8">
-        <v>2</v>
       </c>
       <c r="J56" s="15">
         <f t="shared" si="3"/>
@@ -3630,25 +3661,25 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="13">
+        <v>38</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4</v>
+      </c>
+      <c r="E57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="F57" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F57" s="8">
+      <c r="G57" s="8">
         <v>54</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="H57" s="8">
-        <v>3</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="3"/>
@@ -3667,25 +3698,25 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="13">
+        <v>39</v>
+      </c>
+      <c r="D58" s="8">
+        <v>5</v>
+      </c>
+      <c r="E58" s="13">
         <v>10</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="F58" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F58" s="8">
+      <c r="G58" s="8">
         <v>55</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H58" s="8">
-        <v>4</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="3"/>
@@ -3704,25 +3735,25 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="13">
+        <v>40</v>
+      </c>
+      <c r="D59" s="8">
+        <v>6</v>
+      </c>
+      <c r="E59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="F59" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F59" s="8">
+      <c r="G59" s="8">
         <v>56</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="H59" s="8">
-        <v>5</v>
       </c>
       <c r="J59" s="15">
         <f t="shared" si="3"/>
@@ -3740,26 +3771,26 @@
       <c r="A60" s="6">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="13">
-        <v>10</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="B60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>11</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F60" s="8">
+      <c r="G60" s="8">
         <v>57</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="H60" s="8">
-        <v>6</v>
       </c>
       <c r="J60" s="15">
         <f t="shared" si="3"/>
@@ -3778,25 +3809,25 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="13">
+        <v>81</v>
+      </c>
+      <c r="D61" s="6">
+        <v>34</v>
+      </c>
+      <c r="E61" s="13">
         <v>11</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="F61" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="8">
+      <c r="G61" s="8">
         <v>58</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
       </c>
       <c r="J61" s="15">
         <f t="shared" si="3"/>
@@ -3815,25 +3846,25 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="13">
+        <v>82</v>
+      </c>
+      <c r="D62" s="6">
+        <v>35</v>
+      </c>
+      <c r="E62" s="13">
         <v>11</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="F62" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F62" s="8">
+      <c r="G62" s="8">
         <v>59</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="H62" s="6">
-        <v>34</v>
       </c>
       <c r="J62" s="15">
         <f t="shared" si="3"/>
@@ -3852,25 +3883,25 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="13">
+        <v>83</v>
+      </c>
+      <c r="D63" s="6">
+        <v>36</v>
+      </c>
+      <c r="E63" s="13">
         <v>11</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="F63" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F63" s="8">
+      <c r="G63" s="8">
         <v>60</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="H63" s="6">
-        <v>35</v>
       </c>
       <c r="J63" s="15">
         <f t="shared" si="3"/>
@@ -3889,25 +3920,25 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="13">
+        <v>84</v>
+      </c>
+      <c r="D64" s="6">
+        <v>37</v>
+      </c>
+      <c r="E64" s="13">
         <v>11</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="F64" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="8">
+      <c r="G64" s="8">
         <v>61</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="H64" s="6">
-        <v>36</v>
       </c>
       <c r="J64" s="15">
         <f t="shared" si="3"/>
@@ -3926,25 +3957,25 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="13">
+        <v>85</v>
+      </c>
+      <c r="D65" s="6">
+        <v>38</v>
+      </c>
+      <c r="E65" s="13">
         <v>11</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F65" s="8">
+      <c r="G65" s="8">
         <v>62</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H65" s="6">
-        <v>37</v>
       </c>
       <c r="J65" s="15">
         <f t="shared" si="3"/>
@@ -3962,26 +3993,26 @@
       <c r="A66" s="6">
         <v>62</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="13">
-        <v>11</v>
-      </c>
-      <c r="E66" s="17" t="s">
+      <c r="B66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13">
+        <v>12</v>
+      </c>
+      <c r="F66" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="8">
+      <c r="G66" s="8">
         <v>63</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="H66" s="6">
-        <v>38</v>
       </c>
       <c r="J66" s="15">
         <f t="shared" si="3"/>
@@ -4000,25 +4031,25 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="13">
+        <v>59</v>
+      </c>
+      <c r="D67" s="8">
+        <v>8</v>
+      </c>
+      <c r="E67" s="13">
         <v>12</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="F67" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="8">
+      <c r="G67" s="8">
         <v>64</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
       </c>
       <c r="J67" s="15">
         <f t="shared" si="3"/>
@@ -4037,25 +4068,25 @@
         <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="13">
+        <v>60</v>
+      </c>
+      <c r="D68" s="8">
+        <v>9</v>
+      </c>
+      <c r="E68" s="13">
         <v>12</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="F68" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F68" s="8">
+      <c r="G68" s="8">
         <v>65</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H68" s="8">
-        <v>8</v>
       </c>
       <c r="J68" s="15">
         <f t="shared" si="3"/>
@@ -4074,25 +4105,25 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="13">
+        <v>61</v>
+      </c>
+      <c r="D69" s="8">
+        <v>10</v>
+      </c>
+      <c r="E69" s="13">
         <v>12</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="F69" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F69" s="8">
+      <c r="G69" s="8">
         <v>66</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="H69" s="8">
-        <v>9</v>
       </c>
       <c r="J69" s="15">
         <f t="shared" si="3"/>
@@ -4110,26 +4141,26 @@
       <c r="A70" s="6">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>48</v>
+      <c r="B70" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="13">
+        <v>62</v>
+      </c>
+      <c r="D70" s="8">
+        <v>11</v>
+      </c>
+      <c r="E70" s="13">
         <v>12</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="F70" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="F70" s="8">
+      <c r="G70" s="8">
         <v>67</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="H70" s="8">
-        <v>10</v>
       </c>
       <c r="J70" s="15">
         <f t="shared" si="3"/>
@@ -4147,26 +4178,26 @@
       <c r="A71" s="6">
         <v>67</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>49</v>
+      <c r="B71" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="13">
+        <v>63</v>
+      </c>
+      <c r="D71" s="8">
         <v>12</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="13">
+        <v>12</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F71" s="8">
+      <c r="G71" s="8">
         <v>68</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="H71" s="8">
-        <v>11</v>
       </c>
       <c r="J71" s="15">
         <f t="shared" si="3"/>
@@ -4184,26 +4215,26 @@
       <c r="A72" s="6">
         <v>68</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="13">
-        <v>12</v>
-      </c>
-      <c r="E72" s="17" t="s">
+      <c r="B72" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13">
+        <v>13</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="8">
+      <c r="G72" s="8">
         <v>69</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="H72" s="8">
-        <v>12</v>
       </c>
       <c r="J72" s="15">
         <f t="shared" si="3"/>
@@ -4222,25 +4253,25 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="13">
+        <v>65</v>
+      </c>
+      <c r="D73" s="6">
+        <v>26</v>
+      </c>
+      <c r="E73" s="13">
         <v>13</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="F73" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F73" s="8">
+      <c r="G73" s="8">
         <v>70</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="H73" s="6">
-        <v>0</v>
       </c>
       <c r="J73" s="15">
         <f t="shared" si="3"/>
@@ -4259,25 +4290,25 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="13">
+        <v>66</v>
+      </c>
+      <c r="D74" s="6">
+        <v>27</v>
+      </c>
+      <c r="E74" s="13">
         <v>13</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="F74" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F74" s="8">
+      <c r="G74" s="8">
         <v>71</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="H74" s="6">
-        <v>26</v>
       </c>
       <c r="J74" s="15">
         <f t="shared" si="3"/>
@@ -4296,25 +4327,25 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="13">
+        <v>67</v>
+      </c>
+      <c r="D75" s="6">
+        <v>28</v>
+      </c>
+      <c r="E75" s="13">
         <v>13</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="F75" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F75" s="8">
+      <c r="G75" s="8">
         <v>72</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="H75" s="6">
-        <v>27</v>
       </c>
       <c r="J75" s="15">
         <f t="shared" si="3"/>
@@ -4333,25 +4364,25 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="13">
+        <v>68</v>
+      </c>
+      <c r="D76" s="6">
+        <v>29</v>
+      </c>
+      <c r="E76" s="13">
         <v>13</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="F76" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F76" s="8">
+      <c r="G76" s="8">
         <v>73</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="H76" s="6">
-        <v>28</v>
       </c>
       <c r="J76" s="15">
         <f t="shared" si="3"/>
@@ -4370,25 +4401,25 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="13">
+        <v>69</v>
+      </c>
+      <c r="D77" s="6">
+        <v>30</v>
+      </c>
+      <c r="E77" s="13">
         <v>13</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="F77" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F77" s="8">
+      <c r="G77" s="8">
         <v>74</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="H77" s="6">
-        <v>29</v>
       </c>
       <c r="J77" s="15">
         <f t="shared" si="3"/>
@@ -4407,25 +4438,25 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="13">
+        <v>70</v>
+      </c>
+      <c r="D78" s="6">
+        <v>31</v>
+      </c>
+      <c r="E78" s="13">
         <v>13</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="F78" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F78" s="8">
+      <c r="G78" s="8">
         <v>75</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="H78" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="H78" s="6">
-        <v>30</v>
       </c>
       <c r="J78" s="15">
         <f t="shared" si="3"/>
@@ -4449,20 +4480,20 @@
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="6">
+        <v>31</v>
+      </c>
+      <c r="E79" s="13">
         <v>13</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="F79" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F79" s="6">
+      <c r="G79" s="6">
         <v>0</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="H79" s="6">
-        <v>31</v>
       </c>
       <c r="J79" s="15">
         <f t="shared" si="3"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1592,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2446,7 +2446,7 @@
         <v>269</v>
       </c>
       <c r="D24" s="23">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -2483,7 +2483,7 @@
         <v>270</v>
       </c>
       <c r="D25" s="23">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -2520,7 +2520,7 @@
         <v>271</v>
       </c>
       <c r="D26" s="23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -2557,7 +2557,7 @@
         <v>272</v>
       </c>
       <c r="D27" s="23">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -2594,7 +2594,7 @@
         <v>273</v>
       </c>
       <c r="D28" s="23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -993,45 +993,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锦绣</t>
+    <t>方姑姑</t>
+  </si>
+  <si>
+    <t>大肚子璎珞</t>
+  </si>
+  <si>
+    <t>严嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察玉佩</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_46</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_47</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_48</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_49</t>
+  </si>
+  <si>
+    <t>怡嫔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>方姑姑</t>
+    <t>皇后</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>大肚子璎珞</t>
+    <t>高贵妃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>严嬷嬷</t>
+    <t>张院判</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>吴总管</t>
+    <t>愉贵人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>富察玉佩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方姑姑</t>
-  </si>
-  <si>
-    <t>大肚子璎珞</t>
-  </si>
-  <si>
-    <t>严嬷嬷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴总管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富察玉佩</t>
+    <t>太医拿枇杷膏</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1104,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1167,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,7 +1272,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2402,13 +2439,13 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>274</v>
+      <c r="B23" s="33" t="s">
+        <v>291</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="23">
+        <v>280</v>
+      </c>
+      <c r="D23" s="29">
         <v>0</v>
       </c>
       <c r="E23" s="23">
@@ -2439,14 +2476,14 @@
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="23">
-        <v>58</v>
+      <c r="D24" s="29">
+        <v>0</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -2476,14 +2513,14 @@
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="23">
-        <v>59</v>
+      <c r="D25" s="29">
+        <v>0</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -2513,14 +2550,14 @@
       <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="23">
-        <v>60</v>
+      <c r="D26" s="29">
+        <v>0</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -2550,14 +2587,14 @@
       <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="23">
-        <v>61</v>
+      <c r="D27" s="29">
+        <v>0</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -2587,14 +2624,14 @@
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D28" s="23">
-        <v>62</v>
+      <c r="D28" s="29">
+        <v>0</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
@@ -2624,11 +2661,11 @@
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>183</v>
+      <c r="B29" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="D29" s="26">
         <v>0</v>
@@ -2661,14 +2698,14 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>184</v>
+      <c r="B30" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="D30" s="26">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2698,14 +2735,14 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>185</v>
+      <c r="B31" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="D31" s="26">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -2735,14 +2772,14 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>186</v>
+      <c r="B32" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="D32" s="26">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
@@ -2772,14 +2809,14 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>187</v>
+      <c r="B33" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="D33" s="26">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -2809,14 +2846,14 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>188</v>
+      <c r="B34" s="30" t="s">
+        <v>279</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="D34" s="26">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
@@ -2846,16 +2883,16 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>45</v>
+      <c r="B35" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <v>7</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -2883,16 +2920,16 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>46</v>
+      <c r="B36" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="D36" s="8">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6">
+        <v>52</v>
+      </c>
+      <c r="E36" s="8">
         <v>7</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -2920,16 +2957,16 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>47</v>
+      <c r="B37" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="D37" s="8">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8">
         <v>7</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -2957,16 +2994,16 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>48</v>
+      <c r="B38" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D38" s="8">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6">
+        <v>54</v>
+      </c>
+      <c r="E38" s="8">
         <v>7</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -2995,15 +3032,15 @@
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D39" s="8">
-        <v>11</v>
-      </c>
-      <c r="E39" s="6">
+        <v>55</v>
+      </c>
+      <c r="E39" s="8">
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3031,16 +3068,16 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>50</v>
+      <c r="B40" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="D40" s="8">
-        <v>12</v>
-      </c>
-      <c r="E40" s="6">
+        <v>56</v>
+      </c>
+      <c r="E40" s="8">
         <v>7</v>
       </c>
       <c r="F40" s="17" t="s">
@@ -3068,11 +3105,11 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>51</v>
+      <c r="B41" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -3105,14 +3142,14 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>52</v>
+      <c r="B42" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D42" s="26">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -3142,14 +3179,14 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>53</v>
+      <c r="B43" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D43" s="26">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
@@ -3179,14 +3216,14 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>54</v>
+      <c r="B44" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D44" s="26">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E44" s="26">
         <v>8</v>
@@ -3217,13 +3254,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D45" s="26">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E45" s="26">
         <v>8</v>
@@ -3253,14 +3290,14 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>56</v>
+      <c r="B46" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D46" s="26">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E46" s="26">
         <v>8</v>
@@ -3290,16 +3327,16 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="26">
-        <v>31</v>
-      </c>
-      <c r="E47" s="26">
+      <c r="B47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
         <v>8</v>
       </c>
       <c r="F47" s="17" t="s">
@@ -3327,14 +3364,14 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>30</v>
+      <c r="B48" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D48" s="8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E48" s="8">
         <v>9</v>
@@ -3364,14 +3401,14 @@
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>28</v>
+      <c r="B49" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D49" s="8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E49" s="8">
         <v>9</v>
@@ -3401,14 +3438,14 @@
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>29</v>
+      <c r="B50" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D50" s="8">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E50" s="8">
         <v>9</v>
@@ -3438,14 +3475,14 @@
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>33</v>
+      <c r="B51" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D51" s="8">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E51" s="8">
         <v>9</v>
@@ -3475,14 +3512,14 @@
       <c r="A52" s="6">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>32</v>
+      <c r="B52" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D52" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E52" s="8">
         <v>9</v>
@@ -3512,14 +3549,14 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8">
         <v>31</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="8">
-        <v>6</v>
       </c>
       <c r="E53" s="8">
         <v>9</v>
@@ -3549,16 +3586,16 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="26">
         <v>0</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="26">
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
@@ -3586,16 +3623,16 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="26">
         <v>2</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="26">
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
@@ -3623,16 +3660,16 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="26">
         <v>3</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="26">
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
@@ -3660,16 +3697,16 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="26">
         <v>4</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="26">
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
@@ -3697,16 +3734,16 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="26">
         <v>5</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="26">
         <v>10</v>
       </c>
       <c r="F58" s="17" t="s">
@@ -3734,16 +3771,16 @@
       <c r="A59" s="6">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="26">
         <v>6</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="26">
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
@@ -4509,25 +4546,18 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
@@ -4554,9 +4584,14 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92"/>
-      <c r="B92"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -4620,24 +4655,12 @@
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="H110" s="22" t="s">
-        <v>280</v>
-      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -10,13 +10,14 @@
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="#" sheetId="3" r:id="rId3"/>
+    <sheet name="##" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="297">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -742,231 +743,25 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_5</t>
-  </si>
-  <si>
-    <t>0_7</t>
-  </si>
-  <si>
-    <t>0_9</t>
-  </si>
-  <si>
-    <t>0_11</t>
-  </si>
-  <si>
-    <t>0_13</t>
-  </si>
-  <si>
-    <t>0_15</t>
-  </si>
-  <si>
-    <t>0_17</t>
-  </si>
-  <si>
     <t>0_19</t>
   </si>
   <si>
-    <t>0_21</t>
-  </si>
-  <si>
     <t>0_23</t>
   </si>
   <si>
-    <t>0_25</t>
-  </si>
-  <si>
     <t>0_27</t>
   </si>
   <si>
-    <t>0_29</t>
-  </si>
-  <si>
-    <t>0_31</t>
-  </si>
-  <si>
-    <t>0_33</t>
-  </si>
-  <si>
-    <t>0_35</t>
-  </si>
-  <si>
-    <t>0_37</t>
-  </si>
-  <si>
     <t>0_39</t>
   </si>
   <si>
-    <t>0_41</t>
-  </si>
-  <si>
-    <t>0_43</t>
-  </si>
-  <si>
-    <t>0_45</t>
-  </si>
-  <si>
     <t>0_47</t>
   </si>
   <si>
-    <t>0_49</t>
-  </si>
-  <si>
-    <t>0_51</t>
-  </si>
-  <si>
-    <t>0_53</t>
-  </si>
-  <si>
-    <t>0_55</t>
-  </si>
-  <si>
-    <t>0_57</t>
-  </si>
-  <si>
-    <t>0_59</t>
-  </si>
-  <si>
-    <t>0_61</t>
-  </si>
-  <si>
-    <t>0_63</t>
-  </si>
-  <si>
-    <t>0_65</t>
-  </si>
-  <si>
     <t>0_67</t>
   </si>
   <si>
-    <t>0_69</t>
-  </si>
-  <si>
-    <t>0_71</t>
-  </si>
-  <si>
-    <t>0_73</t>
-  </si>
-  <si>
-    <t>0_75</t>
-  </si>
-  <si>
-    <t>0_77</t>
-  </si>
-  <si>
-    <t>0_79</t>
-  </si>
-  <si>
-    <t>0_81</t>
-  </si>
-  <si>
-    <t>0_83</t>
-  </si>
-  <si>
-    <t>0_85</t>
-  </si>
-  <si>
-    <t>0_87</t>
-  </si>
-  <si>
-    <t>0_89</t>
-  </si>
-  <si>
-    <t>0_91</t>
-  </si>
-  <si>
-    <t>0_93</t>
-  </si>
-  <si>
-    <t>0_95</t>
-  </si>
-  <si>
-    <t>0_97</t>
-  </si>
-  <si>
-    <t>0_99</t>
-  </si>
-  <si>
-    <t>0_101</t>
-  </si>
-  <si>
-    <t>0_103</t>
-  </si>
-  <si>
-    <t>0_105</t>
-  </si>
-  <si>
-    <t>0_107</t>
-  </si>
-  <si>
-    <t>0_109</t>
-  </si>
-  <si>
-    <t>0_111</t>
-  </si>
-  <si>
-    <t>0_113</t>
-  </si>
-  <si>
     <t>0_115</t>
-  </si>
-  <si>
-    <t>0_117</t>
-  </si>
-  <si>
-    <t>0_119</t>
-  </si>
-  <si>
-    <t>0_121</t>
-  </si>
-  <si>
-    <t>0_123</t>
-  </si>
-  <si>
-    <t>0_125</t>
-  </si>
-  <si>
-    <t>0_127</t>
-  </si>
-  <si>
-    <t>0_129</t>
-  </si>
-  <si>
-    <t>0_131</t>
-  </si>
-  <si>
-    <t>0_133</t>
-  </si>
-  <si>
-    <t>0_135</t>
-  </si>
-  <si>
-    <t>0_137</t>
-  </si>
-  <si>
-    <t>0_139</t>
-  </si>
-  <si>
-    <t>0_141</t>
-  </si>
-  <si>
-    <t>0_143</t>
-  </si>
-  <si>
-    <t>0_145</t>
-  </si>
-  <si>
-    <t>0_147</t>
-  </si>
-  <si>
-    <t>0_149</t>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_38</t>
@@ -1051,15 +846,253 @@
   </si>
   <si>
     <t>太医拿枇杷膏</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5024,0_1</t>
+  </si>
+  <si>
+    <t>0_1</t>
+  </si>
+  <si>
+    <t>0_16</t>
+  </si>
+  <si>
+    <t>0_32</t>
+  </si>
+  <si>
+    <t>0_56</t>
+  </si>
+  <si>
+    <t>0_80</t>
+  </si>
+  <si>
+    <t>0_96</t>
+  </si>
+  <si>
+    <t>0_138</t>
+  </si>
+  <si>
+    <t>0_165</t>
+  </si>
+  <si>
+    <t>0_198</t>
+  </si>
+  <si>
+    <t>0_238</t>
+  </si>
+  <si>
+    <t>0_285</t>
+  </si>
+  <si>
+    <t>0_342</t>
+  </si>
+  <si>
+    <t>0_411</t>
+  </si>
+  <si>
+    <t>0_493</t>
+  </si>
+  <si>
+    <t>0_591</t>
+  </si>
+  <si>
+    <t>0_709</t>
+  </si>
+  <si>
+    <t>0_851</t>
+  </si>
+  <si>
+    <t>0_1021</t>
+  </si>
+  <si>
+    <t>0_1225</t>
+  </si>
+  <si>
+    <t>0_1470</t>
+  </si>
+  <si>
+    <t>0_1764</t>
+  </si>
+  <si>
+    <t>0_2117</t>
+  </si>
+  <si>
+    <t>0_2540</t>
+  </si>
+  <si>
+    <t>0_3048</t>
+  </si>
+  <si>
+    <t>0_3658</t>
+  </si>
+  <si>
+    <t>0_4389</t>
+  </si>
+  <si>
+    <t>0_5267</t>
+  </si>
+  <si>
+    <t>0_6320</t>
+  </si>
+  <si>
+    <t>0_7584</t>
+  </si>
+  <si>
+    <t>0_9101</t>
+  </si>
+  <si>
+    <t>1_1092,0_1</t>
+  </si>
+  <si>
+    <t>1_1310,0_5</t>
+  </si>
+  <si>
+    <t>1_1572,0_6</t>
+  </si>
+  <si>
+    <t>1_1887,0_1</t>
+  </si>
+  <si>
+    <t>1_2264,0_5</t>
+  </si>
+  <si>
+    <t>1_2717,0_4</t>
+  </si>
+  <si>
+    <t>1_3260,0_9</t>
+  </si>
+  <si>
+    <t>1_3913,0_1</t>
+  </si>
+  <si>
+    <t>1_4695,0_7</t>
+  </si>
+  <si>
+    <t>1_5634,0_8</t>
+  </si>
+  <si>
+    <t>1_6761,0_8</t>
+  </si>
+  <si>
+    <t>1_8114,0_1</t>
+  </si>
+  <si>
+    <t>1_9736,0_9</t>
+  </si>
+  <si>
+    <t>1_1168,0_43</t>
+  </si>
+  <si>
+    <t>1_1402,0_11</t>
+  </si>
+  <si>
+    <t>1_1682,0_53</t>
+  </si>
+  <si>
+    <t>1_2019,0_4</t>
+  </si>
+  <si>
+    <t>1_2422,0_84</t>
+  </si>
+  <si>
+    <t>1_2907,0_41</t>
+  </si>
+  <si>
+    <t>1_3488,0_89</t>
+  </si>
+  <si>
+    <t>1_4186,0_67</t>
+  </si>
+  <si>
+    <t>1_6028,0_81</t>
+  </si>
+  <si>
+    <t>1_7234,0_57</t>
+  </si>
+  <si>
+    <t>0_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1192,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,6 +1319,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1629,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:H102"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -1823,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -1860,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
@@ -1897,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
@@ -1934,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="G9" s="26">
         <v>6</v>
@@ -1971,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="G10" s="26">
         <v>7</v>
@@ -2008,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
@@ -2045,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2082,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2119,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2156,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2193,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2230,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="G17" s="26">
         <v>14</v>
@@ -2267,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="G18" s="26">
         <v>15</v>
@@ -2304,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="G19" s="26">
         <v>16</v>
@@ -2341,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G20" s="26">
         <v>17</v>
@@ -2378,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G21" s="26">
         <v>18</v>
@@ -2415,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G22" s="26">
         <v>19</v>
@@ -2440,10 +2488,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="D23" s="29">
         <v>0</v>
@@ -2452,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G23" s="23">
         <v>20</v>
@@ -2477,10 +2525,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="D24" s="29">
         <v>0</v>
@@ -2489,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G24" s="23">
         <v>21</v>
@@ -2514,10 +2562,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D25" s="29">
         <v>0</v>
@@ -2526,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G25" s="23">
         <v>22</v>
@@ -2551,10 +2599,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="D26" s="29">
         <v>0</v>
@@ -2563,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G26" s="23">
         <v>23</v>
@@ -2588,10 +2636,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="D27" s="29">
         <v>0</v>
@@ -2600,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G27" s="23">
         <v>24</v>
@@ -2625,10 +2673,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="D28" s="29">
         <v>0</v>
@@ -2637,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G28" s="23">
         <v>25</v>
@@ -2662,10 +2710,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <v>0</v>
@@ -2674,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G29" s="26">
         <v>26</v>
@@ -2699,10 +2747,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="D30" s="26">
         <v>58</v>
@@ -2711,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G30" s="26">
         <v>27</v>
@@ -2736,10 +2784,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="D31" s="26">
         <v>59</v>
@@ -2748,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G31" s="26">
         <v>28</v>
@@ -2773,10 +2821,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="D32" s="26">
         <v>60</v>
@@ -2785,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="G32" s="26">
         <v>29</v>
@@ -2810,10 +2858,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="D33" s="26">
         <v>61</v>
@@ -2822,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G33" s="26">
         <v>30</v>
@@ -2847,10 +2895,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="D34" s="26">
         <v>62</v>
@@ -2859,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G34" s="26">
         <v>31</v>
@@ -2896,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
@@ -2933,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
@@ -2970,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
@@ -3007,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
@@ -3044,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
@@ -3081,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
@@ -3118,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
@@ -3155,7 +3203,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
@@ -3192,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
@@ -3229,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
@@ -3266,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
@@ -3303,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
@@ -3340,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
@@ -3377,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
@@ -3414,7 +3462,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
@@ -3451,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
@@ -3488,7 +3536,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
@@ -3525,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
@@ -3562,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
@@ -3599,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
@@ -3636,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
@@ -3673,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
@@ -3710,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
@@ -3747,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
@@ -3784,7 +3832,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
@@ -3821,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
@@ -3858,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
@@ -3895,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
@@ -3932,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
@@ -3969,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
@@ -4006,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
@@ -4043,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
@@ -4080,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
@@ -4117,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
@@ -4154,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
@@ -4191,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
@@ -4228,7 +4276,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
@@ -4265,7 +4313,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
@@ -4302,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
@@ -4339,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
@@ -4376,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
@@ -4413,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
@@ -4450,7 +4498,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
@@ -4487,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
@@ -4524,7 +4572,7 @@
         <v>13</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
@@ -5403,7 +5451,7 @@
   <dimension ref="G7:P30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:P30"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6135,4 +6183,2865 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="8.796875" style="34"/>
+    <col min="17" max="17" width="8.796875" style="36"/>
+    <col min="18" max="18" width="8.796875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="14"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
+        <v>0_1</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(H5:W5,"&gt;-1")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="35">
+        <f t="shared" ref="F5:F68" si="0">ROUNDUP(D5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="str">
+        <f>TEXT(F5,"0")</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
+        <v>0_2</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(H6:W6,"&gt;-1")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6:D69" si="1">D5*E5</f>
+        <v>1.2</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
+        <v>0_2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.728</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="1"/>
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="1"/>
+        <v>2.4883199999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="1"/>
+        <v>2.9859839999999997</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f t="shared" si="3"/>
+        <v>0_4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="1"/>
+        <v>3.5831807999999996</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f t="shared" si="3"/>
+        <v>0_5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="1"/>
+        <v>4.2998169599999994</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f t="shared" si="3"/>
+        <v>0_6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="1"/>
+        <v>5.1597803519999994</v>
+      </c>
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="16">
+        <v>6</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" si="3"/>
+        <v>0_7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="1"/>
+        <v>6.1917364223999991</v>
+      </c>
+      <c r="E15">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="16">
+        <v>7</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="3"/>
+        <v>0_8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="1"/>
+        <v>7.4300837068799988</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="3"/>
+        <v>0_9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="1"/>
+        <v>8.9161004482559978</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H17" s="16">
+        <v>9</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="3"/>
+        <v>0_11</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="1"/>
+        <v>10.699320537907196</v>
+      </c>
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H18" s="16">
+        <v>11</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="3"/>
+        <v>0_13</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" si="1"/>
+        <v>12.839184645488634</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H19" s="16">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="3"/>
+        <v>0_16</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" si="1"/>
+        <v>15.407021574586361</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="16">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v>0_19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" si="1"/>
+        <v>18.488425889503631</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H21" s="16">
+        <v>19</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="3"/>
+        <v>0_23</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="1"/>
+        <v>22.186111067404358</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H22" s="16">
+        <v>23</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f t="shared" si="3"/>
+        <v>0_27</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="38">
+        <f t="shared" si="1"/>
+        <v>26.62333328088523</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G23" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H23" s="16">
+        <v>27</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" si="3"/>
+        <v>0_32</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="1"/>
+        <v>31.947999937062274</v>
+      </c>
+      <c r="E24">
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G24" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H24" s="16">
+        <v>32</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="3"/>
+        <v>0_39</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="1"/>
+        <v>38.337599924474731</v>
+      </c>
+      <c r="E25">
+        <v>1.2</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G25" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H25" s="16">
+        <v>39</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="3"/>
+        <v>0_47</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="1"/>
+        <v>46.005119909369675</v>
+      </c>
+      <c r="E26">
+        <v>1.2</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="H26" s="16">
+        <v>47</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="3"/>
+        <v>0_56</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="1"/>
+        <v>55.206143891243606</v>
+      </c>
+      <c r="E27">
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G27" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H27" s="16">
+        <v>56</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v>0_67</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <f t="shared" si="1"/>
+        <v>66.247372669492322</v>
+      </c>
+      <c r="E28">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G28" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="H28" s="16">
+        <v>67</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v>0_80</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="1"/>
+        <v>79.496847203390786</v>
+      </c>
+      <c r="E29">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H29" s="16">
+        <v>80</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>0_96</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" si="1"/>
+        <v>95.396216644068943</v>
+      </c>
+      <c r="E30">
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H30" s="16">
+        <v>96</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>0_115</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="38">
+        <f t="shared" si="1"/>
+        <v>114.47545997288273</v>
+      </c>
+      <c r="E31">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="G31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="H31" s="16">
+        <v>115</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v>0_138</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="38">
+        <f t="shared" si="1"/>
+        <v>137.37055196745928</v>
+      </c>
+      <c r="E32">
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G32" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="H32" s="16">
+        <v>138</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v>0_165</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="38">
+        <f t="shared" si="1"/>
+        <v>164.84466236095113</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="H33" s="16">
+        <v>165</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>0_198</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <f t="shared" si="1"/>
+        <v>197.81359483314137</v>
+      </c>
+      <c r="E34">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="H34" s="16">
+        <v>198</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>0_238</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="38">
+        <f t="shared" si="1"/>
+        <v>237.37631379976963</v>
+      </c>
+      <c r="E35">
+        <v>1.2</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="G35" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="H35" s="16">
+        <v>238</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>0_285</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="38">
+        <f t="shared" si="1"/>
+        <v>284.85157655972353</v>
+      </c>
+      <c r="E36">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="H36" s="16">
+        <v>285</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>0_342</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="38">
+        <f t="shared" si="1"/>
+        <v>341.82189187166824</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="H37" s="16">
+        <v>342</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v>0_411</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="38">
+        <f t="shared" si="1"/>
+        <v>410.18627024600187</v>
+      </c>
+      <c r="E38">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="16">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="H38" s="16">
+        <v>411</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v>0_493</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="1"/>
+        <v>492.2235242952022</v>
+      </c>
+      <c r="E39">
+        <v>1.2</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="G39" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="H39" s="16">
+        <v>493</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v>0_591</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="1"/>
+        <v>590.66822915424257</v>
+      </c>
+      <c r="E40">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="G40" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>591</v>
+      </c>
+      <c r="H40" s="16">
+        <v>591</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v>0_709</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="38">
+        <f t="shared" si="1"/>
+        <v>708.8018749850911</v>
+      </c>
+      <c r="E41">
+        <v>1.2</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="G41" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>709</v>
+      </c>
+      <c r="H41" s="16">
+        <v>709</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="3"/>
+        <v>0_851</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" si="1"/>
+        <v>850.56224998210928</v>
+      </c>
+      <c r="E42">
+        <v>1.2</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="G42" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>851</v>
+      </c>
+      <c r="H42" s="16">
+        <v>851</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1021</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="1"/>
+        <v>1020.6746999785311</v>
+      </c>
+      <c r="E43">
+        <v>1.2</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="G43" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="H43" s="16">
+        <v>1021</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1225</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" si="1"/>
+        <v>1224.8096399742371</v>
+      </c>
+      <c r="E44">
+        <v>1.2</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="G44" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1225</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1470</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="1"/>
+        <v>1469.7715679690846</v>
+      </c>
+      <c r="E45">
+        <v>1.2</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="G45" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1470</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1470</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="3"/>
+        <v>0_1764</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" si="1"/>
+        <v>1763.7258815629013</v>
+      </c>
+      <c r="E46">
+        <v>1.2</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="G46" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1764</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2117</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="38">
+        <f t="shared" si="1"/>
+        <v>2116.4710578754816</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="0"/>
+        <v>2117</v>
+      </c>
+      <c r="G47" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2117</v>
+      </c>
+      <c r="H47" s="16">
+        <v>2117</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="3"/>
+        <v>0_2540</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="38">
+        <f t="shared" si="1"/>
+        <v>2539.7652694505778</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="0"/>
+        <v>2540</v>
+      </c>
+      <c r="G48" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2540</v>
+      </c>
+      <c r="H48" s="16">
+        <v>2540</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3048</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="38">
+        <f t="shared" si="1"/>
+        <v>3047.7183233406931</v>
+      </c>
+      <c r="E49">
+        <v>1.2</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="0"/>
+        <v>3048</v>
+      </c>
+      <c r="G49" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3048</v>
+      </c>
+      <c r="H49" s="16">
+        <v>3048</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="3"/>
+        <v>0_3658</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="1"/>
+        <v>3657.2619880088318</v>
+      </c>
+      <c r="E50">
+        <v>1.2</v>
+      </c>
+      <c r="F50" s="16">
+        <f t="shared" si="0"/>
+        <v>3658</v>
+      </c>
+      <c r="G50" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3658</v>
+      </c>
+      <c r="H50" s="16">
+        <v>3658</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="36"/>
+    </row>
+    <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="3"/>
+        <v>0_4389</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="38">
+        <f t="shared" si="1"/>
+        <v>4388.7143856105977</v>
+      </c>
+      <c r="E51">
+        <v>1.2</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="0"/>
+        <v>4389</v>
+      </c>
+      <c r="G51" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>4389</v>
+      </c>
+      <c r="H51" s="16">
+        <v>4389</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="36"/>
+    </row>
+    <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="3"/>
+        <v>0_5267</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="38">
+        <f t="shared" si="1"/>
+        <v>5266.457262732717</v>
+      </c>
+      <c r="E52">
+        <v>1.2</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="0"/>
+        <v>5267</v>
+      </c>
+      <c r="G52" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>5267</v>
+      </c>
+      <c r="H52" s="16">
+        <v>5267</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="36"/>
+    </row>
+    <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="3"/>
+        <v>0_6320</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="38">
+        <f t="shared" si="1"/>
+        <v>6319.7487152792601</v>
+      </c>
+      <c r="E53">
+        <v>1.2</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="0"/>
+        <v>6320</v>
+      </c>
+      <c r="G53" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>6320</v>
+      </c>
+      <c r="H53" s="16">
+        <v>6320</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="3"/>
+        <v>0_7584</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="38">
+        <f t="shared" si="1"/>
+        <v>7583.6984583351114</v>
+      </c>
+      <c r="E54">
+        <v>1.2</v>
+      </c>
+      <c r="F54" s="16">
+        <f t="shared" si="0"/>
+        <v>7584</v>
+      </c>
+      <c r="G54" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>7584</v>
+      </c>
+      <c r="H54" s="16">
+        <v>7584</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="36"/>
+    </row>
+    <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <f t="shared" si="3"/>
+        <v>0_9101</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="38">
+        <f t="shared" si="1"/>
+        <v>9100.4381500021336</v>
+      </c>
+      <c r="E55">
+        <v>1.2</v>
+      </c>
+      <c r="F55" s="16">
+        <f t="shared" si="0"/>
+        <v>9101</v>
+      </c>
+      <c r="G55" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>9101</v>
+      </c>
+      <c r="H55" s="16">
+        <v>9101</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="36"/>
+    </row>
+    <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1092,0_1</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="38">
+        <f t="shared" si="1"/>
+        <v>10920.525780002559</v>
+      </c>
+      <c r="E56">
+        <v>1.2</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="0"/>
+        <v>10921</v>
+      </c>
+      <c r="G56" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>10921</v>
+      </c>
+      <c r="H56" s="16">
+        <v>1092</v>
+      </c>
+      <c r="I56" s="16">
+        <v>1</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="34"/>
+    </row>
+    <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1310,0_5</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="38">
+        <f t="shared" si="1"/>
+        <v>13104.63093600307</v>
+      </c>
+      <c r="E57">
+        <v>1.2</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="0"/>
+        <v>13105</v>
+      </c>
+      <c r="G57" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>13105</v>
+      </c>
+      <c r="H57" s="16">
+        <v>1310</v>
+      </c>
+      <c r="I57" s="16">
+        <v>5</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="34"/>
+    </row>
+    <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1572,0_6</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="38">
+        <f t="shared" si="1"/>
+        <v>15725.557123203684</v>
+      </c>
+      <c r="E58">
+        <v>1.2</v>
+      </c>
+      <c r="F58" s="16">
+        <f t="shared" si="0"/>
+        <v>15726</v>
+      </c>
+      <c r="G58" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>15726</v>
+      </c>
+      <c r="H58" s="16">
+        <v>1572</v>
+      </c>
+      <c r="I58" s="16">
+        <v>6</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="34"/>
+    </row>
+    <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1887,0_1</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="38">
+        <f t="shared" si="1"/>
+        <v>18870.66854784442</v>
+      </c>
+      <c r="E59">
+        <v>1.2</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" si="0"/>
+        <v>18871</v>
+      </c>
+      <c r="G59" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>18871</v>
+      </c>
+      <c r="H59" s="16">
+        <v>1887</v>
+      </c>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="34"/>
+    </row>
+    <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2264,0_5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="38">
+        <f t="shared" si="1"/>
+        <v>22644.802257413303</v>
+      </c>
+      <c r="E60">
+        <v>1.2</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="0"/>
+        <v>22645</v>
+      </c>
+      <c r="G60" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>22645</v>
+      </c>
+      <c r="H60" s="16">
+        <v>2264</v>
+      </c>
+      <c r="I60" s="16">
+        <v>5</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="34"/>
+    </row>
+    <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2717,0_4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="38">
+        <f t="shared" si="1"/>
+        <v>27173.762708895963</v>
+      </c>
+      <c r="E61">
+        <v>1.2</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="0"/>
+        <v>27174</v>
+      </c>
+      <c r="G61" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>27174</v>
+      </c>
+      <c r="H61" s="16">
+        <v>2717</v>
+      </c>
+      <c r="I61" s="16">
+        <v>4</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="34"/>
+    </row>
+    <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3260,0_9</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="38">
+        <f t="shared" si="1"/>
+        <v>32608.515250675155</v>
+      </c>
+      <c r="E62">
+        <v>1.2</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="0"/>
+        <v>32609</v>
+      </c>
+      <c r="G62" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>32609</v>
+      </c>
+      <c r="H62" s="16">
+        <v>3260</v>
+      </c>
+      <c r="I62" s="16">
+        <v>9</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="34"/>
+    </row>
+    <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3913,0_1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="38">
+        <f t="shared" si="1"/>
+        <v>39130.218300810186</v>
+      </c>
+      <c r="E63">
+        <v>1.2</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="0"/>
+        <v>39131</v>
+      </c>
+      <c r="G63" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>39131</v>
+      </c>
+      <c r="H63" s="16">
+        <v>3913</v>
+      </c>
+      <c r="I63" s="16">
+        <v>1</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="34"/>
+    </row>
+    <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4695,0_7</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="38">
+        <f t="shared" si="1"/>
+        <v>46956.261960972224</v>
+      </c>
+      <c r="E64">
+        <v>1.2</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="0"/>
+        <v>46957</v>
+      </c>
+      <c r="G64" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>46957</v>
+      </c>
+      <c r="H64" s="16">
+        <v>4695</v>
+      </c>
+      <c r="I64" s="16">
+        <v>7</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="34"/>
+    </row>
+    <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" t="str">
+        <f t="shared" si="3"/>
+        <v>1_5634,0_8</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="38">
+        <f t="shared" si="1"/>
+        <v>56347.514353166669</v>
+      </c>
+      <c r="E65">
+        <v>1.2</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="0"/>
+        <v>56348</v>
+      </c>
+      <c r="G65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>56348</v>
+      </c>
+      <c r="H65" s="16">
+        <v>5634</v>
+      </c>
+      <c r="I65" s="16">
+        <v>8</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="34"/>
+    </row>
+    <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <f t="shared" si="3"/>
+        <v>1_6761,0_8</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="38">
+        <f t="shared" si="1"/>
+        <v>67617.017223799994</v>
+      </c>
+      <c r="E66">
+        <v>1.2</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="0"/>
+        <v>67618</v>
+      </c>
+      <c r="G66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>67618</v>
+      </c>
+      <c r="H66" s="16">
+        <v>6761</v>
+      </c>
+      <c r="I66" s="16">
+        <v>8</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="34"/>
+    </row>
+    <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f t="shared" si="3"/>
+        <v>1_8114,0_1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="38">
+        <f t="shared" si="1"/>
+        <v>81140.420668559993</v>
+      </c>
+      <c r="E67">
+        <v>1.2</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="0"/>
+        <v>81141</v>
+      </c>
+      <c r="G67" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>81141</v>
+      </c>
+      <c r="H67" s="16">
+        <v>8114</v>
+      </c>
+      <c r="I67" s="16">
+        <v>1</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="34"/>
+    </row>
+    <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <f t="shared" si="3"/>
+        <v>1_9736,0_9</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="38">
+        <f t="shared" si="1"/>
+        <v>97368.504802271986</v>
+      </c>
+      <c r="E68">
+        <v>1.2</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="0"/>
+        <v>97369</v>
+      </c>
+      <c r="G68" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>97369</v>
+      </c>
+      <c r="H68" s="16">
+        <v>9736</v>
+      </c>
+      <c r="I68" s="16">
+        <v>9</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="34"/>
+    </row>
+    <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1168,0_43</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="38">
+        <f t="shared" si="1"/>
+        <v>116842.20576272639</v>
+      </c>
+      <c r="E69">
+        <v>1.2</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" ref="F69:F79" si="5">ROUNDUP(D69,0)</f>
+        <v>116843</v>
+      </c>
+      <c r="G69" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>116843</v>
+      </c>
+      <c r="H69" s="16">
+        <v>1168</v>
+      </c>
+      <c r="I69" s="16">
+        <v>43</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="34"/>
+    </row>
+    <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1402,0_11</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="38">
+        <f t="shared" ref="D70:D79" si="6">D69*E69</f>
+        <v>140210.64691527165</v>
+      </c>
+      <c r="E70">
+        <v>1.2</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="5"/>
+        <v>140211</v>
+      </c>
+      <c r="G70" s="16" t="str">
+        <f t="shared" ref="G70:G79" si="7">TEXT(F70,"0")</f>
+        <v>140211</v>
+      </c>
+      <c r="H70" s="16">
+        <v>1402</v>
+      </c>
+      <c r="I70" s="16">
+        <v>11</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="34"/>
+    </row>
+    <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <f t="shared" ref="B71:B79" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
+        <v>1_1682,0_53</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C79" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
+        <v>2</v>
+      </c>
+      <c r="D71" s="38">
+        <f t="shared" si="6"/>
+        <v>168252.77629832597</v>
+      </c>
+      <c r="E71">
+        <v>1.2</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="5"/>
+        <v>168253</v>
+      </c>
+      <c r="G71" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>168253</v>
+      </c>
+      <c r="H71" s="16">
+        <v>1682</v>
+      </c>
+      <c r="I71" s="16">
+        <v>53</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="34"/>
+    </row>
+    <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" t="str">
+        <f t="shared" si="8"/>
+        <v>1_2019,0_4</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="38">
+        <f t="shared" si="6"/>
+        <v>201903.33155799116</v>
+      </c>
+      <c r="E72">
+        <v>1.2</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="5"/>
+        <v>201904</v>
+      </c>
+      <c r="G72" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>201904</v>
+      </c>
+      <c r="H72" s="16">
+        <v>2019</v>
+      </c>
+      <c r="I72" s="16">
+        <v>4</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="34"/>
+    </row>
+    <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="str">
+        <f t="shared" si="8"/>
+        <v>1_2422,0_84</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="38">
+        <f t="shared" si="6"/>
+        <v>242283.99786958937</v>
+      </c>
+      <c r="E73">
+        <v>1.2</v>
+      </c>
+      <c r="F73" s="16">
+        <f t="shared" si="5"/>
+        <v>242284</v>
+      </c>
+      <c r="G73" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>242284</v>
+      </c>
+      <c r="H73" s="16">
+        <v>2422</v>
+      </c>
+      <c r="I73" s="16">
+        <v>84</v>
+      </c>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="34"/>
+    </row>
+    <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" t="str">
+        <f t="shared" si="8"/>
+        <v>1_2907,0_41</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="38">
+        <f t="shared" si="6"/>
+        <v>290740.79744350724</v>
+      </c>
+      <c r="E74">
+        <v>1.2</v>
+      </c>
+      <c r="F74" s="16">
+        <f t="shared" si="5"/>
+        <v>290741</v>
+      </c>
+      <c r="G74" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>290741</v>
+      </c>
+      <c r="H74" s="16">
+        <v>2907</v>
+      </c>
+      <c r="I74" s="16">
+        <v>41</v>
+      </c>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="34"/>
+    </row>
+    <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" t="str">
+        <f t="shared" si="8"/>
+        <v>1_3488,0_89</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="38">
+        <f t="shared" si="6"/>
+        <v>348888.95693220868</v>
+      </c>
+      <c r="E75">
+        <v>1.2</v>
+      </c>
+      <c r="F75" s="16">
+        <f t="shared" si="5"/>
+        <v>348889</v>
+      </c>
+      <c r="G75" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>348889</v>
+      </c>
+      <c r="H75" s="16">
+        <v>3488</v>
+      </c>
+      <c r="I75" s="16">
+        <v>89</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="34"/>
+    </row>
+    <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" t="str">
+        <f t="shared" si="8"/>
+        <v>1_4186,0_67</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="38">
+        <f t="shared" si="6"/>
+        <v>418666.74831865041</v>
+      </c>
+      <c r="E76">
+        <v>1.2</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="5"/>
+        <v>418667</v>
+      </c>
+      <c r="G76" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>418667</v>
+      </c>
+      <c r="H76" s="16">
+        <v>4186</v>
+      </c>
+      <c r="I76" s="16">
+        <v>67</v>
+      </c>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="34"/>
+    </row>
+    <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" t="str">
+        <f t="shared" si="8"/>
+        <v>1_5024,0_1</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="38">
+        <f t="shared" si="6"/>
+        <v>502400.09798238048</v>
+      </c>
+      <c r="E77">
+        <v>1.2</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="5"/>
+        <v>502401</v>
+      </c>
+      <c r="G77" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>502401</v>
+      </c>
+      <c r="H77" s="16">
+        <v>5024</v>
+      </c>
+      <c r="I77" s="16">
+        <v>1</v>
+      </c>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="34"/>
+    </row>
+    <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" t="str">
+        <f t="shared" si="8"/>
+        <v>1_6028,0_81</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D78" s="38">
+        <f t="shared" si="6"/>
+        <v>602880.11757885653</v>
+      </c>
+      <c r="E78">
+        <v>1.2</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="5"/>
+        <v>602881</v>
+      </c>
+      <c r="G78" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>602881</v>
+      </c>
+      <c r="H78" s="16">
+        <v>6028</v>
+      </c>
+      <c r="I78" s="16">
+        <v>81</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="34"/>
+    </row>
+    <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" t="str">
+        <f t="shared" si="8"/>
+        <v>1_7234,0_57</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="38">
+        <f t="shared" si="6"/>
+        <v>723456.14109462779</v>
+      </c>
+      <c r="E79">
+        <v>1.2</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="5"/>
+        <v>723457</v>
+      </c>
+      <c r="G79" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>723457</v>
+      </c>
+      <c r="H79" s="16">
+        <v>7234</v>
+      </c>
+      <c r="I79" s="16">
+        <v>57</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -867,9 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_5024,0_1</t>
-  </si>
-  <si>
     <t>0_1</t>
   </si>
   <si>
@@ -960,75 +957,6 @@
     <t>0_9101</t>
   </si>
   <si>
-    <t>1_1092,0_1</t>
-  </si>
-  <si>
-    <t>1_1310,0_5</t>
-  </si>
-  <si>
-    <t>1_1572,0_6</t>
-  </si>
-  <si>
-    <t>1_1887,0_1</t>
-  </si>
-  <si>
-    <t>1_2264,0_5</t>
-  </si>
-  <si>
-    <t>1_2717,0_4</t>
-  </si>
-  <si>
-    <t>1_3260,0_9</t>
-  </si>
-  <si>
-    <t>1_3913,0_1</t>
-  </si>
-  <si>
-    <t>1_4695,0_7</t>
-  </si>
-  <si>
-    <t>1_5634,0_8</t>
-  </si>
-  <si>
-    <t>1_6761,0_8</t>
-  </si>
-  <si>
-    <t>1_8114,0_1</t>
-  </si>
-  <si>
-    <t>1_9736,0_9</t>
-  </si>
-  <si>
-    <t>1_1168,0_43</t>
-  </si>
-  <si>
-    <t>1_1402,0_11</t>
-  </si>
-  <si>
-    <t>1_1682,0_53</t>
-  </si>
-  <si>
-    <t>1_2019,0_4</t>
-  </si>
-  <si>
-    <t>1_2422,0_84</t>
-  </si>
-  <si>
-    <t>1_2907,0_41</t>
-  </si>
-  <si>
-    <t>1_3488,0_89</t>
-  </si>
-  <si>
-    <t>1_4186,0_67</t>
-  </si>
-  <si>
-    <t>1_6028,0_81</t>
-  </si>
-  <si>
-    <t>1_7234,0_57</t>
-  </si>
-  <si>
     <t>0_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,6 +1011,78 @@
   <si>
     <t>0_15</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1,0_921</t>
+  </si>
+  <si>
+    <t>1_1,0_3105</t>
+  </si>
+  <si>
+    <t>1_1,0_5726</t>
+  </si>
+  <si>
+    <t>1_1,0_8871</t>
+  </si>
+  <si>
+    <t>1_2,0_2645</t>
+  </si>
+  <si>
+    <t>1_2,0_7174</t>
+  </si>
+  <si>
+    <t>1_3,0_2609</t>
+  </si>
+  <si>
+    <t>1_3,0_9131</t>
+  </si>
+  <si>
+    <t>1_4,0_6957</t>
+  </si>
+  <si>
+    <t>1_5,0_6348</t>
+  </si>
+  <si>
+    <t>1_6,0_7618</t>
+  </si>
+  <si>
+    <t>1_8,0_1141</t>
+  </si>
+  <si>
+    <t>1_9,0_7369</t>
+  </si>
+  <si>
+    <t>1_11,0_6843</t>
+  </si>
+  <si>
+    <t>1_14,0_211</t>
+  </si>
+  <si>
+    <t>1_16,0_8253</t>
+  </si>
+  <si>
+    <t>1_20,0_1904</t>
+  </si>
+  <si>
+    <t>1_24,0_2284</t>
+  </si>
+  <si>
+    <t>1_29,0_741</t>
+  </si>
+  <si>
+    <t>1_34,0_8889</t>
+  </si>
+  <si>
+    <t>1_41,0_8667</t>
+  </si>
+  <si>
+    <t>1_50,0_2401</t>
+  </si>
+  <si>
+    <t>1_60,0_2881</t>
+  </si>
+  <si>
+    <t>1_72,0_3457</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F20" sqref="F20:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="G9" s="26">
         <v>6</v>
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="G10" s="26">
         <v>7</v>
@@ -2056,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G17" s="26">
         <v>14</v>
@@ -2315,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="G18" s="26">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="G19" s="26">
         <v>16</v>
@@ -2389,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="26">
         <v>17</v>
@@ -2537,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G24" s="23">
         <v>21</v>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G27" s="23">
         <v>24</v>
@@ -2722,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" s="26">
         <v>26</v>
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" s="26">
         <v>27</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="26">
         <v>29</v>
@@ -2870,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G33" s="26">
         <v>30</v>
@@ -2907,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G34" s="26">
         <v>31</v>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
@@ -3018,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
@@ -3055,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
@@ -3092,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
@@ -3129,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
@@ -3166,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
@@ -3203,7 +3203,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
@@ -3240,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
@@ -3277,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
@@ -3314,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
@@ -3462,7 +3462,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
@@ -3499,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
@@ -3536,7 +3536,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
@@ -3573,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
@@ -3610,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
@@ -3684,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
@@ -3721,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
@@ -3795,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
@@ -3832,7 +3832,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
@@ -3869,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
@@ -3906,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
@@ -3943,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
@@ -4017,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
@@ -4054,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
@@ -4091,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
@@ -4128,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
@@ -4165,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
@@ -4202,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
@@ -4239,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
@@ -4276,7 +4276,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
@@ -4313,7 +4313,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
@@ -4387,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
@@ -4424,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
@@ -4461,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
@@ -4498,7 +4498,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
@@ -4535,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
@@ -4572,7 +4572,7 @@
         <v>13</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
@@ -6190,7 +6190,7 @@
   <dimension ref="B1:R79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+      <selection activeCell="B20" sqref="B20:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8106,7 +8106,7 @@
     <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>1_1092,0_1</v>
+        <v>1_1,0_921</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -8128,10 +8128,10 @@
         <v>10921</v>
       </c>
       <c r="H56" s="16">
-        <v>1092</v>
+        <v>1</v>
       </c>
       <c r="I56" s="16">
-        <v>1</v>
+        <v>921</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
@@ -8145,7 +8145,7 @@
     <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>1_1310,0_5</v>
+        <v>1_1,0_3105</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -8167,10 +8167,10 @@
         <v>13105</v>
       </c>
       <c r="H57" s="16">
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="I57" s="16">
-        <v>5</v>
+        <v>3105</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
@@ -8184,7 +8184,7 @@
     <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>1_1572,0_6</v>
+        <v>1_1,0_5726</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -8206,10 +8206,10 @@
         <v>15726</v>
       </c>
       <c r="H58" s="16">
-        <v>1572</v>
+        <v>1</v>
       </c>
       <c r="I58" s="16">
-        <v>6</v>
+        <v>5726</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
@@ -8223,7 +8223,7 @@
     <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>1_1887,0_1</v>
+        <v>1_1,0_8871</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -8245,10 +8245,10 @@
         <v>18871</v>
       </c>
       <c r="H59" s="16">
-        <v>1887</v>
+        <v>1</v>
       </c>
       <c r="I59" s="16">
-        <v>1</v>
+        <v>8871</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
@@ -8262,7 +8262,7 @@
     <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>1_2264,0_5</v>
+        <v>1_2,0_2645</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -8284,10 +8284,10 @@
         <v>22645</v>
       </c>
       <c r="H60" s="16">
-        <v>2264</v>
+        <v>2</v>
       </c>
       <c r="I60" s="16">
-        <v>5</v>
+        <v>2645</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
@@ -8301,7 +8301,7 @@
     <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>1_2717,0_4</v>
+        <v>1_2,0_7174</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -8323,10 +8323,10 @@
         <v>27174</v>
       </c>
       <c r="H61" s="16">
-        <v>2717</v>
+        <v>2</v>
       </c>
       <c r="I61" s="16">
-        <v>4</v>
+        <v>7174</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
@@ -8340,7 +8340,7 @@
     <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>1_3260,0_9</v>
+        <v>1_3,0_2609</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
@@ -8362,10 +8362,10 @@
         <v>32609</v>
       </c>
       <c r="H62" s="16">
-        <v>3260</v>
+        <v>3</v>
       </c>
       <c r="I62" s="16">
-        <v>9</v>
+        <v>2609</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -8379,7 +8379,7 @@
     <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>1_3913,0_1</v>
+        <v>1_3,0_9131</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
@@ -8401,10 +8401,10 @@
         <v>39131</v>
       </c>
       <c r="H63" s="16">
-        <v>3913</v>
+        <v>3</v>
       </c>
       <c r="I63" s="16">
-        <v>1</v>
+        <v>9131</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
@@ -8418,7 +8418,7 @@
     <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>1_4695,0_7</v>
+        <v>1_4,0_6957</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
@@ -8440,10 +8440,10 @@
         <v>46957</v>
       </c>
       <c r="H64" s="16">
-        <v>4695</v>
+        <v>4</v>
       </c>
       <c r="I64" s="16">
-        <v>7</v>
+        <v>6957</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
@@ -8457,7 +8457,7 @@
     <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>1_5634,0_8</v>
+        <v>1_5,0_6348</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
@@ -8479,10 +8479,10 @@
         <v>56348</v>
       </c>
       <c r="H65" s="16">
-        <v>5634</v>
+        <v>5</v>
       </c>
       <c r="I65" s="16">
-        <v>8</v>
+        <v>6348</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
@@ -8496,7 +8496,7 @@
     <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>1_6761,0_8</v>
+        <v>1_6,0_7618</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
@@ -8518,10 +8518,10 @@
         <v>67618</v>
       </c>
       <c r="H66" s="16">
-        <v>6761</v>
+        <v>6</v>
       </c>
       <c r="I66" s="16">
-        <v>8</v>
+        <v>7618</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -8535,7 +8535,7 @@
     <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>1_8114,0_1</v>
+        <v>1_8,0_1141</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
@@ -8557,10 +8557,10 @@
         <v>81141</v>
       </c>
       <c r="H67" s="16">
-        <v>8114</v>
+        <v>8</v>
       </c>
       <c r="I67" s="16">
-        <v>1</v>
+        <v>1141</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
@@ -8574,7 +8574,7 @@
     <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>1_9736,0_9</v>
+        <v>1_9,0_7369</v>
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
@@ -8596,10 +8596,10 @@
         <v>97369</v>
       </c>
       <c r="H68" s="16">
-        <v>9736</v>
+        <v>9</v>
       </c>
       <c r="I68" s="16">
-        <v>9</v>
+        <v>7369</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
@@ -8613,7 +8613,7 @@
     <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>1_1168,0_43</v>
+        <v>1_11,0_6843</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -8635,10 +8635,10 @@
         <v>116843</v>
       </c>
       <c r="H69" s="16">
-        <v>1168</v>
+        <v>11</v>
       </c>
       <c r="I69" s="16">
-        <v>43</v>
+        <v>6843</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
@@ -8652,7 +8652,7 @@
     <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>1_1402,0_11</v>
+        <v>1_14,0_211</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -8674,10 +8674,10 @@
         <v>140211</v>
       </c>
       <c r="H70" s="16">
-        <v>1402</v>
+        <v>14</v>
       </c>
       <c r="I70" s="16">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
@@ -8691,7 +8691,7 @@
     <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B79" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>1_1682,0_53</v>
+        <v>1_16,0_8253</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C79" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
@@ -8713,10 +8713,10 @@
         <v>168253</v>
       </c>
       <c r="H71" s="16">
-        <v>1682</v>
+        <v>16</v>
       </c>
       <c r="I71" s="16">
-        <v>53</v>
+        <v>8253</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -8730,7 +8730,7 @@
     <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
-        <v>1_2019,0_4</v>
+        <v>1_20,0_1904</v>
       </c>
       <c r="C72">
         <f t="shared" si="9"/>
@@ -8752,10 +8752,10 @@
         <v>201904</v>
       </c>
       <c r="H72" s="16">
-        <v>2019</v>
+        <v>20</v>
       </c>
       <c r="I72" s="16">
-        <v>4</v>
+        <v>1904</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
@@ -8769,7 +8769,7 @@
     <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
-        <v>1_2422,0_84</v>
+        <v>1_24,0_2284</v>
       </c>
       <c r="C73">
         <f t="shared" si="9"/>
@@ -8791,10 +8791,10 @@
         <v>242284</v>
       </c>
       <c r="H73" s="16">
-        <v>2422</v>
+        <v>24</v>
       </c>
       <c r="I73" s="16">
-        <v>84</v>
+        <v>2284</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
@@ -8808,7 +8808,7 @@
     <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
-        <v>1_2907,0_41</v>
+        <v>1_29,0_741</v>
       </c>
       <c r="C74">
         <f t="shared" si="9"/>
@@ -8830,10 +8830,10 @@
         <v>290741</v>
       </c>
       <c r="H74" s="16">
-        <v>2907</v>
+        <v>29</v>
       </c>
       <c r="I74" s="16">
-        <v>41</v>
+        <v>741</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
@@ -8847,7 +8847,7 @@
     <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
-        <v>1_3488,0_89</v>
+        <v>1_34,0_8889</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
@@ -8869,10 +8869,10 @@
         <v>348889</v>
       </c>
       <c r="H75" s="16">
-        <v>3488</v>
+        <v>34</v>
       </c>
       <c r="I75" s="16">
-        <v>89</v>
+        <v>8889</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
@@ -8886,7 +8886,7 @@
     <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
-        <v>1_4186,0_67</v>
+        <v>1_41,0_8667</v>
       </c>
       <c r="C76">
         <f t="shared" si="9"/>
@@ -8908,10 +8908,10 @@
         <v>418667</v>
       </c>
       <c r="H76" s="16">
-        <v>4186</v>
+        <v>41</v>
       </c>
       <c r="I76" s="16">
-        <v>67</v>
+        <v>8667</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
@@ -8925,7 +8925,7 @@
     <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
-        <v>1_5024,0_1</v>
+        <v>1_50,0_2401</v>
       </c>
       <c r="C77">
         <f t="shared" si="9"/>
@@ -8947,10 +8947,10 @@
         <v>502401</v>
       </c>
       <c r="H77" s="16">
-        <v>5024</v>
+        <v>50</v>
       </c>
       <c r="I77" s="16">
-        <v>1</v>
+        <v>2401</v>
       </c>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
@@ -8964,7 +8964,7 @@
     <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
-        <v>1_6028,0_81</v>
+        <v>1_60,0_2881</v>
       </c>
       <c r="C78">
         <f t="shared" si="9"/>
@@ -8986,10 +8986,10 @@
         <v>602881</v>
       </c>
       <c r="H78" s="16">
-        <v>6028</v>
+        <v>60</v>
       </c>
       <c r="I78" s="16">
-        <v>81</v>
+        <v>2881</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
@@ -9003,7 +9003,7 @@
     <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
-        <v>1_7234,0_57</v>
+        <v>1_72,0_3457</v>
       </c>
       <c r="C79">
         <f t="shared" si="9"/>
@@ -9025,10 +9025,10 @@
         <v>723457</v>
       </c>
       <c r="H79" s="16">
-        <v>7234</v>
+        <v>72</v>
       </c>
       <c r="I79" s="16">
-        <v>57</v>
+        <v>3457</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="309">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1083,6 +1083,47 @@
   </si>
   <si>
     <t>1_72,0_3457</t>
+  </si>
+  <si>
+    <t>玲珑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉嫔  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕粉丸子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">傻子璎珞 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_50</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_51</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_52</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_53</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_54</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_55</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1375,9 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1677,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2709,13 +2753,13 @@
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="26">
+      <c r="B29" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="29">
         <v>0</v>
       </c>
       <c r="E29" s="26">
@@ -2746,14 +2790,14 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="26">
-        <v>58</v>
+      <c r="B30" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2783,14 +2827,14 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="26">
-        <v>59</v>
+      <c r="B31" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -2820,14 +2864,14 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="26">
-        <v>60</v>
+      <c r="B32" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
@@ -2857,14 +2901,14 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="26">
-        <v>61</v>
+      <c r="B33" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -2894,14 +2938,14 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="26">
-        <v>62</v>
+      <c r="B34" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
@@ -2931,13 +2975,13 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B35" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="26">
         <v>0</v>
       </c>
       <c r="E35" s="8">
@@ -2968,14 +3012,14 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="8">
-        <v>52</v>
+      <c r="B36" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="26">
+        <v>58</v>
       </c>
       <c r="E36" s="8">
         <v>7</v>
@@ -3005,14 +3049,14 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="8">
-        <v>53</v>
+      <c r="B37" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="26">
+        <v>59</v>
       </c>
       <c r="E37" s="8">
         <v>7</v>
@@ -3042,14 +3086,14 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="8">
-        <v>54</v>
+      <c r="B38" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="26">
+        <v>60</v>
       </c>
       <c r="E38" s="8">
         <v>7</v>
@@ -3079,14 +3123,14 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="8">
-        <v>55</v>
+      <c r="B39" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="26">
+        <v>61</v>
       </c>
       <c r="E39" s="8">
         <v>7</v>
@@ -3116,14 +3160,14 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="8">
-        <v>56</v>
+      <c r="B40" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="26">
+        <v>62</v>
       </c>
       <c r="E40" s="8">
         <v>7</v>
@@ -3153,13 +3197,13 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="26">
+      <c r="B41" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="8">
         <v>0</v>
       </c>
       <c r="E41" s="26">
@@ -3190,14 +3234,14 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="26">
-        <v>8</v>
+      <c r="B42" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="8">
+        <v>52</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -3227,14 +3271,14 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="26">
-        <v>9</v>
+      <c r="B43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="8">
+        <v>53</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
@@ -3264,14 +3308,14 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="26">
-        <v>10</v>
+      <c r="B44" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="8">
+        <v>54</v>
       </c>
       <c r="E44" s="26">
         <v>8</v>
@@ -3301,14 +3345,14 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="26">
-        <v>11</v>
+      <c r="B45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="8">
+        <v>55</v>
       </c>
       <c r="E45" s="26">
         <v>8</v>
@@ -3338,14 +3382,14 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="26">
-        <v>12</v>
+      <c r="B46" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="8">
+        <v>56</v>
       </c>
       <c r="E46" s="26">
         <v>8</v>
@@ -3375,13 +3419,13 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="B47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="26">
         <v>0</v>
       </c>
       <c r="E47" s="8">
@@ -3412,14 +3456,14 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="8">
-        <v>26</v>
+      <c r="B48" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="26">
+        <v>8</v>
       </c>
       <c r="E48" s="8">
         <v>9</v>
@@ -3449,14 +3493,14 @@
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="8">
-        <v>27</v>
+      <c r="B49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="26">
+        <v>9</v>
       </c>
       <c r="E49" s="8">
         <v>9</v>
@@ -3486,14 +3530,14 @@
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="8">
-        <v>28</v>
+      <c r="B50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="26">
+        <v>10</v>
       </c>
       <c r="E50" s="8">
         <v>9</v>
@@ -3523,14 +3567,14 @@
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="8">
-        <v>29</v>
+      <c r="B51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="26">
+        <v>11</v>
       </c>
       <c r="E51" s="8">
         <v>9</v>
@@ -3560,14 +3604,14 @@
       <c r="A52" s="6">
         <v>48</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="8">
-        <v>30</v>
+      <c r="B52" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="26">
+        <v>12</v>
       </c>
       <c r="E52" s="8">
         <v>9</v>
@@ -3598,16 +3642,16 @@
         <v>49</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D53" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>256</v>
@@ -3634,14 +3678,14 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="26">
-        <v>0</v>
+      <c r="B54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="8">
+        <v>26</v>
       </c>
       <c r="E54" s="26">
         <v>10</v>
@@ -3671,14 +3715,14 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="26">
-        <v>2</v>
+      <c r="B55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="8">
+        <v>27</v>
       </c>
       <c r="E55" s="26">
         <v>10</v>
@@ -3708,14 +3752,14 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="26">
-        <v>3</v>
+      <c r="B56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="8">
+        <v>28</v>
       </c>
       <c r="E56" s="26">
         <v>10</v>
@@ -3745,14 +3789,14 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="26">
-        <v>4</v>
+      <c r="B57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="8">
+        <v>29</v>
       </c>
       <c r="E57" s="26">
         <v>10</v>
@@ -3782,14 +3826,14 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="26">
-        <v>5</v>
+      <c r="B58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="8">
+        <v>30</v>
       </c>
       <c r="E58" s="26">
         <v>10</v>
@@ -3819,14 +3863,14 @@
       <c r="A59" s="6">
         <v>55</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="8">
         <v>31</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="26">
-        <v>6</v>
       </c>
       <c r="E59" s="26">
         <v>10</v>
@@ -3856,13 +3900,13 @@
       <c r="A60" s="6">
         <v>56</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="B60" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="26">
         <v>0</v>
       </c>
       <c r="E60" s="13">
@@ -3893,14 +3937,14 @@
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="6">
-        <v>34</v>
+      <c r="B61" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="26">
+        <v>2</v>
       </c>
       <c r="E61" s="13">
         <v>11</v>
@@ -3930,14 +3974,14 @@
       <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="6">
-        <v>35</v>
+      <c r="B62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="26">
+        <v>3</v>
       </c>
       <c r="E62" s="13">
         <v>11</v>
@@ -3967,14 +4011,14 @@
       <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="6">
-        <v>36</v>
+      <c r="B63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="26">
+        <v>4</v>
       </c>
       <c r="E63" s="13">
         <v>11</v>
@@ -4004,14 +4048,14 @@
       <c r="A64" s="6">
         <v>60</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="6">
-        <v>37</v>
+      <c r="B64" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="26">
+        <v>5</v>
       </c>
       <c r="E64" s="13">
         <v>11</v>
@@ -4041,14 +4085,14 @@
       <c r="A65" s="6">
         <v>61</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="6">
-        <v>38</v>
+      <c r="B65" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="26">
+        <v>6</v>
       </c>
       <c r="E65" s="13">
         <v>11</v>
@@ -4078,13 +4122,13 @@
       <c r="A66" s="6">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="B66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="6">
         <v>0</v>
       </c>
       <c r="E66" s="13">
@@ -4115,14 +4159,14 @@
       <c r="A67" s="6">
         <v>63</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="8">
-        <v>8</v>
+      <c r="B67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="6">
+        <v>34</v>
       </c>
       <c r="E67" s="13">
         <v>12</v>
@@ -4152,14 +4196,14 @@
       <c r="A68" s="6">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="8">
-        <v>9</v>
+      <c r="B68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="6">
+        <v>35</v>
       </c>
       <c r="E68" s="13">
         <v>12</v>
@@ -4189,14 +4233,14 @@
       <c r="A69" s="6">
         <v>65</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="8">
-        <v>10</v>
+      <c r="B69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="6">
+        <v>36</v>
       </c>
       <c r="E69" s="13">
         <v>12</v>
@@ -4226,14 +4270,14 @@
       <c r="A70" s="6">
         <v>66</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="8">
-        <v>11</v>
+      <c r="B70" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="6">
+        <v>37</v>
       </c>
       <c r="E70" s="13">
         <v>12</v>
@@ -4263,14 +4307,14 @@
       <c r="A71" s="6">
         <v>67</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="8">
-        <v>12</v>
+      <c r="B71" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="6">
+        <v>38</v>
       </c>
       <c r="E71" s="13">
         <v>12</v>
@@ -4300,13 +4344,13 @@
       <c r="A72" s="6">
         <v>68</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="B72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="8">
         <v>0</v>
       </c>
       <c r="E72" s="13">
@@ -4337,14 +4381,14 @@
       <c r="A73" s="6">
         <v>69</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="6">
-        <v>26</v>
+      <c r="B73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="8">
+        <v>8</v>
       </c>
       <c r="E73" s="13">
         <v>13</v>
@@ -4374,14 +4418,14 @@
       <c r="A74" s="6">
         <v>70</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" s="6">
-        <v>27</v>
+      <c r="B74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="8">
+        <v>9</v>
       </c>
       <c r="E74" s="13">
         <v>13</v>
@@ -4411,14 +4455,14 @@
       <c r="A75" s="6">
         <v>71</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="6">
-        <v>28</v>
+      <c r="B75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="8">
+        <v>10</v>
       </c>
       <c r="E75" s="13">
         <v>13</v>
@@ -4448,14 +4492,14 @@
       <c r="A76" s="6">
         <v>72</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="6">
-        <v>29</v>
+      <c r="B76" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="8">
+        <v>11</v>
       </c>
       <c r="E76" s="13">
         <v>13</v>
@@ -4485,14 +4529,14 @@
       <c r="A77" s="6">
         <v>73</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="6">
-        <v>30</v>
+      <c r="B77" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="8">
+        <v>12</v>
       </c>
       <c r="E77" s="13">
         <v>13</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D30" sqref="D30:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2575,7 @@
         <v>213</v>
       </c>
       <c r="D24" s="29">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -2612,7 +2612,7 @@
         <v>214</v>
       </c>
       <c r="D25" s="29">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -2649,7 +2649,7 @@
         <v>215</v>
       </c>
       <c r="D26" s="29">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -2686,7 +2686,7 @@
         <v>216</v>
       </c>
       <c r="D27" s="29">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -2723,7 +2723,7 @@
         <v>217</v>
       </c>
       <c r="D28" s="29">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
@@ -2797,7 +2797,7 @@
         <v>304</v>
       </c>
       <c r="D30" s="29">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2834,7 +2834,7 @@
         <v>305</v>
       </c>
       <c r="D31" s="29">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -2871,7 +2871,7 @@
         <v>306</v>
       </c>
       <c r="D32" s="29">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
@@ -2908,7 +2908,7 @@
         <v>307</v>
       </c>
       <c r="D33" s="29">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -2945,7 +2945,7 @@
         <v>308</v>
       </c>
       <c r="D34" s="29">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="321">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1124,6 +1124,50 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_55</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_58</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_59</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_60</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_61</t>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞量衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1178,7 +1222,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,6 +1277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1266,7 +1316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,8 +1426,17 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1721,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2753,13 +2812,13 @@
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" s="29">
+      <c r="B29" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="39">
         <v>0</v>
       </c>
       <c r="E29" s="26">
@@ -2790,14 +2849,14 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D30" s="29">
-        <v>70</v>
+      <c r="B30" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2827,14 +2886,14 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="29">
-        <v>71</v>
+      <c r="B31" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="39">
+        <v>0</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -2864,14 +2923,14 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="29">
-        <v>72</v>
+      <c r="B32" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="39">
+        <v>0</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
@@ -2901,14 +2960,14 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="29">
-        <v>73</v>
+      <c r="B33" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="39">
+        <v>0</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -2938,14 +2997,14 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" s="29">
-        <v>74</v>
+      <c r="B34" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
@@ -2975,16 +3034,16 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="B35" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="42">
         <v>0</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="41">
         <v>7</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -3012,16 +3071,16 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="26">
-        <v>58</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="B36" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="42">
+        <v>70</v>
+      </c>
+      <c r="E36" s="41">
         <v>7</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -3049,16 +3108,16 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="26">
-        <v>59</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="B37" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="42">
+        <v>71</v>
+      </c>
+      <c r="E37" s="41">
         <v>7</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -3086,16 +3145,16 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="26">
-        <v>60</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="B38" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="42">
+        <v>72</v>
+      </c>
+      <c r="E38" s="41">
         <v>7</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -3123,16 +3182,16 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="26">
-        <v>61</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="B39" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="42">
+        <v>73</v>
+      </c>
+      <c r="E39" s="41">
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3160,16 +3219,16 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="26">
-        <v>62</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="B40" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="42">
+        <v>74</v>
+      </c>
+      <c r="E40" s="41">
         <v>7</v>
       </c>
       <c r="F40" s="17" t="s">
@@ -3197,13 +3256,13 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="B41" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="26">
         <v>0</v>
       </c>
       <c r="E41" s="26">
@@ -3234,14 +3293,14 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="8">
-        <v>52</v>
+      <c r="B42" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="26">
+        <v>58</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -3271,14 +3330,14 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="8">
-        <v>53</v>
+      <c r="B43" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="26">
+        <v>59</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
@@ -3308,14 +3367,14 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="8">
-        <v>54</v>
+      <c r="B44" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="26">
+        <v>60</v>
       </c>
       <c r="E44" s="26">
         <v>8</v>
@@ -3345,14 +3404,14 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="8">
-        <v>55</v>
+      <c r="B45" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="26">
+        <v>61</v>
       </c>
       <c r="E45" s="26">
         <v>8</v>
@@ -3382,14 +3441,14 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="8">
-        <v>56</v>
+      <c r="B46" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="26">
+        <v>62</v>
       </c>
       <c r="E46" s="26">
         <v>8</v>
@@ -3419,17 +3478,17 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="26">
+      <c r="B47" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="8">
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>250</v>
@@ -3456,14 +3515,14 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="26">
-        <v>8</v>
+      <c r="B48" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="8">
+        <v>52</v>
       </c>
       <c r="E48" s="8">
         <v>9</v>
@@ -3493,14 +3552,14 @@
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="26">
-        <v>9</v>
+      <c r="B49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="8">
+        <v>53</v>
       </c>
       <c r="E49" s="8">
         <v>9</v>
@@ -3530,14 +3589,14 @@
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="26">
-        <v>10</v>
+      <c r="B50" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="8">
+        <v>54</v>
       </c>
       <c r="E50" s="8">
         <v>9</v>
@@ -3567,14 +3626,14 @@
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="26">
-        <v>11</v>
+      <c r="B51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="8">
+        <v>55</v>
       </c>
       <c r="E51" s="8">
         <v>9</v>
@@ -3604,14 +3663,14 @@
       <c r="A52" s="6">
         <v>48</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="26">
-        <v>12</v>
+      <c r="B52" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="8">
+        <v>56</v>
       </c>
       <c r="E52" s="8">
         <v>9</v>
@@ -3641,13 +3700,13 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="B53" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="26">
         <v>0</v>
       </c>
       <c r="E53" s="8">
@@ -3678,14 +3737,14 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="8">
-        <v>26</v>
+      <c r="B54" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="26">
+        <v>8</v>
       </c>
       <c r="E54" s="26">
         <v>10</v>
@@ -3715,14 +3774,14 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="8">
-        <v>27</v>
+      <c r="B55" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="26">
+        <v>9</v>
       </c>
       <c r="E55" s="26">
         <v>10</v>
@@ -3752,14 +3811,14 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="8">
-        <v>28</v>
+      <c r="B56" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="26">
+        <v>10</v>
       </c>
       <c r="E56" s="26">
         <v>10</v>
@@ -3789,14 +3848,14 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="8">
-        <v>29</v>
+      <c r="B57" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="26">
+        <v>11</v>
       </c>
       <c r="E57" s="26">
         <v>10</v>
@@ -3826,14 +3885,14 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="8">
-        <v>30</v>
+      <c r="B58" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="26">
+        <v>12</v>
       </c>
       <c r="E58" s="26">
         <v>10</v>
@@ -3864,16 +3923,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D59" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E59" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>276</v>
@@ -3900,14 +3959,14 @@
       <c r="A60" s="6">
         <v>56</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="26">
-        <v>0</v>
+      <c r="B60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="8">
+        <v>26</v>
       </c>
       <c r="E60" s="13">
         <v>11</v>
@@ -3937,14 +3996,14 @@
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="26">
-        <v>2</v>
+      <c r="B61" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8">
+        <v>27</v>
       </c>
       <c r="E61" s="13">
         <v>11</v>
@@ -3974,14 +4033,14 @@
       <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="26">
-        <v>3</v>
+      <c r="B62" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="8">
+        <v>28</v>
       </c>
       <c r="E62" s="13">
         <v>11</v>
@@ -4011,14 +4070,14 @@
       <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="26">
-        <v>4</v>
+      <c r="B63" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="8">
+        <v>29</v>
       </c>
       <c r="E63" s="13">
         <v>11</v>
@@ -4048,14 +4107,14 @@
       <c r="A64" s="6">
         <v>60</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="26">
-        <v>5</v>
+      <c r="B64" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="8">
+        <v>30</v>
       </c>
       <c r="E64" s="13">
         <v>11</v>
@@ -4085,14 +4144,14 @@
       <c r="A65" s="6">
         <v>61</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="8">
         <v>31</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="26">
-        <v>6</v>
       </c>
       <c r="E65" s="13">
         <v>11</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D30" sqref="D30:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2856,7 +2856,7 @@
         <v>310</v>
       </c>
       <c r="D30" s="39">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2893,7 +2893,7 @@
         <v>311</v>
       </c>
       <c r="D31" s="39">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -2930,7 +2930,7 @@
         <v>312</v>
       </c>
       <c r="D32" s="39">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
@@ -2967,7 +2967,7 @@
         <v>313</v>
       </c>
       <c r="D33" s="39">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -3004,7 +3004,7 @@
         <v>314</v>
       </c>
       <c r="D34" s="39">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1316,7 +1316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,6 +1437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3478,13 +3481,13 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="B47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="26">
         <v>0</v>
       </c>
       <c r="E47" s="8">
@@ -3515,14 +3518,14 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="8">
-        <v>52</v>
+      <c r="B48" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="26">
+        <v>8</v>
       </c>
       <c r="E48" s="8">
         <v>9</v>
@@ -3552,14 +3555,14 @@
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="8">
-        <v>53</v>
+      <c r="B49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="26">
+        <v>9</v>
       </c>
       <c r="E49" s="8">
         <v>9</v>
@@ -3589,14 +3592,14 @@
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="8">
-        <v>54</v>
+      <c r="B50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="26">
+        <v>10</v>
       </c>
       <c r="E50" s="8">
         <v>9</v>
@@ -3626,14 +3629,14 @@
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="8">
-        <v>55</v>
+      <c r="B51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="26">
+        <v>11</v>
       </c>
       <c r="E51" s="8">
         <v>9</v>
@@ -3663,14 +3666,14 @@
       <c r="A52" s="6">
         <v>48</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="8">
-        <v>56</v>
+      <c r="B52" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="26">
+        <v>12</v>
       </c>
       <c r="E52" s="8">
         <v>9</v>
@@ -3700,16 +3703,16 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="26">
+      <c r="B53" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="8">
         <v>0</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="26">
         <v>10</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -3737,14 +3740,14 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="26">
-        <v>8</v>
+      <c r="B54" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="8">
+        <v>52</v>
       </c>
       <c r="E54" s="26">
         <v>10</v>
@@ -3774,14 +3777,14 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="26">
-        <v>9</v>
+      <c r="B55" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="8">
+        <v>53</v>
       </c>
       <c r="E55" s="26">
         <v>10</v>
@@ -3811,14 +3814,14 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="26">
-        <v>10</v>
+      <c r="B56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="8">
+        <v>54</v>
       </c>
       <c r="E56" s="26">
         <v>10</v>
@@ -3848,14 +3851,14 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="26">
-        <v>11</v>
+      <c r="B57" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="8">
+        <v>55</v>
       </c>
       <c r="E57" s="26">
         <v>10</v>
@@ -3885,14 +3888,14 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="26">
-        <v>12</v>
+      <c r="B58" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="8">
+        <v>56</v>
       </c>
       <c r="E58" s="26">
         <v>10</v>
@@ -3922,16 +3925,16 @@
       <c r="A59" s="6">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="13">
         <v>0</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="13">
         <v>11</v>
       </c>
       <c r="F59" s="17" t="s">
@@ -3959,13 +3962,13 @@
       <c r="A60" s="6">
         <v>56</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="13">
         <v>26</v>
       </c>
       <c r="E60" s="13">
@@ -3996,13 +3999,13 @@
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="13">
         <v>27</v>
       </c>
       <c r="E61" s="13">
@@ -4033,13 +4036,13 @@
       <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="13">
         <v>28</v>
       </c>
       <c r="E62" s="13">
@@ -4070,13 +4073,13 @@
       <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="13">
         <v>29</v>
       </c>
       <c r="E63" s="13">
@@ -4107,13 +4110,13 @@
       <c r="A64" s="6">
         <v>60</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="13">
         <v>30</v>
       </c>
       <c r="E64" s="13">
@@ -4144,13 +4147,13 @@
       <c r="A65" s="6">
         <v>61</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="13">
         <v>31</v>
       </c>
       <c r="E65" s="13">
@@ -4181,16 +4184,16 @@
       <c r="A66" s="6">
         <v>62</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="26">
         <v>0</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="26">
         <v>12</v>
       </c>
       <c r="F66" s="17" t="s">
@@ -4218,16 +4221,16 @@
       <c r="A67" s="6">
         <v>63</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="26">
         <v>34</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="26">
         <v>12</v>
       </c>
       <c r="F67" s="17" t="s">
@@ -4255,16 +4258,16 @@
       <c r="A68" s="6">
         <v>64</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="26">
         <v>35</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="26">
         <v>12</v>
       </c>
       <c r="F68" s="17" t="s">
@@ -4292,16 +4295,16 @@
       <c r="A69" s="6">
         <v>65</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="26">
         <v>36</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="26">
         <v>12</v>
       </c>
       <c r="F69" s="17" t="s">
@@ -4329,16 +4332,16 @@
       <c r="A70" s="6">
         <v>66</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="26">
         <v>37</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="26">
         <v>12</v>
       </c>
       <c r="F70" s="17" t="s">
@@ -4366,16 +4369,16 @@
       <c r="A71" s="6">
         <v>67</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="26">
         <v>38</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="26">
         <v>12</v>
       </c>
       <c r="F71" s="17" t="s">
@@ -4763,21 +4766,18 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98"/>
-      <c r="B98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100"/>
-      <c r="B100"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102"/>
-      <c r="B102"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
@@ -855,18 +855,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>初始值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上取整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0_1</t>
   </si>
   <si>
@@ -1167,6 +1155,18 @@
   </si>
   <si>
     <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1440,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B67" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -1941,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -1977,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -2014,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
@@ -2051,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
@@ -2088,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9" s="26">
         <v>6</v>
@@ -2125,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G10" s="26">
         <v>7</v>
@@ -2162,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
@@ -2199,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2236,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2273,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2310,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2347,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2384,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G17" s="26">
         <v>14</v>
@@ -2421,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G18" s="26">
         <v>15</v>
@@ -2458,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G19" s="26">
         <v>16</v>
@@ -2495,7 +2504,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G20" s="26">
         <v>17</v>
@@ -2643,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G24" s="23">
         <v>21</v>
@@ -2754,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G27" s="23">
         <v>24</v>
@@ -2816,10 +2825,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D29" s="39">
         <v>0</v>
@@ -2828,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G29" s="26">
         <v>26</v>
@@ -2853,10 +2862,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D30" s="39">
         <v>76</v>
@@ -2865,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G30" s="26">
         <v>27</v>
@@ -2890,10 +2899,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D31" s="39">
         <v>77</v>
@@ -2927,10 +2936,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" s="39">
         <v>78</v>
@@ -2939,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G32" s="26">
         <v>29</v>
@@ -2964,10 +2973,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D33" s="39">
         <v>79</v>
@@ -2976,7 +2985,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G33" s="26">
         <v>30</v>
@@ -3001,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D34" s="39">
         <v>80</v>
@@ -3013,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G34" s="26">
         <v>31</v>
@@ -3038,10 +3047,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D35" s="42">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
@@ -3075,10 +3084,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D36" s="42">
         <v>70</v>
@@ -3087,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
@@ -3112,10 +3121,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D37" s="42">
         <v>71</v>
@@ -3124,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
@@ -3149,10 +3158,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D38" s="42">
         <v>72</v>
@@ -3161,7 +3170,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
@@ -3186,10 +3195,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D39" s="42">
         <v>73</v>
@@ -3198,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
@@ -3223,10 +3232,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D40" s="42">
         <v>74</v>
@@ -3235,7 +3244,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
@@ -3272,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
@@ -3309,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
@@ -3346,7 +3355,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
@@ -3383,7 +3392,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
@@ -3420,7 +3429,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
@@ -3457,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
@@ -3494,7 +3503,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
@@ -3531,7 +3540,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
@@ -3568,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
@@ -3605,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
@@ -3642,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
@@ -3679,7 +3688,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
@@ -3716,7 +3725,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
@@ -3753,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
@@ -3790,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
@@ -3827,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
@@ -3864,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
@@ -3901,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
@@ -3938,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
@@ -3975,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
@@ -4012,7 +4021,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
@@ -4049,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
@@ -4086,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
@@ -4123,7 +4132,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
@@ -4160,7 +4169,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
@@ -4197,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
@@ -4234,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
@@ -4271,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
@@ -4308,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
@@ -4345,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
@@ -4382,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
@@ -4419,7 +4428,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
@@ -4456,7 +4465,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
@@ -4493,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
@@ -4530,7 +4539,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
@@ -4567,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
@@ -4604,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
@@ -4641,7 +4650,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
@@ -4678,7 +4687,7 @@
         <v>13</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
@@ -6292,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6347,13 +6356,13 @@
     </row>
     <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="11" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -6384,15 +6393,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="str">
-        <f>TEXT(F5,"0")</f>
+        <f>TEXT(F5,REPT("0", CEILING(LEN(F5)/4,1)*4))</f>
+        <v>0001</v>
+      </c>
+      <c r="H5" s="44">
         <v>1</v>
       </c>
-      <c r="H5" s="35">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -6419,16 +6428,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
+      <c r="G6" s="35" t="str">
+        <f t="shared" ref="G6:G69" si="2">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
+        <v>0002</v>
+      </c>
+      <c r="H6" s="36">
         <v>2</v>
       </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -6455,16 +6464,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0002</v>
+      </c>
+      <c r="H7" s="36">
         <v>2</v>
       </c>
-      <c r="H7" s="16">
-        <v>2</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -6491,16 +6500,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0002</v>
+      </c>
+      <c r="H8" s="36">
         <v>2</v>
       </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -6527,16 +6536,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0003</v>
+      </c>
+      <c r="H9" s="36">
         <v>3</v>
       </c>
-      <c r="H9" s="16">
-        <v>3</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -6563,16 +6572,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0003</v>
+      </c>
+      <c r="H10" s="36">
         <v>3</v>
       </c>
-      <c r="H10" s="16">
-        <v>3</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -6599,16 +6608,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0003</v>
+      </c>
+      <c r="H11" s="36">
         <v>3</v>
       </c>
-      <c r="H11" s="16">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -6635,16 +6644,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0004</v>
+      </c>
+      <c r="H12" s="36">
         <v>4</v>
       </c>
-      <c r="H12" s="16">
-        <v>4</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -6671,16 +6680,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0005</v>
+      </c>
+      <c r="H13" s="36">
         <v>5</v>
       </c>
-      <c r="H13" s="16">
-        <v>5</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -6707,16 +6716,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0006</v>
+      </c>
+      <c r="H14" s="36">
         <v>6</v>
       </c>
-      <c r="H14" s="16">
-        <v>6</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -6743,16 +6752,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0007</v>
+      </c>
+      <c r="H15" s="36">
         <v>7</v>
       </c>
-      <c r="H15" s="16">
-        <v>7</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -6779,16 +6788,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0008</v>
+      </c>
+      <c r="H16" s="36">
         <v>8</v>
       </c>
-      <c r="H16" s="16">
-        <v>8</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -6815,16 +6824,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0009</v>
+      </c>
+      <c r="H17" s="36">
         <v>9</v>
       </c>
-      <c r="H17" s="16">
-        <v>9</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -6851,16 +6860,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0011</v>
+      </c>
+      <c r="H18" s="36">
         <v>11</v>
       </c>
-      <c r="H18" s="16">
-        <v>11</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -6887,16 +6896,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0013</v>
+      </c>
+      <c r="H19" s="36">
         <v>13</v>
       </c>
-      <c r="H19" s="16">
-        <v>13</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -6923,16 +6932,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0016</v>
+      </c>
+      <c r="H20" s="36">
         <v>16</v>
       </c>
-      <c r="H20" s="16">
-        <v>16</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -6959,16 +6968,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0019</v>
+      </c>
+      <c r="H21" s="36">
         <v>19</v>
       </c>
-      <c r="H21" s="16">
-        <v>19</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -6995,16 +7004,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0023</v>
+      </c>
+      <c r="H22" s="36">
         <v>23</v>
       </c>
-      <c r="H22" s="16">
-        <v>23</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -7031,16 +7040,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0027</v>
+      </c>
+      <c r="H23" s="36">
         <v>27</v>
       </c>
-      <c r="H23" s="16">
-        <v>27</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -7067,16 +7076,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0032</v>
+      </c>
+      <c r="H24" s="36">
         <v>32</v>
       </c>
-      <c r="H24" s="16">
-        <v>32</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -7103,16 +7112,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0039</v>
+      </c>
+      <c r="H25" s="36">
         <v>39</v>
       </c>
-      <c r="H25" s="16">
-        <v>39</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
@@ -7139,16 +7148,16 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0047</v>
+      </c>
+      <c r="H26" s="36">
         <v>47</v>
       </c>
-      <c r="H26" s="16">
-        <v>47</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
@@ -7175,16 +7184,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0056</v>
+      </c>
+      <c r="H27" s="36">
         <v>56</v>
       </c>
-      <c r="H27" s="16">
-        <v>56</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
@@ -7211,16 +7220,16 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0067</v>
+      </c>
+      <c r="H28" s="36">
         <v>67</v>
       </c>
-      <c r="H28" s="16">
-        <v>67</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
@@ -7247,16 +7256,16 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0080</v>
+      </c>
+      <c r="H29" s="36">
         <v>80</v>
       </c>
-      <c r="H29" s="16">
-        <v>80</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -7283,16 +7292,16 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0096</v>
+      </c>
+      <c r="H30" s="36">
         <v>96</v>
       </c>
-      <c r="H30" s="16">
-        <v>96</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
@@ -7319,16 +7328,16 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="G31" s="16" t="str">
+      <c r="G31" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0115</v>
+      </c>
+      <c r="H31" s="36">
         <v>115</v>
       </c>
-      <c r="H31" s="16">
-        <v>115</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
@@ -7355,16 +7364,16 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G32" s="16" t="str">
+      <c r="G32" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0138</v>
+      </c>
+      <c r="H32" s="36">
         <v>138</v>
       </c>
-      <c r="H32" s="16">
-        <v>138</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
@@ -7391,16 +7400,16 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="G33" s="16" t="str">
+      <c r="G33" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0165</v>
+      </c>
+      <c r="H33" s="36">
         <v>165</v>
       </c>
-      <c r="H33" s="16">
-        <v>165</v>
-      </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -7427,16 +7436,16 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="G34" s="16" t="str">
+      <c r="G34" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0198</v>
+      </c>
+      <c r="H34" s="36">
         <v>198</v>
       </c>
-      <c r="H34" s="16">
-        <v>198</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -7463,16 +7472,16 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="G35" s="16" t="str">
+      <c r="G35" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0238</v>
+      </c>
+      <c r="H35" s="36">
         <v>238</v>
       </c>
-      <c r="H35" s="16">
-        <v>238</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
@@ -7499,16 +7508,16 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="G36" s="16" t="str">
+      <c r="G36" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0285</v>
+      </c>
+      <c r="H36" s="36">
         <v>285</v>
       </c>
-      <c r="H36" s="16">
-        <v>285</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -7535,16 +7544,16 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="G37" s="16" t="str">
+      <c r="G37" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0342</v>
+      </c>
+      <c r="H37" s="36">
         <v>342</v>
       </c>
-      <c r="H37" s="16">
-        <v>342</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
@@ -7571,16 +7580,16 @@
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
-      <c r="G38" s="16" t="str">
+      <c r="G38" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0411</v>
+      </c>
+      <c r="H38" s="36">
         <v>411</v>
       </c>
-      <c r="H38" s="16">
-        <v>411</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
@@ -7607,16 +7616,16 @@
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="G39" s="16" t="str">
+      <c r="G39" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0493</v>
+      </c>
+      <c r="H39" s="36">
         <v>493</v>
       </c>
-      <c r="H39" s="16">
-        <v>493</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
@@ -7643,16 +7652,16 @@
         <f t="shared" si="0"/>
         <v>591</v>
       </c>
-      <c r="G40" s="16" t="str">
+      <c r="G40" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0591</v>
+      </c>
+      <c r="H40" s="36">
         <v>591</v>
       </c>
-      <c r="H40" s="16">
-        <v>591</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
@@ -7679,16 +7688,16 @@
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="G41" s="16" t="str">
+      <c r="G41" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0709</v>
+      </c>
+      <c r="H41" s="36">
         <v>709</v>
       </c>
-      <c r="H41" s="16">
-        <v>709</v>
-      </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
@@ -7715,16 +7724,16 @@
         <f t="shared" si="0"/>
         <v>851</v>
       </c>
-      <c r="G42" s="16" t="str">
+      <c r="G42" s="35" t="str">
         <f t="shared" si="2"/>
+        <v>0851</v>
+      </c>
+      <c r="H42" s="36">
         <v>851</v>
       </c>
-      <c r="H42" s="16">
-        <v>851</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
@@ -7751,16 +7760,16 @@
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
-      <c r="G43" s="16" t="str">
+      <c r="G43" s="35" t="str">
         <f t="shared" si="2"/>
         <v>1021</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="36">
         <v>1021</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
@@ -7787,16 +7796,16 @@
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
-      <c r="G44" s="16" t="str">
+      <c r="G44" s="35" t="str">
         <f t="shared" si="2"/>
         <v>1225</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="36">
         <v>1225</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
@@ -7823,16 +7832,16 @@
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="G45" s="16" t="str">
+      <c r="G45" s="35" t="str">
         <f t="shared" si="2"/>
         <v>1470</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="45">
         <v>1470</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
@@ -7859,16 +7868,16 @@
         <f t="shared" si="0"/>
         <v>1764</v>
       </c>
-      <c r="G46" s="16" t="str">
+      <c r="G46" s="35" t="str">
         <f t="shared" si="2"/>
         <v>1764</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="45">
         <v>1764</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -7895,16 +7904,16 @@
         <f t="shared" si="0"/>
         <v>2117</v>
       </c>
-      <c r="G47" s="16" t="str">
+      <c r="G47" s="35" t="str">
         <f t="shared" si="2"/>
         <v>2117</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="45">
         <v>2117</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -7931,16 +7940,16 @@
         <f t="shared" si="0"/>
         <v>2540</v>
       </c>
-      <c r="G48" s="16" t="str">
+      <c r="G48" s="35" t="str">
         <f t="shared" si="2"/>
         <v>2540</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="45">
         <v>2540</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
@@ -7967,16 +7976,16 @@
         <f t="shared" si="0"/>
         <v>3048</v>
       </c>
-      <c r="G49" s="16" t="str">
+      <c r="G49" s="35" t="str">
         <f t="shared" si="2"/>
         <v>3048</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="45">
         <v>3048</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
@@ -8004,16 +8013,16 @@
         <f t="shared" si="0"/>
         <v>3658</v>
       </c>
-      <c r="G50" s="16" t="str">
+      <c r="G50" s="35" t="str">
         <f t="shared" si="2"/>
         <v>3658</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="45">
         <v>3658</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -8041,16 +8050,16 @@
         <f t="shared" si="0"/>
         <v>4389</v>
       </c>
-      <c r="G51" s="16" t="str">
+      <c r="G51" s="35" t="str">
         <f t="shared" si="2"/>
         <v>4389</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="45">
         <v>4389</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
@@ -8078,16 +8087,16 @@
         <f t="shared" si="0"/>
         <v>5267</v>
       </c>
-      <c r="G52" s="16" t="str">
+      <c r="G52" s="35" t="str">
         <f t="shared" si="2"/>
         <v>5267</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="45">
         <v>5267</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
@@ -8115,16 +8124,16 @@
         <f t="shared" si="0"/>
         <v>6320</v>
       </c>
-      <c r="G53" s="16" t="str">
+      <c r="G53" s="35" t="str">
         <f t="shared" si="2"/>
         <v>6320</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="45">
         <v>6320</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
@@ -8152,16 +8161,16 @@
         <f t="shared" si="0"/>
         <v>7584</v>
       </c>
-      <c r="G54" s="16" t="str">
+      <c r="G54" s="35" t="str">
         <f t="shared" si="2"/>
         <v>7584</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="46">
         <v>7584</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="45"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
@@ -8189,16 +8198,16 @@
         <f t="shared" si="0"/>
         <v>9101</v>
       </c>
-      <c r="G55" s="16" t="str">
+      <c r="G55" s="35" t="str">
         <f t="shared" si="2"/>
         <v>9101</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="46">
         <v>9101</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="45"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
@@ -8226,18 +8235,18 @@
         <f t="shared" si="0"/>
         <v>10921</v>
       </c>
-      <c r="G56" s="16" t="str">
+      <c r="G56" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>10921</v>
-      </c>
-      <c r="H56" s="16">
+        <v>00010921</v>
+      </c>
+      <c r="H56" s="46">
         <v>1</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="46">
         <v>921</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="45"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
@@ -8265,18 +8274,18 @@
         <f t="shared" si="0"/>
         <v>13105</v>
       </c>
-      <c r="G57" s="16" t="str">
+      <c r="G57" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>13105</v>
-      </c>
-      <c r="H57" s="16">
+        <v>00013105</v>
+      </c>
+      <c r="H57" s="46">
         <v>1</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="46">
         <v>3105</v>
       </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="45"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
@@ -8304,18 +8313,18 @@
         <f t="shared" si="0"/>
         <v>15726</v>
       </c>
-      <c r="G58" s="16" t="str">
+      <c r="G58" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>15726</v>
-      </c>
-      <c r="H58" s="16">
+        <v>00015726</v>
+      </c>
+      <c r="H58" s="46">
         <v>1</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="46">
         <v>5726</v>
       </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="45"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
@@ -8343,18 +8352,18 @@
         <f t="shared" si="0"/>
         <v>18871</v>
       </c>
-      <c r="G59" s="16" t="str">
+      <c r="G59" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>18871</v>
-      </c>
-      <c r="H59" s="16">
+        <v>00018871</v>
+      </c>
+      <c r="H59" s="46">
         <v>1</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="46">
         <v>8871</v>
       </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="45"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -8382,18 +8391,18 @@
         <f t="shared" si="0"/>
         <v>22645</v>
       </c>
-      <c r="G60" s="16" t="str">
+      <c r="G60" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>22645</v>
-      </c>
-      <c r="H60" s="16">
+        <v>00022645</v>
+      </c>
+      <c r="H60" s="46">
         <v>2</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="46">
         <v>2645</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="45"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -8421,18 +8430,18 @@
         <f t="shared" si="0"/>
         <v>27174</v>
       </c>
-      <c r="G61" s="16" t="str">
+      <c r="G61" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>27174</v>
-      </c>
-      <c r="H61" s="16">
+        <v>00027174</v>
+      </c>
+      <c r="H61" s="46">
         <v>2</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="46">
         <v>7174</v>
       </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="45"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
@@ -8460,18 +8469,18 @@
         <f t="shared" si="0"/>
         <v>32609</v>
       </c>
-      <c r="G62" s="16" t="str">
+      <c r="G62" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>32609</v>
-      </c>
-      <c r="H62" s="16">
+        <v>00032609</v>
+      </c>
+      <c r="H62" s="45">
         <v>3</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="45">
         <v>2609</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
@@ -8499,18 +8508,18 @@
         <f t="shared" si="0"/>
         <v>39131</v>
       </c>
-      <c r="G63" s="16" t="str">
+      <c r="G63" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>39131</v>
-      </c>
-      <c r="H63" s="16">
+        <v>00039131</v>
+      </c>
+      <c r="H63" s="45">
         <v>3</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="45">
         <v>9131</v>
       </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
@@ -8538,18 +8547,18 @@
         <f t="shared" si="0"/>
         <v>46957</v>
       </c>
-      <c r="G64" s="16" t="str">
+      <c r="G64" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>46957</v>
-      </c>
-      <c r="H64" s="16">
+        <v>00046957</v>
+      </c>
+      <c r="H64" s="45">
         <v>4</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="45">
         <v>6957</v>
       </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
@@ -8577,18 +8586,18 @@
         <f t="shared" si="0"/>
         <v>56348</v>
       </c>
-      <c r="G65" s="16" t="str">
+      <c r="G65" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>56348</v>
-      </c>
-      <c r="H65" s="16">
+        <v>00056348</v>
+      </c>
+      <c r="H65" s="45">
         <v>5</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="45">
         <v>6348</v>
       </c>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
@@ -8616,18 +8625,18 @@
         <f t="shared" si="0"/>
         <v>67618</v>
       </c>
-      <c r="G66" s="16" t="str">
+      <c r="G66" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>67618</v>
-      </c>
-      <c r="H66" s="16">
+        <v>00067618</v>
+      </c>
+      <c r="H66" s="45">
         <v>6</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="45">
         <v>7618</v>
       </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="45"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
@@ -8655,18 +8664,18 @@
         <f t="shared" si="0"/>
         <v>81141</v>
       </c>
-      <c r="G67" s="16" t="str">
+      <c r="G67" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>81141</v>
-      </c>
-      <c r="H67" s="16">
+        <v>00081141</v>
+      </c>
+      <c r="H67" s="45">
         <v>8</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="45">
         <v>1141</v>
       </c>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
@@ -8680,7 +8689,7 @@
         <v>1_9,0_7369</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(H68:W68,"&gt;-1")</f>
         <v>2</v>
       </c>
       <c r="D68" s="38">
@@ -8694,18 +8703,18 @@
         <f t="shared" si="0"/>
         <v>97369</v>
       </c>
-      <c r="G68" s="16" t="str">
+      <c r="G68" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>97369</v>
-      </c>
-      <c r="H68" s="16">
+        <v>00097369</v>
+      </c>
+      <c r="H68" s="46">
         <v>9</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="46">
         <v>7369</v>
       </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -8733,18 +8742,18 @@
         <f t="shared" ref="F69:F79" si="5">ROUNDUP(D69,0)</f>
         <v>116843</v>
       </c>
-      <c r="G69" s="16" t="str">
+      <c r="G69" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>116843</v>
-      </c>
-      <c r="H69" s="16">
+        <v>00116843</v>
+      </c>
+      <c r="H69" s="46">
         <v>11</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="46">
         <v>6843</v>
       </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -8772,18 +8781,18 @@
         <f t="shared" si="5"/>
         <v>140211</v>
       </c>
-      <c r="G70" s="16" t="str">
-        <f t="shared" ref="G70:G79" si="7">TEXT(F70,"0")</f>
-        <v>140211</v>
-      </c>
-      <c r="H70" s="16">
+      <c r="G70" s="35" t="str">
+        <f t="shared" ref="G70:G79" si="7">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
+        <v>00140211</v>
+      </c>
+      <c r="H70" s="46">
         <v>14</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="46">
         <v>211</v>
       </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
@@ -8797,7 +8806,7 @@
         <v>1_16,0_8253</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C79" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
+        <f t="shared" ref="C71:C78" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
         <v>2</v>
       </c>
       <c r="D71" s="38">
@@ -8811,18 +8820,18 @@
         <f t="shared" si="5"/>
         <v>168253</v>
       </c>
-      <c r="G71" s="16" t="str">
+      <c r="G71" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>168253</v>
-      </c>
-      <c r="H71" s="16">
+        <v>00168253</v>
+      </c>
+      <c r="H71" s="46">
         <v>16</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="46">
         <v>8253</v>
       </c>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
@@ -8850,18 +8859,18 @@
         <f t="shared" si="5"/>
         <v>201904</v>
       </c>
-      <c r="G72" s="16" t="str">
+      <c r="G72" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>201904</v>
-      </c>
-      <c r="H72" s="16">
+        <v>00201904</v>
+      </c>
+      <c r="H72" s="46">
         <v>20</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="46">
         <v>1904</v>
       </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -8889,18 +8898,18 @@
         <f t="shared" si="5"/>
         <v>242284</v>
       </c>
-      <c r="G73" s="16" t="str">
+      <c r="G73" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>242284</v>
-      </c>
-      <c r="H73" s="16">
+        <v>00242284</v>
+      </c>
+      <c r="H73" s="46">
         <v>24</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="46">
         <v>2284</v>
       </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -8928,18 +8937,18 @@
         <f t="shared" si="5"/>
         <v>290741</v>
       </c>
-      <c r="G74" s="16" t="str">
+      <c r="G74" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>290741</v>
-      </c>
-      <c r="H74" s="16">
+        <v>00290741</v>
+      </c>
+      <c r="H74" s="46">
         <v>29</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="46">
         <v>741</v>
       </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
@@ -8967,18 +8976,18 @@
         <f t="shared" si="5"/>
         <v>348889</v>
       </c>
-      <c r="G75" s="16" t="str">
+      <c r="G75" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>348889</v>
-      </c>
-      <c r="H75" s="16">
+        <v>00348889</v>
+      </c>
+      <c r="H75" s="46">
         <v>34</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="46">
         <v>8889</v>
       </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
@@ -9006,18 +9015,18 @@
         <f t="shared" si="5"/>
         <v>418667</v>
       </c>
-      <c r="G76" s="16" t="str">
+      <c r="G76" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>418667</v>
-      </c>
-      <c r="H76" s="16">
+        <v>00418667</v>
+      </c>
+      <c r="H76" s="46">
         <v>41</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="46">
         <v>8667</v>
       </c>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
@@ -9045,18 +9054,18 @@
         <f t="shared" si="5"/>
         <v>502401</v>
       </c>
-      <c r="G77" s="16" t="str">
+      <c r="G77" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>502401</v>
-      </c>
-      <c r="H77" s="16">
+        <v>00502401</v>
+      </c>
+      <c r="H77" s="46">
         <v>50</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="46">
         <v>2401</v>
       </c>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
@@ -9084,18 +9093,18 @@
         <f t="shared" si="5"/>
         <v>602881</v>
       </c>
-      <c r="G78" s="16" t="str">
+      <c r="G78" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>602881</v>
-      </c>
-      <c r="H78" s="16">
+        <v>00602881</v>
+      </c>
+      <c r="H78" s="46">
         <v>60</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="46">
         <v>2881</v>
       </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
@@ -9109,7 +9118,7 @@
         <v>1_72,0_3457</v>
       </c>
       <c r="C79">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(H79:W79,"&gt;-1")</f>
         <v>2</v>
       </c>
       <c r="D79" s="38">
@@ -9123,18 +9132,18 @@
         <f t="shared" si="5"/>
         <v>723457</v>
       </c>
-      <c r="G79" s="16" t="str">
+      <c r="G79" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>723457</v>
-      </c>
-      <c r="H79" s="16">
+        <v>00723457</v>
+      </c>
+      <c r="H79" s="36">
         <v>72</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="46">
         <v>3457</v>
       </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="389">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Maid/maid_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,14 +292,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Maid/maid_22</t>
   </si>
   <si>
@@ -656,54 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吉祥吃面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -764,26 +704,6 @@
     <t>0_115</t>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_40</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_41</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_42</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_43</t>
-  </si>
-  <si>
     <t>锦绣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -803,26 +723,6 @@
   </si>
   <si>
     <t>富察玉佩</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_46</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_47</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_48</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_49</t>
   </si>
   <si>
     <t>怡嫔</t>
@@ -1096,32 +996,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_50</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_51</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_52</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_53</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_54</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_55</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Maid/maid_58</t>
   </si>
   <si>
@@ -1129,9 +1003,6 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_60</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_61</t>
   </si>
   <si>
     <t>芝兰</t>
@@ -1277,66 +1148,6 @@
     <t>李玉踢屁股6</t>
   </si>
   <si>
-    <t>幽会1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽会2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽会3</t>
-  </si>
-  <si>
-    <t>幽会4</t>
-  </si>
-  <si>
-    <t>幽会5</t>
-  </si>
-  <si>
-    <t>幽会6</t>
-  </si>
-  <si>
-    <t>贵妃抄书1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃抄书2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃抄书3</t>
-  </si>
-  <si>
-    <t>贵妃抄书4</t>
-  </si>
-  <si>
-    <t>贵妃抄书5</t>
-  </si>
-  <si>
-    <t>贵妃抄书6</t>
-  </si>
-  <si>
-    <t>皇后振作1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后振作2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后振作3</t>
-  </si>
-  <si>
-    <t>皇后振作4</t>
-  </si>
-  <si>
-    <t>皇后振作5</t>
-  </si>
-  <si>
-    <t>皇后振作6</t>
-  </si>
-  <si>
     <t>65;66;67;68;69;70;71;72</t>
   </si>
   <si>
@@ -1431,6 +1242,217 @@
   </si>
   <si>
     <t>1_1337,0_5566</t>
+  </si>
+  <si>
+    <t>长生锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红螺宫女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>册封密诏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔墨纸砚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄好的经文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃抄经书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑秀女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫庆锡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞拿棒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花烙子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_87</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_88</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_89</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_90</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_91</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_81</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_82</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_83</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_84</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_74</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_75</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_76</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_77</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_78</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_69</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_70</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_71</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_72</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_20</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_21</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_26</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_27</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_28</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_29</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_30</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_63</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_64</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_65</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_66</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_57</t>
   </si>
 </sst>
 </file>
@@ -2088,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2115,10 +2137,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>34</v>
@@ -2130,19 +2152,19 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2156,19 +2178,19 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>27</v>
@@ -2184,11 +2206,11 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2202,31 +2224,31 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2237,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -2246,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -2273,7 +2295,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -2282,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -2310,7 +2332,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="24">
         <v>0</v>
@@ -2319,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -2347,7 +2369,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="24">
         <v>4</v>
@@ -2356,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
@@ -2384,7 +2406,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="24">
         <v>5</v>
@@ -2393,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G9" s="24">
         <v>6</v>
@@ -2421,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="24">
         <v>6</v>
@@ -2430,13 +2452,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G10" s="24">
         <v>7</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="1"/>
@@ -2455,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -2467,13 +2489,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="1"/>
@@ -2492,10 +2514,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8">
         <v>34</v>
@@ -2504,13 +2526,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="1"/>
@@ -2529,10 +2551,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="8">
         <v>35</v>
@@ -2541,13 +2563,13 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="1"/>
@@ -2566,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="8">
         <v>36</v>
@@ -2578,13 +2600,13 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="1"/>
@@ -2603,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="8">
         <v>37</v>
@@ -2615,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
@@ -2640,10 +2662,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="8">
         <v>38</v>
@@ -2652,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
@@ -2677,10 +2699,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -2689,13 +2711,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
@@ -2714,10 +2736,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="24">
         <v>40</v>
@@ -2726,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
@@ -2751,10 +2773,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="D19" s="24">
         <v>41</v>
@@ -2763,13 +2785,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
@@ -2788,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D20" s="24">
         <v>42</v>
@@ -2800,13 +2822,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="2"/>
@@ -2825,10 +2847,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="D21" s="24">
         <v>43</v>
@@ -2837,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
@@ -2862,10 +2884,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="D22" s="24">
         <v>44</v>
@@ -2874,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G22" s="24">
         <v>19</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="2"/>
@@ -2899,10 +2921,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="27">
         <v>0</v>
@@ -2911,13 +2933,13 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G23" s="21">
         <v>20</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
@@ -2936,10 +2958,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D24" s="27">
         <v>64</v>
@@ -2948,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="G24" s="21">
         <v>21</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="3"/>
@@ -2973,10 +2995,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>214</v>
+        <v>192</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D25" s="27">
         <v>65</v>
@@ -2985,13 +3007,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G25" s="21">
         <v>22</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="3"/>
@@ -3010,10 +3032,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>215</v>
+        <v>193</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="27">
         <v>66</v>
@@ -3022,13 +3044,13 @@
         <v>5</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G26" s="21">
         <v>23</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="3"/>
@@ -3047,10 +3069,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>216</v>
+        <v>194</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="27">
         <v>67</v>
@@ -3059,13 +3081,13 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G27" s="21">
         <v>24</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="3"/>
@@ -3084,10 +3106,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="27">
         <v>68</v>
@@ -3096,13 +3118,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G28" s="21">
         <v>25</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
@@ -3121,10 +3143,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -3133,13 +3155,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="G29" s="24">
         <v>26</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="3"/>
@@ -3158,10 +3180,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="D30" s="36">
         <v>76</v>
@@ -3170,13 +3192,13 @@
         <v>6</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G30" s="24">
         <v>27</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="3"/>
@@ -3195,10 +3217,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="D31" s="36">
         <v>77</v>
@@ -3207,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G31" s="24">
         <v>28</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="3"/>
@@ -3232,10 +3254,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D32" s="36">
         <v>78</v>
@@ -3244,13 +3266,13 @@
         <v>6</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G32" s="24">
         <v>29</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="3"/>
@@ -3269,10 +3291,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="D33" s="36">
         <v>79</v>
@@ -3281,13 +3303,13 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G33" s="24">
         <v>30</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
@@ -3306,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="D34" s="36">
         <v>80</v>
@@ -3318,13 +3340,13 @@
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G34" s="24">
         <v>31</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
@@ -3343,10 +3365,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3355,13 +3377,13 @@
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="3"/>
@@ -3380,10 +3402,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -3392,13 +3414,13 @@
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="3"/>
@@ -3417,10 +3439,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3429,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="3"/>
@@ -3454,10 +3476,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3466,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="3"/>
@@ -3491,10 +3513,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3503,13 +3525,13 @@
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
@@ -3528,10 +3550,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3540,13 +3562,13 @@
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="3"/>
@@ -3565,10 +3587,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3577,13 +3599,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="3"/>
@@ -3602,10 +3624,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3614,13 +3636,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="3"/>
@@ -3639,10 +3661,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>202</v>
+        <v>368</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3651,13 +3673,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="3"/>
@@ -3676,10 +3698,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3688,13 +3710,13 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="3"/>
@@ -3713,10 +3735,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3725,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="3"/>
@@ -3750,10 +3772,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3762,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="3"/>
@@ -3787,10 +3809,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3799,13 +3821,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="3"/>
@@ -3824,10 +3846,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3836,13 +3858,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="3"/>
@@ -3861,10 +3883,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>60</v>
+        <v>362</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3873,13 +3895,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J49" s="14">
         <f t="shared" si="3"/>
@@ -3898,10 +3920,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>61</v>
+        <v>363</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3910,13 +3932,13 @@
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="3"/>
@@ -3935,10 +3957,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
@@ -3947,13 +3969,13 @@
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="3"/>
@@ -3972,10 +3994,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
@@ -3984,13 +4006,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="3"/>
@@ -4009,10 +4031,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -4021,13 +4043,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="3"/>
@@ -4046,10 +4068,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -4058,13 +4080,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="3"/>
@@ -4083,10 +4105,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -4095,13 +4117,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="3"/>
@@ -4120,10 +4142,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="D56" s="36">
         <v>0</v>
@@ -4132,13 +4154,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="3"/>
@@ -4157,10 +4179,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -4169,13 +4191,13 @@
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="3"/>
@@ -4194,10 +4216,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
@@ -4206,13 +4228,13 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="3"/>
@@ -4231,10 +4253,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -4243,13 +4265,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="3"/>
@@ -4268,10 +4290,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
@@ -4280,13 +4302,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="3"/>
@@ -4305,10 +4327,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>66</v>
+        <v>388</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
@@ -4317,13 +4339,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="3"/>
@@ -4342,10 +4364,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="D62" s="36">
         <v>0</v>
@@ -4354,13 +4376,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="3"/>
@@ -4379,10 +4401,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="D63" s="36">
         <v>0</v>
@@ -4391,13 +4413,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="3"/>
@@ -4416,10 +4438,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="D64" s="36">
         <v>0</v>
@@ -4428,13 +4450,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="3"/>
@@ -4453,10 +4475,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4465,13 +4487,13 @@
         <v>12</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="3"/>
@@ -4490,10 +4512,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="D66" s="39">
         <v>70</v>
@@ -4502,13 +4524,13 @@
         <v>12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="3"/>
@@ -4527,10 +4549,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="D67" s="39">
         <v>71</v>
@@ -4539,13 +4561,13 @@
         <v>12</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="3"/>
@@ -4564,10 +4586,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="D68" s="39">
         <v>72</v>
@@ -4576,13 +4598,13 @@
         <v>12</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="3"/>
@@ -4601,10 +4623,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="D69" s="39">
         <v>73</v>
@@ -4613,13 +4635,13 @@
         <v>12</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="3"/>
@@ -4638,10 +4660,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="D70" s="39">
         <v>74</v>
@@ -4650,13 +4672,13 @@
         <v>12</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="3"/>
@@ -4675,10 +4697,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4687,13 +4709,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="3"/>
@@ -4712,10 +4734,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4724,13 +4746,13 @@
         <v>13</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J72" s="14">
         <f t="shared" si="3"/>
@@ -4749,10 +4771,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>202</v>
+        <v>368</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4761,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="3"/>
@@ -4786,10 +4808,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4798,13 +4820,13 @@
         <v>13</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="3"/>
@@ -4823,10 +4845,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4835,13 +4857,13 @@
         <v>13</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="3"/>
@@ -4860,10 +4882,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4872,13 +4894,13 @@
         <v>13</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J76" s="14">
         <f t="shared" si="3"/>
@@ -4897,10 +4919,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4909,13 +4931,13 @@
         <v>14</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J77" s="14">
         <f t="shared" si="3"/>
@@ -4934,10 +4956,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4946,13 +4968,13 @@
         <v>14</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J78" s="14">
         <f t="shared" si="3"/>
@@ -4971,10 +4993,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>60</v>
+        <v>362</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -4983,13 +5005,13 @@
         <v>14</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="G79" s="8">
         <v>76</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="3"/>
@@ -5008,10 +5030,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>61</v>
+        <v>363</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -5020,13 +5042,13 @@
         <v>14</v>
       </c>
       <c r="F80" s="51" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
       </c>
       <c r="H80" s="50" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="I80" s="49"/>
     </row>
@@ -5035,10 +5057,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -5047,13 +5069,13 @@
         <v>14</v>
       </c>
       <c r="F81" s="51" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="I81" s="49"/>
     </row>
@@ -5062,10 +5084,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -5074,13 +5096,13 @@
         <v>14</v>
       </c>
       <c r="F82" s="51" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
       </c>
       <c r="H82" s="50" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="I82" s="49"/>
     </row>
@@ -5089,10 +5111,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -5101,13 +5123,13 @@
         <v>15</v>
       </c>
       <c r="F83" s="51" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="I83" s="49"/>
     </row>
@@ -5116,10 +5138,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -5128,13 +5150,13 @@
         <v>15</v>
       </c>
       <c r="F84" s="51" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="I84" s="49"/>
     </row>
@@ -5143,10 +5165,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -5155,13 +5177,13 @@
         <v>15</v>
       </c>
       <c r="F85" s="51" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="I85" s="49"/>
     </row>
@@ -5170,10 +5192,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -5182,13 +5204,13 @@
         <v>15</v>
       </c>
       <c r="F86" s="51" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="I86" s="49"/>
     </row>
@@ -5197,10 +5219,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -5209,13 +5231,13 @@
         <v>15</v>
       </c>
       <c r="F87" s="51" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="I87" s="49"/>
     </row>
@@ -5224,10 +5246,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -5236,13 +5258,13 @@
         <v>15</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="I88" s="49"/>
     </row>
@@ -5251,10 +5273,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -5263,13 +5285,13 @@
         <v>16</v>
       </c>
       <c r="F89" s="51" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="I89" s="49"/>
     </row>
@@ -5278,10 +5300,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
@@ -5290,13 +5312,13 @@
         <v>16</v>
       </c>
       <c r="F90" s="51" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="I90" s="49"/>
     </row>
@@ -5305,10 +5327,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
@@ -5317,13 +5339,13 @@
         <v>16</v>
       </c>
       <c r="F91" s="51" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="I91" s="49"/>
     </row>
@@ -5332,10 +5354,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
@@ -5344,13 +5366,13 @@
         <v>16</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="I92" s="49"/>
     </row>
@@ -5359,10 +5381,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
@@ -5371,13 +5393,13 @@
         <v>16</v>
       </c>
       <c r="F93" s="51" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="I93" s="49"/>
     </row>
@@ -5386,10 +5408,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
@@ -5398,13 +5420,13 @@
         <v>16</v>
       </c>
       <c r="F94" s="51" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="I94" s="49"/>
     </row>
@@ -5413,10 +5435,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
@@ -5425,13 +5447,13 @@
         <v>16</v>
       </c>
       <c r="F95" s="51" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" s="50" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="I95" s="49"/>
     </row>
@@ -6146,7 +6168,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -11834,19 +11856,19 @@
   <sheetData>
     <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="13" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -11870,13 +11892,13 @@
     </row>
     <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -77,71 +77,71 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合成后的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NextID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">胖秀女      </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑秀女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>瘦秀女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>乌雅青黛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">纳兰淳雪 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>陆晚晚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Passlevels</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_3</t>
@@ -157,43 +157,43 @@
   </si>
   <si>
     <t>商店显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ShopShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "TMaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉如意</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暖玉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宝石盆景</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>送子观音</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报时妆奁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞献凤袍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>珍珠</t>
@@ -257,39 +257,39 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DialogueID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对话ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牡丹图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金鸡图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉祥哭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张嬷嬷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴总管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞翘舌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_22</t>
@@ -305,379 +305,379 @@
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter:";"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">所属关卡（配置关卡ID) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RoleDescribe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;4;5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;4;5;6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;4;5;6;7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;4;5;6;7;8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2;3;4;5;6;7;8;9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3;4;5;6;7;8;9;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4;5;6;7;8;9;10;11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5;6;7;8;9;10;11;12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6;7;8;9;10;11;12;13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7;8;9;10;11;12;13;14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8;9;10;11;12;13;14;15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9;10;11;12;13;14;15;16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10;11;12;13;14;15;16;17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11;12;13;14;15;16;17;18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12;13;14;15;16;17;18;19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13;14;15;16;17;18;19;20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14;15;16;17;18;19;20;21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15;16;17;18;19;20;21;22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16;17;18;19;20;21;22;23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17;18;19;20;21;22;23;24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18;19;20;21;22;23;24;25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19;20;21;22;23;24;25;26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20;21;22;23;24;25;26;27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21;22;23;24;25;26;27;28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22;23;24;25;26;27;28;29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23;24;25;26;27;28;29;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24;25;26;27;28;29;30;31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25;26;27;28;29;30;31;32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26;27;28;29;30;31;32;33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27;28;29;30;31;32;33;34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>28;29;30;31;32;33;34;35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>29;30;31;32;33;34;35;36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30;31;32;33;34;35;36;37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>31;32;33;34;35;36;37;38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>32;33;34;35;36;37;38;39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>33;34;35;36;37;38;39;40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>34;35;36;37;38;39;40;41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>35;36;37;38;39;40;41;42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>36;37;38;39;40;41;42;43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>37;38;39;40;41;42;43;44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>38;39;40;41;42;43;44;45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>39;40;41;42;43;44;45;46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>40;41;42;43;44;45;46;47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>42;43;44;45;46;47;48;49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>41;42;43;44;45;46;47;48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>43;44;45;46;47;48;49;50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>44;45;46;47;48;49;50;51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>45;46;47;48;49;50;51;52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46;47;48;49;50;51;52;53</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>47;48;49;50;51;52;53;54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>48;49;50;51;52;53;54;55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>49;50;51;52;53;54;55;56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50;51;52;53;54;55;56;57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>51;52;53;54;55;56;57;58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>52;53;54;55;56;57;58;59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53;54;55;56;57;58;59;60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54;55;56;57;58;59;60;61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55;56;57;58;59;60;61;62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>56;57;58;59;60;61;62;63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57;58;59;60;61;62;63;64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>58;59;60;61;62;63;64;65</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59;60;61;62;63;64;65;66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60;61;62;63;64;65;66;67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>61;62;63;64;65;66;67;68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>62;63;64;65;66;67;68;69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>63;64;65;66;67;68;69;70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>64;65;66;67;68;69;70;71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>倍数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞发火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞拿水桶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>湿身锦绣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方姑姑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拿被子的璎珞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锦绣倒水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉祥吃面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉祥手帕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉祥被抓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞绣常服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皇帝穿常服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玲珑盒饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>向下取整数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter:","</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产生的收益/秒（0个、1万、2亿、3兆、4京、5垓、6秭、7穰、8沟、9涧、10正、11载 、12极）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]string</t>
@@ -705,7 +705,7 @@
   </si>
   <si>
     <t>锦绣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方姑姑</t>
@@ -715,41 +715,41 @@
   </si>
   <si>
     <t>严嬷嬷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴总管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>富察玉佩</t>
   </si>
   <si>
     <t>怡嫔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皇后</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高贵妃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>张院判</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>愉贵人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>太医拿枇杷膏</t>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
@@ -846,59 +846,59 @@
   </si>
   <si>
     <t>0_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1_1,0_921</t>
@@ -974,26 +974,26 @@
   </si>
   <si>
     <t>玲珑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>芝兰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">嘉嫔  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>藕粉丸子</t>
   </si>
   <si>
     <t xml:space="preserve">傻子璎珞 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高贵妃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_58</t>
@@ -1006,146 +1006,39 @@
   </si>
   <si>
     <t>芝兰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>芳草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怡嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞量衣服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张嬷嬷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>愉贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>倍数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>向上取整数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神树挠痒痒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神树挠痒痒2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神树挠痒痒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>神树挠痒痒4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神树挠痒痒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>神树挠痒痒6</t>
-  </si>
-  <si>
-    <t>李玉踢屁股1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉踢屁股2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉踢屁股3</t>
-  </si>
-  <si>
-    <t>李玉踢屁股4</t>
-  </si>
-  <si>
-    <t>李玉踢屁股5</t>
-  </si>
-  <si>
-    <t>李玉踢屁股6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>65;66;67;68;69;70;71;72</t>
@@ -1245,83 +1138,83 @@
   </si>
   <si>
     <t>长生锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>富恒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红螺宫女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>册封密诏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皇后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李玉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金刚经</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>笔墨纸砚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抄好的经文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>芝兰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵妃抄经书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玲珑秀女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侍卫庆锡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方姑姑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>璎珞拿棒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>梅花烙子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_87</t>
@@ -1340,11 +1233,11 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_81</t>
@@ -1360,11 +1253,11 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_74</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_75</t>
@@ -1380,11 +1273,11 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_69</t>
@@ -1400,7 +1293,7 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_20</t>
@@ -1425,11 +1318,11 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_63</t>
@@ -1445,14 +1338,62 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_57</t>
+  </si>
+  <si>
+    <t>小太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵管事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴书来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德胜太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢屁股李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小树苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌灵柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挠痒痒璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1464,18 +1405,10 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1616,94 +1549,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1715,25 +1648,25 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1742,30 +1675,29 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2110,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2259,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -2961,7 +2893,7 @@
         <v>191</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D24" s="27">
         <v>64</v>
@@ -2998,7 +2930,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D25" s="27">
         <v>65</v>
@@ -3183,7 +3115,7 @@
         <v>277</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D30" s="36">
         <v>76</v>
@@ -3220,7 +3152,7 @@
         <v>278</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D31" s="36">
         <v>77</v>
@@ -3257,7 +3189,7 @@
         <v>279</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D32" s="36">
         <v>78</v>
@@ -3294,7 +3226,7 @@
         <v>280</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D33" s="36">
         <v>79</v>
@@ -3331,7 +3263,7 @@
         <v>281</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D34" s="36">
         <v>80</v>
@@ -3360,15 +3292,15 @@
         <v>1098656604</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3401,11 +3333,11 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>286</v>
+      <c r="B36" s="44" t="s">
+        <v>384</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -3434,15 +3366,15 @@
         <v>4617104378</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3475,11 +3407,11 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>288</v>
+      <c r="B38" s="44" t="s">
+        <v>386</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3508,15 +3440,15 @@
         <v>19403381150</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3549,11 +3481,11 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>290</v>
+      <c r="B40" s="44" t="s">
+        <v>388</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3586,11 +3518,11 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>291</v>
+      <c r="B41" s="44" t="s">
+        <v>377</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3623,11 +3555,11 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>292</v>
+      <c r="B42" s="44" t="s">
+        <v>378</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3660,11 +3592,11 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>293</v>
+      <c r="B43" s="44" t="s">
+        <v>379</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3697,11 +3629,11 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="45" t="s">
-        <v>294</v>
+      <c r="B44" s="44" t="s">
+        <v>380</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3734,11 +3666,11 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="45" t="s">
-        <v>295</v>
+      <c r="B45" s="44" t="s">
+        <v>381</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3771,11 +3703,11 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="45" t="s">
-        <v>296</v>
+      <c r="B46" s="44" t="s">
+        <v>382</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3808,11 +3740,11 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="45" t="s">
-        <v>341</v>
+      <c r="B47" s="44" t="s">
+        <v>329</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3845,11 +3777,11 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>342</v>
+      <c r="B48" s="44" t="s">
+        <v>330</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3882,11 +3814,11 @@
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>343</v>
+      <c r="B49" s="44" t="s">
+        <v>331</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3919,11 +3851,11 @@
       <c r="A50" s="6">
         <v>46</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>344</v>
+      <c r="B50" s="44" t="s">
+        <v>332</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3956,11 +3888,11 @@
       <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>345</v>
+      <c r="B51" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
@@ -3993,11 +3925,11 @@
       <c r="A52" s="6">
         <v>48</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>346</v>
+      <c r="B52" s="44" t="s">
+        <v>334</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
@@ -4030,11 +3962,11 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>335</v>
+      <c r="B53" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -4067,11 +3999,11 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>336</v>
+      <c r="B54" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -4104,11 +4036,11 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="45" t="s">
-        <v>337</v>
+      <c r="B55" s="44" t="s">
+        <v>325</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -4141,11 +4073,11 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>338</v>
+      <c r="B56" s="44" t="s">
+        <v>326</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D56" s="36">
         <v>0</v>
@@ -4178,11 +4110,11 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>339</v>
+      <c r="B57" s="44" t="s">
+        <v>327</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -4215,11 +4147,11 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>340</v>
+      <c r="B58" s="44" t="s">
+        <v>328</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
@@ -4252,11 +4184,11 @@
       <c r="A59" s="6">
         <v>55</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>329</v>
+      <c r="B59" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -4289,11 +4221,11 @@
       <c r="A60" s="6">
         <v>56</v>
       </c>
-      <c r="B60" s="45" t="s">
-        <v>330</v>
+      <c r="B60" s="44" t="s">
+        <v>318</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
@@ -4326,11 +4258,11 @@
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>331</v>
+      <c r="B61" s="44" t="s">
+        <v>319</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
@@ -4363,8 +4295,8 @@
       <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B62" s="45" t="s">
-        <v>332</v>
+      <c r="B62" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>273</v>
@@ -4400,8 +4332,8 @@
       <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B63" s="45" t="s">
-        <v>333</v>
+      <c r="B63" s="44" t="s">
+        <v>321</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>274</v>
@@ -4437,8 +4369,8 @@
       <c r="A64" s="6">
         <v>60</v>
       </c>
-      <c r="B64" s="45" t="s">
-        <v>334</v>
+      <c r="B64" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>275</v>
@@ -4478,7 +4410,7 @@
         <v>267</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4515,7 +4447,7 @@
         <v>268</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D66" s="39">
         <v>70</v>
@@ -4552,7 +4484,7 @@
         <v>269</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D67" s="39">
         <v>71</v>
@@ -4589,7 +4521,7 @@
         <v>270</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D68" s="39">
         <v>72</v>
@@ -4626,7 +4558,7 @@
         <v>271</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D69" s="39">
         <v>73</v>
@@ -4663,7 +4595,7 @@
         <v>272</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D70" s="39">
         <v>74</v>
@@ -4700,7 +4632,7 @@
         <v>185</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4737,7 +4669,7 @@
         <v>186</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4774,7 +4706,7 @@
         <v>187</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4811,7 +4743,7 @@
         <v>188</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4848,7 +4780,7 @@
         <v>189</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4885,7 +4817,7 @@
         <v>190</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4918,11 +4850,11 @@
       <c r="A77" s="6">
         <v>73</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4955,11 +4887,11 @@
       <c r="A78" s="6">
         <v>74</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4992,11 +4924,11 @@
       <c r="A79" s="6">
         <v>75</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -5029,11 +4961,11 @@
       <c r="A80" s="6">
         <v>76</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -5041,16 +4973,16 @@
       <c r="E80" s="12">
         <v>14</v>
       </c>
-      <c r="F80" s="51" t="s">
-        <v>313</v>
+      <c r="F80" s="50" t="s">
+        <v>301</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
       </c>
-      <c r="H80" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="I80" s="49"/>
+      <c r="H80" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="48"/>
     </row>
     <row r="81" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
@@ -5060,7 +4992,7 @@
         <v>48</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -5068,26 +5000,26 @@
       <c r="E81" s="12">
         <v>14</v>
       </c>
-      <c r="F81" s="51" t="s">
-        <v>314</v>
+      <c r="F81" s="50" t="s">
+        <v>302</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
       </c>
-      <c r="H81" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="I81" s="49"/>
+      <c r="H81" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I81" s="48"/>
     </row>
     <row r="82" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>78</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -5095,16 +5027,16 @@
       <c r="E82" s="12">
         <v>14</v>
       </c>
-      <c r="F82" s="51" t="s">
-        <v>315</v>
+      <c r="F82" s="50" t="s">
+        <v>303</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
       </c>
-      <c r="H82" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="I82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I82" s="48"/>
     </row>
     <row r="83" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -5114,7 +5046,7 @@
         <v>168</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -5122,16 +5054,16 @@
       <c r="E83" s="12">
         <v>15</v>
       </c>
-      <c r="F83" s="51" t="s">
-        <v>316</v>
+      <c r="F83" s="50" t="s">
+        <v>304</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
       </c>
-      <c r="H83" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="I83" s="49"/>
+      <c r="H83" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="I83" s="48"/>
     </row>
     <row r="84" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
@@ -5141,7 +5073,7 @@
         <v>169</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -5149,16 +5081,16 @@
       <c r="E84" s="12">
         <v>15</v>
       </c>
-      <c r="F84" s="51" t="s">
-        <v>317</v>
+      <c r="F84" s="50" t="s">
+        <v>305</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
       </c>
-      <c r="H84" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="I84" s="49"/>
+      <c r="H84" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" s="48"/>
     </row>
     <row r="85" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
@@ -5168,7 +5100,7 @@
         <v>170</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -5176,16 +5108,16 @@
       <c r="E85" s="12">
         <v>15</v>
       </c>
-      <c r="F85" s="51" t="s">
-        <v>318</v>
+      <c r="F85" s="50" t="s">
+        <v>306</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
       </c>
-      <c r="H85" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="I85" s="49"/>
+      <c r="H85" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85" s="48"/>
     </row>
     <row r="86" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
@@ -5195,7 +5127,7 @@
         <v>171</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -5203,16 +5135,16 @@
       <c r="E86" s="12">
         <v>15</v>
       </c>
-      <c r="F86" s="51" t="s">
-        <v>319</v>
+      <c r="F86" s="50" t="s">
+        <v>307</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
       </c>
-      <c r="H86" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="I86" s="49"/>
+      <c r="H86" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="I86" s="48"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
@@ -5222,7 +5154,7 @@
         <v>172</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -5230,16 +5162,16 @@
       <c r="E87" s="12">
         <v>15</v>
       </c>
-      <c r="F87" s="51" t="s">
-        <v>320</v>
+      <c r="F87" s="50" t="s">
+        <v>308</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
       </c>
-      <c r="H87" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="I87" s="49"/>
+      <c r="H87" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I87" s="48"/>
     </row>
     <row r="88" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -5249,7 +5181,7 @@
         <v>173</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -5257,16 +5189,16 @@
       <c r="E88" s="17">
         <v>15</v>
       </c>
-      <c r="F88" s="52" t="s">
-        <v>321</v>
+      <c r="F88" s="51" t="s">
+        <v>309</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
       </c>
-      <c r="H88" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="I88" s="49"/>
+      <c r="H88" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="I88" s="48"/>
     </row>
     <row r="89" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -5276,24 +5208,24 @@
         <v>50</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="45">
         <v>16</v>
       </c>
-      <c r="F89" s="51" t="s">
-        <v>322</v>
+      <c r="F89" s="50" t="s">
+        <v>310</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
       </c>
-      <c r="H89" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="I89" s="49"/>
+      <c r="H89" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="I89" s="48"/>
     </row>
     <row r="90" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -5303,24 +5235,24 @@
         <v>51</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="45">
         <v>16</v>
       </c>
-      <c r="F90" s="51" t="s">
-        <v>323</v>
+      <c r="F90" s="50" t="s">
+        <v>311</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
       </c>
-      <c r="H90" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="I90" s="49"/>
+      <c r="H90" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="I90" s="48"/>
     </row>
     <row r="91" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -5330,24 +5262,24 @@
         <v>52</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="45">
         <v>16</v>
       </c>
-      <c r="F91" s="51" t="s">
-        <v>324</v>
+      <c r="F91" s="50" t="s">
+        <v>312</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
       </c>
-      <c r="H91" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="I91" s="49"/>
+      <c r="H91" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="I91" s="48"/>
     </row>
     <row r="92" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -5357,24 +5289,24 @@
         <v>53</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
       </c>
-      <c r="E92" s="47">
+      <c r="E92" s="46">
         <v>16</v>
       </c>
-      <c r="F92" s="47" t="s">
-        <v>325</v>
+      <c r="F92" s="46" t="s">
+        <v>313</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
       </c>
-      <c r="H92" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="I92" s="49"/>
+      <c r="H92" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="I92" s="48"/>
     </row>
     <row r="93" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
@@ -5384,24 +5316,24 @@
         <v>54</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
       </c>
-      <c r="E93" s="46">
+      <c r="E93" s="45">
         <v>16</v>
       </c>
-      <c r="F93" s="51" t="s">
-        <v>326</v>
+      <c r="F93" s="50" t="s">
+        <v>314</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
       </c>
-      <c r="H93" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="I93" s="49"/>
+      <c r="H93" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="I93" s="48"/>
     </row>
     <row r="94" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
@@ -5411,24 +5343,24 @@
         <v>55</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
       </c>
-      <c r="E94" s="46">
+      <c r="E94" s="45">
         <v>16</v>
       </c>
-      <c r="F94" s="51" t="s">
-        <v>327</v>
+      <c r="F94" s="50" t="s">
+        <v>315</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
       </c>
-      <c r="H94" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="I94" s="49"/>
+      <c r="H94" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="I94" s="48"/>
     </row>
     <row r="95" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
@@ -5438,24 +5370,24 @@
         <v>56</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
       </c>
-      <c r="E95" s="46">
+      <c r="E95" s="45">
         <v>16</v>
       </c>
-      <c r="F95" s="51" t="s">
-        <v>328</v>
+      <c r="F95" s="50" t="s">
+        <v>316</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="I95" s="49"/>
+      <c r="H95" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="I95" s="48"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96"/>
@@ -6143,7 +6075,7 @@
       <c r="B294"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
@@ -6224,7 +6156,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -11828,7 +11760,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15184,7 +15116,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -2042,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2896,7 +2896,7 @@
         <v>361</v>
       </c>
       <c r="D24" s="27">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E24" s="21">
         <v>5</v>
@@ -2933,7 +2933,7 @@
         <v>362</v>
       </c>
       <c r="D25" s="27">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E25" s="21">
         <v>5</v>
@@ -2970,7 +2970,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="27">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E26" s="21">
         <v>5</v>
@@ -3007,7 +3007,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="27">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E27" s="21">
         <v>5</v>
@@ -3044,7 +3044,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="27">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E28" s="21">
         <v>5</v>
@@ -3118,7 +3118,7 @@
         <v>363</v>
       </c>
       <c r="D30" s="36">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E30" s="24">
         <v>6</v>
@@ -3155,7 +3155,7 @@
         <v>364</v>
       </c>
       <c r="D31" s="36">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31" s="24">
         <v>6</v>
@@ -3192,7 +3192,7 @@
         <v>365</v>
       </c>
       <c r="D32" s="36">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E32" s="24">
         <v>6</v>
@@ -3229,7 +3229,7 @@
         <v>366</v>
       </c>
       <c r="D33" s="36">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E33" s="24">
         <v>6</v>
@@ -3266,7 +3266,7 @@
         <v>367</v>
       </c>
       <c r="D34" s="36">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E34" s="24">
         <v>6</v>
@@ -4450,7 +4450,7 @@
         <v>369</v>
       </c>
       <c r="D66" s="39">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E66" s="24">
         <v>12</v>
@@ -4487,7 +4487,7 @@
         <v>370</v>
       </c>
       <c r="D67" s="39">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E67" s="24">
         <v>12</v>
@@ -4524,7 +4524,7 @@
         <v>371</v>
       </c>
       <c r="D68" s="39">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E68" s="24">
         <v>12</v>
@@ -4561,7 +4561,7 @@
         <v>372</v>
       </c>
       <c r="D69" s="39">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E69" s="24">
         <v>12</v>
@@ -4598,7 +4598,7 @@
         <v>373</v>
       </c>
       <c r="D70" s="39">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E70" s="24">
         <v>12</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="395">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1394,6 +1394,26 @@
   <si>
     <t>挠痒痒璎珞</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_51</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_52</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_53</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_54</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,6 +1720,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2042,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3962,11 +3983,11 @@
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="52" t="s">
         <v>323</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3999,11 +4020,11 @@
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="52" t="s">
         <v>324</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -4036,11 +4057,11 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="52" t="s">
         <v>325</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -4073,11 +4094,11 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="52" t="s">
         <v>326</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="D56" s="36">
         <v>0</v>
@@ -4110,11 +4131,11 @@
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="52" t="s">
         <v>327</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -4147,11 +4168,11 @@
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="52" t="s">
         <v>328</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3361,7 +3361,7 @@
         <v>369</v>
       </c>
       <c r="D36" s="36">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E36" s="38">
         <v>7</v>
@@ -3398,7 +3398,7 @@
         <v>370</v>
       </c>
       <c r="D37" s="36">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E37" s="38">
         <v>7</v>
@@ -3435,7 +3435,7 @@
         <v>371</v>
       </c>
       <c r="D38" s="36">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E38" s="38">
         <v>7</v>
@@ -3472,7 +3472,7 @@
         <v>372</v>
       </c>
       <c r="D39" s="36">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E39" s="38">
         <v>7</v>
@@ -3509,7 +3509,7 @@
         <v>373</v>
       </c>
       <c r="D40" s="36">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E40" s="38">
         <v>7</v>
@@ -3583,7 +3583,7 @@
         <v>355</v>
       </c>
       <c r="D42" s="36">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E42" s="24">
         <v>8</v>
@@ -3620,7 +3620,7 @@
         <v>356</v>
       </c>
       <c r="D43" s="36">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E43" s="24">
         <v>8</v>
@@ -3657,7 +3657,7 @@
         <v>357</v>
       </c>
       <c r="D44" s="36">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E44" s="24">
         <v>8</v>
@@ -3694,7 +3694,7 @@
         <v>358</v>
       </c>
       <c r="D45" s="36">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E45" s="24">
         <v>8</v>
@@ -3731,7 +3731,7 @@
         <v>359</v>
       </c>
       <c r="D46" s="36">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E46" s="24">
         <v>8</v>
@@ -3805,7 +3805,7 @@
         <v>349</v>
       </c>
       <c r="D48" s="36">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E48" s="8">
         <v>9</v>
@@ -3842,7 +3842,7 @@
         <v>350</v>
       </c>
       <c r="D49" s="36">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E49" s="8">
         <v>9</v>
@@ -3879,7 +3879,7 @@
         <v>351</v>
       </c>
       <c r="D50" s="36">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E50" s="8">
         <v>9</v>
@@ -3916,7 +3916,7 @@
         <v>352</v>
       </c>
       <c r="D51" s="36">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E51" s="8">
         <v>9</v>
@@ -3953,7 +3953,7 @@
         <v>353</v>
       </c>
       <c r="D52" s="36">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E52" s="8">
         <v>9</v>
@@ -4027,7 +4027,7 @@
         <v>390</v>
       </c>
       <c r="D54" s="36">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E54" s="24">
         <v>10</v>
@@ -4064,7 +4064,7 @@
         <v>391</v>
       </c>
       <c r="D55" s="36">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E55" s="24">
         <v>10</v>
@@ -4101,7 +4101,7 @@
         <v>392</v>
       </c>
       <c r="D56" s="36">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E56" s="24">
         <v>10</v>
@@ -4138,7 +4138,7 @@
         <v>393</v>
       </c>
       <c r="D57" s="36">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E57" s="24">
         <v>10</v>
@@ -4175,7 +4175,7 @@
         <v>394</v>
       </c>
       <c r="D58" s="36">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E58" s="24">
         <v>10</v>
@@ -4249,7 +4249,7 @@
         <v>375</v>
       </c>
       <c r="D60" s="36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="12">
         <v>11</v>
@@ -4286,7 +4286,7 @@
         <v>376</v>
       </c>
       <c r="D61" s="36">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E61" s="12">
         <v>11</v>
@@ -4323,7 +4323,7 @@
         <v>273</v>
       </c>
       <c r="D62" s="36">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E62" s="12">
         <v>11</v>
@@ -4360,7 +4360,7 @@
         <v>274</v>
       </c>
       <c r="D63" s="36">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E63" s="12">
         <v>11</v>
@@ -4397,7 +4397,7 @@
         <v>275</v>
       </c>
       <c r="D64" s="36">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E64" s="12">
         <v>11</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="401">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1414,6 +1414,26 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_54</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_33</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_34</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_35</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_36</t>
   </si>
 </sst>
 </file>
@@ -2063,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3341,7 @@
         <v>383</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3358,7 +3378,7 @@
         <v>384</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="D36" s="36">
         <v>76</v>
@@ -3395,7 +3415,7 @@
         <v>385</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="D37" s="36">
         <v>77</v>
@@ -3432,7 +3452,7 @@
         <v>386</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="D38" s="36">
         <v>78</v>
@@ -3469,7 +3489,7 @@
         <v>387</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="D39" s="36">
         <v>79</v>
@@ -3506,7 +3526,7 @@
         <v>388</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="D40" s="36">
         <v>80</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="407">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1434,6 +1434,26 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_36</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_45</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_46</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_47</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_48</t>
   </si>
 </sst>
 </file>
@@ -2083,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3785,7 +3805,7 @@
         <v>329</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3822,7 +3842,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="D48" s="36">
         <v>88</v>
@@ -3859,7 +3879,7 @@
         <v>331</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="D49" s="36">
         <v>89</v>
@@ -3896,7 +3916,7 @@
         <v>332</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="D50" s="36">
         <v>90</v>
@@ -3933,7 +3953,7 @@
         <v>333</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="D51" s="36">
         <v>91</v>
@@ -3970,7 +3990,7 @@
         <v>334</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="D52" s="36">
         <v>92</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -12,12 +12,12 @@
     <sheet name="#" sheetId="3" r:id="rId3"/>
     <sheet name="##" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="400">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ShopShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TMaidLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,39 +312,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RoleDescribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6;7;8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1454,18 +1422,22 @@
   </si>
   <si>
     <t>Image/GameScene/Maid/maid_48</t>
+  </si>
+  <si>
+    <t>UnlockShop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -2100,14 +2072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -2122,7 +2094,7 @@
     <col min="12" max="12" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2130,10 +2102,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>34</v>
@@ -2145,22 +2117,22 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2171,26 +2143,26 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2199,14 +2171,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2217,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
@@ -2232,19 +2204,19 @@
         <v>40</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2252,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -2261,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -2280,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -2297,14 +2269,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="J6" s="14">
         <f>J5*K5</f>
         <v>2.0499999999999998</v>
@@ -2317,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2334,14 +2304,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
       </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
+      <c r="H7" s="24"/>
       <c r="J7" s="14">
         <f>J6*K6</f>
         <v>4.2024999999999997</v>
@@ -2354,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -2371,14 +2339,12 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
       </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
+      <c r="H8" s="24"/>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
         <v>8.615124999999999</v>
@@ -2391,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2408,14 +2374,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G9" s="24">
         <v>6</v>
       </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
+      <c r="H9" s="24"/>
       <c r="J9" s="14">
         <f t="shared" si="1"/>
         <v>17.661006249999996</v>
@@ -2428,7 +2392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2445,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G10" s="24">
         <v>7</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>86</v>
+      <c r="H10" s="24">
+        <v>2</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="1"/>
@@ -2465,15 +2429,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -2482,13 +2446,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>87</v>
+      <c r="H11" s="8">
+        <v>3</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="1"/>
@@ -2502,15 +2466,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8">
         <v>34</v>
@@ -2519,13 +2483,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>90</v>
+      <c r="H12" s="8">
+        <v>4</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="1"/>
@@ -2539,15 +2503,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8">
         <v>35</v>
@@ -2556,13 +2520,13 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>91</v>
+      <c r="H13" s="8">
+        <v>5</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="1"/>
@@ -2576,15 +2540,15 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8">
         <v>36</v>
@@ -2593,13 +2557,13 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>92</v>
+      <c r="H14" s="8">
+        <v>6</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="1"/>
@@ -2613,15 +2577,15 @@
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8">
         <v>37</v>
@@ -2630,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>93</v>
+      <c r="H15" s="8">
+        <v>7</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" ref="J15:J22" si="2">J14*K14</f>
@@ -2650,15 +2614,15 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8">
         <v>38</v>
@@ -2667,13 +2631,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>94</v>
+      <c r="H16" s="8">
+        <v>8</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
@@ -2687,15 +2651,15 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -2704,13 +2668,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
@@ -2724,15 +2688,15 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="24">
         <v>40</v>
@@ -2741,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
@@ -2761,15 +2725,15 @@
         <v>11292</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="24">
         <v>41</v>
@@ -2778,13 +2742,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
@@ -2798,15 +2762,15 @@
         <v>23150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="24">
         <v>42</v>
@@ -2815,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="2"/>
@@ -2835,15 +2799,15 @@
         <v>47457</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="24">
         <v>43</v>
@@ -2852,13 +2816,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
@@ -2872,15 +2836,15 @@
         <v>97288</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="17.25">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="24">
         <v>44</v>
@@ -2889,13 +2853,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G22" s="24">
         <v>19</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="2"/>
@@ -2909,15 +2873,15 @@
         <v>199441</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="17.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="27">
         <v>0</v>
@@ -2926,13 +2890,13 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G23" s="21">
         <v>20</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
@@ -2946,15 +2910,15 @@
         <v>408855</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="17.25">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D24" s="27">
         <v>46</v>
@@ -2963,13 +2927,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G24" s="21">
         <v>21</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="3"/>
@@ -2983,15 +2947,15 @@
         <v>838153</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="17.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D25" s="27">
         <v>47</v>
@@ -3000,13 +2964,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G25" s="21">
         <v>22</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="3"/>
@@ -3020,15 +2984,15 @@
         <v>1718213</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="17.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="27">
         <v>48</v>
@@ -3037,13 +3001,13 @@
         <v>5</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G26" s="21">
         <v>23</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="3"/>
@@ -3057,15 +3021,15 @@
         <v>3522338</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17.25">
       <c r="A27" s="6">
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="27">
         <v>49</v>
@@ -3074,13 +3038,13 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G27" s="21">
         <v>24</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="3"/>
@@ -3094,15 +3058,15 @@
         <v>7220793</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="17.25">
       <c r="A28" s="6">
         <v>24</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="27">
         <v>50</v>
@@ -3111,13 +3075,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G28" s="21">
         <v>25</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
@@ -3131,15 +3095,15 @@
         <v>14802627</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17.25">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -3148,13 +3112,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G29" s="24">
         <v>26</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="3"/>
@@ -3168,15 +3132,15 @@
         <v>30345385</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="17.25">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D30" s="36">
         <v>70</v>
@@ -3185,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G30" s="24">
         <v>27</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="3"/>
@@ -3205,15 +3169,15 @@
         <v>62208041</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="17.25">
       <c r="A31" s="6">
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D31" s="36">
         <v>71</v>
@@ -3222,13 +3186,13 @@
         <v>6</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G31" s="24">
         <v>28</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="3"/>
@@ -3242,15 +3206,15 @@
         <v>127526484</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="17.25">
       <c r="A32" s="6">
         <v>28</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D32" s="36">
         <v>72</v>
@@ -3259,13 +3223,13 @@
         <v>6</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G32" s="24">
         <v>29</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="3"/>
@@ -3279,15 +3243,15 @@
         <v>261429293</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="17.25">
       <c r="A33" s="6">
         <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D33" s="36">
         <v>73</v>
@@ -3296,13 +3260,13 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G33" s="24">
         <v>30</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
@@ -3316,15 +3280,15 @@
         <v>535930050</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="17.25">
       <c r="A34" s="6">
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D34" s="36">
         <v>74</v>
@@ -3333,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G34" s="24">
         <v>31</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
@@ -3353,15 +3317,15 @@
         <v>1098656604</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="17.25">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3370,13 +3334,13 @@
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="3"/>
@@ -3390,15 +3354,15 @@
         <v>2252246038</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="17.25">
       <c r="A36" s="6">
         <v>32</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D36" s="36">
         <v>76</v>
@@ -3407,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="3"/>
@@ -3427,15 +3391,15 @@
         <v>4617104378</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="17.25">
       <c r="A37" s="6">
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D37" s="36">
         <v>77</v>
@@ -3444,13 +3408,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="3"/>
@@ -3464,15 +3428,15 @@
         <v>9465063976</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="17.25">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D38" s="36">
         <v>78</v>
@@ -3481,13 +3445,13 @@
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="3"/>
@@ -3501,15 +3465,15 @@
         <v>19403381150</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="17.25">
       <c r="A39" s="6">
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D39" s="36">
         <v>79</v>
@@ -3518,13 +3482,13 @@
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
@@ -3538,15 +3502,15 @@
         <v>39776931359</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="17.25">
       <c r="A40" s="6">
         <v>36</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D40" s="36">
         <v>80</v>
@@ -3555,13 +3519,13 @@
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="3"/>
@@ -3575,15 +3539,15 @@
         <v>81542709286</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="17.25">
       <c r="A41" s="6">
         <v>37</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3592,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="3"/>
@@ -3612,15 +3576,15 @@
         <v>167162554037</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="17.25">
       <c r="A42" s="6">
         <v>38</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D42" s="36">
         <v>82</v>
@@ -3629,13 +3593,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="3"/>
@@ -3649,15 +3613,15 @@
         <v>342683235777</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="17.25">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D43" s="36">
         <v>83</v>
@@ -3666,13 +3630,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="3"/>
@@ -3686,15 +3650,15 @@
         <v>702500633344</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="17.25">
       <c r="A44" s="6">
         <v>40</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D44" s="36">
         <v>84</v>
@@ -3703,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="3"/>
@@ -3723,15 +3687,15 @@
         <v>1440126298356</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="17.25">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D45" s="36">
         <v>85</v>
@@ -3740,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="3"/>
@@ -3760,15 +3724,15 @@
         <v>2952258911630</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="17.25">
       <c r="A46" s="6">
         <v>42</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D46" s="36">
         <v>86</v>
@@ -3777,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="3"/>
@@ -3797,15 +3761,15 @@
         <v>6052130768842</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="17.25">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3814,13 +3778,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="3"/>
@@ -3834,15 +3798,15 @@
         <v>12406868076127</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="17.25">
       <c r="A48" s="6">
         <v>44</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D48" s="36">
         <v>88</v>
@@ -3851,13 +3815,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="3"/>
@@ -3871,15 +3835,15 @@
         <v>25434079556061</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" ht="17.25">
       <c r="A49" s="6">
         <v>45</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D49" s="36">
         <v>89</v>
@@ -3888,13 +3852,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J49" s="14">
         <f t="shared" si="3"/>
@@ -3908,15 +3872,15 @@
         <v>52139863089926</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="17.25">
       <c r="A50" s="6">
         <v>46</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D50" s="36">
         <v>90</v>
@@ -3925,13 +3889,13 @@
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="3"/>
@@ -3945,15 +3909,15 @@
         <v>106886719334350</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" ht="17.25">
       <c r="A51" s="6">
         <v>47</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D51" s="36">
         <v>91</v>
@@ -3962,13 +3926,13 @@
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="3"/>
@@ -3982,15 +3946,15 @@
         <v>219117774635417</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="17.25">
       <c r="A52" s="6">
         <v>48</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D52" s="36">
         <v>92</v>
@@ -3999,13 +3963,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="3"/>
@@ -4019,15 +3983,15 @@
         <v>449191438002604</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="17.25">
       <c r="A53" s="6">
         <v>49</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -4036,13 +4000,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="3"/>
@@ -4056,15 +4020,15 @@
         <v>920842447905338</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="17.25">
       <c r="A54" s="6">
         <v>50</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D54" s="36">
         <v>94</v>
@@ -4073,13 +4037,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="3"/>
@@ -4093,15 +4057,15 @@
         <v>1887727018205940</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" ht="17.25">
       <c r="A55" s="6">
         <v>51</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D55" s="36">
         <v>95</v>
@@ -4110,13 +4074,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="3"/>
@@ -4130,15 +4094,15 @@
         <v>3869840387322180</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" ht="17.25">
       <c r="A56" s="6">
         <v>52</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D56" s="36">
         <v>96</v>
@@ -4147,13 +4111,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="3"/>
@@ -4167,15 +4131,15 @@
         <v>7933172794010470</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" ht="17.25">
       <c r="A57" s="6">
         <v>53</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D57" s="36">
         <v>97</v>
@@ -4184,13 +4148,13 @@
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="3"/>
@@ -4204,15 +4168,15 @@
         <v>1.62630042277215E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="17.25">
       <c r="A58" s="6">
         <v>54</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D58" s="36">
         <v>98</v>
@@ -4221,13 +4185,13 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="3"/>
@@ -4241,15 +4205,15 @@
         <v>3.3339158666829E+16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" ht="17.25">
       <c r="A59" s="6">
         <v>55</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -4258,13 +4222,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="3"/>
@@ -4278,15 +4242,15 @@
         <v>6.8345275266999504E+16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" ht="17.25">
       <c r="A60" s="6">
         <v>56</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D60" s="36">
         <v>100</v>
@@ -4295,13 +4259,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="3"/>
@@ -4315,15 +4279,15 @@
         <v>1.4010781429734899E+17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="17.25">
       <c r="A61" s="6">
         <v>57</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D61" s="36">
         <v>101</v>
@@ -4332,13 +4296,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="3"/>
@@ -4352,15 +4316,15 @@
         <v>2.8722101930956499E+17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="17.25">
       <c r="A62" s="6">
         <v>58</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D62" s="36">
         <v>102</v>
@@ -4369,13 +4333,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="3"/>
@@ -4389,15 +4353,15 @@
         <v>5.8880308958460902E+17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="17.25">
       <c r="A63" s="6">
         <v>59</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D63" s="36">
         <v>103</v>
@@ -4406,13 +4370,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="3"/>
@@ -4426,15 +4390,15 @@
         <v>1.20704633364845E+18</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" ht="17.25">
       <c r="A64" s="6">
         <v>60</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D64" s="36">
         <v>104</v>
@@ -4443,13 +4407,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="3"/>
@@ -4463,15 +4427,15 @@
         <v>2.4744449839793198E+18</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="17.25">
       <c r="A65" s="6">
         <v>61</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4480,13 +4444,13 @@
         <v>12</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="3"/>
@@ -4500,15 +4464,15 @@
         <v>5.0726122171576003E+18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="17.25">
       <c r="A66" s="6">
         <v>62</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D66" s="39">
         <v>64</v>
@@ -4517,13 +4481,13 @@
         <v>12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="3"/>
@@ -4537,15 +4501,15 @@
         <v>1.0398855045173101E+19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="17.25">
       <c r="A67" s="6">
         <v>63</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D67" s="39">
         <v>65</v>
@@ -4554,13 +4518,13 @@
         <v>12</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="3"/>
@@ -4574,15 +4538,15 @@
         <v>2.1317652842604798E+19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="17.25">
       <c r="A68" s="6">
         <v>64</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D68" s="39">
         <v>66</v>
@@ -4591,13 +4555,13 @@
         <v>12</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="3"/>
@@ -4611,15 +4575,15 @@
         <v>4.3701188327339901E+19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="17.25">
       <c r="A69" s="6">
         <v>65</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D69" s="39">
         <v>67</v>
@@ -4628,13 +4592,13 @@
         <v>12</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="3"/>
@@ -4648,15 +4612,15 @@
         <v>8.9587436071046693E+19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="17.25">
       <c r="A70" s="6">
         <v>66</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D70" s="39">
         <v>68</v>
@@ -4665,13 +4629,13 @@
         <v>12</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="3"/>
@@ -4685,15 +4649,15 @@
         <v>1.83654243945646E+20</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="17.25">
       <c r="A71" s="6">
         <v>67</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4702,13 +4666,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="3"/>
@@ -4722,15 +4686,15 @@
         <v>3.76491200088574E+20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="17.25">
       <c r="A72" s="6">
         <v>68</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4739,13 +4703,13 @@
         <v>13</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J72" s="14">
         <f t="shared" si="3"/>
@@ -4759,15 +4723,15 @@
         <v>7.7180696018157594E+20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="17.25">
       <c r="A73" s="6">
         <v>69</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4776,13 +4740,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="3"/>
@@ -4796,15 +4760,15 @@
         <v>1.5822042683722299E+21</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="17.25">
       <c r="A74" s="6">
         <v>70</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4813,13 +4777,13 @@
         <v>13</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="3"/>
@@ -4833,15 +4797,15 @@
         <v>3.2435187501630698E+21</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="17.25">
       <c r="A75" s="6">
         <v>71</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4850,13 +4814,13 @@
         <v>13</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="3"/>
@@ -4870,15 +4834,15 @@
         <v>6.6492134378343005E+21</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="17.25">
       <c r="A76" s="6">
         <v>72</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4887,13 +4851,13 @@
         <v>13</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J76" s="14">
         <f t="shared" si="3"/>
@@ -4907,15 +4871,15 @@
         <v>1.3630887547560299E+22</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="17.25">
       <c r="A77" s="6">
         <v>73</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4924,13 +4888,13 @@
         <v>14</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J77" s="14">
         <f t="shared" si="3"/>
@@ -4944,15 +4908,15 @@
         <v>2.7943319472498599E+22</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="17.25">
       <c r="A78" s="6">
         <v>74</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4961,13 +4925,13 @@
         <v>14</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J78" s="14">
         <f t="shared" si="3"/>
@@ -4981,15 +4945,15 @@
         <v>5.72838049186222E+22</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="17.25">
       <c r="A79" s="6">
         <v>75</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -4998,13 +4962,13 @@
         <v>14</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G79" s="8">
         <v>76</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="3"/>
@@ -5018,15 +4982,15 @@
         <v>1.17431800083176E+23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="17.25">
       <c r="A80" s="6">
         <v>76</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -5035,25 +4999,25 @@
         <v>14</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
       </c>
       <c r="H80" s="49" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I80" s="48"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="6">
         <v>77</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -5062,25 +5026,25 @@
         <v>14</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
       </c>
       <c r="H81" s="49" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I81" s="48"/>
     </row>
-    <row r="82" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="6">
         <v>78</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -5089,25 +5053,25 @@
         <v>14</v>
       </c>
       <c r="F82" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
       </c>
       <c r="H82" s="49" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I82" s="48"/>
     </row>
-    <row r="83" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="6">
         <v>79</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -5116,25 +5080,25 @@
         <v>15</v>
       </c>
       <c r="F83" s="50" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I83" s="48"/>
     </row>
-    <row r="84" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="6">
         <v>80</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -5143,25 +5107,25 @@
         <v>15</v>
       </c>
       <c r="F84" s="50" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
       </c>
       <c r="H84" s="49" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I84" s="48"/>
     </row>
-    <row r="85" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="6">
         <v>81</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -5170,25 +5134,25 @@
         <v>15</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
       </c>
       <c r="H85" s="49" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I85" s="48"/>
     </row>
-    <row r="86" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="6">
         <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -5197,25 +5161,25 @@
         <v>15</v>
       </c>
       <c r="F86" s="50" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
       </c>
       <c r="H86" s="49" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I86" s="48"/>
     </row>
-    <row r="87" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="6">
         <v>83</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -5224,25 +5188,25 @@
         <v>15</v>
       </c>
       <c r="F87" s="50" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
       </c>
       <c r="H87" s="49" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I87" s="48"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="6">
         <v>84</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -5251,25 +5215,25 @@
         <v>15</v>
       </c>
       <c r="F88" s="51" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
       </c>
       <c r="H88" s="49" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I88" s="48"/>
     </row>
-    <row r="89" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="6">
         <v>85</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -5278,25 +5242,25 @@
         <v>16</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I89" s="48"/>
     </row>
-    <row r="90" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="6">
         <v>86</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
@@ -5305,25 +5269,25 @@
         <v>16</v>
       </c>
       <c r="F90" s="50" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="6">
         <v>87</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
@@ -5332,25 +5296,25 @@
         <v>16</v>
       </c>
       <c r="F91" s="50" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
       </c>
       <c r="H91" s="49" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I91" s="48"/>
     </row>
-    <row r="92" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="6">
         <v>88</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
@@ -5359,25 +5323,25 @@
         <v>16</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
       </c>
       <c r="H92" s="49" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I92" s="48"/>
     </row>
-    <row r="93" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="6">
         <v>89</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
@@ -5386,25 +5350,25 @@
         <v>16</v>
       </c>
       <c r="F93" s="50" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
       </c>
       <c r="H93" s="49" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I93" s="48"/>
     </row>
-    <row r="94" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="6">
         <v>90</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
@@ -5413,25 +5377,25 @@
         <v>16</v>
       </c>
       <c r="F94" s="50" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
       </c>
       <c r="H94" s="49" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I94" s="48"/>
     </row>
-    <row r="95" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="6">
         <v>91</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
@@ -5440,63 +5404,63 @@
         <v>16</v>
       </c>
       <c r="F95" s="50" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" s="49" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I95" s="48"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16.5">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110" s="19"/>
@@ -5506,632 +5470,632 @@
       <c r="G110" s="19"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
@@ -6147,24 +6111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6190,7 +6154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -6228,19 +6192,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G7:P192"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="G71" sqref="G71:G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:16">
       <c r="G7" t="str">
         <f>I7&amp;";"&amp;J7&amp;";"&amp;K7&amp;";"&amp;L7&amp;";"&amp;M7&amp;";"&amp;N7&amp;";"&amp;O7&amp;";"&amp;P7</f>
         <v>1;2;3;4;5;6;7;8</v>
@@ -6270,7 +6234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:16">
       <c r="G8" t="str">
         <f t="shared" ref="G8:G71" si="0">I8&amp;";"&amp;J8&amp;";"&amp;K8&amp;";"&amp;L8&amp;";"&amp;M8&amp;";"&amp;N8&amp;";"&amp;O8&amp;";"&amp;P8</f>
         <v>2;3;4;5;6;7;8;9</v>
@@ -6300,7 +6264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:16">
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>3;4;5;6;7;8;9;10</v>
@@ -6330,7 +6294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:16">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>4;5;6;7;8;9;10;11</v>
@@ -6360,7 +6324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:16">
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>5;6;7;8;9;10;11;12</v>
@@ -6390,7 +6354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:16">
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>6;7;8;9;10;11;12;13</v>
@@ -6420,7 +6384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:16">
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>7;8;9;10;11;12;13;14</v>
@@ -6450,7 +6414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:16">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>8;9;10;11;12;13;14;15</v>
@@ -6480,7 +6444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:16">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>9;10;11;12;13;14;15;16</v>
@@ -6510,7 +6474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:16">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>10;11;12;13;14;15;16;17</v>
@@ -6540,7 +6504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:16">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>11;12;13;14;15;16;17;18</v>
@@ -6570,7 +6534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:16">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>12;13;14;15;16;17;18;19</v>
@@ -6600,7 +6564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:16">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>13;14;15;16;17;18;19;20</v>
@@ -6630,7 +6594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:16">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>14;15;16;17;18;19;20;21</v>
@@ -6660,7 +6624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:16">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>15;16;17;18;19;20;21;22</v>
@@ -6690,7 +6654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:16">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>16;17;18;19;20;21;22;23</v>
@@ -6720,7 +6684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:16">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>17;18;19;20;21;22;23;24</v>
@@ -6750,7 +6714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:16">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>18;19;20;21;22;23;24;25</v>
@@ -6780,7 +6744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:16">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>19;20;21;22;23;24;25;26</v>
@@ -6810,7 +6774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:16">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>20;21;22;23;24;25;26;27</v>
@@ -6840,7 +6804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:16">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>21;22;23;24;25;26;27;28</v>
@@ -6870,7 +6834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:16">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>22;23;24;25;26;27;28;29</v>
@@ -6900,7 +6864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:16">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>23;24;25;26;27;28;29;30</v>
@@ -6930,7 +6894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:16">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>24;25;26;27;28;29;30;31</v>
@@ -6960,7 +6924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:16">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>25;26;27;28;29;30;31;32</v>
@@ -6990,7 +6954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="7:16">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>26;27;28;29;30;31;32;33</v>
@@ -7020,7 +6984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:16">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>27;28;29;30;31;32;33;34</v>
@@ -7050,7 +7014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:16">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>28;29;30;31;32;33;34;35</v>
@@ -7080,7 +7044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:16">
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>29;30;31;32;33;34;35;36</v>
@@ -7110,7 +7074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:16">
       <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>30;31;32;33;34;35;36;37</v>
@@ -7140,7 +7104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:16">
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>31;32;33;34;35;36;37;38</v>
@@ -7170,7 +7134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:16">
       <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>32;33;34;35;36;37;38;39</v>
@@ -7200,7 +7164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:16">
       <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>33;34;35;36;37;38;39;40</v>
@@ -7230,7 +7194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:16">
       <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>34;35;36;37;38;39;40;41</v>
@@ -7260,7 +7224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:16">
       <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>35;36;37;38;39;40;41;42</v>
@@ -7290,7 +7254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:16">
       <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>36;37;38;39;40;41;42;43</v>
@@ -7320,7 +7284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:16">
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>37;38;39;40;41;42;43;44</v>
@@ -7350,7 +7314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:16">
       <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>38;39;40;41;42;43;44;45</v>
@@ -7380,7 +7344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:16">
       <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>39;40;41;42;43;44;45;46</v>
@@ -7410,7 +7374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:16">
       <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>40;41;42;43;44;45;46;47</v>
@@ -7440,7 +7404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:16">
       <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>41;42;43;44;45;46;47;48</v>
@@ -7470,7 +7434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:16">
       <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>42;43;44;45;46;47;48;49</v>
@@ -7500,7 +7464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:16">
       <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>43;44;45;46;47;48;49;50</v>
@@ -7530,7 +7494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:16">
       <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>44;45;46;47;48;49;50;51</v>
@@ -7560,7 +7524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:16">
       <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>45;46;47;48;49;50;51;52</v>
@@ -7590,7 +7554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:16">
       <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>46;47;48;49;50;51;52;53</v>
@@ -7620,7 +7584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:16">
       <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>47;48;49;50;51;52;53;54</v>
@@ -7650,7 +7614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:16">
       <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>48;49;50;51;52;53;54;55</v>
@@ -7680,7 +7644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:16">
       <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>49;50;51;52;53;54;55;56</v>
@@ -7710,7 +7674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:16">
       <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>50;51;52;53;54;55;56;57</v>
@@ -7740,7 +7704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:16">
       <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>51;52;53;54;55;56;57;58</v>
@@ -7770,7 +7734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:16">
       <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>52;53;54;55;56;57;58;59</v>
@@ -7800,7 +7764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:16">
       <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>53;54;55;56;57;58;59;60</v>
@@ -7830,7 +7794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:16">
       <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>54;55;56;57;58;59;60;61</v>
@@ -7860,7 +7824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:16">
       <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>55;56;57;58;59;60;61;62</v>
@@ -7890,7 +7854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:16">
       <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>56;57;58;59;60;61;62;63</v>
@@ -7920,7 +7884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:16">
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>57;58;59;60;61;62;63;64</v>
@@ -7950,7 +7914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:16">
       <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>58;59;60;61;62;63;64;65</v>
@@ -7980,7 +7944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:16">
       <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>59;60;61;62;63;64;65;66</v>
@@ -8010,7 +7974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:16">
       <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>60;61;62;63;64;65;66;67</v>
@@ -8040,7 +8004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:16">
       <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>61;62;63;64;65;66;67;68</v>
@@ -8070,7 +8034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:16">
       <c r="G68" t="str">
         <f t="shared" si="0"/>
         <v>62;63;64;65;66;67;68;69</v>
@@ -8100,7 +8064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:16">
       <c r="G69" t="str">
         <f t="shared" si="0"/>
         <v>63;64;65;66;67;68;69;70</v>
@@ -8130,7 +8094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:16">
       <c r="G70" t="str">
         <f t="shared" si="0"/>
         <v>64;65;66;67;68;69;70;71</v>
@@ -8160,7 +8124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:16">
       <c r="G71" t="str">
         <f t="shared" si="0"/>
         <v>65;66;67;68;69;70;71;72</v>
@@ -8190,7 +8154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:16">
       <c r="G72" t="str">
         <f t="shared" ref="G72:G135" si="1">I72&amp;";"&amp;J72&amp;";"&amp;K72&amp;";"&amp;L72&amp;";"&amp;M72&amp;";"&amp;N72&amp;";"&amp;O72&amp;";"&amp;P72</f>
         <v>66;67;68;69;70;71;72;73</v>
@@ -8220,7 +8184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:16">
       <c r="G73" t="str">
         <f t="shared" si="1"/>
         <v>67;68;69;70;71;72;73;74</v>
@@ -8250,7 +8214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:16">
       <c r="G74" t="str">
         <f t="shared" si="1"/>
         <v>68;69;70;71;72;73;74;75</v>
@@ -8280,7 +8244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:16">
       <c r="G75" t="str">
         <f t="shared" si="1"/>
         <v>69;70;71;72;73;74;75;76</v>
@@ -8310,7 +8274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:16">
       <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>70;71;72;73;74;75;76;77</v>
@@ -8340,7 +8304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:16">
       <c r="G77" t="str">
         <f t="shared" si="1"/>
         <v>71;72;73;74;75;76;77;78</v>
@@ -8370,7 +8334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:16">
       <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>72;73;74;75;76;77;78;79</v>
@@ -8400,7 +8364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:16">
       <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>73;74;75;76;77;78;79;80</v>
@@ -8430,7 +8394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:16">
       <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>74;75;76;77;78;79;80;81</v>
@@ -8460,7 +8424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:16">
       <c r="G81" t="str">
         <f t="shared" si="1"/>
         <v>75;76;77;78;79;80;81;82</v>
@@ -8490,7 +8454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:16">
       <c r="G82" t="str">
         <f t="shared" si="1"/>
         <v>76;77;78;79;80;81;82;83</v>
@@ -8520,7 +8484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:16">
       <c r="G83" t="str">
         <f t="shared" si="1"/>
         <v>77;78;79;80;81;82;83;84</v>
@@ -8550,7 +8514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:16">
       <c r="G84" t="str">
         <f t="shared" si="1"/>
         <v>78;79;80;81;82;83;84;85</v>
@@ -8580,7 +8544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:16">
       <c r="G85" t="str">
         <f t="shared" si="1"/>
         <v>79;80;81;82;83;84;85;86</v>
@@ -8610,7 +8574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:16">
       <c r="G86" t="str">
         <f t="shared" si="1"/>
         <v>80;81;82;83;84;85;86;87</v>
@@ -8640,7 +8604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:16">
       <c r="G87" t="str">
         <f t="shared" si="1"/>
         <v>81;82;83;84;85;86;87;88</v>
@@ -8670,7 +8634,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:16">
       <c r="G88" t="str">
         <f t="shared" si="1"/>
         <v>82;83;84;85;86;87;88;89</v>
@@ -8700,7 +8664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:16">
       <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>83;84;85;86;87;88;89;90</v>
@@ -8730,7 +8694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:16">
       <c r="G90" t="str">
         <f t="shared" si="1"/>
         <v>84;85;86;87;88;89;90;91</v>
@@ -8760,7 +8724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:16">
       <c r="G91" t="str">
         <f t="shared" si="1"/>
         <v>85;86;87;88;89;90;91;92</v>
@@ -8790,7 +8754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:16">
       <c r="G92" t="str">
         <f t="shared" si="1"/>
         <v>86;87;88;89;90;91;92;93</v>
@@ -8820,7 +8784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:16">
       <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>87;88;89;90;91;92;93;94</v>
@@ -8850,7 +8814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:16">
       <c r="G94" t="str">
         <f t="shared" si="1"/>
         <v>88;89;90;91;92;93;94;95</v>
@@ -8880,7 +8844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:16">
       <c r="G95" t="str">
         <f t="shared" si="1"/>
         <v>89;90;91;92;93;94;95;96</v>
@@ -8910,7 +8874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:16">
       <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>90;91;92;93;94;95;96;97</v>
@@ -8940,7 +8904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:16">
       <c r="G97" t="str">
         <f t="shared" si="1"/>
         <v>91;92;93;94;95;96;97;98</v>
@@ -8970,7 +8934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:16">
       <c r="G98" t="str">
         <f t="shared" si="1"/>
         <v>92;93;94;95;96;97;98;99</v>
@@ -9000,7 +8964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:16">
       <c r="G99" t="str">
         <f t="shared" si="1"/>
         <v>93;94;95;96;97;98;99;100</v>
@@ -9030,7 +8994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:16">
       <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>94;95;96;97;98;99;100;101</v>
@@ -9060,7 +9024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:16">
       <c r="G101" t="str">
         <f t="shared" si="1"/>
         <v>95;96;97;98;99;100;101;102</v>
@@ -9090,7 +9054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:16">
       <c r="G102" t="str">
         <f t="shared" si="1"/>
         <v>96;97;98;99;100;101;102;103</v>
@@ -9120,7 +9084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:16">
       <c r="G103" t="str">
         <f t="shared" si="1"/>
         <v>97;98;99;100;101;102;103;104</v>
@@ -9150,7 +9114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:16">
       <c r="G104" t="str">
         <f t="shared" si="1"/>
         <v>98;99;100;101;102;103;104;105</v>
@@ -9180,7 +9144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:16">
       <c r="G105" t="str">
         <f t="shared" si="1"/>
         <v>99;100;101;102;103;104;105;106</v>
@@ -9210,7 +9174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:16">
       <c r="G106" t="str">
         <f t="shared" si="1"/>
         <v>100;101;102;103;104;105;106;107</v>
@@ -9240,7 +9204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:16">
       <c r="G107" t="str">
         <f t="shared" si="1"/>
         <v>101;102;103;104;105;106;107;108</v>
@@ -9270,7 +9234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:16">
       <c r="G108" t="str">
         <f t="shared" si="1"/>
         <v>102;103;104;105;106;107;108;109</v>
@@ -9300,7 +9264,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:16">
       <c r="G109" t="str">
         <f t="shared" si="1"/>
         <v>103;104;105;106;107;108;109;110</v>
@@ -9330,7 +9294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:16">
       <c r="G110" t="str">
         <f t="shared" si="1"/>
         <v>104;105;106;107;108;109;110;111</v>
@@ -9360,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:16">
       <c r="G111" t="str">
         <f t="shared" si="1"/>
         <v>105;106;107;108;109;110;111;112</v>
@@ -9390,7 +9354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:16">
       <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>106;107;108;109;110;111;112;113</v>
@@ -9420,7 +9384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:16">
       <c r="G113" t="str">
         <f t="shared" si="1"/>
         <v>107;108;109;110;111;112;113;114</v>
@@ -9450,7 +9414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:16">
       <c r="G114" t="str">
         <f t="shared" si="1"/>
         <v>108;109;110;111;112;113;114;115</v>
@@ -9480,7 +9444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:16">
       <c r="G115" t="str">
         <f t="shared" si="1"/>
         <v>109;110;111;112;113;114;115;116</v>
@@ -9510,7 +9474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:16">
       <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>110;111;112;113;114;115;116;117</v>
@@ -9540,7 +9504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:16">
       <c r="G117" t="str">
         <f t="shared" si="1"/>
         <v>111;112;113;114;115;116;117;118</v>
@@ -9570,7 +9534,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:16">
       <c r="G118" t="str">
         <f t="shared" si="1"/>
         <v>112;113;114;115;116;117;118;119</v>
@@ -9600,7 +9564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:16">
       <c r="G119" t="str">
         <f t="shared" si="1"/>
         <v>113;114;115;116;117;118;119;120</v>
@@ -9630,7 +9594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:16">
       <c r="G120" t="str">
         <f t="shared" si="1"/>
         <v>114;115;116;117;118;119;120;121</v>
@@ -9660,7 +9624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:16">
       <c r="G121" t="str">
         <f t="shared" si="1"/>
         <v>115;116;117;118;119;120;121;122</v>
@@ -9690,7 +9654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:16">
       <c r="G122" t="str">
         <f t="shared" si="1"/>
         <v>116;117;118;119;120;121;122;123</v>
@@ -9720,7 +9684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:16">
       <c r="G123" t="str">
         <f t="shared" si="1"/>
         <v>117;118;119;120;121;122;123;124</v>
@@ -9750,7 +9714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:16">
       <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>118;119;120;121;122;123;124;125</v>
@@ -9780,7 +9744,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:16">
       <c r="G125" t="str">
         <f t="shared" si="1"/>
         <v>119;120;121;122;123;124;125;126</v>
@@ -9810,7 +9774,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:16">
       <c r="G126" t="str">
         <f t="shared" si="1"/>
         <v>120;121;122;123;124;125;126;127</v>
@@ -9840,7 +9804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:16">
       <c r="G127" t="str">
         <f t="shared" si="1"/>
         <v>121;122;123;124;125;126;127;128</v>
@@ -9870,7 +9834,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:16">
       <c r="G128" t="str">
         <f t="shared" si="1"/>
         <v>122;123;124;125;126;127;128;129</v>
@@ -9900,7 +9864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:16">
       <c r="G129" t="str">
         <f t="shared" si="1"/>
         <v>123;124;125;126;127;128;129;130</v>
@@ -9930,7 +9894,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:16">
       <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>124;125;126;127;128;129;130;131</v>
@@ -9960,7 +9924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:16">
       <c r="G131" t="str">
         <f t="shared" si="1"/>
         <v>125;126;127;128;129;130;131;132</v>
@@ -9990,7 +9954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:16">
       <c r="G132" t="str">
         <f t="shared" si="1"/>
         <v>126;127;128;129;130;131;132;133</v>
@@ -10020,7 +9984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:16">
       <c r="G133" t="str">
         <f t="shared" si="1"/>
         <v>127;128;129;130;131;132;133;134</v>
@@ -10050,7 +10014,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:16">
       <c r="G134" t="str">
         <f t="shared" si="1"/>
         <v>128;129;130;131;132;133;134;135</v>
@@ -10080,7 +10044,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:16">
       <c r="G135" t="str">
         <f t="shared" si="1"/>
         <v>129;130;131;132;133;134;135;136</v>
@@ -10110,7 +10074,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:16">
       <c r="G136" t="str">
         <f t="shared" ref="G136:G192" si="2">I136&amp;";"&amp;J136&amp;";"&amp;K136&amp;";"&amp;L136&amp;";"&amp;M136&amp;";"&amp;N136&amp;";"&amp;O136&amp;";"&amp;P136</f>
         <v>130;131;132;133;134;135;136;137</v>
@@ -10140,7 +10104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:16">
       <c r="G137" t="str">
         <f t="shared" si="2"/>
         <v>131;132;133;134;135;136;137;138</v>
@@ -10170,7 +10134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:16">
       <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>132;133;134;135;136;137;138;139</v>
@@ -10200,7 +10164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:16">
       <c r="G139" t="str">
         <f t="shared" si="2"/>
         <v>133;134;135;136;137;138;139;140</v>
@@ -10230,7 +10194,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:16">
       <c r="G140" t="str">
         <f t="shared" si="2"/>
         <v>134;135;136;137;138;139;140;141</v>
@@ -10260,7 +10224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:16">
       <c r="G141" t="str">
         <f t="shared" si="2"/>
         <v>135;136;137;138;139;140;141;142</v>
@@ -10290,7 +10254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:16">
       <c r="G142" t="str">
         <f t="shared" si="2"/>
         <v>136;137;138;139;140;141;142;143</v>
@@ -10320,7 +10284,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:16">
       <c r="G143" t="str">
         <f t="shared" si="2"/>
         <v>137;138;139;140;141;142;143;144</v>
@@ -10350,7 +10314,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:16">
       <c r="G144" t="str">
         <f t="shared" si="2"/>
         <v>138;139;140;141;142;143;144;145</v>
@@ -10380,7 +10344,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:16">
       <c r="G145" t="str">
         <f t="shared" si="2"/>
         <v>139;140;141;142;143;144;145;146</v>
@@ -10410,7 +10374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:16">
       <c r="G146" t="str">
         <f t="shared" si="2"/>
         <v>140;141;142;143;144;145;146;147</v>
@@ -10440,7 +10404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:16">
       <c r="G147" t="str">
         <f t="shared" si="2"/>
         <v>141;142;143;144;145;146;147;148</v>
@@ -10470,7 +10434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:16">
       <c r="G148" t="str">
         <f t="shared" si="2"/>
         <v>142;143;144;145;146;147;148;149</v>
@@ -10500,7 +10464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:16">
       <c r="G149" t="str">
         <f t="shared" si="2"/>
         <v>143;144;145;146;147;148;149;150</v>
@@ -10530,7 +10494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:16">
       <c r="G150" t="str">
         <f t="shared" si="2"/>
         <v>144;145;146;147;148;149;150;151</v>
@@ -10560,7 +10524,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:16">
       <c r="G151" t="str">
         <f t="shared" si="2"/>
         <v>145;146;147;148;149;150;151;152</v>
@@ -10590,7 +10554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:16">
       <c r="G152" t="str">
         <f t="shared" si="2"/>
         <v>146;147;148;149;150;151;152;153</v>
@@ -10620,7 +10584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:16">
       <c r="G153" t="str">
         <f t="shared" si="2"/>
         <v>147;148;149;150;151;152;153;154</v>
@@ -10650,7 +10614,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:16">
       <c r="G154" t="str">
         <f t="shared" si="2"/>
         <v>148;149;150;151;152;153;154;155</v>
@@ -10680,7 +10644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:16">
       <c r="G155" t="str">
         <f t="shared" si="2"/>
         <v>149;150;151;152;153;154;155;156</v>
@@ -10710,7 +10674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:16">
       <c r="G156" t="str">
         <f t="shared" si="2"/>
         <v>150;151;152;153;154;155;156;157</v>
@@ -10740,7 +10704,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:16">
       <c r="G157" t="str">
         <f t="shared" si="2"/>
         <v>151;152;153;154;155;156;157;158</v>
@@ -10770,7 +10734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:16">
       <c r="G158" t="str">
         <f t="shared" si="2"/>
         <v>152;153;154;155;156;157;158;159</v>
@@ -10800,7 +10764,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:16">
       <c r="G159" t="str">
         <f t="shared" si="2"/>
         <v>153;154;155;156;157;158;159;160</v>
@@ -10830,7 +10794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:16">
       <c r="G160" t="str">
         <f t="shared" si="2"/>
         <v>154;155;156;157;158;159;160;161</v>
@@ -10860,7 +10824,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:16">
       <c r="G161" t="str">
         <f t="shared" si="2"/>
         <v>155;156;157;158;159;160;161;162</v>
@@ -10890,7 +10854,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:16">
       <c r="G162" t="str">
         <f t="shared" si="2"/>
         <v>156;157;158;159;160;161;162;163</v>
@@ -10920,7 +10884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:16">
       <c r="G163" t="str">
         <f t="shared" si="2"/>
         <v>157;158;159;160;161;162;163;164</v>
@@ -10950,7 +10914,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:16">
       <c r="G164" t="str">
         <f t="shared" si="2"/>
         <v>158;159;160;161;162;163;164;165</v>
@@ -10980,7 +10944,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:16">
       <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>159;160;161;162;163;164;165;166</v>
@@ -11010,7 +10974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:16">
       <c r="G166" t="str">
         <f t="shared" si="2"/>
         <v>160;161;162;163;164;165;166;167</v>
@@ -11040,7 +11004,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:16">
       <c r="G167" t="str">
         <f t="shared" si="2"/>
         <v>161;162;163;164;165;166;167;168</v>
@@ -11070,7 +11034,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:16">
       <c r="G168" t="str">
         <f t="shared" si="2"/>
         <v>162;163;164;165;166;167;168;169</v>
@@ -11100,7 +11064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:16">
       <c r="G169" t="str">
         <f t="shared" si="2"/>
         <v>163;164;165;166;167;168;169;170</v>
@@ -11130,7 +11094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:16">
       <c r="G170" t="str">
         <f t="shared" si="2"/>
         <v>164;165;166;167;168;169;170;171</v>
@@ -11160,7 +11124,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:16">
       <c r="G171" t="str">
         <f t="shared" si="2"/>
         <v>165;166;167;168;169;170;171;172</v>
@@ -11190,7 +11154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:16">
       <c r="G172" t="str">
         <f t="shared" si="2"/>
         <v>166;167;168;169;170;171;172;173</v>
@@ -11220,7 +11184,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:16">
       <c r="G173" t="str">
         <f t="shared" si="2"/>
         <v>167;168;169;170;171;172;173;174</v>
@@ -11250,7 +11214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:16">
       <c r="G174" t="str">
         <f t="shared" si="2"/>
         <v>168;169;170;171;172;173;174;175</v>
@@ -11280,7 +11244,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:16">
       <c r="G175" t="str">
         <f t="shared" si="2"/>
         <v>169;170;171;172;173;174;175;176</v>
@@ -11310,7 +11274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:16">
       <c r="G176" t="str">
         <f t="shared" si="2"/>
         <v>170;171;172;173;174;175;176;177</v>
@@ -11340,7 +11304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:16">
       <c r="G177" t="str">
         <f t="shared" si="2"/>
         <v>171;172;173;174;175;176;177;178</v>
@@ -11370,7 +11334,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:16">
       <c r="G178" t="str">
         <f t="shared" si="2"/>
         <v>172;173;174;175;176;177;178;179</v>
@@ -11400,7 +11364,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:16">
       <c r="G179" t="str">
         <f t="shared" si="2"/>
         <v>173;174;175;176;177;178;179;180</v>
@@ -11430,7 +11394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:16">
       <c r="G180" t="str">
         <f t="shared" si="2"/>
         <v>174;175;176;177;178;179;180;181</v>
@@ -11460,7 +11424,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:16">
       <c r="G181" t="str">
         <f t="shared" si="2"/>
         <v>175;176;177;178;179;180;181;182</v>
@@ -11490,7 +11454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:16">
       <c r="G182" t="str">
         <f t="shared" si="2"/>
         <v>176;177;178;179;180;181;182;183</v>
@@ -11520,7 +11484,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:16">
       <c r="G183" t="str">
         <f t="shared" si="2"/>
         <v>177;178;179;180;181;182;183;184</v>
@@ -11550,7 +11514,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:16">
       <c r="G184" t="str">
         <f t="shared" si="2"/>
         <v>178;179;180;181;182;183;184;185</v>
@@ -11580,7 +11544,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:16">
       <c r="G185" t="str">
         <f t="shared" si="2"/>
         <v>179;180;181;182;183;184;185;186</v>
@@ -11610,7 +11574,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:16">
       <c r="G186" t="str">
         <f t="shared" si="2"/>
         <v>180;181;182;183;184;185;186;187</v>
@@ -11640,7 +11604,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:16">
       <c r="G187" t="str">
         <f t="shared" si="2"/>
         <v>181;182;183;184;185;186;187;188</v>
@@ -11670,7 +11634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:16">
       <c r="G188" t="str">
         <f t="shared" si="2"/>
         <v>182;183;184;185;186;187;188;189</v>
@@ -11700,7 +11664,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:16">
       <c r="G189" t="str">
         <f t="shared" si="2"/>
         <v>183;184;185;186;187;188;189;190</v>
@@ -11730,7 +11694,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:16">
       <c r="G190" t="str">
         <f t="shared" si="2"/>
         <v>184;185;186;187;188;189;190;191</v>
@@ -11760,7 +11724,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:16">
       <c r="G191" t="str">
         <f t="shared" si="2"/>
         <v>185;186;187;188;189;190;191;192</v>
@@ -11790,7 +11754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:16">
       <c r="G192" t="str">
         <f t="shared" si="2"/>
         <v>186;187;188;189;190;191;192;193</v>
@@ -11827,14 +11791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B79" sqref="B79:B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -11847,21 +11811,21 @@
     <col min="18" max="18" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" customFormat="1">
       <c r="D1" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -11872,7 +11836,7 @@
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" customFormat="1">
       <c r="D2" s="13"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -11883,15 +11847,15 @@
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
     </row>
-    <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" customFormat="1">
       <c r="D4" s="10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -11902,7 +11866,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" customFormat="1">
       <c r="B5" t="str">
         <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
         <v>0_1</v>
@@ -11937,7 +11901,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" customFormat="1">
       <c r="B6" t="str">
         <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
         <v>0_2</v>
@@ -11973,7 +11937,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" customFormat="1">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
         <v>0_2</v>
@@ -12009,7 +11973,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" customFormat="1">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
         <v>0_2</v>
@@ -12045,7 +12009,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" customFormat="1">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12081,7 +12045,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" customFormat="1">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12117,7 +12081,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" customFormat="1">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12153,7 +12117,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" customFormat="1">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
         <v>0_4</v>
@@ -12189,7 +12153,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" customFormat="1">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
         <v>0_5</v>
@@ -12225,7 +12189,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" customFormat="1">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
         <v>0_6</v>
@@ -12261,7 +12225,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" customFormat="1">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
         <v>0_7</v>
@@ -12297,7 +12261,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" customFormat="1">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
         <v>0_8</v>
@@ -12333,7 +12297,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" customFormat="1">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
         <v>0_9</v>
@@ -12369,7 +12333,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" customFormat="1">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
         <v>0_11</v>
@@ -12405,7 +12369,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" customFormat="1">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
         <v>0_13</v>
@@ -12441,7 +12405,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" customFormat="1">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
         <v>0_16</v>
@@ -12477,7 +12441,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" customFormat="1">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
         <v>0_19</v>
@@ -12513,7 +12477,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" customFormat="1">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
         <v>0_23</v>
@@ -12549,7 +12513,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" customFormat="1">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
         <v>0_27</v>
@@ -12585,7 +12549,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" customFormat="1">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
         <v>0_32</v>
@@ -12621,7 +12585,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" customFormat="1">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
         <v>0_39</v>
@@ -12657,7 +12621,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" customFormat="1">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
         <v>0_47</v>
@@ -12693,7 +12657,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
     </row>
-    <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" customFormat="1">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
         <v>0_56</v>
@@ -12729,7 +12693,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" customFormat="1">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
         <v>0_67</v>
@@ -12765,7 +12729,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" customFormat="1">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
         <v>0_80</v>
@@ -12801,7 +12765,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" customFormat="1">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
         <v>0_96</v>
@@ -12837,7 +12801,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" customFormat="1">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
         <v>0_115</v>
@@ -12873,7 +12837,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
     </row>
-    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" customFormat="1">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
         <v>0_138</v>
@@ -12909,7 +12873,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" customFormat="1">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
         <v>0_165</v>
@@ -12945,7 +12909,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
     </row>
-    <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" customFormat="1">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
         <v>0_198</v>
@@ -12981,7 +12945,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" customFormat="1">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
         <v>0_238</v>
@@ -13017,7 +12981,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" customFormat="1">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
         <v>0_285</v>
@@ -13053,7 +13017,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" customFormat="1">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
         <v>0_342</v>
@@ -13089,7 +13053,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" customFormat="1">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
         <v>0_411</v>
@@ -13125,7 +13089,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" customFormat="1">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
         <v>0_493</v>
@@ -13161,7 +13125,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" customFormat="1">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
         <v>0_591</v>
@@ -13197,7 +13161,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
     </row>
-    <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" customFormat="1">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
         <v>0_709</v>
@@ -13233,7 +13197,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" customFormat="1">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
         <v>0_851</v>
@@ -13269,7 +13233,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" customFormat="1">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
         <v>0_1021</v>
@@ -13305,7 +13269,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" customFormat="1">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
         <v>0_1225</v>
@@ -13341,7 +13305,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
     </row>
-    <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" customFormat="1">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
         <v>0_1470</v>
@@ -13377,7 +13341,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" customFormat="1">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
         <v>0_1764</v>
@@ -13413,7 +13377,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
     </row>
-    <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" customFormat="1">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
         <v>0_2117</v>
@@ -13449,7 +13413,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
     </row>
-    <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" customFormat="1">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
         <v>0_2540</v>
@@ -13485,7 +13449,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
     </row>
-    <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" customFormat="1">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
         <v>0_3048</v>
@@ -13522,7 +13486,7 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" customFormat="1">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
         <v>0_3658</v>
@@ -13559,7 +13523,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="33"/>
     </row>
-    <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" customFormat="1">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
         <v>0_4389</v>
@@ -13596,7 +13560,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" customFormat="1">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
         <v>0_5267</v>
@@ -13633,7 +13597,7 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="33"/>
     </row>
-    <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" customFormat="1">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
         <v>0_6320</v>
@@ -13670,7 +13634,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" customFormat="1">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
         <v>0_7584</v>
@@ -13707,7 +13671,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" customFormat="1">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
         <v>0_9101</v>
@@ -13744,7 +13708,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" customFormat="1">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_921</v>
@@ -13783,7 +13747,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="31"/>
     </row>
-    <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" customFormat="1">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_3105</v>
@@ -13822,7 +13786,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="31"/>
     </row>
-    <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" customFormat="1">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_5726</v>
@@ -13861,7 +13825,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="31"/>
     </row>
-    <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" customFormat="1">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_8871</v>
@@ -13900,7 +13864,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="31"/>
     </row>
-    <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" customFormat="1">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
         <v>1_2,0_2645</v>
@@ -13939,7 +13903,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="31"/>
     </row>
-    <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" customFormat="1">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
         <v>1_2,0_7174</v>
@@ -13978,7 +13942,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="31"/>
     </row>
-    <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" customFormat="1">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
         <v>1_3,0_2609</v>
@@ -14017,7 +13981,7 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="31"/>
     </row>
-    <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" customFormat="1">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
         <v>1_3,0_9131</v>
@@ -14056,7 +14020,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="31"/>
     </row>
-    <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" customFormat="1">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
         <v>1_4,0_6957</v>
@@ -14095,7 +14059,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="31"/>
     </row>
-    <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:17" customFormat="1">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
         <v>1_5,0_6348</v>
@@ -14134,7 +14098,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="31"/>
     </row>
-    <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" customFormat="1">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
         <v>1_6,0_7618</v>
@@ -14173,7 +14137,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="31"/>
     </row>
-    <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" customFormat="1">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
         <v>1_8,0_1141</v>
@@ -14212,7 +14176,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="31"/>
     </row>
-    <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" customFormat="1">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
         <v>1_9,0_7369</v>
@@ -14251,7 +14215,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="31"/>
     </row>
-    <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17" customFormat="1">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
         <v>1_11,0_6843</v>
@@ -14290,7 +14254,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="31"/>
     </row>
-    <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17" customFormat="1">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
         <v>1_14,0_211</v>
@@ -14329,7 +14293,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="31"/>
     </row>
-    <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" customFormat="1">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
         <v>1_16,0_8253</v>
@@ -14368,7 +14332,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="31"/>
     </row>
-    <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17" customFormat="1">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
         <v>1_20,0_1904</v>
@@ -14407,7 +14371,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="31"/>
     </row>
-    <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" customFormat="1">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
         <v>1_24,0_2284</v>
@@ -14446,7 +14410,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="31"/>
     </row>
-    <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17" customFormat="1">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
         <v>1_29,0_741</v>
@@ -14485,7 +14449,7 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="31"/>
     </row>
-    <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:17" customFormat="1">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
         <v>1_34,0_8889</v>
@@ -14524,7 +14488,7 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="31"/>
     </row>
-    <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17" customFormat="1">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
         <v>1_41,0_8667</v>
@@ -14563,7 +14527,7 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="31"/>
     </row>
-    <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" customFormat="1">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
         <v>1_50,0_2401</v>
@@ -14602,7 +14566,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="31"/>
     </row>
-    <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" customFormat="1">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
         <v>1_60,0_2881</v>
@@ -14641,7 +14605,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="31"/>
     </row>
-    <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" customFormat="1">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
         <v>1_72,0_3457</v>
@@ -14680,7 +14644,7 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="31"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
         <v>1_86,0_8148</v>
@@ -14711,7 +14675,7 @@
         <v>8148</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
         <v>1_104,0_1777</v>
@@ -14742,7 +14706,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
         <v>1_125,0_133</v>
@@ -14773,7 +14737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
         <v>1_150,0_159</v>
@@ -14804,7 +14768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
         <v>1_180,0_191</v>
@@ -14835,7 +14799,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
         <v>1_216,0_229</v>
@@ -14866,7 +14830,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
         <v>1_259,0_2275</v>
@@ -14897,7 +14861,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
         <v>1_311,0_729</v>
@@ -14928,7 +14892,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
         <v>1_373,0_2875</v>
@@ -14959,7 +14923,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
         <v>1_447,0_9450</v>
@@ -14990,7 +14954,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
         <v>1_537,0_5340</v>
@@ -15021,7 +14985,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
         <v>1_645,0_408</v>
@@ -15052,7 +15016,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
         <v>1_774,0_490</v>
@@ -15083,7 +15047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
         <v>1_928,0_8587</v>
@@ -15114,7 +15078,7 @@
         <v>8587</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
         <v>1_1114,0_6305</v>
@@ -15145,7 +15109,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
         <v>1_1337,0_5566</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -12,12 +12,12 @@
     <sheet name="#" sheetId="3" r:id="rId3"/>
     <sheet name="##" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="321">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -320,258 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2;3;4;5;6;7;8;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;4;5;6;7;8;9;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;5;6;7;8;9;10;11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;6;7;8;9;10;11;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;7;8;9;10;11;12;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7;8;9;10;11;12;13;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8;9;10;11;12;13;14;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9;10;11;12;13;14;15;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;11;12;13;14;15;16;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11;12;13;14;15;16;17;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12;13;14;15;16;17;18;19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;14;15;16;17;18;19;20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14;15;16;17;18;19;20;21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15;16;17;18;19;20;21;22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;17;18;19;20;21;22;23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17;18;19;20;21;22;23;24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18;19;20;21;22;23;24;25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;20;21;22;23;24;25;26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20;21;22;23;24;25;26;27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;22;23;24;25;26;27;28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;23;24;25;26;27;28;29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23;24;25;26;27;28;29;30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24;25;26;27;28;29;30;31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25;26;27;28;29;30;31;32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26;27;28;29;30;31;32;33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27;28;29;30;31;32;33;34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28;29;30;31;32;33;34;35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29;30;31;32;33;34;35;36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30;31;32;33;34;35;36;37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31;32;33;34;35;36;37;38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32;33;34;35;36;37;38;39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33;34;35;36;37;38;39;40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34;35;36;37;38;39;40;41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35;36;37;38;39;40;41;42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;37;38;39;40;41;42;43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37;38;39;40;41;42;43;44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38;39;40;41;42;43;44;45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39;40;41;42;43;44;45;46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40;41;42;43;44;45;46;47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42;43;44;45;46;47;48;49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41;42;43;44;45;46;47;48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43;44;45;46;47;48;49;50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44;45;46;47;48;49;50;51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45;46;47;48;49;50;51;52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46;47;48;49;50;51;52;53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47;48;49;50;51;52;53;54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48;49;50;51;52;53;54;55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49;50;51;52;53;54;55;56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;51;52;53;54;55;56;57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51;52;53;54;55;56;57;58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52;53;54;55;56;57;58;59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53;54;55;56;57;58;59;60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54;55;56;57;58;59;60;61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55;56;57;58;59;60;61;62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56;57;58;59;60;61;62;63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57;58;59;60;61;62;63;64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58;59;60;61;62;63;64;65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59;60;61;62;63;64;65;66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60;61;62;63;64;65;66;67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61;62;63;64;65;66;67;68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62;63;64;65;66;67;68;69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63;64;65;66;67;68;69;70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64;65;66;67;68;69;70;71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,54 +755,6 @@
   <si>
     <t>向上取整数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65;66;67;68;69;70;71;72</t>
-  </si>
-  <si>
-    <t>66;67;68;69;70;71;72;73</t>
-  </si>
-  <si>
-    <t>67;68;69;70;71;72;73;74</t>
-  </si>
-  <si>
-    <t>68;69;70;71;72;73;74;75</t>
-  </si>
-  <si>
-    <t>69;70;71;72;73;74;75;76</t>
-  </si>
-  <si>
-    <t>70;71;72;73;74;75;76;77</t>
-  </si>
-  <si>
-    <t>71;72;73;74;75;76;77;78</t>
-  </si>
-  <si>
-    <t>72;73;74;75;76;77;78;79</t>
-  </si>
-  <si>
-    <t>73;74;75;76;77;78;79;80</t>
-  </si>
-  <si>
-    <t>74;75;76;77;78;79;80;81</t>
-  </si>
-  <si>
-    <t>75;76;77;78;79;80;81;82</t>
-  </si>
-  <si>
-    <t>76;77;78;79;80;81;82;83</t>
-  </si>
-  <si>
-    <t>77;78;79;80;81;82;83;84</t>
-  </si>
-  <si>
-    <t>78;79;80;81;82;83;84;85</t>
-  </si>
-  <si>
-    <t>79;80;81;82;83;84;85;86</t>
-  </si>
-  <si>
-    <t>80;81;82;83;84;85;86;87</t>
   </si>
   <si>
     <t>1_86,0_8148</t>
@@ -1431,13 +1131,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1483,12 +1183,6 @@
       <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1585,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1721,9 +1415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2072,14 +1763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10:H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -2094,7 +1785,7 @@
     <col min="12" max="12" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2117,22 +1808,22 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>69</v>
@@ -2162,7 +1853,7 @@
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25">
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2171,14 +1862,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="18" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2195,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
@@ -2207,16 +1898,16 @@
         <v>85</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2224,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -2233,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -2252,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -2269,12 +1960,14 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
       <c r="J6" s="14">
         <f>J5*K5</f>
         <v>2.0499999999999998</v>
@@ -2287,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25">
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2304,12 +1997,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
       <c r="J7" s="14">
         <f>J6*K6</f>
         <v>4.2024999999999997</v>
@@ -2322,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25">
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -2339,12 +2034,14 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J14" si="1">J7*K7</f>
         <v>8.615124999999999</v>
@@ -2357,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25">
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2374,12 +2071,14 @@
         <v>2</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="G9" s="24">
         <v>6</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
       <c r="J9" s="14">
         <f t="shared" si="1"/>
         <v>17.661006249999996</v>
@@ -2392,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2409,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="G10" s="24">
         <v>7</v>
@@ -2429,7 +2128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2446,12 +2145,12 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="24">
         <v>3</v>
       </c>
       <c r="J11" s="14">
@@ -2466,7 +2165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -2483,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2503,7 +2202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25">
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -2520,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2540,7 +2239,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25">
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2557,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2577,7 +2276,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -2594,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2614,7 +2313,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -2631,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2651,12 +2350,12 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25">
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>62</v>
@@ -2668,13 +2367,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>87</v>
+      <c r="H17" s="24">
+        <v>9</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
@@ -2688,12 +2387,12 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25">
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>63</v>
@@ -2705,13 +2404,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>88</v>
+      <c r="H18" s="24">
+        <v>10</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
@@ -2725,12 +2424,12 @@
         <v>11292</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25">
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>64</v>
@@ -2742,13 +2441,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>89</v>
+      <c r="H19" s="8">
+        <v>11</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
@@ -2762,12 +2461,12 @@
         <v>23150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>65</v>
@@ -2779,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>90</v>
+      <c r="H20" s="8">
+        <v>12</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="2"/>
@@ -2799,12 +2498,12 @@
         <v>47457</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25">
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>66</v>
@@ -2816,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>91</v>
+      <c r="H21" s="8">
+        <v>13</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
@@ -2836,12 +2535,12 @@
         <v>97288</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.25">
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>67</v>
@@ -2853,13 +2552,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="G22" s="24">
         <v>19</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>92</v>
+      <c r="H22" s="8">
+        <v>14</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="2"/>
@@ -2873,12 +2572,12 @@
         <v>199441</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25">
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>68</v>
@@ -2890,13 +2589,13 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="G23" s="21">
         <v>20</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>93</v>
+      <c r="H23" s="8">
+        <v>15</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" ref="J23:J79" si="3">J22*K22</f>
@@ -2910,15 +2609,15 @@
         <v>408855</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25">
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="D24" s="27">
         <v>46</v>
@@ -2927,13 +2626,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="G24" s="21">
         <v>21</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>94</v>
+      <c r="H24" s="24">
+        <v>16</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="3"/>
@@ -2947,15 +2646,15 @@
         <v>838153</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.25">
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="D25" s="27">
         <v>47</v>
@@ -2964,13 +2663,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="G25" s="21">
         <v>22</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>95</v>
+      <c r="H25" s="24">
+        <v>17</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="3"/>
@@ -2984,12 +2683,12 @@
         <v>1718213</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25">
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>78</v>
@@ -3001,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="G26" s="21">
         <v>23</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>96</v>
+      <c r="H26" s="8">
+        <v>18</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="3"/>
@@ -3021,12 +2720,12 @@
         <v>3522338</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.25">
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>79</v>
@@ -3038,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="G27" s="21">
         <v>24</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>97</v>
+      <c r="H27" s="8">
+        <v>19</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="3"/>
@@ -3058,12 +2757,12 @@
         <v>7220793</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25">
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>24</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>80</v>
@@ -3075,13 +2774,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="G28" s="21">
         <v>25</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>98</v>
+      <c r="H28" s="8">
+        <v>20</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
@@ -3095,12 +2794,12 @@
         <v>14802627</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.25">
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>81</v>
@@ -3112,13 +2811,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="G29" s="24">
         <v>26</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>99</v>
+      <c r="H29" s="8">
+        <v>21</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="3"/>
@@ -3132,15 +2831,15 @@
         <v>30345385</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.25">
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="D30" s="36">
         <v>70</v>
@@ -3149,13 +2848,13 @@
         <v>6</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="G30" s="24">
         <v>27</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>100</v>
+      <c r="H30" s="8">
+        <v>22</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="3"/>
@@ -3169,15 +2868,15 @@
         <v>62208041</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25">
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="D31" s="36">
         <v>71</v>
@@ -3186,13 +2885,13 @@
         <v>6</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="G31" s="24">
         <v>28</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>101</v>
+      <c r="H31" s="24">
+        <v>23</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="3"/>
@@ -3206,15 +2905,15 @@
         <v>127526484</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.25">
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>28</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="D32" s="36">
         <v>72</v>
@@ -3223,13 +2922,13 @@
         <v>6</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G32" s="24">
         <v>29</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>102</v>
+      <c r="H32" s="24">
+        <v>24</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="3"/>
@@ -3243,15 +2942,15 @@
         <v>261429293</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.25">
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="D33" s="36">
         <v>73</v>
@@ -3260,13 +2959,13 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="G33" s="24">
         <v>30</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>103</v>
+      <c r="H33" s="8">
+        <v>25</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
@@ -3280,15 +2979,15 @@
         <v>535930050</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.25">
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="D34" s="36">
         <v>74</v>
@@ -3297,13 +2996,13 @@
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="G34" s="24">
         <v>31</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>104</v>
+      <c r="H34" s="8">
+        <v>26</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
@@ -3317,15 +3016,15 @@
         <v>1098656604</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.25">
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3334,13 +3033,13 @@
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>105</v>
+      <c r="H35" s="8">
+        <v>27</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="3"/>
@@ -3354,15 +3053,15 @@
         <v>2252246038</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.25">
+    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>32</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="D36" s="36">
         <v>76</v>
@@ -3371,13 +3070,13 @@
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
+      <c r="H36" s="8">
+        <v>28</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="3"/>
@@ -3391,15 +3090,15 @@
         <v>4617104378</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.25">
+    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="D37" s="36">
         <v>77</v>
@@ -3408,13 +3107,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>107</v>
+      <c r="H37" s="8">
+        <v>29</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="3"/>
@@ -3428,15 +3127,15 @@
         <v>9465063976</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.25">
+    <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="D38" s="36">
         <v>78</v>
@@ -3445,13 +3144,13 @@
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>108</v>
+      <c r="H38" s="24">
+        <v>30</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="3"/>
@@ -3465,15 +3164,15 @@
         <v>19403381150</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.25">
+    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="D39" s="36">
         <v>79</v>
@@ -3482,13 +3181,13 @@
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>109</v>
+      <c r="H39" s="24">
+        <v>31</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
@@ -3502,15 +3201,15 @@
         <v>39776931359</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.25">
+    <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>36</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>392</v>
+        <v>313</v>
       </c>
       <c r="D40" s="36">
         <v>80</v>
@@ -3519,13 +3218,13 @@
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>110</v>
+      <c r="H40" s="8">
+        <v>32</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="3"/>
@@ -3539,15 +3238,15 @@
         <v>81542709286</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.25">
+    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>37</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3556,13 +3255,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>111</v>
+      <c r="H41" s="8">
+        <v>33</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="3"/>
@@ -3576,15 +3275,15 @@
         <v>167162554037</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.25">
+    <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>38</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="D42" s="36">
         <v>82</v>
@@ -3593,13 +3292,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>112</v>
+      <c r="H42" s="8">
+        <v>34</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="3"/>
@@ -3613,15 +3312,15 @@
         <v>342683235777</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.25">
+    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="D43" s="36">
         <v>83</v>
@@ -3630,13 +3329,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>113</v>
+      <c r="H43" s="8">
+        <v>35</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="3"/>
@@ -3650,15 +3349,15 @@
         <v>702500633344</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.25">
+    <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>40</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="D44" s="36">
         <v>84</v>
@@ -3667,13 +3366,13 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>114</v>
+      <c r="H44" s="8">
+        <v>36</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="3"/>
@@ -3687,15 +3386,15 @@
         <v>1440126298356</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.25">
+    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="D45" s="36">
         <v>85</v>
@@ -3704,13 +3403,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>115</v>
+      <c r="H45" s="24">
+        <v>37</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="3"/>
@@ -3724,15 +3423,15 @@
         <v>2952258911630</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.25">
+    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>42</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="D46" s="36">
         <v>86</v>
@@ -3741,13 +3440,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>116</v>
+      <c r="H46" s="24">
+        <v>38</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="3"/>
@@ -3761,15 +3460,15 @@
         <v>6052130768842</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.25">
+    <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3778,13 +3477,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>117</v>
+      <c r="H47" s="8">
+        <v>39</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="3"/>
@@ -3798,15 +3497,15 @@
         <v>12406868076127</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.25">
+    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>44</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>394</v>
+        <v>315</v>
       </c>
       <c r="D48" s="36">
         <v>88</v>
@@ -3815,13 +3514,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>118</v>
+      <c r="H48" s="8">
+        <v>40</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="3"/>
@@ -3835,15 +3534,15 @@
         <v>25434079556061</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.25">
+    <row r="49" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>45</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="D49" s="36">
         <v>89</v>
@@ -3852,13 +3551,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>119</v>
+      <c r="H49" s="8">
+        <v>41</v>
       </c>
       <c r="J49" s="14">
         <f t="shared" si="3"/>
@@ -3872,15 +3571,15 @@
         <v>52139863089926</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25">
+    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>46</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="D50" s="36">
         <v>90</v>
@@ -3889,13 +3588,13 @@
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>120</v>
+      <c r="H50" s="8">
+        <v>42</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="3"/>
@@ -3909,15 +3608,15 @@
         <v>106886719334350</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17.25">
+    <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>47</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="D51" s="36">
         <v>91</v>
@@ -3926,13 +3625,13 @@
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>121</v>
+      <c r="H51" s="8">
+        <v>43</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="3"/>
@@ -3946,15 +3645,15 @@
         <v>219117774635417</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.25">
+    <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>48</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="D52" s="36">
         <v>92</v>
@@ -3963,13 +3662,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>122</v>
+      <c r="H52" s="24">
+        <v>44</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="3"/>
@@ -3983,15 +3682,15 @@
         <v>449191438002604</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25">
+    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>49</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>315</v>
+      <c r="B53" s="51" t="s">
+        <v>236</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -4000,13 +3699,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>123</v>
+      <c r="H53" s="24">
+        <v>45</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="3"/>
@@ -4020,15 +3719,15 @@
         <v>920842447905338</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.25">
+    <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>50</v>
       </c>
-      <c r="B54" s="52" t="s">
-        <v>316</v>
+      <c r="B54" s="51" t="s">
+        <v>237</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="D54" s="36">
         <v>94</v>
@@ -4037,13 +3736,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>124</v>
+      <c r="H54" s="8">
+        <v>46</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="3"/>
@@ -4057,15 +3756,15 @@
         <v>1887727018205940</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.25">
+    <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>317</v>
+      <c r="B55" s="51" t="s">
+        <v>238</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="D55" s="36">
         <v>95</v>
@@ -4074,13 +3773,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>125</v>
+      <c r="H55" s="8">
+        <v>47</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="3"/>
@@ -4094,15 +3793,15 @@
         <v>3869840387322180</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.25">
+    <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="52" t="s">
-        <v>318</v>
+      <c r="B56" s="51" t="s">
+        <v>239</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="D56" s="36">
         <v>96</v>
@@ -4111,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>127</v>
+      <c r="H56" s="8">
+        <v>48</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="3"/>
@@ -4131,15 +3830,15 @@
         <v>7933172794010470</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.25">
+    <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>319</v>
+      <c r="B57" s="51" t="s">
+        <v>240</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="D57" s="36">
         <v>97</v>
@@ -4148,13 +3847,13 @@
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>126</v>
+      <c r="H57" s="8">
+        <v>49</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="3"/>
@@ -4168,15 +3867,15 @@
         <v>1.62630042277215E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.25">
+    <row r="58" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>54</v>
       </c>
-      <c r="B58" s="52" t="s">
-        <v>320</v>
+      <c r="B58" s="51" t="s">
+        <v>241</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="D58" s="36">
         <v>98</v>
@@ -4185,13 +3884,13 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>128</v>
+      <c r="H58" s="8">
+        <v>50</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="3"/>
@@ -4205,15 +3904,15 @@
         <v>3.3339158666829E+16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.25">
+    <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>55</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -4222,13 +3921,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>129</v>
+      <c r="H59" s="24">
+        <v>51</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="3"/>
@@ -4242,15 +3941,15 @@
         <v>6.8345275266999504E+16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.25">
+    <row r="60" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>56</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="D60" s="36">
         <v>100</v>
@@ -4259,13 +3958,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>130</v>
+      <c r="H60" s="24">
+        <v>52</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="3"/>
@@ -4279,15 +3978,15 @@
         <v>1.4010781429734899E+17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.25">
+    <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>57</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="D61" s="36">
         <v>101</v>
@@ -4296,13 +3995,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>131</v>
+      <c r="H61" s="8">
+        <v>53</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="3"/>
@@ -4316,15 +4015,15 @@
         <v>2.8722101930956499E+17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.25">
+    <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>58</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="D62" s="36">
         <v>102</v>
@@ -4333,13 +4032,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>132</v>
+      <c r="H62" s="8">
+        <v>54</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="3"/>
@@ -4353,15 +4052,15 @@
         <v>5.8880308958460902E+17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.25">
+    <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>59</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="D63" s="36">
         <v>103</v>
@@ -4370,13 +4069,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>133</v>
+      <c r="H63" s="8">
+        <v>55</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="3"/>
@@ -4390,15 +4089,15 @@
         <v>1.20704633364845E+18</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.25">
+    <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>60</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="D64" s="36">
         <v>104</v>
@@ -4407,13 +4106,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>134</v>
+      <c r="H64" s="8">
+        <v>56</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="3"/>
@@ -4427,15 +4126,15 @@
         <v>2.4744449839793198E+18</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.25">
+    <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>61</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4444,13 +4143,13 @@
         <v>12</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>135</v>
+      <c r="H65" s="8">
+        <v>57</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="3"/>
@@ -4464,15 +4163,15 @@
         <v>5.0726122171576003E+18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.25">
+    <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>62</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="D66" s="39">
         <v>64</v>
@@ -4481,13 +4180,13 @@
         <v>12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>136</v>
+      <c r="H66" s="24">
+        <v>58</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="3"/>
@@ -4501,15 +4200,15 @@
         <v>1.0398855045173101E+19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.25">
+    <row r="67" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>63</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="D67" s="39">
         <v>65</v>
@@ -4518,13 +4217,13 @@
         <v>12</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>137</v>
+      <c r="H67" s="24">
+        <v>59</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="3"/>
@@ -4538,15 +4237,15 @@
         <v>2.1317652842604798E+19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.25">
+    <row r="68" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>64</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="D68" s="39">
         <v>66</v>
@@ -4555,13 +4254,13 @@
         <v>12</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>138</v>
+      <c r="H68" s="8">
+        <v>60</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="3"/>
@@ -4575,15 +4274,15 @@
         <v>4.3701188327339901E+19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.25">
+    <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>65</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="D69" s="39">
         <v>67</v>
@@ -4592,13 +4291,13 @@
         <v>12</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>139</v>
+      <c r="H69" s="8">
+        <v>61</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="3"/>
@@ -4612,15 +4311,15 @@
         <v>8.9587436071046693E+19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.25">
+    <row r="70" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>66</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="D70" s="39">
         <v>68</v>
@@ -4629,13 +4328,13 @@
         <v>12</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>140</v>
+      <c r="H70" s="8">
+        <v>62</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="3"/>
@@ -4649,15 +4348,15 @@
         <v>1.83654243945646E+20</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.25">
+    <row r="71" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>67</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4666,13 +4365,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>141</v>
+      <c r="H71" s="8">
+        <v>63</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="3"/>
@@ -4686,15 +4385,15 @@
         <v>3.76491200088574E+20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.25">
+    <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>68</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4703,13 +4402,13 @@
         <v>13</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>142</v>
+      <c r="H72" s="8">
+        <v>64</v>
       </c>
       <c r="J72" s="14">
         <f t="shared" si="3"/>
@@ -4723,15 +4422,15 @@
         <v>7.7180696018157594E+20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.25">
+    <row r="73" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>69</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4740,13 +4439,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>143</v>
+      <c r="H73" s="24">
+        <v>65</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="3"/>
@@ -4760,15 +4459,15 @@
         <v>1.5822042683722299E+21</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.25">
+    <row r="74" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>70</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4777,13 +4476,13 @@
         <v>13</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>144</v>
+      <c r="H74" s="24">
+        <v>66</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="3"/>
@@ -4797,15 +4496,15 @@
         <v>3.2435187501630698E+21</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.25">
+    <row r="75" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>71</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4814,13 +4513,13 @@
         <v>13</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>145</v>
+      <c r="H75" s="8">
+        <v>67</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="3"/>
@@ -4834,15 +4533,15 @@
         <v>6.6492134378343005E+21</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.25">
+    <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>72</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4851,13 +4550,13 @@
         <v>13</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>146</v>
+      <c r="H76" s="8">
+        <v>68</v>
       </c>
       <c r="J76" s="14">
         <f t="shared" si="3"/>
@@ -4871,7 +4570,7 @@
         <v>1.3630887547560299E+22</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.25">
+    <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>73</v>
       </c>
@@ -4879,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4888,13 +4587,13 @@
         <v>14</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>147</v>
+      <c r="H77" s="8">
+        <v>69</v>
       </c>
       <c r="J77" s="14">
         <f t="shared" si="3"/>
@@ -4908,7 +4607,7 @@
         <v>2.7943319472498599E+22</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.25">
+    <row r="78" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>74</v>
       </c>
@@ -4916,7 +4615,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4925,13 +4624,13 @@
         <v>14</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>148</v>
+      <c r="H78" s="8">
+        <v>70</v>
       </c>
       <c r="J78" s="14">
         <f t="shared" si="3"/>
@@ -4945,7 +4644,7 @@
         <v>5.72838049186222E+22</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.25">
+    <row r="79" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>75</v>
       </c>
@@ -4953,7 +4652,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -4962,13 +4661,13 @@
         <v>14</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="G79" s="8">
         <v>76</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>149</v>
+      <c r="H79" s="8">
+        <v>71</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="3"/>
@@ -4982,7 +4681,7 @@
         <v>1.17431800083176E+23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.25">
+    <row r="80" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>76</v>
       </c>
@@ -4990,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -4998,18 +4697,18 @@
       <c r="E80" s="12">
         <v>14</v>
       </c>
-      <c r="F80" s="50" t="s">
-        <v>293</v>
+      <c r="F80" s="49" t="s">
+        <v>214</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
       </c>
-      <c r="H80" s="49" t="s">
-        <v>277</v>
+      <c r="H80" s="24">
+        <v>72</v>
       </c>
       <c r="I80" s="48"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25">
+    <row r="81" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>77</v>
       </c>
@@ -5017,7 +4716,7 @@
         <v>47</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -5025,18 +4724,18 @@
       <c r="E81" s="12">
         <v>14</v>
       </c>
-      <c r="F81" s="50" t="s">
-        <v>294</v>
+      <c r="F81" s="49" t="s">
+        <v>215</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
       </c>
-      <c r="H81" s="49" t="s">
-        <v>278</v>
+      <c r="H81" s="24">
+        <v>73</v>
       </c>
       <c r="I81" s="48"/>
     </row>
-    <row r="82" spans="1:9" ht="17.25">
+    <row r="82" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>78</v>
       </c>
@@ -5044,7 +4743,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -5052,26 +4751,26 @@
       <c r="E82" s="12">
         <v>14</v>
       </c>
-      <c r="F82" s="50" t="s">
-        <v>295</v>
+      <c r="F82" s="49" t="s">
+        <v>216</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
       </c>
-      <c r="H82" s="49" t="s">
-        <v>279</v>
+      <c r="H82" s="8">
+        <v>74</v>
       </c>
       <c r="I82" s="48"/>
     </row>
-    <row r="83" spans="1:9" ht="17.25">
+    <row r="83" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>79</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -5079,26 +4778,26 @@
       <c r="E83" s="12">
         <v>15</v>
       </c>
-      <c r="F83" s="50" t="s">
-        <v>296</v>
+      <c r="F83" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
       </c>
-      <c r="H83" s="49" t="s">
-        <v>280</v>
+      <c r="H83" s="8">
+        <v>75</v>
       </c>
       <c r="I83" s="48"/>
     </row>
-    <row r="84" spans="1:9" ht="17.25">
+    <row r="84" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>80</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -5106,26 +4805,26 @@
       <c r="E84" s="12">
         <v>15</v>
       </c>
-      <c r="F84" s="50" t="s">
-        <v>297</v>
+      <c r="F84" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
       </c>
-      <c r="H84" s="49" t="s">
-        <v>281</v>
+      <c r="H84" s="8">
+        <v>76</v>
       </c>
       <c r="I84" s="48"/>
     </row>
-    <row r="85" spans="1:9" ht="17.25">
+    <row r="85" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>81</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -5133,26 +4832,26 @@
       <c r="E85" s="12">
         <v>15</v>
       </c>
-      <c r="F85" s="50" t="s">
-        <v>298</v>
+      <c r="F85" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
       </c>
-      <c r="H85" s="49" t="s">
-        <v>282</v>
+      <c r="H85" s="8">
+        <v>77</v>
       </c>
       <c r="I85" s="48"/>
     </row>
-    <row r="86" spans="1:9" ht="17.25">
+    <row r="86" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -5160,26 +4859,26 @@
       <c r="E86" s="12">
         <v>15</v>
       </c>
-      <c r="F86" s="50" t="s">
-        <v>299</v>
+      <c r="F86" s="49" t="s">
+        <v>220</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
       </c>
-      <c r="H86" s="49" t="s">
-        <v>283</v>
+      <c r="H86" s="8">
+        <v>78</v>
       </c>
       <c r="I86" s="48"/>
     </row>
-    <row r="87" spans="1:9" ht="17.25">
+    <row r="87" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>83</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -5187,26 +4886,26 @@
       <c r="E87" s="12">
         <v>15</v>
       </c>
-      <c r="F87" s="50" t="s">
-        <v>300</v>
+      <c r="F87" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
       </c>
-      <c r="H87" s="49" t="s">
-        <v>284</v>
+      <c r="H87" s="24">
+        <v>79</v>
       </c>
       <c r="I87" s="48"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25">
+    <row r="88" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>84</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -5214,18 +4913,18 @@
       <c r="E88" s="17">
         <v>15</v>
       </c>
-      <c r="F88" s="51" t="s">
-        <v>301</v>
+      <c r="F88" s="50" t="s">
+        <v>222</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
       </c>
-      <c r="H88" s="49" t="s">
-        <v>285</v>
+      <c r="H88" s="24">
+        <v>80</v>
       </c>
       <c r="I88" s="48"/>
     </row>
-    <row r="89" spans="1:9" ht="17.25">
+    <row r="89" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>85</v>
       </c>
@@ -5233,7 +4932,7 @@
         <v>49</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -5241,18 +4940,18 @@
       <c r="E89" s="45">
         <v>16</v>
       </c>
-      <c r="F89" s="50" t="s">
-        <v>302</v>
+      <c r="F89" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
       </c>
-      <c r="H89" s="49" t="s">
-        <v>286</v>
+      <c r="H89" s="8">
+        <v>81</v>
       </c>
       <c r="I89" s="48"/>
     </row>
-    <row r="90" spans="1:9" ht="17.25">
+    <row r="90" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>86</v>
       </c>
@@ -5260,7 +4959,7 @@
         <v>50</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
@@ -5268,18 +4967,18 @@
       <c r="E90" s="45">
         <v>16</v>
       </c>
-      <c r="F90" s="50" t="s">
-        <v>303</v>
+      <c r="F90" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
       </c>
-      <c r="H90" s="49" t="s">
-        <v>287</v>
+      <c r="H90" s="8">
+        <v>82</v>
       </c>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25">
+    <row r="91" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>87</v>
       </c>
@@ -5287,7 +4986,7 @@
         <v>51</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
@@ -5295,18 +4994,18 @@
       <c r="E91" s="45">
         <v>16</v>
       </c>
-      <c r="F91" s="50" t="s">
-        <v>304</v>
+      <c r="F91" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
       </c>
-      <c r="H91" s="49" t="s">
-        <v>288</v>
+      <c r="H91" s="8">
+        <v>83</v>
       </c>
       <c r="I91" s="48"/>
     </row>
-    <row r="92" spans="1:9" ht="17.25">
+    <row r="92" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>88</v>
       </c>
@@ -5314,7 +5013,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
@@ -5323,17 +5022,17 @@
         <v>16</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
       </c>
-      <c r="H92" s="49" t="s">
-        <v>289</v>
+      <c r="H92" s="8">
+        <v>84</v>
       </c>
       <c r="I92" s="48"/>
     </row>
-    <row r="93" spans="1:9" ht="17.25">
+    <row r="93" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>89</v>
       </c>
@@ -5341,7 +5040,7 @@
         <v>53</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
@@ -5349,18 +5048,18 @@
       <c r="E93" s="45">
         <v>16</v>
       </c>
-      <c r="F93" s="50" t="s">
-        <v>306</v>
+      <c r="F93" s="49" t="s">
+        <v>227</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
       </c>
-      <c r="H93" s="49" t="s">
-        <v>290</v>
+      <c r="H93" s="8">
+        <v>85</v>
       </c>
       <c r="I93" s="48"/>
     </row>
-    <row r="94" spans="1:9" ht="17.25">
+    <row r="94" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>90</v>
       </c>
@@ -5368,7 +5067,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
@@ -5376,18 +5075,18 @@
       <c r="E94" s="45">
         <v>16</v>
       </c>
-      <c r="F94" s="50" t="s">
-        <v>307</v>
+      <c r="F94" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
       </c>
-      <c r="H94" s="49" t="s">
-        <v>291</v>
+      <c r="H94" s="24">
+        <v>86</v>
       </c>
       <c r="I94" s="48"/>
     </row>
-    <row r="95" spans="1:9" ht="17.25">
+    <row r="95" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>91</v>
       </c>
@@ -5395,7 +5094,7 @@
         <v>55</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
@@ -5403,64 +5102,64 @@
       <c r="E95" s="45">
         <v>16</v>
       </c>
-      <c r="F95" s="50" t="s">
-        <v>308</v>
+      <c r="F95" s="49" t="s">
+        <v>229</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="49" t="s">
-        <v>292</v>
+      <c r="H95" s="24">
+        <v>87</v>
       </c>
       <c r="I95" s="48"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5">
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110" s="19"/>
@@ -5470,632 +5169,632 @@
       <c r="G110" s="19"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
@@ -6111,24 +5810,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6154,7 +5853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -6192,19 +5891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7:P192"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="G71" sqref="G71:G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:16">
+    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G7" t="str">
         <f>I7&amp;";"&amp;J7&amp;";"&amp;K7&amp;";"&amp;L7&amp;";"&amp;M7&amp;";"&amp;N7&amp;";"&amp;O7&amp;";"&amp;P7</f>
         <v>1;2;3;4;5;6;7;8</v>
@@ -6234,7 +5933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="7:16">
+    <row r="8" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G8" t="str">
         <f t="shared" ref="G8:G71" si="0">I8&amp;";"&amp;J8&amp;";"&amp;K8&amp;";"&amp;L8&amp;";"&amp;M8&amp;";"&amp;N8&amp;";"&amp;O8&amp;";"&amp;P8</f>
         <v>2;3;4;5;6;7;8;9</v>
@@ -6264,7 +5963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="7:16">
+    <row r="9" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>3;4;5;6;7;8;9;10</v>
@@ -6294,7 +5993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="7:16">
+    <row r="10" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>4;5;6;7;8;9;10;11</v>
@@ -6324,7 +6023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="7:16">
+    <row r="11" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>5;6;7;8;9;10;11;12</v>
@@ -6354,7 +6053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="7:16">
+    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>6;7;8;9;10;11;12;13</v>
@@ -6384,7 +6083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="7:16">
+    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>7;8;9;10;11;12;13;14</v>
@@ -6414,7 +6113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="7:16">
+    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>8;9;10;11;12;13;14;15</v>
@@ -6444,7 +6143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="7:16">
+    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>9;10;11;12;13;14;15;16</v>
@@ -6474,7 +6173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="7:16">
+    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>10;11;12;13;14;15;16;17</v>
@@ -6504,7 +6203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="7:16">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>11;12;13;14;15;16;17;18</v>
@@ -6534,7 +6233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="7:16">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>12;13;14;15;16;17;18;19</v>
@@ -6564,7 +6263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="7:16">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>13;14;15;16;17;18;19;20</v>
@@ -6594,7 +6293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="7:16">
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>14;15;16;17;18;19;20;21</v>
@@ -6624,7 +6323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="7:16">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>15;16;17;18;19;20;21;22</v>
@@ -6654,7 +6353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="7:16">
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>16;17;18;19;20;21;22;23</v>
@@ -6684,7 +6383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="7:16">
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>17;18;19;20;21;22;23;24</v>
@@ -6714,7 +6413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="7:16">
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>18;19;20;21;22;23;24;25</v>
@@ -6744,7 +6443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="7:16">
+    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>19;20;21;22;23;24;25;26</v>
@@ -6774,7 +6473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="7:16">
+    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>20;21;22;23;24;25;26;27</v>
@@ -6804,7 +6503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="7:16">
+    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>21;22;23;24;25;26;27;28</v>
@@ -6834,7 +6533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="7:16">
+    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>22;23;24;25;26;27;28;29</v>
@@ -6864,7 +6563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="7:16">
+    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>23;24;25;26;27;28;29;30</v>
@@ -6894,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="7:16">
+    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>24;25;26;27;28;29;30;31</v>
@@ -6924,7 +6623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="7:16">
+    <row r="31" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>25;26;27;28;29;30;31;32</v>
@@ -6954,7 +6653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="7:16">
+    <row r="32" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>26;27;28;29;30;31;32;33</v>
@@ -6984,7 +6683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="7:16">
+    <row r="33" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>27;28;29;30;31;32;33;34</v>
@@ -7014,7 +6713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="7:16">
+    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>28;29;30;31;32;33;34;35</v>
@@ -7044,7 +6743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="7:16">
+    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>29;30;31;32;33;34;35;36</v>
@@ -7074,7 +6773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="7:16">
+    <row r="36" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>30;31;32;33;34;35;36;37</v>
@@ -7104,7 +6803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="7:16">
+    <row r="37" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>31;32;33;34;35;36;37;38</v>
@@ -7134,7 +6833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="7:16">
+    <row r="38" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>32;33;34;35;36;37;38;39</v>
@@ -7164,7 +6863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="7:16">
+    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>33;34;35;36;37;38;39;40</v>
@@ -7194,7 +6893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="7:16">
+    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>34;35;36;37;38;39;40;41</v>
@@ -7224,7 +6923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="7:16">
+    <row r="41" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>35;36;37;38;39;40;41;42</v>
@@ -7254,7 +6953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="7:16">
+    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>36;37;38;39;40;41;42;43</v>
@@ -7284,7 +6983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="7:16">
+    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>37;38;39;40;41;42;43;44</v>
@@ -7314,7 +7013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="7:16">
+    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>38;39;40;41;42;43;44;45</v>
@@ -7344,7 +7043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="7:16">
+    <row r="45" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>39;40;41;42;43;44;45;46</v>
@@ -7374,7 +7073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="7:16">
+    <row r="46" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>40;41;42;43;44;45;46;47</v>
@@ -7404,7 +7103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="7:16">
+    <row r="47" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>41;42;43;44;45;46;47;48</v>
@@ -7434,7 +7133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="7:16">
+    <row r="48" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>42;43;44;45;46;47;48;49</v>
@@ -7464,7 +7163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="7:16">
+    <row r="49" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>43;44;45;46;47;48;49;50</v>
@@ -7494,7 +7193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="7:16">
+    <row r="50" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>44;45;46;47;48;49;50;51</v>
@@ -7524,7 +7223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="7:16">
+    <row r="51" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>45;46;47;48;49;50;51;52</v>
@@ -7554,7 +7253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="7:16">
+    <row r="52" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>46;47;48;49;50;51;52;53</v>
@@ -7584,7 +7283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="7:16">
+    <row r="53" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>47;48;49;50;51;52;53;54</v>
@@ -7614,7 +7313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="7:16">
+    <row r="54" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>48;49;50;51;52;53;54;55</v>
@@ -7644,7 +7343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="7:16">
+    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>49;50;51;52;53;54;55;56</v>
@@ -7674,7 +7373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="7:16">
+    <row r="56" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>50;51;52;53;54;55;56;57</v>
@@ -7704,7 +7403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="7:16">
+    <row r="57" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>51;52;53;54;55;56;57;58</v>
@@ -7734,7 +7433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="7:16">
+    <row r="58" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>52;53;54;55;56;57;58;59</v>
@@ -7764,7 +7463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="7:16">
+    <row r="59" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>53;54;55;56;57;58;59;60</v>
@@ -7794,7 +7493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="7:16">
+    <row r="60" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>54;55;56;57;58;59;60;61</v>
@@ -7824,7 +7523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="7:16">
+    <row r="61" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>55;56;57;58;59;60;61;62</v>
@@ -7854,7 +7553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="7:16">
+    <row r="62" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>56;57;58;59;60;61;62;63</v>
@@ -7884,7 +7583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="7:16">
+    <row r="63" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>57;58;59;60;61;62;63;64</v>
@@ -7914,7 +7613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="7:16">
+    <row r="64" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>58;59;60;61;62;63;64;65</v>
@@ -7944,7 +7643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="7:16">
+    <row r="65" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>59;60;61;62;63;64;65;66</v>
@@ -7974,7 +7673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="7:16">
+    <row r="66" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>60;61;62;63;64;65;66;67</v>
@@ -8004,7 +7703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="7:16">
+    <row r="67" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>61;62;63;64;65;66;67;68</v>
@@ -8034,7 +7733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="7:16">
+    <row r="68" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G68" t="str">
         <f t="shared" si="0"/>
         <v>62;63;64;65;66;67;68;69</v>
@@ -8064,7 +7763,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="7:16">
+    <row r="69" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G69" t="str">
         <f t="shared" si="0"/>
         <v>63;64;65;66;67;68;69;70</v>
@@ -8094,7 +7793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="7:16">
+    <row r="70" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G70" t="str">
         <f t="shared" si="0"/>
         <v>64;65;66;67;68;69;70;71</v>
@@ -8124,7 +7823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="7:16">
+    <row r="71" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G71" t="str">
         <f t="shared" si="0"/>
         <v>65;66;67;68;69;70;71;72</v>
@@ -8154,7 +7853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="7:16">
+    <row r="72" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G72" t="str">
         <f t="shared" ref="G72:G135" si="1">I72&amp;";"&amp;J72&amp;";"&amp;K72&amp;";"&amp;L72&amp;";"&amp;M72&amp;";"&amp;N72&amp;";"&amp;O72&amp;";"&amp;P72</f>
         <v>66;67;68;69;70;71;72;73</v>
@@ -8184,7 +7883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="7:16">
+    <row r="73" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G73" t="str">
         <f t="shared" si="1"/>
         <v>67;68;69;70;71;72;73;74</v>
@@ -8214,7 +7913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="7:16">
+    <row r="74" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G74" t="str">
         <f t="shared" si="1"/>
         <v>68;69;70;71;72;73;74;75</v>
@@ -8244,7 +7943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="7:16">
+    <row r="75" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G75" t="str">
         <f t="shared" si="1"/>
         <v>69;70;71;72;73;74;75;76</v>
@@ -8274,7 +7973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="7:16">
+    <row r="76" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>70;71;72;73;74;75;76;77</v>
@@ -8304,7 +8003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="7:16">
+    <row r="77" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G77" t="str">
         <f t="shared" si="1"/>
         <v>71;72;73;74;75;76;77;78</v>
@@ -8334,7 +8033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="7:16">
+    <row r="78" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>72;73;74;75;76;77;78;79</v>
@@ -8364,7 +8063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="7:16">
+    <row r="79" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>73;74;75;76;77;78;79;80</v>
@@ -8394,7 +8093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="7:16">
+    <row r="80" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>74;75;76;77;78;79;80;81</v>
@@ -8424,7 +8123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="7:16">
+    <row r="81" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G81" t="str">
         <f t="shared" si="1"/>
         <v>75;76;77;78;79;80;81;82</v>
@@ -8454,7 +8153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="7:16">
+    <row r="82" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G82" t="str">
         <f t="shared" si="1"/>
         <v>76;77;78;79;80;81;82;83</v>
@@ -8484,7 +8183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="7:16">
+    <row r="83" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G83" t="str">
         <f t="shared" si="1"/>
         <v>77;78;79;80;81;82;83;84</v>
@@ -8514,7 +8213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="7:16">
+    <row r="84" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G84" t="str">
         <f t="shared" si="1"/>
         <v>78;79;80;81;82;83;84;85</v>
@@ -8544,7 +8243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="7:16">
+    <row r="85" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G85" t="str">
         <f t="shared" si="1"/>
         <v>79;80;81;82;83;84;85;86</v>
@@ -8574,7 +8273,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="7:16">
+    <row r="86" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G86" t="str">
         <f t="shared" si="1"/>
         <v>80;81;82;83;84;85;86;87</v>
@@ -8604,7 +8303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="7:16">
+    <row r="87" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G87" t="str">
         <f t="shared" si="1"/>
         <v>81;82;83;84;85;86;87;88</v>
@@ -8634,7 +8333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="7:16">
+    <row r="88" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G88" t="str">
         <f t="shared" si="1"/>
         <v>82;83;84;85;86;87;88;89</v>
@@ -8664,7 +8363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="7:16">
+    <row r="89" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>83;84;85;86;87;88;89;90</v>
@@ -8694,7 +8393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="7:16">
+    <row r="90" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G90" t="str">
         <f t="shared" si="1"/>
         <v>84;85;86;87;88;89;90;91</v>
@@ -8724,7 +8423,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="7:16">
+    <row r="91" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G91" t="str">
         <f t="shared" si="1"/>
         <v>85;86;87;88;89;90;91;92</v>
@@ -8754,7 +8453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="7:16">
+    <row r="92" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G92" t="str">
         <f t="shared" si="1"/>
         <v>86;87;88;89;90;91;92;93</v>
@@ -8784,7 +8483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="7:16">
+    <row r="93" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>87;88;89;90;91;92;93;94</v>
@@ -8814,7 +8513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="7:16">
+    <row r="94" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G94" t="str">
         <f t="shared" si="1"/>
         <v>88;89;90;91;92;93;94;95</v>
@@ -8844,7 +8543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="7:16">
+    <row r="95" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G95" t="str">
         <f t="shared" si="1"/>
         <v>89;90;91;92;93;94;95;96</v>
@@ -8874,7 +8573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="7:16">
+    <row r="96" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>90;91;92;93;94;95;96;97</v>
@@ -8904,7 +8603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="7:16">
+    <row r="97" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G97" t="str">
         <f t="shared" si="1"/>
         <v>91;92;93;94;95;96;97;98</v>
@@ -8934,7 +8633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="7:16">
+    <row r="98" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G98" t="str">
         <f t="shared" si="1"/>
         <v>92;93;94;95;96;97;98;99</v>
@@ -8964,7 +8663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="7:16">
+    <row r="99" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G99" t="str">
         <f t="shared" si="1"/>
         <v>93;94;95;96;97;98;99;100</v>
@@ -8994,7 +8693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="7:16">
+    <row r="100" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>94;95;96;97;98;99;100;101</v>
@@ -9024,7 +8723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="7:16">
+    <row r="101" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G101" t="str">
         <f t="shared" si="1"/>
         <v>95;96;97;98;99;100;101;102</v>
@@ -9054,7 +8753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="7:16">
+    <row r="102" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G102" t="str">
         <f t="shared" si="1"/>
         <v>96;97;98;99;100;101;102;103</v>
@@ -9084,7 +8783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="7:16">
+    <row r="103" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G103" t="str">
         <f t="shared" si="1"/>
         <v>97;98;99;100;101;102;103;104</v>
@@ -9114,7 +8813,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="7:16">
+    <row r="104" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G104" t="str">
         <f t="shared" si="1"/>
         <v>98;99;100;101;102;103;104;105</v>
@@ -9144,7 +8843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="7:16">
+    <row r="105" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G105" t="str">
         <f t="shared" si="1"/>
         <v>99;100;101;102;103;104;105;106</v>
@@ -9174,7 +8873,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="7:16">
+    <row r="106" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G106" t="str">
         <f t="shared" si="1"/>
         <v>100;101;102;103;104;105;106;107</v>
@@ -9204,7 +8903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="7:16">
+    <row r="107" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G107" t="str">
         <f t="shared" si="1"/>
         <v>101;102;103;104;105;106;107;108</v>
@@ -9234,7 +8933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="7:16">
+    <row r="108" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G108" t="str">
         <f t="shared" si="1"/>
         <v>102;103;104;105;106;107;108;109</v>
@@ -9264,7 +8963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="7:16">
+    <row r="109" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G109" t="str">
         <f t="shared" si="1"/>
         <v>103;104;105;106;107;108;109;110</v>
@@ -9294,7 +8993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="7:16">
+    <row r="110" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G110" t="str">
         <f t="shared" si="1"/>
         <v>104;105;106;107;108;109;110;111</v>
@@ -9324,7 +9023,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="7:16">
+    <row r="111" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G111" t="str">
         <f t="shared" si="1"/>
         <v>105;106;107;108;109;110;111;112</v>
@@ -9354,7 +9053,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="7:16">
+    <row r="112" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>106;107;108;109;110;111;112;113</v>
@@ -9384,7 +9083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="7:16">
+    <row r="113" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G113" t="str">
         <f t="shared" si="1"/>
         <v>107;108;109;110;111;112;113;114</v>
@@ -9414,7 +9113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="7:16">
+    <row r="114" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G114" t="str">
         <f t="shared" si="1"/>
         <v>108;109;110;111;112;113;114;115</v>
@@ -9444,7 +9143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="7:16">
+    <row r="115" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G115" t="str">
         <f t="shared" si="1"/>
         <v>109;110;111;112;113;114;115;116</v>
@@ -9474,7 +9173,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="7:16">
+    <row r="116" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>110;111;112;113;114;115;116;117</v>
@@ -9504,7 +9203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="7:16">
+    <row r="117" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G117" t="str">
         <f t="shared" si="1"/>
         <v>111;112;113;114;115;116;117;118</v>
@@ -9534,7 +9233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="7:16">
+    <row r="118" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G118" t="str">
         <f t="shared" si="1"/>
         <v>112;113;114;115;116;117;118;119</v>
@@ -9564,7 +9263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="7:16">
+    <row r="119" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G119" t="str">
         <f t="shared" si="1"/>
         <v>113;114;115;116;117;118;119;120</v>
@@ -9594,7 +9293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="7:16">
+    <row r="120" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G120" t="str">
         <f t="shared" si="1"/>
         <v>114;115;116;117;118;119;120;121</v>
@@ -9624,7 +9323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="7:16">
+    <row r="121" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G121" t="str">
         <f t="shared" si="1"/>
         <v>115;116;117;118;119;120;121;122</v>
@@ -9654,7 +9353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="7:16">
+    <row r="122" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G122" t="str">
         <f t="shared" si="1"/>
         <v>116;117;118;119;120;121;122;123</v>
@@ -9684,7 +9383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="7:16">
+    <row r="123" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G123" t="str">
         <f t="shared" si="1"/>
         <v>117;118;119;120;121;122;123;124</v>
@@ -9714,7 +9413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="7:16">
+    <row r="124" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>118;119;120;121;122;123;124;125</v>
@@ -9744,7 +9443,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="7:16">
+    <row r="125" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G125" t="str">
         <f t="shared" si="1"/>
         <v>119;120;121;122;123;124;125;126</v>
@@ -9774,7 +9473,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="7:16">
+    <row r="126" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G126" t="str">
         <f t="shared" si="1"/>
         <v>120;121;122;123;124;125;126;127</v>
@@ -9804,7 +9503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="7:16">
+    <row r="127" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G127" t="str">
         <f t="shared" si="1"/>
         <v>121;122;123;124;125;126;127;128</v>
@@ -9834,7 +9533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="7:16">
+    <row r="128" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G128" t="str">
         <f t="shared" si="1"/>
         <v>122;123;124;125;126;127;128;129</v>
@@ -9864,7 +9563,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="7:16">
+    <row r="129" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G129" t="str">
         <f t="shared" si="1"/>
         <v>123;124;125;126;127;128;129;130</v>
@@ -9894,7 +9593,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="7:16">
+    <row r="130" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>124;125;126;127;128;129;130;131</v>
@@ -9924,7 +9623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="7:16">
+    <row r="131" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G131" t="str">
         <f t="shared" si="1"/>
         <v>125;126;127;128;129;130;131;132</v>
@@ -9954,7 +9653,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="7:16">
+    <row r="132" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G132" t="str">
         <f t="shared" si="1"/>
         <v>126;127;128;129;130;131;132;133</v>
@@ -9984,7 +9683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="7:16">
+    <row r="133" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G133" t="str">
         <f t="shared" si="1"/>
         <v>127;128;129;130;131;132;133;134</v>
@@ -10014,7 +9713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="7:16">
+    <row r="134" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G134" t="str">
         <f t="shared" si="1"/>
         <v>128;129;130;131;132;133;134;135</v>
@@ -10044,7 +9743,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="7:16">
+    <row r="135" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G135" t="str">
         <f t="shared" si="1"/>
         <v>129;130;131;132;133;134;135;136</v>
@@ -10074,7 +9773,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="7:16">
+    <row r="136" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G136" t="str">
         <f t="shared" ref="G136:G192" si="2">I136&amp;";"&amp;J136&amp;";"&amp;K136&amp;";"&amp;L136&amp;";"&amp;M136&amp;";"&amp;N136&amp;";"&amp;O136&amp;";"&amp;P136</f>
         <v>130;131;132;133;134;135;136;137</v>
@@ -10104,7 +9803,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="7:16">
+    <row r="137" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G137" t="str">
         <f t="shared" si="2"/>
         <v>131;132;133;134;135;136;137;138</v>
@@ -10134,7 +9833,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="7:16">
+    <row r="138" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>132;133;134;135;136;137;138;139</v>
@@ -10164,7 +9863,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="7:16">
+    <row r="139" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G139" t="str">
         <f t="shared" si="2"/>
         <v>133;134;135;136;137;138;139;140</v>
@@ -10194,7 +9893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="7:16">
+    <row r="140" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G140" t="str">
         <f t="shared" si="2"/>
         <v>134;135;136;137;138;139;140;141</v>
@@ -10224,7 +9923,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="7:16">
+    <row r="141" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G141" t="str">
         <f t="shared" si="2"/>
         <v>135;136;137;138;139;140;141;142</v>
@@ -10254,7 +9953,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="7:16">
+    <row r="142" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G142" t="str">
         <f t="shared" si="2"/>
         <v>136;137;138;139;140;141;142;143</v>
@@ -10284,7 +9983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="7:16">
+    <row r="143" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G143" t="str">
         <f t="shared" si="2"/>
         <v>137;138;139;140;141;142;143;144</v>
@@ -10314,7 +10013,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="7:16">
+    <row r="144" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G144" t="str">
         <f t="shared" si="2"/>
         <v>138;139;140;141;142;143;144;145</v>
@@ -10344,7 +10043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="7:16">
+    <row r="145" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G145" t="str">
         <f t="shared" si="2"/>
         <v>139;140;141;142;143;144;145;146</v>
@@ -10374,7 +10073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="7:16">
+    <row r="146" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G146" t="str">
         <f t="shared" si="2"/>
         <v>140;141;142;143;144;145;146;147</v>
@@ -10404,7 +10103,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="7:16">
+    <row r="147" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G147" t="str">
         <f t="shared" si="2"/>
         <v>141;142;143;144;145;146;147;148</v>
@@ -10434,7 +10133,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="7:16">
+    <row r="148" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G148" t="str">
         <f t="shared" si="2"/>
         <v>142;143;144;145;146;147;148;149</v>
@@ -10464,7 +10163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="7:16">
+    <row r="149" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G149" t="str">
         <f t="shared" si="2"/>
         <v>143;144;145;146;147;148;149;150</v>
@@ -10494,7 +10193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="7:16">
+    <row r="150" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G150" t="str">
         <f t="shared" si="2"/>
         <v>144;145;146;147;148;149;150;151</v>
@@ -10524,7 +10223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="7:16">
+    <row r="151" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G151" t="str">
         <f t="shared" si="2"/>
         <v>145;146;147;148;149;150;151;152</v>
@@ -10554,7 +10253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="7:16">
+    <row r="152" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G152" t="str">
         <f t="shared" si="2"/>
         <v>146;147;148;149;150;151;152;153</v>
@@ -10584,7 +10283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="7:16">
+    <row r="153" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G153" t="str">
         <f t="shared" si="2"/>
         <v>147;148;149;150;151;152;153;154</v>
@@ -10614,7 +10313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="7:16">
+    <row r="154" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G154" t="str">
         <f t="shared" si="2"/>
         <v>148;149;150;151;152;153;154;155</v>
@@ -10644,7 +10343,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="7:16">
+    <row r="155" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G155" t="str">
         <f t="shared" si="2"/>
         <v>149;150;151;152;153;154;155;156</v>
@@ -10674,7 +10373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="7:16">
+    <row r="156" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G156" t="str">
         <f t="shared" si="2"/>
         <v>150;151;152;153;154;155;156;157</v>
@@ -10704,7 +10403,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="7:16">
+    <row r="157" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G157" t="str">
         <f t="shared" si="2"/>
         <v>151;152;153;154;155;156;157;158</v>
@@ -10734,7 +10433,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="7:16">
+    <row r="158" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G158" t="str">
         <f t="shared" si="2"/>
         <v>152;153;154;155;156;157;158;159</v>
@@ -10764,7 +10463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="7:16">
+    <row r="159" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G159" t="str">
         <f t="shared" si="2"/>
         <v>153;154;155;156;157;158;159;160</v>
@@ -10794,7 +10493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="7:16">
+    <row r="160" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G160" t="str">
         <f t="shared" si="2"/>
         <v>154;155;156;157;158;159;160;161</v>
@@ -10824,7 +10523,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="7:16">
+    <row r="161" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G161" t="str">
         <f t="shared" si="2"/>
         <v>155;156;157;158;159;160;161;162</v>
@@ -10854,7 +10553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="7:16">
+    <row r="162" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G162" t="str">
         <f t="shared" si="2"/>
         <v>156;157;158;159;160;161;162;163</v>
@@ -10884,7 +10583,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="7:16">
+    <row r="163" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G163" t="str">
         <f t="shared" si="2"/>
         <v>157;158;159;160;161;162;163;164</v>
@@ -10914,7 +10613,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="7:16">
+    <row r="164" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G164" t="str">
         <f t="shared" si="2"/>
         <v>158;159;160;161;162;163;164;165</v>
@@ -10944,7 +10643,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="7:16">
+    <row r="165" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>159;160;161;162;163;164;165;166</v>
@@ -10974,7 +10673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="7:16">
+    <row r="166" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G166" t="str">
         <f t="shared" si="2"/>
         <v>160;161;162;163;164;165;166;167</v>
@@ -11004,7 +10703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="7:16">
+    <row r="167" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G167" t="str">
         <f t="shared" si="2"/>
         <v>161;162;163;164;165;166;167;168</v>
@@ -11034,7 +10733,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="7:16">
+    <row r="168" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G168" t="str">
         <f t="shared" si="2"/>
         <v>162;163;164;165;166;167;168;169</v>
@@ -11064,7 +10763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="7:16">
+    <row r="169" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G169" t="str">
         <f t="shared" si="2"/>
         <v>163;164;165;166;167;168;169;170</v>
@@ -11094,7 +10793,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="7:16">
+    <row r="170" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G170" t="str">
         <f t="shared" si="2"/>
         <v>164;165;166;167;168;169;170;171</v>
@@ -11124,7 +10823,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="7:16">
+    <row r="171" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G171" t="str">
         <f t="shared" si="2"/>
         <v>165;166;167;168;169;170;171;172</v>
@@ -11154,7 +10853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="7:16">
+    <row r="172" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G172" t="str">
         <f t="shared" si="2"/>
         <v>166;167;168;169;170;171;172;173</v>
@@ -11184,7 +10883,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="7:16">
+    <row r="173" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G173" t="str">
         <f t="shared" si="2"/>
         <v>167;168;169;170;171;172;173;174</v>
@@ -11214,7 +10913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="7:16">
+    <row r="174" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G174" t="str">
         <f t="shared" si="2"/>
         <v>168;169;170;171;172;173;174;175</v>
@@ -11244,7 +10943,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="7:16">
+    <row r="175" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G175" t="str">
         <f t="shared" si="2"/>
         <v>169;170;171;172;173;174;175;176</v>
@@ -11274,7 +10973,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="7:16">
+    <row r="176" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G176" t="str">
         <f t="shared" si="2"/>
         <v>170;171;172;173;174;175;176;177</v>
@@ -11304,7 +11003,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="7:16">
+    <row r="177" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G177" t="str">
         <f t="shared" si="2"/>
         <v>171;172;173;174;175;176;177;178</v>
@@ -11334,7 +11033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="7:16">
+    <row r="178" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G178" t="str">
         <f t="shared" si="2"/>
         <v>172;173;174;175;176;177;178;179</v>
@@ -11364,7 +11063,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="7:16">
+    <row r="179" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G179" t="str">
         <f t="shared" si="2"/>
         <v>173;174;175;176;177;178;179;180</v>
@@ -11394,7 +11093,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="7:16">
+    <row r="180" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G180" t="str">
         <f t="shared" si="2"/>
         <v>174;175;176;177;178;179;180;181</v>
@@ -11424,7 +11123,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="7:16">
+    <row r="181" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G181" t="str">
         <f t="shared" si="2"/>
         <v>175;176;177;178;179;180;181;182</v>
@@ -11454,7 +11153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="7:16">
+    <row r="182" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G182" t="str">
         <f t="shared" si="2"/>
         <v>176;177;178;179;180;181;182;183</v>
@@ -11484,7 +11183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="7:16">
+    <row r="183" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G183" t="str">
         <f t="shared" si="2"/>
         <v>177;178;179;180;181;182;183;184</v>
@@ -11514,7 +11213,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="7:16">
+    <row r="184" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G184" t="str">
         <f t="shared" si="2"/>
         <v>178;179;180;181;182;183;184;185</v>
@@ -11544,7 +11243,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="7:16">
+    <row r="185" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G185" t="str">
         <f t="shared" si="2"/>
         <v>179;180;181;182;183;184;185;186</v>
@@ -11574,7 +11273,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="7:16">
+    <row r="186" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G186" t="str">
         <f t="shared" si="2"/>
         <v>180;181;182;183;184;185;186;187</v>
@@ -11604,7 +11303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="7:16">
+    <row r="187" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G187" t="str">
         <f t="shared" si="2"/>
         <v>181;182;183;184;185;186;187;188</v>
@@ -11634,7 +11333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="7:16">
+    <row r="188" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G188" t="str">
         <f t="shared" si="2"/>
         <v>182;183;184;185;186;187;188;189</v>
@@ -11664,7 +11363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="7:16">
+    <row r="189" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G189" t="str">
         <f t="shared" si="2"/>
         <v>183;184;185;186;187;188;189;190</v>
@@ -11694,7 +11393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="7:16">
+    <row r="190" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G190" t="str">
         <f t="shared" si="2"/>
         <v>184;185;186;187;188;189;190;191</v>
@@ -11724,7 +11423,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="7:16">
+    <row r="191" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G191" t="str">
         <f t="shared" si="2"/>
         <v>185;186;187;188;189;190;191;192</v>
@@ -11754,7 +11453,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="7:16">
+    <row r="192" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G192" t="str">
         <f t="shared" si="2"/>
         <v>186;187;188;189;190;191;192;193</v>
@@ -11791,14 +11490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B79" sqref="B79:B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -11811,21 +11510,21 @@
     <col min="18" max="18" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" customFormat="1">
+    <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="13" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -11836,7 +11535,7 @@
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="2:16" customFormat="1">
+    <row r="2" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="13"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -11847,15 +11546,15 @@
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
     </row>
-    <row r="4" spans="2:16" customFormat="1">
+    <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -11866,7 +11565,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="2:16" customFormat="1">
+    <row r="5" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
         <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
         <v>0_1</v>
@@ -11901,7 +11600,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" customFormat="1">
+    <row r="6" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
         <v>0_2</v>
@@ -11937,7 +11636,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="2:16" customFormat="1">
+    <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
         <v>0_2</v>
@@ -11973,7 +11672,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="2:16" customFormat="1">
+    <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
         <v>0_2</v>
@@ -12009,7 +11708,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="2:16" customFormat="1">
+    <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12045,7 +11744,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="2:16" customFormat="1">
+    <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12081,7 +11780,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="2:16" customFormat="1">
+    <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
         <v>0_3</v>
@@ -12117,7 +11816,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="2:16" customFormat="1">
+    <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
         <v>0_4</v>
@@ -12153,7 +11852,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="2:16" customFormat="1">
+    <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
         <v>0_5</v>
@@ -12189,7 +11888,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="2:16" customFormat="1">
+    <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
         <v>0_6</v>
@@ -12225,7 +11924,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="2:16" customFormat="1">
+    <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
         <v>0_7</v>
@@ -12261,7 +11960,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="2:16" customFormat="1">
+    <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
         <v>0_8</v>
@@ -12297,7 +11996,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="2:16" customFormat="1">
+    <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
         <v>0_9</v>
@@ -12333,7 +12032,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="2:16" customFormat="1">
+    <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
         <v>0_11</v>
@@ -12369,7 +12068,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="2:16" customFormat="1">
+    <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
         <v>0_13</v>
@@ -12405,7 +12104,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="2:16" customFormat="1">
+    <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
         <v>0_16</v>
@@ -12441,7 +12140,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="2:16" customFormat="1">
+    <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
         <v>0_19</v>
@@ -12477,7 +12176,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="2:16" customFormat="1">
+    <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
         <v>0_23</v>
@@ -12513,7 +12212,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="2:16" customFormat="1">
+    <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
         <v>0_27</v>
@@ -12549,7 +12248,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="2:16" customFormat="1">
+    <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
         <v>0_32</v>
@@ -12585,7 +12284,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="2:16" customFormat="1">
+    <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
         <v>0_39</v>
@@ -12621,7 +12320,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="2:16" customFormat="1">
+    <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
         <v>0_47</v>
@@ -12657,7 +12356,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
     </row>
-    <row r="27" spans="2:16" customFormat="1">
+    <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
         <v>0_56</v>
@@ -12693,7 +12392,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="2:16" customFormat="1">
+    <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
         <v>0_67</v>
@@ -12729,7 +12428,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="2:16" customFormat="1">
+    <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
         <v>0_80</v>
@@ -12765,7 +12464,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="2:16" customFormat="1">
+    <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
         <v>0_96</v>
@@ -12801,7 +12500,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="2:16" customFormat="1">
+    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
         <v>0_115</v>
@@ -12837,7 +12536,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
     </row>
-    <row r="32" spans="2:16" customFormat="1">
+    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
         <v>0_138</v>
@@ -12873,7 +12572,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="2:16" customFormat="1">
+    <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
         <v>0_165</v>
@@ -12909,7 +12608,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
     </row>
-    <row r="34" spans="2:16" customFormat="1">
+    <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
         <v>0_198</v>
@@ -12945,7 +12644,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="2:16" customFormat="1">
+    <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
         <v>0_238</v>
@@ -12981,7 +12680,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="2:16" customFormat="1">
+    <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
         <v>0_285</v>
@@ -13017,7 +12716,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="2:16" customFormat="1">
+    <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
         <v>0_342</v>
@@ -13053,7 +12752,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="2:16" customFormat="1">
+    <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
         <v>0_411</v>
@@ -13089,7 +12788,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="2:16" customFormat="1">
+    <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
         <v>0_493</v>
@@ -13125,7 +12824,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="2:16" customFormat="1">
+    <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
         <v>0_591</v>
@@ -13161,7 +12860,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
     </row>
-    <row r="41" spans="2:16" customFormat="1">
+    <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
         <v>0_709</v>
@@ -13197,7 +12896,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="2:16" customFormat="1">
+    <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
         <v>0_851</v>
@@ -13233,7 +12932,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="2:16" customFormat="1">
+    <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
         <v>0_1021</v>
@@ -13269,7 +12968,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="2:16" customFormat="1">
+    <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
         <v>0_1225</v>
@@ -13305,7 +13004,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
     </row>
-    <row r="45" spans="2:16" customFormat="1">
+    <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
         <v>0_1470</v>
@@ -13341,7 +13040,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="2:16" customFormat="1">
+    <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
         <v>0_1764</v>
@@ -13377,7 +13076,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
     </row>
-    <row r="47" spans="2:16" customFormat="1">
+    <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
         <v>0_2117</v>
@@ -13413,7 +13112,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
     </row>
-    <row r="48" spans="2:16" customFormat="1">
+    <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
         <v>0_2540</v>
@@ -13449,7 +13148,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
     </row>
-    <row r="49" spans="2:17" customFormat="1">
+    <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
         <v>0_3048</v>
@@ -13486,7 +13185,7 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="2:17" customFormat="1">
+    <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
         <v>0_3658</v>
@@ -13523,7 +13222,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="33"/>
     </row>
-    <row r="51" spans="2:17" customFormat="1">
+    <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
         <v>0_4389</v>
@@ -13560,7 +13259,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:17" customFormat="1">
+    <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
         <v>0_5267</v>
@@ -13597,7 +13296,7 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="33"/>
     </row>
-    <row r="53" spans="2:17" customFormat="1">
+    <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
         <v>0_6320</v>
@@ -13634,7 +13333,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="2:17" customFormat="1">
+    <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
         <v>0_7584</v>
@@ -13671,7 +13370,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="2:17" customFormat="1">
+    <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
         <v>0_9101</v>
@@ -13708,7 +13407,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="2:17" customFormat="1">
+    <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_921</v>
@@ -13747,7 +13446,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="31"/>
     </row>
-    <row r="57" spans="2:17" customFormat="1">
+    <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_3105</v>
@@ -13786,7 +13485,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="31"/>
     </row>
-    <row r="58" spans="2:17" customFormat="1">
+    <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_5726</v>
@@ -13825,7 +13524,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="31"/>
     </row>
-    <row r="59" spans="2:17" customFormat="1">
+    <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
         <v>1_1,0_8871</v>
@@ -13864,7 +13563,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="31"/>
     </row>
-    <row r="60" spans="2:17" customFormat="1">
+    <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
         <v>1_2,0_2645</v>
@@ -13903,7 +13602,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="31"/>
     </row>
-    <row r="61" spans="2:17" customFormat="1">
+    <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
         <v>1_2,0_7174</v>
@@ -13942,7 +13641,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="31"/>
     </row>
-    <row r="62" spans="2:17" customFormat="1">
+    <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
         <v>1_3,0_2609</v>
@@ -13981,7 +13680,7 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="31"/>
     </row>
-    <row r="63" spans="2:17" customFormat="1">
+    <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
         <v>1_3,0_9131</v>
@@ -14020,7 +13719,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="31"/>
     </row>
-    <row r="64" spans="2:17" customFormat="1">
+    <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
         <v>1_4,0_6957</v>
@@ -14059,7 +13758,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="31"/>
     </row>
-    <row r="65" spans="2:17" customFormat="1">
+    <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
         <v>1_5,0_6348</v>
@@ -14098,7 +13797,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="31"/>
     </row>
-    <row r="66" spans="2:17" customFormat="1">
+    <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
         <v>1_6,0_7618</v>
@@ -14137,7 +13836,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="31"/>
     </row>
-    <row r="67" spans="2:17" customFormat="1">
+    <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
         <v>1_8,0_1141</v>
@@ -14176,7 +13875,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="31"/>
     </row>
-    <row r="68" spans="2:17" customFormat="1">
+    <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
         <v>1_9,0_7369</v>
@@ -14215,7 +13914,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="31"/>
     </row>
-    <row r="69" spans="2:17" customFormat="1">
+    <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
         <v>1_11,0_6843</v>
@@ -14254,7 +13953,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="31"/>
     </row>
-    <row r="70" spans="2:17" customFormat="1">
+    <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
         <v>1_14,0_211</v>
@@ -14293,7 +13992,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="31"/>
     </row>
-    <row r="71" spans="2:17" customFormat="1">
+    <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
         <v>1_16,0_8253</v>
@@ -14332,7 +14031,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="31"/>
     </row>
-    <row r="72" spans="2:17" customFormat="1">
+    <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
         <v>1_20,0_1904</v>
@@ -14371,7 +14070,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="31"/>
     </row>
-    <row r="73" spans="2:17" customFormat="1">
+    <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
         <v>1_24,0_2284</v>
@@ -14410,7 +14109,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="31"/>
     </row>
-    <row r="74" spans="2:17" customFormat="1">
+    <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
         <v>1_29,0_741</v>
@@ -14449,7 +14148,7 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="31"/>
     </row>
-    <row r="75" spans="2:17" customFormat="1">
+    <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
         <v>1_34,0_8889</v>
@@ -14488,7 +14187,7 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="31"/>
     </row>
-    <row r="76" spans="2:17" customFormat="1">
+    <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
         <v>1_41,0_8667</v>
@@ -14527,7 +14226,7 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="31"/>
     </row>
-    <row r="77" spans="2:17" customFormat="1">
+    <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
         <v>1_50,0_2401</v>
@@ -14566,7 +14265,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="31"/>
     </row>
-    <row r="78" spans="2:17" customFormat="1">
+    <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
         <v>1_60,0_2881</v>
@@ -14605,7 +14304,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="31"/>
     </row>
-    <row r="79" spans="2:17" customFormat="1">
+    <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
         <v>1_72,0_3457</v>
@@ -14644,7 +14343,7 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="31"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
         <v>1_86,0_8148</v>
@@ -14675,7 +14374,7 @@
         <v>8148</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
         <v>1_104,0_1777</v>
@@ -14706,7 +14405,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
         <v>1_125,0_133</v>
@@ -14737,7 +14436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
         <v>1_150,0_159</v>
@@ -14768,7 +14467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
         <v>1_180,0_191</v>
@@ -14799,7 +14498,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
         <v>1_216,0_229</v>
@@ -14830,7 +14529,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
         <v>1_259,0_2275</v>
@@ -14861,7 +14560,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
         <v>1_311,0_729</v>
@@ -14892,7 +14591,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
         <v>1_373,0_2875</v>
@@ -14923,7 +14622,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
         <v>1_447,0_9450</v>
@@ -14954,7 +14653,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
         <v>1_537,0_5340</v>
@@ -14985,7 +14684,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
         <v>1_645,0_408</v>
@@ -15016,7 +14715,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
         <v>1_774,0_490</v>
@@ -15047,7 +14746,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
         <v>1_928,0_8587</v>
@@ -15078,7 +14777,7 @@
         <v>8587</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
         <v>1_1114,0_6305</v>
@@ -15109,7 +14808,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
         <v>1_1337,0_5566</v>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -399,25 +399,7 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>0_19</t>
-  </si>
-  <si>
-    <t>0_23</t>
-  </si>
-  <si>
-    <t>0_27</t>
-  </si>
-  <si>
     <t>0_39</t>
-  </si>
-  <si>
-    <t>0_47</t>
-  </si>
-  <si>
-    <t>0_67</t>
-  </si>
-  <si>
-    <t>0_115</t>
   </si>
   <si>
     <t>锦绣</t>
@@ -474,221 +456,6 @@
     <t>0_1</t>
   </si>
   <si>
-    <t>0_16</t>
-  </si>
-  <si>
-    <t>0_32</t>
-  </si>
-  <si>
-    <t>0_56</t>
-  </si>
-  <si>
-    <t>0_80</t>
-  </si>
-  <si>
-    <t>0_96</t>
-  </si>
-  <si>
-    <t>0_138</t>
-  </si>
-  <si>
-    <t>0_165</t>
-  </si>
-  <si>
-    <t>0_198</t>
-  </si>
-  <si>
-    <t>0_238</t>
-  </si>
-  <si>
-    <t>0_285</t>
-  </si>
-  <si>
-    <t>0_342</t>
-  </si>
-  <si>
-    <t>0_411</t>
-  </si>
-  <si>
-    <t>0_493</t>
-  </si>
-  <si>
-    <t>0_591</t>
-  </si>
-  <si>
-    <t>0_709</t>
-  </si>
-  <si>
-    <t>0_851</t>
-  </si>
-  <si>
-    <t>0_1021</t>
-  </si>
-  <si>
-    <t>0_1225</t>
-  </si>
-  <si>
-    <t>0_1470</t>
-  </si>
-  <si>
-    <t>0_1764</t>
-  </si>
-  <si>
-    <t>0_2117</t>
-  </si>
-  <si>
-    <t>0_2540</t>
-  </si>
-  <si>
-    <t>0_3048</t>
-  </si>
-  <si>
-    <t>0_3658</t>
-  </si>
-  <si>
-    <t>0_4389</t>
-  </si>
-  <si>
-    <t>0_5267</t>
-  </si>
-  <si>
-    <t>0_6320</t>
-  </si>
-  <si>
-    <t>0_7584</t>
-  </si>
-  <si>
-    <t>0_9101</t>
-  </si>
-  <si>
-    <t>0_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1,0_921</t>
-  </si>
-  <si>
-    <t>1_1,0_3105</t>
-  </si>
-  <si>
-    <t>1_1,0_5726</t>
-  </si>
-  <si>
-    <t>1_1,0_8871</t>
-  </si>
-  <si>
-    <t>1_2,0_2645</t>
-  </si>
-  <si>
-    <t>1_2,0_7174</t>
-  </si>
-  <si>
-    <t>1_3,0_2609</t>
-  </si>
-  <si>
-    <t>1_3,0_9131</t>
-  </si>
-  <si>
-    <t>1_4,0_6957</t>
-  </si>
-  <si>
-    <t>1_5,0_6348</t>
-  </si>
-  <si>
-    <t>1_6,0_7618</t>
-  </si>
-  <si>
-    <t>1_8,0_1141</t>
-  </si>
-  <si>
-    <t>1_9,0_7369</t>
-  </si>
-  <si>
-    <t>1_11,0_6843</t>
-  </si>
-  <si>
-    <t>1_14,0_211</t>
-  </si>
-  <si>
-    <t>1_16,0_8253</t>
-  </si>
-  <si>
-    <t>1_20,0_1904</t>
-  </si>
-  <si>
-    <t>1_24,0_2284</t>
-  </si>
-  <si>
-    <t>1_29,0_741</t>
-  </si>
-  <si>
-    <t>1_34,0_8889</t>
-  </si>
-  <si>
-    <t>1_41,0_8667</t>
-  </si>
-  <si>
-    <t>1_50,0_2401</t>
-  </si>
-  <si>
-    <t>1_60,0_2881</t>
-  </si>
-  <si>
-    <t>1_72,0_3457</t>
-  </si>
-  <si>
     <t>玲珑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -757,54 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_86,0_8148</t>
-  </si>
-  <si>
-    <t>1_104,0_1777</t>
-  </si>
-  <si>
-    <t>1_125,0_133</t>
-  </si>
-  <si>
-    <t>1_150,0_159</t>
-  </si>
-  <si>
-    <t>1_180,0_191</t>
-  </si>
-  <si>
-    <t>1_216,0_229</t>
-  </si>
-  <si>
-    <t>1_259,0_2275</t>
-  </si>
-  <si>
-    <t>1_311,0_729</t>
-  </si>
-  <si>
-    <t>1_373,0_2875</t>
-  </si>
-  <si>
-    <t>1_447,0_9450</t>
-  </si>
-  <si>
-    <t>1_537,0_5340</t>
-  </si>
-  <si>
-    <t>1_645,0_408</t>
-  </si>
-  <si>
-    <t>1_774,0_490</t>
-  </si>
-  <si>
-    <t>1_928,0_8587</t>
-  </si>
-  <si>
-    <t>1_1114,0_6305</t>
-  </si>
-  <si>
-    <t>1_1337,0_5566</t>
-  </si>
-  <si>
     <t>长生锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,6 +845,273 @@
   <si>
     <t>UnlockShop</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_2</t>
+  </si>
+  <si>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>0_7</t>
+  </si>
+  <si>
+    <t>0_11</t>
+  </si>
+  <si>
+    <t>0_15</t>
+  </si>
+  <si>
+    <t>0_20</t>
+  </si>
+  <si>
+    <t>0_28</t>
+  </si>
+  <si>
+    <t>0_55</t>
+  </si>
+  <si>
+    <t>0_77</t>
+  </si>
+  <si>
+    <t>0_92</t>
+  </si>
+  <si>
+    <t>0_110</t>
+  </si>
+  <si>
+    <t>0_132</t>
+  </si>
+  <si>
+    <t>0_159</t>
+  </si>
+  <si>
+    <t>0_190</t>
+  </si>
+  <si>
+    <t>0_228</t>
+  </si>
+  <si>
+    <t>0_269</t>
+  </si>
+  <si>
+    <t>0_317</t>
+  </si>
+  <si>
+    <t>0_375</t>
+  </si>
+  <si>
+    <t>0_442</t>
+  </si>
+  <si>
+    <t>0_521</t>
+  </si>
+  <si>
+    <t>0_615</t>
+  </si>
+  <si>
+    <t>0_713</t>
+  </si>
+  <si>
+    <t>0_827</t>
+  </si>
+  <si>
+    <t>0_960</t>
+  </si>
+  <si>
+    <t>0_1113</t>
+  </si>
+  <si>
+    <t>0_1291</t>
+  </si>
+  <si>
+    <t>0_1498</t>
+  </si>
+  <si>
+    <t>0_1737</t>
+  </si>
+  <si>
+    <t>0_1980</t>
+  </si>
+  <si>
+    <t>0_2258</t>
+  </si>
+  <si>
+    <t>0_2574</t>
+  </si>
+  <si>
+    <t>0_2934</t>
+  </si>
+  <si>
+    <t>0_3345</t>
+  </si>
+  <si>
+    <t>0_3813</t>
+  </si>
+  <si>
+    <t>0_4270</t>
+  </si>
+  <si>
+    <t>0_4783</t>
+  </si>
+  <si>
+    <t>0_5356</t>
+  </si>
+  <si>
+    <t>0_5999</t>
+  </si>
+  <si>
+    <t>0_6719</t>
+  </si>
+  <si>
+    <t>0_7525</t>
+  </si>
+  <si>
+    <t>0_8278</t>
+  </si>
+  <si>
+    <t>0_9105</t>
+  </si>
+  <si>
+    <t>1_1,0_16</t>
+  </si>
+  <si>
+    <t>1_1,0_1017</t>
+  </si>
+  <si>
+    <t>1_1,0_2119</t>
+  </si>
+  <si>
+    <t>1_1,0_3331</t>
+  </si>
+  <si>
+    <t>1_1,0_4664</t>
+  </si>
+  <si>
+    <t>1_1,0_5984</t>
+  </si>
+  <si>
+    <t>1_1,0_7422</t>
+  </si>
+  <si>
+    <t>1_1,0_8990</t>
+  </si>
+  <si>
+    <t>1_2,0_699</t>
+  </si>
+  <si>
+    <t>1_2,0_2562</t>
+  </si>
+  <si>
+    <t>1_2,0_4592</t>
+  </si>
+  <si>
+    <t>1_2,0_6560</t>
+  </si>
+  <si>
+    <t>1_2,0_8685</t>
+  </si>
+  <si>
+    <t>1_3,0_979</t>
+  </si>
+  <si>
+    <t>1_3,0_3458</t>
+  </si>
+  <si>
+    <t>1_3,0_6134</t>
+  </si>
+  <si>
+    <t>1_3,0_9025</t>
+  </si>
+  <si>
+    <t>1_4,0_1757</t>
+  </si>
+  <si>
+    <t>1_4,0_4680</t>
+  </si>
+  <si>
+    <t>1_4,0_7807</t>
+  </si>
+  <si>
+    <t>1_5,0_1154</t>
+  </si>
+  <si>
+    <t>1_5,0_4734</t>
+  </si>
+  <si>
+    <t>1_5,0_8566</t>
+  </si>
+  <si>
+    <t>1_6,0_2080</t>
+  </si>
+  <si>
+    <t>1_6,0_5804</t>
+  </si>
+  <si>
+    <t>1_6,0_9752</t>
+  </si>
+  <si>
+    <t>1_7,0_3938</t>
+  </si>
+  <si>
+    <t>1_7,0_8374</t>
+  </si>
+  <si>
+    <t>1_8,0_3076</t>
+  </si>
+  <si>
+    <t>1_8,0_7230</t>
+  </si>
+  <si>
+    <t>1_9,0_1591</t>
+  </si>
+  <si>
+    <t>1_9,0_6171</t>
+  </si>
+  <si>
+    <t>1_10,0_980</t>
+  </si>
+  <si>
+    <t>1_10,0_6029</t>
+  </si>
+  <si>
+    <t>1_11,0_1330</t>
+  </si>
+  <si>
+    <t>1_11,0_5783</t>
+  </si>
+  <si>
+    <t>1_12,0_414</t>
+  </si>
+  <si>
+    <t>1_12,0_5231</t>
+  </si>
+  <si>
+    <t>1_13,0_240</t>
+  </si>
+  <si>
+    <t>1_13,0_5450</t>
+  </si>
+  <si>
+    <t>1_14,0_868</t>
+  </si>
+  <si>
+    <t>1_14,0_5094</t>
+  </si>
+  <si>
+    <t>1_14,0_9447</t>
+  </si>
+  <si>
+    <t>1_15,0_3930</t>
+  </si>
+  <si>
+    <t>1_15,0_8548</t>
+  </si>
+  <si>
+    <t>1_16,0_3304</t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H95"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>86</v>
@@ -1915,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1924,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -1960,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -1997,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -2034,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
@@ -2071,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="G9" s="24">
         <v>6</v>
@@ -2108,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="G10" s="24">
         <v>7</v>
@@ -2145,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
@@ -2182,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2219,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2256,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2293,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2330,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2367,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
@@ -2404,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
@@ -2441,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
@@ -2478,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
@@ -2515,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
@@ -2552,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="G22" s="24">
         <v>19</v>
@@ -2577,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>68</v>
@@ -2589,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="G23" s="21">
         <v>20</v>
@@ -2614,10 +2600,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="D24" s="27">
         <v>46</v>
@@ -2626,7 +2612,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="G24" s="21">
         <v>21</v>
@@ -2651,10 +2637,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="D25" s="27">
         <v>47</v>
@@ -2663,7 +2649,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G25" s="21">
         <v>22</v>
@@ -2688,7 +2674,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>78</v>
@@ -2700,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="G26" s="21">
         <v>23</v>
@@ -2725,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>79</v>
@@ -2737,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="G27" s="21">
         <v>24</v>
@@ -2762,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>80</v>
@@ -2774,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="G28" s="21">
         <v>25</v>
@@ -2799,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>81</v>
@@ -2811,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="G29" s="24">
         <v>26</v>
@@ -2836,10 +2822,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="D30" s="36">
         <v>70</v>
@@ -2848,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="G30" s="24">
         <v>27</v>
@@ -2873,10 +2859,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="D31" s="36">
         <v>71</v>
@@ -2885,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="G31" s="24">
         <v>28</v>
@@ -2910,10 +2896,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="D32" s="36">
         <v>72</v>
@@ -2922,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="G32" s="24">
         <v>29</v>
@@ -2947,10 +2933,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="D33" s="36">
         <v>73</v>
@@ -2959,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="G33" s="24">
         <v>30</v>
@@ -2984,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="D34" s="36">
         <v>74</v>
@@ -2996,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="G34" s="24">
         <v>31</v>
@@ -3021,10 +3007,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3033,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
@@ -3058,10 +3044,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="D36" s="36">
         <v>76</v>
@@ -3070,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
@@ -3095,10 +3081,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="D37" s="36">
         <v>77</v>
@@ -3107,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
@@ -3132,10 +3118,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="D38" s="36">
         <v>78</v>
@@ -3144,7 +3130,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
@@ -3169,10 +3155,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="D39" s="36">
         <v>79</v>
@@ -3181,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
@@ -3206,10 +3192,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="D40" s="36">
         <v>80</v>
@@ -3218,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
@@ -3243,10 +3229,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3255,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
@@ -3280,10 +3266,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="D42" s="36">
         <v>82</v>
@@ -3292,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
@@ -3317,10 +3303,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="D43" s="36">
         <v>83</v>
@@ -3329,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
@@ -3354,10 +3340,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="D44" s="36">
         <v>84</v>
@@ -3366,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
@@ -3391,10 +3377,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="D45" s="36">
         <v>85</v>
@@ -3403,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
@@ -3428,10 +3414,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="D46" s="36">
         <v>86</v>
@@ -3440,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
@@ -3465,10 +3451,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3477,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
@@ -3502,10 +3488,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="D48" s="36">
         <v>88</v>
@@ -3514,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
@@ -3539,10 +3525,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="D49" s="36">
         <v>89</v>
@@ -3551,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
@@ -3576,10 +3562,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="D50" s="36">
         <v>90</v>
@@ -3588,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
@@ -3613,10 +3599,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="D51" s="36">
         <v>91</v>
@@ -3625,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
@@ -3650,10 +3636,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="D52" s="36">
         <v>92</v>
@@ -3662,7 +3648,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
@@ -3687,10 +3673,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3699,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
@@ -3724,10 +3710,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="D54" s="36">
         <v>94</v>
@@ -3736,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
@@ -3761,10 +3747,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="D55" s="36">
         <v>95</v>
@@ -3773,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
@@ -3798,10 +3784,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="D56" s="36">
         <v>96</v>
@@ -3810,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
@@ -3835,10 +3821,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D57" s="36">
         <v>97</v>
@@ -3847,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
@@ -3872,10 +3858,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="D58" s="36">
         <v>98</v>
@@ -3884,7 +3870,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
@@ -3909,10 +3895,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -3921,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
@@ -3946,10 +3932,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="D60" s="36">
         <v>100</v>
@@ -3958,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
@@ -3983,10 +3969,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="D61" s="36">
         <v>101</v>
@@ -3995,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
@@ -4020,10 +4006,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="D62" s="36">
         <v>102</v>
@@ -4032,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
@@ -4057,10 +4043,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="D63" s="36">
         <v>103</v>
@@ -4069,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
@@ -4094,10 +4080,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="D64" s="36">
         <v>104</v>
@@ -4106,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
@@ -4131,10 +4117,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4143,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
@@ -4168,10 +4154,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="D66" s="39">
         <v>64</v>
@@ -4180,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
@@ -4205,10 +4191,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="D67" s="39">
         <v>65</v>
@@ -4217,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
@@ -4242,10 +4228,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="D68" s="39">
         <v>66</v>
@@ -4254,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
@@ -4279,10 +4265,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="D69" s="39">
         <v>67</v>
@@ -4291,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
@@ -4316,10 +4302,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="D70" s="39">
         <v>68</v>
@@ -4328,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
@@ -4353,10 +4339,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4365,7 +4351,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
@@ -4390,10 +4376,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4402,7 +4388,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
@@ -4427,10 +4413,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4439,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
@@ -4464,10 +4450,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4476,7 +4462,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
@@ -4501,10 +4487,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4513,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
@@ -4538,10 +4524,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4550,7 +4536,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
@@ -4578,7 +4564,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4587,7 +4573,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
@@ -4615,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4624,7 +4610,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
@@ -4652,7 +4638,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -4661,7 +4647,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="G79" s="8">
         <v>76</v>
@@ -4689,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -4698,7 +4684,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="49" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
@@ -4716,7 +4702,7 @@
         <v>47</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -4725,7 +4711,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="49" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
@@ -4743,7 +4729,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -4752,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
@@ -4770,7 +4756,7 @@
         <v>97</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -4779,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
@@ -4797,7 +4783,7 @@
         <v>98</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -4806,7 +4792,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="49" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
@@ -4824,7 +4810,7 @@
         <v>99</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -4833,7 +4819,7 @@
         <v>15</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
@@ -4851,7 +4837,7 @@
         <v>100</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -4860,7 +4846,7 @@
         <v>15</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
@@ -4878,7 +4864,7 @@
         <v>101</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -4887,7 +4873,7 @@
         <v>15</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
@@ -4905,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -4914,7 +4900,7 @@
         <v>15</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
@@ -4932,7 +4918,7 @@
         <v>49</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -4941,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
@@ -4959,7 +4945,7 @@
         <v>50</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
@@ -4968,7 +4954,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
@@ -4986,7 +4972,7 @@
         <v>51</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
@@ -4995,7 +4981,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
@@ -5013,7 +4999,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
@@ -5022,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
@@ -5040,7 +5026,7 @@
         <v>53</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
@@ -5049,7 +5035,7 @@
         <v>16</v>
       </c>
       <c r="F93" s="49" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
@@ -5067,7 +5053,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
@@ -5076,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="F94" s="49" t="s">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
@@ -5094,7 +5080,7 @@
         <v>55</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
@@ -5103,7 +5089,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="49" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -11493,8 +11479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11512,19 +11498,19 @@
   <sheetData>
     <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -11548,13 +11534,13 @@
     </row>
     <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -11578,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F5" s="32">
         <f t="shared" ref="F5:F68" si="0">ROUNDUP(D5,0)</f>
@@ -11611,10 +11597,10 @@
       </c>
       <c r="D6" s="35">
         <f t="shared" ref="D6:D69" si="1">D5*E5</f>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
@@ -11639,7 +11625,7 @@
     <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>0_2</v>
+        <v>0_3</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -11647,21 +11633,21 @@
       </c>
       <c r="D7" s="35">
         <f t="shared" si="1"/>
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0002</v>
+        <v>0003</v>
       </c>
       <c r="H7" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -11675,7 +11661,7 @@
     <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0_2</v>
+        <v>0_5</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -11683,21 +11669,21 @@
       </c>
       <c r="D8" s="35">
         <f t="shared" si="1"/>
-        <v>1.728</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0002</v>
+        <v>0005</v>
       </c>
       <c r="H8" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -11711,7 +11697,7 @@
     <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0_3</v>
+        <v>0_7</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -11719,21 +11705,21 @@
       </c>
       <c r="D9" s="35">
         <f t="shared" si="1"/>
-        <v>2.0735999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="E9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0003</v>
+        <v>0007</v>
       </c>
       <c r="H9" s="33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -11747,7 +11733,7 @@
     <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0_3</v>
+        <v>0_11</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -11755,21 +11741,21 @@
       </c>
       <c r="D10" s="35">
         <f t="shared" si="1"/>
-        <v>2.4883199999999999</v>
+        <v>10.125</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G10" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0003</v>
+        <v>0011</v>
       </c>
       <c r="H10" s="33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -11783,7 +11769,7 @@
     <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0_3</v>
+        <v>0_15</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -11791,21 +11777,21 @@
       </c>
       <c r="D11" s="35">
         <f t="shared" si="1"/>
-        <v>2.9859839999999997</v>
+        <v>14.174999999999999</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G11" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0003</v>
+        <v>0015</v>
       </c>
       <c r="H11" s="33">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -11819,7 +11805,7 @@
     <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0_4</v>
+        <v>0_20</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -11827,21 +11813,21 @@
       </c>
       <c r="D12" s="35">
         <f t="shared" si="1"/>
-        <v>3.5831807999999996</v>
+        <v>19.844999999999999</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0004</v>
+        <v>0020</v>
       </c>
       <c r="H12" s="33">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -11855,7 +11841,7 @@
     <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0_5</v>
+        <v>0_28</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -11863,21 +11849,21 @@
       </c>
       <c r="D13" s="35">
         <f t="shared" si="1"/>
-        <v>4.2998169599999994</v>
+        <v>27.782999999999998</v>
       </c>
       <c r="E13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0005</v>
+        <v>0028</v>
       </c>
       <c r="H13" s="33">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -11891,7 +11877,7 @@
     <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0_6</v>
+        <v>0_39</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -11899,21 +11885,21 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="1"/>
-        <v>5.1597803519999994</v>
+        <v>38.896199999999993</v>
       </c>
       <c r="E14">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G14" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0006</v>
+        <v>0039</v>
       </c>
       <c r="H14" s="33">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -11927,7 +11913,7 @@
     <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
-        <v>0_7</v>
+        <v>0_55</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -11935,21 +11921,21 @@
       </c>
       <c r="D15" s="35">
         <f t="shared" si="1"/>
-        <v>6.1917364223999991</v>
+        <v>54.454679999999989</v>
       </c>
       <c r="E15">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G15" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0007</v>
+        <v>0055</v>
       </c>
       <c r="H15" s="33">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -11963,7 +11949,7 @@
     <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
-        <v>0_8</v>
+        <v>0_77</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -11971,21 +11957,21 @@
       </c>
       <c r="D16" s="35">
         <f t="shared" si="1"/>
-        <v>7.4300837068799988</v>
+        <v>76.236551999999975</v>
       </c>
       <c r="E16">
         <v>1.2</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="G16" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0008</v>
+        <v>0077</v>
       </c>
       <c r="H16" s="33">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -11999,7 +11985,7 @@
     <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0_9</v>
+        <v>0_92</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -12007,21 +11993,21 @@
       </c>
       <c r="D17" s="35">
         <f t="shared" si="1"/>
-        <v>8.9161004482559978</v>
+        <v>91.483862399999964</v>
       </c>
       <c r="E17">
         <v>1.2</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G17" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0009</v>
+        <v>0092</v>
       </c>
       <c r="H17" s="33">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -12035,7 +12021,7 @@
     <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0_11</v>
+        <v>0_110</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -12043,21 +12029,21 @@
       </c>
       <c r="D18" s="35">
         <f t="shared" si="1"/>
-        <v>10.699320537907196</v>
+        <v>109.78063487999995</v>
       </c>
       <c r="E18">
         <v>1.2</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0110</v>
       </c>
       <c r="H18" s="33">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -12071,7 +12057,7 @@
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0_13</v>
+        <v>0_132</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -12079,21 +12065,21 @@
       </c>
       <c r="D19" s="35">
         <f t="shared" si="1"/>
-        <v>12.839184645488634</v>
+        <v>131.73676185599993</v>
       </c>
       <c r="E19">
         <v>1.2</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="G19" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0013</v>
+        <v>0132</v>
       </c>
       <c r="H19" s="33">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -12107,7 +12093,7 @@
     <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>0_16</v>
+        <v>0_159</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -12115,21 +12101,21 @@
       </c>
       <c r="D20" s="35">
         <f t="shared" si="1"/>
-        <v>15.407021574586361</v>
+        <v>158.0841142271999</v>
       </c>
       <c r="E20">
         <v>1.2</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="G20" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0016</v>
+        <v>0159</v>
       </c>
       <c r="H20" s="33">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -12143,7 +12129,7 @@
     <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
-        <v>0_19</v>
+        <v>0_190</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -12151,21 +12137,21 @@
       </c>
       <c r="D21" s="35">
         <f t="shared" si="1"/>
-        <v>18.488425889503631</v>
+        <v>189.70093707263987</v>
       </c>
       <c r="E21">
         <v>1.2</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="G21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0019</v>
+        <v>0190</v>
       </c>
       <c r="H21" s="33">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -12179,7 +12165,7 @@
     <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
-        <v>0_23</v>
+        <v>0_228</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -12187,21 +12173,21 @@
       </c>
       <c r="D22" s="35">
         <f t="shared" si="1"/>
-        <v>22.186111067404358</v>
+        <v>227.64112448716784</v>
       </c>
       <c r="E22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="G22" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0023</v>
+        <v>0228</v>
       </c>
       <c r="H22" s="33">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -12215,7 +12201,7 @@
     <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>0_27</v>
+        <v>0_269</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -12223,21 +12209,21 @@
       </c>
       <c r="D23" s="35">
         <f t="shared" si="1"/>
-        <v>26.62333328088523</v>
+        <v>268.61652689485805</v>
       </c>
       <c r="E23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="G23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0027</v>
+        <v>0269</v>
       </c>
       <c r="H23" s="33">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
@@ -12251,7 +12237,7 @@
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>0_32</v>
+        <v>0_317</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -12259,21 +12245,21 @@
       </c>
       <c r="D24" s="35">
         <f t="shared" si="1"/>
-        <v>31.947999937062274</v>
+        <v>316.9675017359325</v>
       </c>
       <c r="E24">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="G24" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0032</v>
+        <v>0317</v>
       </c>
       <c r="H24" s="33">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -12287,7 +12273,7 @@
     <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>0_39</v>
+        <v>0_375</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -12295,21 +12281,21 @@
       </c>
       <c r="D25" s="35">
         <f t="shared" si="1"/>
-        <v>38.337599924474731</v>
+        <v>374.02165204840031</v>
       </c>
       <c r="E25">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="G25" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0039</v>
+        <v>0375</v>
       </c>
       <c r="H25" s="33">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -12323,7 +12309,7 @@
     <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>0_47</v>
+        <v>0_442</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -12331,21 +12317,21 @@
       </c>
       <c r="D26" s="35">
         <f t="shared" si="1"/>
-        <v>46.005119909369675</v>
+        <v>441.34554941711235</v>
       </c>
       <c r="E26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="G26" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0047</v>
+        <v>0442</v>
       </c>
       <c r="H26" s="33">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -12359,7 +12345,7 @@
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>0_56</v>
+        <v>0_521</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -12367,21 +12353,21 @@
       </c>
       <c r="D27" s="35">
         <f t="shared" si="1"/>
-        <v>55.206143891243606</v>
+        <v>520.78774831219255</v>
       </c>
       <c r="E27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="G27" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0056</v>
+        <v>0521</v>
       </c>
       <c r="H27" s="33">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -12395,7 +12381,7 @@
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>0_67</v>
+        <v>0_615</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -12403,21 +12389,21 @@
       </c>
       <c r="D28" s="35">
         <f t="shared" si="1"/>
-        <v>66.247372669492322</v>
+        <v>614.52954300838712</v>
       </c>
       <c r="E28">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>615</v>
       </c>
       <c r="G28" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0067</v>
+        <v>0615</v>
       </c>
       <c r="H28" s="33">
-        <v>67</v>
+        <v>615</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -12431,7 +12417,7 @@
     <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>0_80</v>
+        <v>0_713</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -12439,21 +12425,21 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" si="1"/>
-        <v>79.496847203390786</v>
+        <v>712.85426988972904</v>
       </c>
       <c r="E29">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>713</v>
       </c>
       <c r="G29" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0080</v>
+        <v>0713</v>
       </c>
       <c r="H29" s="33">
-        <v>80</v>
+        <v>713</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
@@ -12467,7 +12453,7 @@
     <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>0_96</v>
+        <v>0_827</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -12475,21 +12461,21 @@
       </c>
       <c r="D30" s="35">
         <f t="shared" si="1"/>
-        <v>95.396216644068943</v>
+        <v>826.91095307208559</v>
       </c>
       <c r="E30">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>827</v>
       </c>
       <c r="G30" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0096</v>
+        <v>0827</v>
       </c>
       <c r="H30" s="33">
-        <v>96</v>
+        <v>827</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
@@ -12503,7 +12489,7 @@
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>0_115</v>
+        <v>0_960</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -12511,21 +12497,21 @@
       </c>
       <c r="D31" s="35">
         <f t="shared" si="1"/>
-        <v>114.47545997288273</v>
+        <v>959.21670556361926</v>
       </c>
       <c r="E31">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>960</v>
       </c>
       <c r="G31" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0115</v>
+        <v>0960</v>
       </c>
       <c r="H31" s="33">
-        <v>115</v>
+        <v>960</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
@@ -12539,7 +12525,7 @@
     <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>0_138</v>
+        <v>0_1113</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -12547,21 +12533,21 @@
       </c>
       <c r="D32" s="35">
         <f t="shared" si="1"/>
-        <v>137.37055196745928</v>
+        <v>1112.6913784537983</v>
       </c>
       <c r="E32">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>1113</v>
       </c>
       <c r="G32" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0138</v>
+        <v>1113</v>
       </c>
       <c r="H32" s="33">
-        <v>138</v>
+        <v>1113</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
@@ -12575,7 +12561,7 @@
     <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>0_165</v>
+        <v>0_1291</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -12583,21 +12569,21 @@
       </c>
       <c r="D33" s="35">
         <f t="shared" si="1"/>
-        <v>164.84466236095113</v>
+        <v>1290.7219990064059</v>
       </c>
       <c r="E33">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>1291</v>
       </c>
       <c r="G33" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0165</v>
+        <v>1291</v>
       </c>
       <c r="H33" s="33">
-        <v>165</v>
+        <v>1291</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -12611,7 +12597,7 @@
     <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>0_198</v>
+        <v>0_1498</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -12619,21 +12605,21 @@
       </c>
       <c r="D34" s="35">
         <f t="shared" si="1"/>
-        <v>197.81359483314137</v>
+        <v>1497.2375188474307</v>
       </c>
       <c r="E34">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>1498</v>
       </c>
       <c r="G34" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0198</v>
+        <v>1498</v>
       </c>
       <c r="H34" s="33">
-        <v>198</v>
+        <v>1498</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
@@ -12647,7 +12633,7 @@
     <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>0_238</v>
+        <v>0_1737</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -12655,21 +12641,21 @@
       </c>
       <c r="D35" s="35">
         <f t="shared" si="1"/>
-        <v>237.37631379976963</v>
+        <v>1736.7955218630195</v>
       </c>
       <c r="E35">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>1737</v>
       </c>
       <c r="G35" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0238</v>
+        <v>1737</v>
       </c>
       <c r="H35" s="33">
-        <v>238</v>
+        <v>1737</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
@@ -12683,7 +12669,7 @@
     <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>0_285</v>
+        <v>0_1980</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -12691,21 +12677,21 @@
       </c>
       <c r="D36" s="35">
         <f t="shared" si="1"/>
-        <v>284.85157655972353</v>
+        <v>1979.9468949238421</v>
       </c>
       <c r="E36">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>1980</v>
       </c>
       <c r="G36" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0285</v>
+        <v>1980</v>
       </c>
       <c r="H36" s="33">
-        <v>285</v>
+        <v>1980</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
@@ -12719,7 +12705,7 @@
     <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>0_342</v>
+        <v>0_2258</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -12727,21 +12713,21 @@
       </c>
       <c r="D37" s="35">
         <f t="shared" si="1"/>
-        <v>341.82189187166824</v>
+        <v>2257.13946021318</v>
       </c>
       <c r="E37">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>2258</v>
       </c>
       <c r="G37" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0342</v>
+        <v>2258</v>
       </c>
       <c r="H37" s="33">
-        <v>342</v>
+        <v>2258</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
@@ -12755,7 +12741,7 @@
     <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>0_411</v>
+        <v>0_2574</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -12763,21 +12749,21 @@
       </c>
       <c r="D38" s="35">
         <f t="shared" si="1"/>
-        <v>410.18627024600187</v>
+        <v>2573.1389846430247</v>
       </c>
       <c r="E38">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="0"/>
-        <v>411</v>
+        <v>2574</v>
       </c>
       <c r="G38" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0411</v>
+        <v>2574</v>
       </c>
       <c r="H38" s="33">
-        <v>411</v>
+        <v>2574</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
@@ -12791,7 +12777,7 @@
     <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>0_493</v>
+        <v>0_2934</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -12799,21 +12785,21 @@
       </c>
       <c r="D39" s="35">
         <f t="shared" si="1"/>
-        <v>492.2235242952022</v>
+        <v>2933.3784424930482</v>
       </c>
       <c r="E39">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>2934</v>
       </c>
       <c r="G39" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0493</v>
+        <v>2934</v>
       </c>
       <c r="H39" s="33">
-        <v>493</v>
+        <v>2934</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
@@ -12827,7 +12813,7 @@
     <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>0_591</v>
+        <v>0_3345</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -12835,21 +12821,21 @@
       </c>
       <c r="D40" s="35">
         <f t="shared" si="1"/>
-        <v>590.66822915424257</v>
+        <v>3344.0514244420747</v>
       </c>
       <c r="E40">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F40" s="15">
         <f t="shared" si="0"/>
-        <v>591</v>
+        <v>3345</v>
       </c>
       <c r="G40" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0591</v>
+        <v>3345</v>
       </c>
       <c r="H40" s="33">
-        <v>591</v>
+        <v>3345</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -12863,7 +12849,7 @@
     <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>0_709</v>
+        <v>0_3813</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -12871,21 +12857,21 @@
       </c>
       <c r="D41" s="35">
         <f t="shared" si="1"/>
-        <v>708.8018749850911</v>
-      </c>
-      <c r="E41">
-        <v>1.2</v>
+        <v>3812.2186238639647</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F41" s="15">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>3813</v>
       </c>
       <c r="G41" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0709</v>
+        <v>3813</v>
       </c>
       <c r="H41" s="33">
-        <v>709</v>
+        <v>3813</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
@@ -12899,7 +12885,7 @@
     <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>0_851</v>
+        <v>0_4270</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -12907,21 +12893,21 @@
       </c>
       <c r="D42" s="35">
         <f t="shared" si="1"/>
-        <v>850.56224998210928</v>
-      </c>
-      <c r="E42">
-        <v>1.2</v>
+        <v>4269.6848587276409</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="0"/>
-        <v>851</v>
+        <v>4270</v>
       </c>
       <c r="G42" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0851</v>
+        <v>4270</v>
       </c>
       <c r="H42" s="33">
-        <v>851</v>
+        <v>4270</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
@@ -12935,7 +12921,7 @@
     <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>0_1021</v>
+        <v>0_4783</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -12943,21 +12929,21 @@
       </c>
       <c r="D43" s="35">
         <f t="shared" si="1"/>
-        <v>1020.6746999785311</v>
-      </c>
-      <c r="E43">
-        <v>1.2</v>
+        <v>4782.0470417749584</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>4783</v>
       </c>
       <c r="G43" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1021</v>
+        <v>4783</v>
       </c>
       <c r="H43" s="33">
-        <v>1021</v>
+        <v>4783</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
@@ -12971,7 +12957,7 @@
     <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>0_1225</v>
+        <v>0_5356</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -12979,21 +12965,21 @@
       </c>
       <c r="D44" s="35">
         <f t="shared" si="1"/>
-        <v>1224.8096399742371</v>
-      </c>
-      <c r="E44">
-        <v>1.2</v>
+        <v>5355.8926867879536</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>5356</v>
       </c>
       <c r="G44" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1225</v>
+        <v>5356</v>
       </c>
       <c r="H44" s="33">
-        <v>1225</v>
+        <v>5356</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
@@ -13007,7 +12993,7 @@
     <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>0_1470</v>
+        <v>0_5999</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -13015,21 +13001,21 @@
       </c>
       <c r="D45" s="35">
         <f t="shared" si="1"/>
-        <v>1469.7715679690846</v>
-      </c>
-      <c r="E45">
-        <v>1.2</v>
+        <v>5998.5998092025084</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="0"/>
-        <v>1470</v>
+        <v>5999</v>
       </c>
       <c r="G45" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1470</v>
+        <v>5999</v>
       </c>
       <c r="H45" s="42">
-        <v>1470</v>
+        <v>5999</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
@@ -13043,7 +13029,7 @@
     <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>0_1764</v>
+        <v>0_6719</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -13051,21 +13037,21 @@
       </c>
       <c r="D46" s="35">
         <f t="shared" si="1"/>
-        <v>1763.7258815629013</v>
-      </c>
-      <c r="E46">
-        <v>1.2</v>
+        <v>6718.43178630681</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="0"/>
-        <v>1764</v>
+        <v>6719</v>
       </c>
       <c r="G46" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1764</v>
+        <v>6719</v>
       </c>
       <c r="H46" s="42">
-        <v>1764</v>
+        <v>6719</v>
       </c>
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
@@ -13079,7 +13065,7 @@
     <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>0_2117</v>
+        <v>0_7525</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -13087,21 +13073,21 @@
       </c>
       <c r="D47" s="35">
         <f t="shared" si="1"/>
-        <v>2116.4710578754816</v>
+        <v>7524.6436006636277</v>
       </c>
       <c r="E47">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="0"/>
-        <v>2117</v>
+        <v>7525</v>
       </c>
       <c r="G47" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2117</v>
+        <v>7525</v>
       </c>
       <c r="H47" s="42">
-        <v>2117</v>
+        <v>7525</v>
       </c>
       <c r="I47" s="42"/>
       <c r="J47" s="42"/>
@@ -13115,7 +13101,7 @@
     <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>0_2540</v>
+        <v>0_8278</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -13123,21 +13109,21 @@
       </c>
       <c r="D48" s="35">
         <f t="shared" si="1"/>
-        <v>2539.7652694505778</v>
+        <v>8277.1079607299907</v>
       </c>
       <c r="E48">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="0"/>
-        <v>2540</v>
+        <v>8278</v>
       </c>
       <c r="G48" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2540</v>
+        <v>8278</v>
       </c>
       <c r="H48" s="42">
-        <v>2540</v>
+        <v>8278</v>
       </c>
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
@@ -13151,7 +13137,7 @@
     <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>0_3048</v>
+        <v>0_9105</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -13159,21 +13145,21 @@
       </c>
       <c r="D49" s="35">
         <f t="shared" si="1"/>
-        <v>3047.7183233406931</v>
+        <v>9104.8187568029898</v>
       </c>
       <c r="E49">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="0"/>
-        <v>3048</v>
+        <v>9105</v>
       </c>
       <c r="G49" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3048</v>
+        <v>9105</v>
       </c>
       <c r="H49" s="42">
-        <v>3048</v>
+        <v>9105</v>
       </c>
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
@@ -13188,31 +13174,33 @@
     <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>0_3658</v>
+        <v>1_1,0_16</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="35">
         <f t="shared" si="1"/>
-        <v>3657.2619880088318</v>
+        <v>10015.30063248329</v>
       </c>
       <c r="E50">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="0"/>
-        <v>3658</v>
+        <v>10016</v>
       </c>
       <c r="G50" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3658</v>
+        <v>00010016</v>
       </c>
       <c r="H50" s="42">
-        <v>3658</v>
-      </c>
-      <c r="I50" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="42">
+        <v>16</v>
+      </c>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
       <c r="L50" s="15"/>
@@ -13225,31 +13213,33 @@
     <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>0_4389</v>
+        <v>1_1,0_1017</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="35">
         <f t="shared" si="1"/>
-        <v>4388.7143856105977</v>
+        <v>11016.83069573162</v>
       </c>
       <c r="E51">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="0"/>
-        <v>4389</v>
+        <v>11017</v>
       </c>
       <c r="G51" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>4389</v>
+        <v>00011017</v>
       </c>
       <c r="H51" s="42">
-        <v>4389</v>
-      </c>
-      <c r="I51" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="42">
+        <v>1017</v>
+      </c>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
       <c r="L51" s="15"/>
@@ -13262,31 +13252,33 @@
     <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>0_5267</v>
+        <v>1_1,0_2119</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="35">
         <f t="shared" si="1"/>
-        <v>5266.457262732717</v>
+        <v>12118.513765304782</v>
       </c>
       <c r="E52">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="0"/>
-        <v>5267</v>
+        <v>12119</v>
       </c>
       <c r="G52" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>5267</v>
+        <v>00012119</v>
       </c>
       <c r="H52" s="42">
-        <v>5267</v>
-      </c>
-      <c r="I52" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="42">
+        <v>2119</v>
+      </c>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="15"/>
@@ -13299,31 +13291,33 @@
     <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>0_6320</v>
+        <v>1_1,0_3331</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="35">
         <f t="shared" si="1"/>
-        <v>6319.7487152792601</v>
+        <v>13330.365141835262</v>
       </c>
       <c r="E53">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="0"/>
-        <v>6320</v>
+        <v>13331</v>
       </c>
       <c r="G53" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>6320</v>
+        <v>00013331</v>
       </c>
       <c r="H53" s="42">
-        <v>6320</v>
-      </c>
-      <c r="I53" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="42">
+        <v>3331</v>
+      </c>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
       <c r="L53" s="15"/>
@@ -13336,31 +13330,33 @@
     <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>0_7584</v>
+        <v>1_1,0_4664</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="35">
         <f t="shared" si="1"/>
-        <v>7583.6984583351114</v>
+        <v>14663.40165601879</v>
       </c>
       <c r="E54">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="0"/>
-        <v>7584</v>
+        <v>14664</v>
       </c>
       <c r="G54" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>7584</v>
+        <v>00014664</v>
       </c>
       <c r="H54" s="43">
-        <v>7584</v>
-      </c>
-      <c r="I54" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="43">
+        <v>4664</v>
+      </c>
       <c r="J54" s="43"/>
       <c r="K54" s="42"/>
       <c r="L54" s="15"/>
@@ -13373,31 +13369,33 @@
     <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>0_9101</v>
+        <v>1_1,0_5984</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="35">
         <f t="shared" si="1"/>
-        <v>9100.4381500021336</v>
+        <v>15983.107805060483</v>
       </c>
       <c r="E55">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="0"/>
-        <v>9101</v>
+        <v>15984</v>
       </c>
       <c r="G55" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>9101</v>
+        <v>00015984</v>
       </c>
       <c r="H55" s="43">
-        <v>9101</v>
-      </c>
-      <c r="I55" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="43">
+        <v>5984</v>
+      </c>
       <c r="J55" s="43"/>
       <c r="K55" s="42"/>
       <c r="L55" s="15"/>
@@ -13410,7 +13408,7 @@
     <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_921</v>
+        <v>1_1,0_7422</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -13418,24 +13416,24 @@
       </c>
       <c r="D56" s="35">
         <f t="shared" si="1"/>
-        <v>10920.525780002559</v>
+        <v>17421.587507515927</v>
       </c>
       <c r="E56">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="0"/>
-        <v>10921</v>
+        <v>17422</v>
       </c>
       <c r="G56" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00010921</v>
+        <v>00017422</v>
       </c>
       <c r="H56" s="43">
         <v>1</v>
       </c>
       <c r="I56" s="43">
-        <v>921</v>
+        <v>7422</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="42"/>
@@ -13449,7 +13447,7 @@
     <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_3105</v>
+        <v>1_1,0_8990</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -13457,24 +13455,24 @@
       </c>
       <c r="D57" s="35">
         <f t="shared" si="1"/>
-        <v>13104.63093600307</v>
+        <v>18989.530383192363</v>
       </c>
       <c r="E57">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="0"/>
-        <v>13105</v>
+        <v>18990</v>
       </c>
       <c r="G57" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00013105</v>
+        <v>00018990</v>
       </c>
       <c r="H57" s="43">
         <v>1</v>
       </c>
       <c r="I57" s="43">
-        <v>3105</v>
+        <v>8990</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="42"/>
@@ -13488,7 +13486,7 @@
     <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_5726</v>
+        <v>1_2,0_699</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -13496,24 +13494,24 @@
       </c>
       <c r="D58" s="35">
         <f t="shared" si="1"/>
-        <v>15725.557123203684</v>
+        <v>20698.588117679676</v>
       </c>
       <c r="E58">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="0"/>
-        <v>15726</v>
+        <v>20699</v>
       </c>
       <c r="G58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00015726</v>
+        <v>00020699</v>
       </c>
       <c r="H58" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="43">
-        <v>5726</v>
+        <v>699</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="42"/>
@@ -13527,7 +13525,7 @@
     <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_8871</v>
+        <v>1_2,0_2562</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -13535,24 +13533,24 @@
       </c>
       <c r="D59" s="35">
         <f t="shared" si="1"/>
-        <v>18870.66854784442</v>
+        <v>22561.461048270849</v>
       </c>
       <c r="E59">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="0"/>
-        <v>18871</v>
+        <v>22562</v>
       </c>
       <c r="G59" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00018871</v>
+        <v>00022562</v>
       </c>
       <c r="H59" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="43">
-        <v>8871</v>
+        <v>2562</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="42"/>
@@ -13566,7 +13564,7 @@
     <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_2645</v>
+        <v>1_2,0_4592</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -13574,24 +13572,24 @@
       </c>
       <c r="D60" s="35">
         <f t="shared" si="1"/>
-        <v>22644.802257413303</v>
+        <v>24591.992542615226</v>
       </c>
       <c r="E60">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="0"/>
-        <v>22645</v>
+        <v>24592</v>
       </c>
       <c r="G60" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00022645</v>
+        <v>00024592</v>
       </c>
       <c r="H60" s="43">
         <v>2</v>
       </c>
       <c r="I60" s="43">
-        <v>2645</v>
+        <v>4592</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="42"/>
@@ -13605,7 +13603,7 @@
     <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_7174</v>
+        <v>1_2,0_6560</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -13613,24 +13611,24 @@
       </c>
       <c r="D61" s="35">
         <f t="shared" si="1"/>
-        <v>27173.762708895963</v>
+        <v>26559.351946024446</v>
       </c>
       <c r="E61">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="0"/>
-        <v>27174</v>
+        <v>26560</v>
       </c>
       <c r="G61" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00027174</v>
+        <v>00026560</v>
       </c>
       <c r="H61" s="43">
         <v>2</v>
       </c>
       <c r="I61" s="43">
-        <v>7174</v>
+        <v>6560</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="42"/>
@@ -13644,7 +13642,7 @@
     <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_2609</v>
+        <v>1_2,0_8685</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
@@ -13652,24 +13650,24 @@
       </c>
       <c r="D62" s="35">
         <f t="shared" si="1"/>
-        <v>32608.515250675155</v>
+        <v>28684.100101706405</v>
       </c>
       <c r="E62">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="0"/>
-        <v>32609</v>
+        <v>28685</v>
       </c>
       <c r="G62" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00032609</v>
+        <v>00028685</v>
       </c>
       <c r="H62" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" s="42">
-        <v>2609</v>
+        <v>8685</v>
       </c>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
@@ -13683,7 +13681,7 @@
     <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_9131</v>
+        <v>1_3,0_979</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
@@ -13691,24 +13689,24 @@
       </c>
       <c r="D63" s="35">
         <f t="shared" si="1"/>
-        <v>39130.218300810186</v>
+        <v>30978.828109842918</v>
       </c>
       <c r="E63">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="0"/>
-        <v>39131</v>
+        <v>30979</v>
       </c>
       <c r="G63" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00039131</v>
+        <v>00030979</v>
       </c>
       <c r="H63" s="42">
         <v>3</v>
       </c>
       <c r="I63" s="42">
-        <v>9131</v>
+        <v>979</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
@@ -13722,7 +13720,7 @@
     <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_6957</v>
+        <v>1_3,0_3458</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
@@ -13730,24 +13728,24 @@
       </c>
       <c r="D64" s="35">
         <f t="shared" si="1"/>
-        <v>46956.261960972224</v>
+        <v>33457.134358630356</v>
       </c>
       <c r="E64">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="0"/>
-        <v>46957</v>
+        <v>33458</v>
       </c>
       <c r="G64" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00046957</v>
+        <v>00033458</v>
       </c>
       <c r="H64" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" s="42">
-        <v>6957</v>
+        <v>3458</v>
       </c>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
@@ -13761,7 +13759,7 @@
     <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>1_5,0_6348</v>
+        <v>1_3,0_6134</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
@@ -13769,24 +13767,24 @@
       </c>
       <c r="D65" s="35">
         <f t="shared" si="1"/>
-        <v>56347.514353166669</v>
+        <v>36133.705107320784</v>
       </c>
       <c r="E65">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="0"/>
-        <v>56348</v>
+        <v>36134</v>
       </c>
       <c r="G65" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00056348</v>
+        <v>00036134</v>
       </c>
       <c r="H65" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I65" s="42">
-        <v>6348</v>
+        <v>6134</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
@@ -13800,7 +13798,7 @@
     <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>1_6,0_7618</v>
+        <v>1_3,0_9025</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
@@ -13808,24 +13806,24 @@
       </c>
       <c r="D66" s="35">
         <f t="shared" si="1"/>
-        <v>67617.017223799994</v>
+        <v>39024.401515906451</v>
       </c>
       <c r="E66">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="0"/>
-        <v>67618</v>
+        <v>39025</v>
       </c>
       <c r="G66" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00067618</v>
+        <v>00039025</v>
       </c>
       <c r="H66" s="42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I66" s="42">
-        <v>7618</v>
+        <v>9025</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="42"/>
@@ -13839,7 +13837,7 @@
     <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>1_8,0_1141</v>
+        <v>1_4,0_1757</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
@@ -13847,24 +13845,24 @@
       </c>
       <c r="D67" s="35">
         <f t="shared" si="1"/>
-        <v>81140.420668559993</v>
+        <v>41756.109622019903</v>
       </c>
       <c r="E67">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="0"/>
-        <v>81141</v>
+        <v>41757</v>
       </c>
       <c r="G67" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00081141</v>
+        <v>00041757</v>
       </c>
       <c r="H67" s="42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I67" s="42">
-        <v>1141</v>
+        <v>1757</v>
       </c>
       <c r="J67" s="42"/>
       <c r="K67" s="42"/>
@@ -13878,7 +13876,7 @@
     <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>1_9,0_7369</v>
+        <v>1_4,0_4680</v>
       </c>
       <c r="C68">
         <f>COUNTIF(H68:W68,"&gt;-1")</f>
@@ -13886,24 +13884,24 @@
       </c>
       <c r="D68" s="35">
         <f t="shared" si="1"/>
-        <v>97368.504802271986</v>
+        <v>44679.037295561298</v>
       </c>
       <c r="E68">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="0"/>
-        <v>97369</v>
+        <v>44680</v>
       </c>
       <c r="G68" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00097369</v>
+        <v>00044680</v>
       </c>
       <c r="H68" s="43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I68" s="43">
-        <v>7369</v>
+        <v>4680</v>
       </c>
       <c r="J68" s="43"/>
       <c r="K68" s="43"/>
@@ -13917,7 +13915,7 @@
     <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>1_11,0_6843</v>
+        <v>1_4,0_7807</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -13925,24 +13923,24 @@
       </c>
       <c r="D69" s="35">
         <f t="shared" si="1"/>
-        <v>116842.20576272639</v>
+        <v>47806.569906250596</v>
       </c>
       <c r="E69">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" ref="F69:F95" si="5">ROUNDUP(D69,0)</f>
-        <v>116843</v>
+        <v>47807</v>
       </c>
       <c r="G69" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00116843</v>
+        <v>00047807</v>
       </c>
       <c r="H69" s="43">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I69" s="43">
-        <v>6843</v>
+        <v>7807</v>
       </c>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
@@ -13956,7 +13954,7 @@
     <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>1_14,0_211</v>
+        <v>1_5,0_1154</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -13964,24 +13962,24 @@
       </c>
       <c r="D70" s="35">
         <f t="shared" ref="D70:D95" si="6">D69*E69</f>
-        <v>140210.64691527165</v>
+        <v>51153.029799688142</v>
       </c>
       <c r="E70">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>140211</v>
+        <v>51154</v>
       </c>
       <c r="G70" s="32" t="str">
         <f t="shared" ref="G70:G95" si="7">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
-        <v>00140211</v>
+        <v>00051154</v>
       </c>
       <c r="H70" s="43">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I70" s="43">
-        <v>211</v>
+        <v>1154</v>
       </c>
       <c r="J70" s="43"/>
       <c r="K70" s="43"/>
@@ -13995,7 +13993,7 @@
     <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>1_16,0_8253</v>
+        <v>1_5,0_4734</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C95" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
@@ -14003,24 +14001,24 @@
       </c>
       <c r="D71" s="35">
         <f t="shared" si="6"/>
-        <v>168252.77629832597</v>
+        <v>54733.741885666313</v>
       </c>
       <c r="E71">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>168253</v>
+        <v>54734</v>
       </c>
       <c r="G71" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00168253</v>
+        <v>00054734</v>
       </c>
       <c r="H71" s="43">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I71" s="43">
-        <v>8253</v>
+        <v>4734</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="43"/>
@@ -14034,7 +14032,7 @@
     <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
-        <v>1_20,0_1904</v>
+        <v>1_5,0_8566</v>
       </c>
       <c r="C72">
         <f t="shared" si="9"/>
@@ -14042,24 +14040,24 @@
       </c>
       <c r="D72" s="35">
         <f t="shared" si="6"/>
-        <v>201903.33155799116</v>
+        <v>58565.103817662959</v>
       </c>
       <c r="E72">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>201904</v>
+        <v>58566</v>
       </c>
       <c r="G72" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00201904</v>
+        <v>00058566</v>
       </c>
       <c r="H72" s="43">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I72" s="43">
-        <v>1904</v>
+        <v>8566</v>
       </c>
       <c r="J72" s="43"/>
       <c r="K72" s="43"/>
@@ -14073,7 +14071,7 @@
     <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
-        <v>1_24,0_2284</v>
+        <v>1_6,0_2080</v>
       </c>
       <c r="C73">
         <f t="shared" si="9"/>
@@ -14081,24 +14079,24 @@
       </c>
       <c r="D73" s="35">
         <f t="shared" si="6"/>
-        <v>242283.99786958937</v>
+        <v>62079.010046722738</v>
       </c>
       <c r="E73">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>242284</v>
+        <v>62080</v>
       </c>
       <c r="G73" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00242284</v>
+        <v>00062080</v>
       </c>
       <c r="H73" s="43">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I73" s="43">
-        <v>2284</v>
+        <v>2080</v>
       </c>
       <c r="J73" s="43"/>
       <c r="K73" s="43"/>
@@ -14112,7 +14110,7 @@
     <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
-        <v>1_29,0_741</v>
+        <v>1_6,0_5804</v>
       </c>
       <c r="C74">
         <f t="shared" si="9"/>
@@ -14120,24 +14118,24 @@
       </c>
       <c r="D74" s="35">
         <f t="shared" si="6"/>
-        <v>290740.79744350724</v>
+        <v>65803.750649526104</v>
       </c>
       <c r="E74">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>290741</v>
+        <v>65804</v>
       </c>
       <c r="G74" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00290741</v>
+        <v>00065804</v>
       </c>
       <c r="H74" s="43">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I74" s="43">
-        <v>741</v>
+        <v>5804</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -14151,7 +14149,7 @@
     <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
-        <v>1_34,0_8889</v>
+        <v>1_6,0_9752</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
@@ -14159,24 +14157,24 @@
       </c>
       <c r="D75" s="35">
         <f t="shared" si="6"/>
-        <v>348888.95693220868</v>
+        <v>69751.975688497667</v>
       </c>
       <c r="E75">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="5"/>
-        <v>348889</v>
+        <v>69752</v>
       </c>
       <c r="G75" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00348889</v>
+        <v>00069752</v>
       </c>
       <c r="H75" s="43">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I75" s="43">
-        <v>8889</v>
+        <v>9752</v>
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="43"/>
@@ -14190,7 +14188,7 @@
     <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
-        <v>1_41,0_8667</v>
+        <v>1_7,0_3938</v>
       </c>
       <c r="C76">
         <f t="shared" si="9"/>
@@ -14198,24 +14196,24 @@
       </c>
       <c r="D76" s="35">
         <f t="shared" si="6"/>
-        <v>418666.74831865041</v>
+        <v>73937.094229807524</v>
       </c>
       <c r="E76">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>418667</v>
+        <v>73938</v>
       </c>
       <c r="G76" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00418667</v>
+        <v>00073938</v>
       </c>
       <c r="H76" s="43">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I76" s="43">
-        <v>8667</v>
+        <v>3938</v>
       </c>
       <c r="J76" s="43"/>
       <c r="K76" s="43"/>
@@ -14229,7 +14227,7 @@
     <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
-        <v>1_50,0_2401</v>
+        <v>1_7,0_8374</v>
       </c>
       <c r="C77">
         <f t="shared" si="9"/>
@@ -14237,24 +14235,24 @@
       </c>
       <c r="D77" s="35">
         <f t="shared" si="6"/>
-        <v>502400.09798238048</v>
+        <v>78373.319883595977</v>
       </c>
       <c r="E77">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>502401</v>
+        <v>78374</v>
       </c>
       <c r="G77" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00502401</v>
+        <v>00078374</v>
       </c>
       <c r="H77" s="43">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I77" s="43">
-        <v>2401</v>
+        <v>8374</v>
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
@@ -14268,7 +14266,7 @@
     <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
-        <v>1_60,0_2881</v>
+        <v>1_8,0_3076</v>
       </c>
       <c r="C78">
         <f t="shared" si="9"/>
@@ -14276,24 +14274,24 @@
       </c>
       <c r="D78" s="35">
         <f t="shared" si="6"/>
-        <v>602880.11757885653</v>
+        <v>83075.719076611742</v>
       </c>
       <c r="E78">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>602881</v>
+        <v>83076</v>
       </c>
       <c r="G78" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00602881</v>
+        <v>00083076</v>
       </c>
       <c r="H78" s="43">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I78" s="43">
-        <v>2881</v>
+        <v>3076</v>
       </c>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
@@ -14307,7 +14305,7 @@
     <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
-        <v>1_72,0_3457</v>
+        <v>1_8,0_7230</v>
       </c>
       <c r="C79">
         <f>COUNTIF(H79:W79,"&gt;-1")</f>
@@ -14315,24 +14313,24 @@
       </c>
       <c r="D79" s="35">
         <f t="shared" si="6"/>
-        <v>723456.14109462779</v>
+        <v>87229.505030442335</v>
       </c>
       <c r="E79">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>723457</v>
+        <v>87230</v>
       </c>
       <c r="G79" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00723457</v>
+        <v>00087230</v>
       </c>
       <c r="H79" s="33">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I79" s="43">
-        <v>3457</v>
+        <v>7230</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="33"/>
@@ -14346,7 +14344,7 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
-        <v>1_86,0_8148</v>
+        <v>1_9,0_1591</v>
       </c>
       <c r="C80">
         <f t="shared" si="9"/>
@@ -14354,30 +14352,30 @@
       </c>
       <c r="D80" s="35">
         <f t="shared" si="6"/>
-        <v>868147.36931355332</v>
+        <v>91590.980281964454</v>
       </c>
       <c r="E80">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="5"/>
-        <v>868148</v>
+        <v>91591</v>
       </c>
       <c r="G80" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00868148</v>
+        <v>00091591</v>
       </c>
       <c r="H80">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I80" s="31">
-        <v>8148</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
-        <v>1_104,0_1777</v>
+        <v>1_9,0_6171</v>
       </c>
       <c r="C81">
         <f t="shared" si="9"/>
@@ -14385,30 +14383,30 @@
       </c>
       <c r="D81" s="35">
         <f t="shared" si="6"/>
-        <v>1041776.843176264</v>
+        <v>96170.529296062683</v>
       </c>
       <c r="E81">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>1041777</v>
+        <v>96171</v>
       </c>
       <c r="G81" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>01041777</v>
+        <v>00096171</v>
       </c>
       <c r="H81">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="I81" s="31">
-        <v>1777</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
-        <v>1_125,0_133</v>
+        <v>1_10,0_980</v>
       </c>
       <c r="C82">
         <f t="shared" si="9"/>
@@ -14416,30 +14414,30 @@
       </c>
       <c r="D82" s="35">
         <f t="shared" si="6"/>
-        <v>1250132.2118115167</v>
+        <v>100979.05576086583</v>
       </c>
       <c r="E82">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="5"/>
-        <v>1250133</v>
+        <v>100980</v>
       </c>
       <c r="G82" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>01250133</v>
+        <v>00100980</v>
       </c>
       <c r="H82">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="I82" s="31">
-        <v>133</v>
+        <v>980</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
-        <v>1_150,0_159</v>
+        <v>1_10,0_6029</v>
       </c>
       <c r="C83">
         <f t="shared" si="9"/>
@@ -14447,30 +14445,30 @@
       </c>
       <c r="D83" s="35">
         <f t="shared" si="6"/>
-        <v>1500158.65417382</v>
+        <v>106028.00854890913</v>
       </c>
       <c r="E83">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="5"/>
-        <v>1500159</v>
+        <v>106029</v>
       </c>
       <c r="G83" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>01500159</v>
+        <v>00106029</v>
       </c>
       <c r="H83">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I83" s="31">
-        <v>159</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
-        <v>1_180,0_191</v>
+        <v>1_11,0_1330</v>
       </c>
       <c r="C84">
         <f t="shared" si="9"/>
@@ -14478,30 +14476,30 @@
       </c>
       <c r="D84" s="35">
         <f t="shared" si="6"/>
-        <v>1800190.385008584</v>
+        <v>111329.40897635459</v>
       </c>
       <c r="E84">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F84" s="15">
         <f t="shared" si="5"/>
-        <v>1800191</v>
+        <v>111330</v>
       </c>
       <c r="G84" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>01800191</v>
+        <v>00111330</v>
       </c>
       <c r="H84">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="I84" s="31">
-        <v>191</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
-        <v>1_216,0_229</v>
+        <v>1_11,0_5783</v>
       </c>
       <c r="C85">
         <f t="shared" si="9"/>
@@ -14509,30 +14507,30 @@
       </c>
       <c r="D85" s="35">
         <f t="shared" si="6"/>
-        <v>2160228.4620103007</v>
+        <v>115782.58533540877</v>
       </c>
       <c r="E85">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F85" s="15">
         <f t="shared" si="5"/>
-        <v>2160229</v>
+        <v>115783</v>
       </c>
       <c r="G85" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>02160229</v>
+        <v>00115783</v>
       </c>
       <c r="H85">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="I85" s="31">
-        <v>229</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
-        <v>1_259,0_2275</v>
+        <v>1_12,0_414</v>
       </c>
       <c r="C86">
         <f t="shared" si="9"/>
@@ -14540,30 +14538,30 @@
       </c>
       <c r="D86" s="35">
         <f t="shared" si="6"/>
-        <v>2592274.1544123609</v>
+        <v>120413.88874882513</v>
       </c>
       <c r="E86">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="5"/>
-        <v>2592275</v>
+        <v>120414</v>
       </c>
       <c r="G86" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>02592275</v>
+        <v>00120414</v>
       </c>
       <c r="H86">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I86" s="31">
-        <v>2275</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
-        <v>1_311,0_729</v>
+        <v>1_12,0_5231</v>
       </c>
       <c r="C87">
         <f t="shared" si="9"/>
@@ -14571,30 +14569,30 @@
       </c>
       <c r="D87" s="35">
         <f t="shared" si="6"/>
-        <v>3110728.9852948328</v>
+        <v>125230.44429877815</v>
       </c>
       <c r="E87">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="5"/>
-        <v>3110729</v>
+        <v>125231</v>
       </c>
       <c r="G87" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>03110729</v>
+        <v>00125231</v>
       </c>
       <c r="H87">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I87" s="31">
-        <v>729</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
-        <v>1_373,0_2875</v>
+        <v>1_13,0_240</v>
       </c>
       <c r="C88">
         <f t="shared" si="9"/>
@@ -14602,30 +14600,30 @@
       </c>
       <c r="D88" s="35">
         <f t="shared" si="6"/>
-        <v>3732874.7823537993</v>
+        <v>130239.66207072928</v>
       </c>
       <c r="E88">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F88" s="15">
         <f t="shared" si="5"/>
-        <v>3732875</v>
+        <v>130240</v>
       </c>
       <c r="G88" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>03732875</v>
+        <v>00130240</v>
       </c>
       <c r="H88">
-        <v>373</v>
+        <v>13</v>
       </c>
       <c r="I88" s="31">
-        <v>2875</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
-        <v>1_447,0_9450</v>
+        <v>1_13,0_5450</v>
       </c>
       <c r="C89">
         <f t="shared" si="9"/>
@@ -14633,30 +14631,30 @@
       </c>
       <c r="D89" s="35">
         <f t="shared" si="6"/>
-        <v>4479449.7388245594</v>
+        <v>135449.24855355846</v>
       </c>
       <c r="E89">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F89" s="15">
         <f t="shared" si="5"/>
-        <v>4479450</v>
+        <v>135450</v>
       </c>
       <c r="G89" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>04479450</v>
+        <v>00135450</v>
       </c>
       <c r="H89">
-        <v>447</v>
+        <v>13</v>
       </c>
       <c r="I89" s="31">
-        <v>9450</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
-        <v>1_537,0_5340</v>
+        <v>1_14,0_868</v>
       </c>
       <c r="C90">
         <f t="shared" si="9"/>
@@ -14664,30 +14662,30 @@
       </c>
       <c r="D90" s="35">
         <f t="shared" si="6"/>
-        <v>5375339.6865894711</v>
+        <v>140867.2184957008</v>
       </c>
       <c r="E90">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="5"/>
-        <v>5375340</v>
+        <v>140868</v>
       </c>
       <c r="G90" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>05375340</v>
+        <v>00140868</v>
       </c>
       <c r="H90">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="I90" s="31">
-        <v>5340</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
-        <v>1_645,0_408</v>
+        <v>1_14,0_5094</v>
       </c>
       <c r="C91">
         <f t="shared" si="9"/>
@@ -14695,30 +14693,30 @@
       </c>
       <c r="D91" s="35">
         <f t="shared" si="6"/>
-        <v>6450407.6239073649</v>
+        <v>145093.23505057182</v>
       </c>
       <c r="E91">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F91" s="15">
         <f t="shared" si="5"/>
-        <v>6450408</v>
+        <v>145094</v>
       </c>
       <c r="G91" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>06450408</v>
+        <v>00145094</v>
       </c>
       <c r="H91">
-        <v>645</v>
+        <v>14</v>
       </c>
       <c r="I91" s="31">
-        <v>408</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
-        <v>1_774,0_490</v>
+        <v>1_14,0_9447</v>
       </c>
       <c r="C92">
         <f t="shared" si="9"/>
@@ -14726,30 +14724,30 @@
       </c>
       <c r="D92" s="35">
         <f t="shared" si="6"/>
-        <v>7740489.1486888379</v>
+        <v>149446.03210208897</v>
       </c>
       <c r="E92">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F92" s="15">
         <f t="shared" si="5"/>
-        <v>7740490</v>
+        <v>149447</v>
       </c>
       <c r="G92" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>07740490</v>
+        <v>00149447</v>
       </c>
       <c r="H92">
-        <v>774</v>
+        <v>14</v>
       </c>
       <c r="I92" s="31">
-        <v>490</v>
+        <v>9447</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
-        <v>1_928,0_8587</v>
+        <v>1_15,0_3930</v>
       </c>
       <c r="C93">
         <f t="shared" si="9"/>
@@ -14757,30 +14755,30 @@
       </c>
       <c r="D93" s="35">
         <f t="shared" si="6"/>
-        <v>9288586.9784266055</v>
+        <v>153929.41306515163</v>
       </c>
       <c r="E93">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F93" s="15">
         <f t="shared" si="5"/>
-        <v>9288587</v>
+        <v>153930</v>
       </c>
       <c r="G93" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>09288587</v>
+        <v>00153930</v>
       </c>
       <c r="H93">
-        <v>928</v>
+        <v>15</v>
       </c>
       <c r="I93" s="31">
-        <v>8587</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
-        <v>1_1114,0_6305</v>
+        <v>1_15,0_8548</v>
       </c>
       <c r="C94">
         <f t="shared" si="9"/>
@@ -14788,30 +14786,30 @@
       </c>
       <c r="D94" s="35">
         <f t="shared" si="6"/>
-        <v>11146304.374111926</v>
+        <v>158547.29545710617</v>
       </c>
       <c r="E94">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F94" s="15">
         <f t="shared" si="5"/>
-        <v>11146305</v>
+        <v>158548</v>
       </c>
       <c r="G94" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>11146305</v>
+        <v>00158548</v>
       </c>
       <c r="H94">
-        <v>1114</v>
+        <v>15</v>
       </c>
       <c r="I94" s="31">
-        <v>6305</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
-        <v>1_1337,0_5566</v>
+        <v>1_16,0_3304</v>
       </c>
       <c r="C95">
         <f t="shared" si="9"/>
@@ -14819,24 +14817,24 @@
       </c>
       <c r="D95" s="35">
         <f t="shared" si="6"/>
-        <v>13375565.248934312</v>
+        <v>163303.71432081936</v>
       </c>
       <c r="E95">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F95" s="15">
         <f t="shared" si="5"/>
-        <v>13375566</v>
+        <v>163304</v>
       </c>
       <c r="G95" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>13375566</v>
+        <v>00163304</v>
       </c>
       <c r="H95">
-        <v>1337</v>
+        <v>16</v>
       </c>
       <c r="I95" s="31">
-        <v>5566</v>
+        <v>3304</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
@@ -399,9 +399,6 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>0_39</t>
-  </si>
-  <si>
     <t>锦绣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,268 +847,271 @@
     <t>0_2</t>
   </si>
   <si>
-    <t>0_3</t>
-  </si>
-  <si>
-    <t>0_5</t>
-  </si>
-  <si>
-    <t>0_7</t>
-  </si>
-  <si>
-    <t>0_11</t>
-  </si>
-  <si>
-    <t>0_15</t>
-  </si>
-  <si>
-    <t>0_20</t>
-  </si>
-  <si>
-    <t>0_28</t>
-  </si>
-  <si>
-    <t>0_55</t>
-  </si>
-  <si>
-    <t>0_77</t>
-  </si>
-  <si>
-    <t>0_92</t>
-  </si>
-  <si>
-    <t>0_110</t>
-  </si>
-  <si>
-    <t>0_132</t>
-  </si>
-  <si>
-    <t>0_159</t>
-  </si>
-  <si>
-    <t>0_190</t>
-  </si>
-  <si>
-    <t>0_228</t>
-  </si>
-  <si>
-    <t>0_269</t>
-  </si>
-  <si>
     <t>0_317</t>
   </si>
   <si>
-    <t>0_375</t>
-  </si>
-  <si>
-    <t>0_442</t>
-  </si>
-  <si>
-    <t>0_521</t>
-  </si>
-  <si>
-    <t>0_615</t>
-  </si>
-  <si>
-    <t>0_713</t>
-  </si>
-  <si>
-    <t>0_827</t>
-  </si>
-  <si>
-    <t>0_960</t>
-  </si>
-  <si>
-    <t>0_1113</t>
-  </si>
-  <si>
-    <t>0_1291</t>
-  </si>
-  <si>
-    <t>0_1498</t>
-  </si>
-  <si>
-    <t>0_1737</t>
-  </si>
-  <si>
-    <t>0_1980</t>
-  </si>
-  <si>
-    <t>0_2258</t>
-  </si>
-  <si>
-    <t>0_2574</t>
-  </si>
-  <si>
-    <t>0_2934</t>
-  </si>
-  <si>
-    <t>0_3345</t>
-  </si>
-  <si>
-    <t>0_3813</t>
-  </si>
-  <si>
-    <t>0_4270</t>
-  </si>
-  <si>
-    <t>0_4783</t>
-  </si>
-  <si>
-    <t>0_5356</t>
-  </si>
-  <si>
-    <t>0_5999</t>
-  </si>
-  <si>
-    <t>0_6719</t>
-  </si>
-  <si>
-    <t>0_7525</t>
-  </si>
-  <si>
-    <t>0_8278</t>
-  </si>
-  <si>
-    <t>0_9105</t>
-  </si>
-  <si>
-    <t>1_1,0_16</t>
-  </si>
-  <si>
-    <t>1_1,0_1017</t>
-  </si>
-  <si>
-    <t>1_1,0_2119</t>
-  </si>
-  <si>
-    <t>1_1,0_3331</t>
-  </si>
-  <si>
-    <t>1_1,0_4664</t>
-  </si>
-  <si>
-    <t>1_1,0_5984</t>
-  </si>
-  <si>
-    <t>1_1,0_7422</t>
-  </si>
-  <si>
-    <t>1_1,0_8990</t>
-  </si>
-  <si>
-    <t>1_2,0_699</t>
-  </si>
-  <si>
-    <t>1_2,0_2562</t>
-  </si>
-  <si>
-    <t>1_2,0_4592</t>
-  </si>
-  <si>
-    <t>1_2,0_6560</t>
-  </si>
-  <si>
-    <t>1_2,0_8685</t>
-  </si>
-  <si>
-    <t>1_3,0_979</t>
-  </si>
-  <si>
-    <t>1_3,0_3458</t>
-  </si>
-  <si>
-    <t>1_3,0_6134</t>
-  </si>
-  <si>
-    <t>1_3,0_9025</t>
-  </si>
-  <si>
-    <t>1_4,0_1757</t>
-  </si>
-  <si>
-    <t>1_4,0_4680</t>
-  </si>
-  <si>
-    <t>1_4,0_7807</t>
-  </si>
-  <si>
-    <t>1_5,0_1154</t>
-  </si>
-  <si>
-    <t>1_5,0_4734</t>
-  </si>
-  <si>
-    <t>1_5,0_8566</t>
-  </si>
-  <si>
-    <t>1_6,0_2080</t>
-  </si>
-  <si>
-    <t>1_6,0_5804</t>
-  </si>
-  <si>
-    <t>1_6,0_9752</t>
-  </si>
-  <si>
-    <t>1_7,0_3938</t>
-  </si>
-  <si>
-    <t>1_7,0_8374</t>
-  </si>
-  <si>
-    <t>1_8,0_3076</t>
-  </si>
-  <si>
-    <t>1_8,0_7230</t>
-  </si>
-  <si>
-    <t>1_9,0_1591</t>
-  </si>
-  <si>
-    <t>1_9,0_6171</t>
-  </si>
-  <si>
-    <t>1_10,0_980</t>
-  </si>
-  <si>
-    <t>1_10,0_6029</t>
-  </si>
-  <si>
-    <t>1_11,0_1330</t>
-  </si>
-  <si>
-    <t>1_11,0_5783</t>
-  </si>
-  <si>
-    <t>1_12,0_414</t>
-  </si>
-  <si>
-    <t>1_12,0_5231</t>
-  </si>
-  <si>
-    <t>1_13,0_240</t>
-  </si>
-  <si>
-    <t>1_13,0_5450</t>
-  </si>
-  <si>
-    <t>1_14,0_868</t>
-  </si>
-  <si>
-    <t>1_14,0_5094</t>
-  </si>
-  <si>
-    <t>1_14,0_9447</t>
-  </si>
-  <si>
-    <t>1_15,0_3930</t>
-  </si>
-  <si>
-    <t>1_15,0_8548</t>
-  </si>
-  <si>
-    <t>1_16,0_3304</t>
+    <t>0_4</t>
+  </si>
+  <si>
+    <t>0_6</t>
+  </si>
+  <si>
+    <t>0_9</t>
+  </si>
+  <si>
+    <t>0_14</t>
+  </si>
+  <si>
+    <t>0_21</t>
+  </si>
+  <si>
+    <t>0_29</t>
+  </si>
+  <si>
+    <t>0_40</t>
+  </si>
+  <si>
+    <t>0_56</t>
+  </si>
+  <si>
+    <t>0_78</t>
+  </si>
+  <si>
+    <t>0_109</t>
+  </si>
+  <si>
+    <t>0_153</t>
+  </si>
+  <si>
+    <t>0_183</t>
+  </si>
+  <si>
+    <t>0_220</t>
+  </si>
+  <si>
+    <t>0_264</t>
+  </si>
+  <si>
+    <t>0_380</t>
+  </si>
+  <si>
+    <t>0_456</t>
+  </si>
+  <si>
+    <t>0_538</t>
+  </si>
+  <si>
+    <t>0_634</t>
+  </si>
+  <si>
+    <t>0_749</t>
+  </si>
+  <si>
+    <t>0_883</t>
+  </si>
+  <si>
+    <t>0_1042</t>
+  </si>
+  <si>
+    <t>0_1230</t>
+  </si>
+  <si>
+    <t>0_1426</t>
+  </si>
+  <si>
+    <t>0_1654</t>
+  </si>
+  <si>
+    <t>0_1919</t>
+  </si>
+  <si>
+    <t>0_2226</t>
+  </si>
+  <si>
+    <t>0_2582</t>
+  </si>
+  <si>
+    <t>0_2995</t>
+  </si>
+  <si>
+    <t>0_3414</t>
+  </si>
+  <si>
+    <t>0_3892</t>
+  </si>
+  <si>
+    <t>0_4437</t>
+  </si>
+  <si>
+    <t>0_5058</t>
+  </si>
+  <si>
+    <t>0_5766</t>
+  </si>
+  <si>
+    <t>0_6573</t>
+  </si>
+  <si>
+    <t>0_7362</t>
+  </si>
+  <si>
+    <t>0_8245</t>
+  </si>
+  <si>
+    <t>0_9235</t>
+  </si>
+  <si>
+    <t>1_1,0_343</t>
+  </si>
+  <si>
+    <t>1_1,0_1584</t>
+  </si>
+  <si>
+    <t>1_1,0_2974</t>
+  </si>
+  <si>
+    <t>1_1,0_4271</t>
+  </si>
+  <si>
+    <t>1_1,0_5698</t>
+  </si>
+  <si>
+    <t>1_1,0_7268</t>
+  </si>
+  <si>
+    <t>1_1,0_8995</t>
+  </si>
+  <si>
+    <t>1_2,0_894</t>
+  </si>
+  <si>
+    <t>1_2,0_2984</t>
+  </si>
+  <si>
+    <t>1_2,0_5052</t>
+  </si>
+  <si>
+    <t>1_2,0_7307</t>
+  </si>
+  <si>
+    <t>1_2,0_9765</t>
+  </si>
+  <si>
+    <t>1_3,0_2443</t>
+  </si>
+  <si>
+    <t>1_3,0_5363</t>
+  </si>
+  <si>
+    <t>1_3,0_8546</t>
+  </si>
+  <si>
+    <t>1_4,0_1630</t>
+  </si>
+  <si>
+    <t>1_4,0_4960</t>
+  </si>
+  <si>
+    <t>1_4,0_8557</t>
+  </si>
+  <si>
+    <t>1_5,0_2441</t>
+  </si>
+  <si>
+    <t>1_5,0_6636</t>
+  </si>
+  <si>
+    <t>1_6,0_1167</t>
+  </si>
+  <si>
+    <t>1_6,0_5449</t>
+  </si>
+  <si>
+    <t>1_7,0_30</t>
+  </si>
+  <si>
+    <t>1_7,0_4932</t>
+  </si>
+  <si>
+    <t>1_8,0_178</t>
+  </si>
+  <si>
+    <t>1_8,0_5790</t>
+  </si>
+  <si>
+    <t>1_9,0_1795</t>
+  </si>
+  <si>
+    <t>1_9,0_7303</t>
+  </si>
+  <si>
+    <t>1_10,0_3141</t>
+  </si>
+  <si>
+    <t>1_10,0_9330</t>
+  </si>
+  <si>
+    <t>1_11,0_5889</t>
+  </si>
+  <si>
+    <t>1_12,0_2843</t>
+  </si>
+  <si>
+    <t>1_13,0_213</t>
+  </si>
+  <si>
+    <t>1_13,0_6724</t>
+  </si>
+  <si>
+    <t>1_14,0_3560</t>
+  </si>
+  <si>
+    <t>1_15,0_738</t>
+  </si>
+  <si>
+    <t>1_15,0_8275</t>
+  </si>
+  <si>
+    <t>1_16,0_6189</t>
+  </si>
+  <si>
+    <t>1_17,0_4498</t>
+  </si>
+  <si>
+    <t>1_18,0_1478</t>
+  </si>
+  <si>
+    <t>1_18,0_8737</t>
+  </si>
+  <si>
+    <t>1_19,0_6286</t>
+  </si>
+  <si>
+    <t>1_20,0_4138</t>
+  </si>
+  <si>
+    <t>1_21,0_2303</t>
+  </si>
+  <si>
+    <t>1_22,0_796</t>
+  </si>
+  <si>
+    <t>1_22,0_7419</t>
+  </si>
+  <si>
+    <t>1_23,0_4242</t>
+  </si>
+  <si>
+    <t>1_24,0_1269</t>
+  </si>
+  <si>
+    <t>1_24,0_8507</t>
+  </si>
+  <si>
+    <t>1_25,0_5962</t>
+  </si>
+  <si>
+    <t>1_26,0_3641</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+    <sheetView topLeftCell="B76" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F95"/>
     </sheetView>
   </sheetViews>
@@ -1794,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>86</v>
@@ -1901,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2353,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
@@ -2501,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
@@ -2563,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>68</v>
@@ -2600,10 +2600,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="27">
         <v>46</v>
@@ -2637,10 +2637,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="27">
         <v>47</v>
@@ -2674,7 +2674,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>78</v>
@@ -2711,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>79</v>
@@ -2748,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>80</v>
@@ -2785,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>81</v>
@@ -2822,10 +2822,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="36">
         <v>70</v>
@@ -2859,10 +2859,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="36">
         <v>71</v>
@@ -2896,10 +2896,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="36">
         <v>72</v>
@@ -2933,10 +2933,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="36">
         <v>73</v>
@@ -2970,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="36">
         <v>74</v>
@@ -3007,10 +3007,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="36">
         <v>76</v>
@@ -3081,10 +3081,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="36">
         <v>77</v>
@@ -3118,10 +3118,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="36">
         <v>78</v>
@@ -3155,10 +3155,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="36">
         <v>79</v>
@@ -3192,10 +3192,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="36">
         <v>80</v>
@@ -3229,10 +3229,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="36">
         <v>82</v>
@@ -3303,10 +3303,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="36">
         <v>83</v>
@@ -3340,10 +3340,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="36">
         <v>84</v>
@@ -3377,10 +3377,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="36">
         <v>85</v>
@@ -3414,10 +3414,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="36">
         <v>86</v>
@@ -3451,10 +3451,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3488,10 +3488,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="36">
         <v>88</v>
@@ -3525,10 +3525,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="36">
         <v>89</v>
@@ -3562,10 +3562,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="36">
         <v>90</v>
@@ -3599,10 +3599,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="36">
         <v>91</v>
@@ -3636,10 +3636,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="36">
         <v>92</v>
@@ -3673,10 +3673,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="36">
         <v>94</v>
@@ -3747,10 +3747,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="36">
         <v>95</v>
@@ -3784,10 +3784,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="36">
         <v>96</v>
@@ -3821,10 +3821,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="36">
         <v>97</v>
@@ -3858,10 +3858,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D58" s="36">
         <v>98</v>
@@ -3895,10 +3895,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60" s="36">
         <v>100</v>
@@ -3969,10 +3969,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" s="36">
         <v>101</v>
@@ -4006,10 +4006,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="36">
         <v>102</v>
@@ -4043,10 +4043,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" s="36">
         <v>103</v>
@@ -4080,10 +4080,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="36">
         <v>104</v>
@@ -4117,10 +4117,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="39">
         <v>0</v>
@@ -4154,10 +4154,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="39">
         <v>64</v>
@@ -4191,10 +4191,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="39">
         <v>65</v>
@@ -4228,10 +4228,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="39">
         <v>66</v>
@@ -4265,10 +4265,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="39">
         <v>67</v>
@@ -4302,10 +4302,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="39">
         <v>68</v>
@@ -4339,10 +4339,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" s="24">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="24">
         <v>58</v>
@@ -4413,10 +4413,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="24">
         <v>59</v>
@@ -4450,10 +4450,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="24">
         <v>60</v>
@@ -4487,10 +4487,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="24">
         <v>61</v>
@@ -4524,10 +4524,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D76" s="24">
         <v>62</v>
@@ -4564,7 +4564,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D78" s="12">
         <v>8</v>
@@ -4638,7 +4638,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" s="12">
         <v>9</v>
@@ -4675,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" s="12">
         <v>10</v>
@@ -4702,7 +4702,7 @@
         <v>47</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -4729,7 +4729,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82" s="12">
         <v>12</v>
@@ -4756,7 +4756,7 @@
         <v>97</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>98</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" s="8">
         <v>52</v>
@@ -4810,7 +4810,7 @@
         <v>99</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85" s="8">
         <v>53</v>
@@ -4837,7 +4837,7 @@
         <v>100</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="8">
         <v>54</v>
@@ -4864,7 +4864,7 @@
         <v>101</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D87" s="8">
         <v>55</v>
@@ -4891,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88" s="8">
         <v>56</v>
@@ -4918,7 +4918,7 @@
         <v>49</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>50</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="12">
         <v>26</v>
@@ -4972,7 +4972,7 @@
         <v>51</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="12">
         <v>27</v>
@@ -4999,7 +4999,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" s="12">
         <v>28</v>
@@ -5026,7 +5026,7 @@
         <v>53</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="12">
         <v>29</v>
@@ -5053,7 +5053,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="12">
         <v>30</v>
@@ -5080,7 +5080,7 @@
         <v>55</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="12">
         <v>31</v>
@@ -11479,7 +11479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B95"/>
     </sheetView>
   </sheetViews>
@@ -11498,19 +11498,19 @@
   <sheetData>
     <row r="1" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -11534,13 +11534,13 @@
     </row>
     <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -11600,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
@@ -11625,7 +11625,7 @@
     <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>0_3</v>
+        <v>0_4</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -11633,21 +11633,21 @@
       </c>
       <c r="D7" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1.5</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0003</v>
+        <v>0004</v>
       </c>
       <c r="H7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -11661,7 +11661,7 @@
     <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0_5</v>
+        <v>0_6</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -11669,21 +11669,21 @@
       </c>
       <c r="D8" s="35">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1.5</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0005</v>
+        <v>0006</v>
       </c>
       <c r="H8" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -11697,7 +11697,7 @@
     <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0_7</v>
+        <v>0_9</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -11705,21 +11705,21 @@
       </c>
       <c r="D9" s="35">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1.5</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0007</v>
+        <v>0009</v>
       </c>
       <c r="H9" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -11733,7 +11733,7 @@
     <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0_11</v>
+        <v>0_14</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -11741,21 +11741,21 @@
       </c>
       <c r="D10" s="35">
         <f t="shared" si="1"/>
-        <v>10.125</v>
+        <v>13.5</v>
       </c>
       <c r="E10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0014</v>
       </c>
       <c r="H10" s="33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -11769,7 +11769,7 @@
     <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0_15</v>
+        <v>0_21</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -11777,21 +11777,21 @@
       </c>
       <c r="D11" s="35">
         <f t="shared" si="1"/>
-        <v>14.174999999999999</v>
+        <v>20.25</v>
       </c>
       <c r="E11">
         <v>1.4</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0015</v>
+        <v>0021</v>
       </c>
       <c r="H11" s="33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -11805,7 +11805,7 @@
     <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0_20</v>
+        <v>0_29</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -11813,21 +11813,21 @@
       </c>
       <c r="D12" s="35">
         <f t="shared" si="1"/>
-        <v>19.844999999999999</v>
+        <v>28.349999999999998</v>
       </c>
       <c r="E12">
         <v>1.4</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0020</v>
+        <v>0029</v>
       </c>
       <c r="H12" s="33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -11841,7 +11841,7 @@
     <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0_28</v>
+        <v>0_40</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -11849,21 +11849,21 @@
       </c>
       <c r="D13" s="35">
         <f t="shared" si="1"/>
-        <v>27.782999999999998</v>
+        <v>39.69</v>
       </c>
       <c r="E13">
         <v>1.4</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0028</v>
+        <v>0040</v>
       </c>
       <c r="H13" s="33">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -11877,7 +11877,7 @@
     <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0_39</v>
+        <v>0_56</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -11885,21 +11885,21 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="1"/>
-        <v>38.896199999999993</v>
+        <v>55.565999999999995</v>
       </c>
       <c r="E14">
         <v>1.4</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G14" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0039</v>
+        <v>0056</v>
       </c>
       <c r="H14" s="33">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -11913,7 +11913,7 @@
     <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
-        <v>0_55</v>
+        <v>0_78</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -11921,21 +11921,21 @@
       </c>
       <c r="D15" s="35">
         <f t="shared" si="1"/>
-        <v>54.454679999999989</v>
+        <v>77.792399999999986</v>
       </c>
       <c r="E15">
         <v>1.4</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G15" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0055</v>
+        <v>0078</v>
       </c>
       <c r="H15" s="33">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -11949,7 +11949,7 @@
     <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
-        <v>0_77</v>
+        <v>0_109</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -11957,21 +11957,21 @@
       </c>
       <c r="D16" s="35">
         <f t="shared" si="1"/>
-        <v>76.236551999999975</v>
+        <v>108.90935999999998</v>
       </c>
       <c r="E16">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G16" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0077</v>
+        <v>0109</v>
       </c>
       <c r="H16" s="33">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -11985,7 +11985,7 @@
     <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0_92</v>
+        <v>0_153</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -11993,21 +11993,21 @@
       </c>
       <c r="D17" s="35">
         <f t="shared" si="1"/>
-        <v>91.483862399999964</v>
+        <v>152.47310399999995</v>
       </c>
       <c r="E17">
         <v>1.2</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="G17" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0092</v>
+        <v>0153</v>
       </c>
       <c r="H17" s="33">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -12021,7 +12021,7 @@
     <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0_110</v>
+        <v>0_183</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -12029,21 +12029,21 @@
       </c>
       <c r="D18" s="35">
         <f t="shared" si="1"/>
-        <v>109.78063487999995</v>
+        <v>182.96772479999993</v>
       </c>
       <c r="E18">
         <v>1.2</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0183</v>
       </c>
       <c r="H18" s="33">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -12057,7 +12057,7 @@
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0_132</v>
+        <v>0_220</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -12065,21 +12065,21 @@
       </c>
       <c r="D19" s="35">
         <f t="shared" si="1"/>
-        <v>131.73676185599993</v>
+        <v>219.5612697599999</v>
       </c>
       <c r="E19">
         <v>1.2</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="G19" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0132</v>
+        <v>0220</v>
       </c>
       <c r="H19" s="33">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -12093,7 +12093,7 @@
     <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>0_159</v>
+        <v>0_264</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -12101,21 +12101,21 @@
       </c>
       <c r="D20" s="35">
         <f t="shared" si="1"/>
-        <v>158.0841142271999</v>
+        <v>263.47352371199986</v>
       </c>
       <c r="E20">
         <v>1.2</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="G20" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0159</v>
+        <v>0264</v>
       </c>
       <c r="H20" s="33">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -12129,7 +12129,7 @@
     <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
-        <v>0_190</v>
+        <v>0_317</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -12137,21 +12137,21 @@
       </c>
       <c r="D21" s="35">
         <f t="shared" si="1"/>
-        <v>189.70093707263987</v>
+        <v>316.16822845439981</v>
       </c>
       <c r="E21">
         <v>1.2</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="G21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0190</v>
+        <v>0317</v>
       </c>
       <c r="H21" s="33">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -12165,7 +12165,7 @@
     <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
-        <v>0_228</v>
+        <v>0_380</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -12173,21 +12173,21 @@
       </c>
       <c r="D22" s="35">
         <f t="shared" si="1"/>
-        <v>227.64112448716784</v>
+        <v>379.40187414527975</v>
       </c>
       <c r="E22">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="G22" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0228</v>
+        <v>0380</v>
       </c>
       <c r="H22" s="33">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -12201,7 +12201,7 @@
     <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>0_269</v>
+        <v>0_456</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -12209,21 +12209,21 @@
       </c>
       <c r="D23" s="35">
         <f t="shared" si="1"/>
-        <v>268.61652689485805</v>
+        <v>455.28224897433569</v>
       </c>
       <c r="E23">
         <v>1.18</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="G23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0269</v>
+        <v>0456</v>
       </c>
       <c r="H23" s="33">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
@@ -12237,7 +12237,7 @@
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>0_317</v>
+        <v>0_538</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -12245,21 +12245,21 @@
       </c>
       <c r="D24" s="35">
         <f t="shared" si="1"/>
-        <v>316.9675017359325</v>
+        <v>537.23305378971611</v>
       </c>
       <c r="E24">
         <v>1.18</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="G24" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0317</v>
+        <v>0538</v>
       </c>
       <c r="H24" s="33">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -12273,7 +12273,7 @@
     <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>0_375</v>
+        <v>0_634</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -12281,21 +12281,21 @@
       </c>
       <c r="D25" s="35">
         <f t="shared" si="1"/>
-        <v>374.02165204840031</v>
+        <v>633.935003471865</v>
       </c>
       <c r="E25">
         <v>1.18</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>634</v>
       </c>
       <c r="G25" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0375</v>
+        <v>0634</v>
       </c>
       <c r="H25" s="33">
-        <v>375</v>
+        <v>634</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -12309,7 +12309,7 @@
     <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>0_442</v>
+        <v>0_749</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -12317,21 +12317,21 @@
       </c>
       <c r="D26" s="35">
         <f t="shared" si="1"/>
-        <v>441.34554941711235</v>
+        <v>748.04330409680063</v>
       </c>
       <c r="E26">
         <v>1.18</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>749</v>
       </c>
       <c r="G26" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0442</v>
+        <v>0749</v>
       </c>
       <c r="H26" s="33">
-        <v>442</v>
+        <v>749</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -12345,7 +12345,7 @@
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>0_521</v>
+        <v>0_883</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -12353,21 +12353,21 @@
       </c>
       <c r="D27" s="35">
         <f t="shared" si="1"/>
-        <v>520.78774831219255</v>
+        <v>882.6910988342247</v>
       </c>
       <c r="E27">
         <v>1.18</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>883</v>
       </c>
       <c r="G27" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0521</v>
+        <v>0883</v>
       </c>
       <c r="H27" s="33">
-        <v>521</v>
+        <v>883</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -12381,7 +12381,7 @@
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>0_615</v>
+        <v>0_1042</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="D28" s="35">
         <f t="shared" si="1"/>
-        <v>614.52954300838712</v>
+        <v>1041.5754966243851</v>
       </c>
       <c r="E28">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="0"/>
-        <v>615</v>
+        <v>1042</v>
       </c>
       <c r="G28" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0615</v>
+        <v>1042</v>
       </c>
       <c r="H28" s="33">
-        <v>615</v>
+        <v>1042</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -12417,7 +12417,7 @@
     <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>0_713</v>
+        <v>0_1230</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -12425,21 +12425,21 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" si="1"/>
-        <v>712.85426988972904</v>
+        <v>1229.0590860167742</v>
       </c>
       <c r="E29">
         <v>1.1599999999999999</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="0"/>
-        <v>713</v>
+        <v>1230</v>
       </c>
       <c r="G29" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0713</v>
+        <v>1230</v>
       </c>
       <c r="H29" s="33">
-        <v>713</v>
+        <v>1230</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
@@ -12453,7 +12453,7 @@
     <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>0_827</v>
+        <v>0_1426</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -12461,21 +12461,21 @@
       </c>
       <c r="D30" s="35">
         <f t="shared" si="1"/>
-        <v>826.91095307208559</v>
+        <v>1425.7085397794581</v>
       </c>
       <c r="E30">
         <v>1.1599999999999999</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="0"/>
-        <v>827</v>
+        <v>1426</v>
       </c>
       <c r="G30" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0827</v>
+        <v>1426</v>
       </c>
       <c r="H30" s="33">
-        <v>827</v>
+        <v>1426</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
@@ -12489,7 +12489,7 @@
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>0_960</v>
+        <v>0_1654</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="D31" s="35">
         <f t="shared" si="1"/>
-        <v>959.21670556361926</v>
+        <v>1653.8219061441712</v>
       </c>
       <c r="E31">
         <v>1.1599999999999999</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>1654</v>
       </c>
       <c r="G31" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0960</v>
+        <v>1654</v>
       </c>
       <c r="H31" s="33">
-        <v>960</v>
+        <v>1654</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
@@ -12525,7 +12525,7 @@
     <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>0_1113</v>
+        <v>0_1919</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -12533,21 +12533,21 @@
       </c>
       <c r="D32" s="35">
         <f t="shared" si="1"/>
-        <v>1112.6913784537983</v>
+        <v>1918.4334111272385</v>
       </c>
       <c r="E32">
         <v>1.1599999999999999</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="0"/>
-        <v>1113</v>
+        <v>1919</v>
       </c>
       <c r="G32" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1113</v>
+        <v>1919</v>
       </c>
       <c r="H32" s="33">
-        <v>1113</v>
+        <v>1919</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
@@ -12561,7 +12561,7 @@
     <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>0_1291</v>
+        <v>0_2226</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -12569,21 +12569,21 @@
       </c>
       <c r="D33" s="35">
         <f t="shared" si="1"/>
-        <v>1290.7219990064059</v>
+        <v>2225.3827569075966</v>
       </c>
       <c r="E33">
         <v>1.1599999999999999</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="0"/>
-        <v>1291</v>
+        <v>2226</v>
       </c>
       <c r="G33" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1291</v>
+        <v>2226</v>
       </c>
       <c r="H33" s="33">
-        <v>1291</v>
+        <v>2226</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -12597,7 +12597,7 @@
     <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>0_1498</v>
+        <v>0_2582</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -12605,21 +12605,21 @@
       </c>
       <c r="D34" s="35">
         <f t="shared" si="1"/>
-        <v>1497.2375188474307</v>
+        <v>2581.4439980128118</v>
       </c>
       <c r="E34">
         <v>1.1599999999999999</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="0"/>
-        <v>1498</v>
+        <v>2582</v>
       </c>
       <c r="G34" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1498</v>
+        <v>2582</v>
       </c>
       <c r="H34" s="33">
-        <v>1498</v>
+        <v>2582</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
@@ -12633,7 +12633,7 @@
     <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>0_1737</v>
+        <v>0_2995</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -12641,21 +12641,21 @@
       </c>
       <c r="D35" s="35">
         <f t="shared" si="1"/>
-        <v>1736.7955218630195</v>
+        <v>2994.4750376948614</v>
       </c>
       <c r="E35">
         <v>1.1399999999999999</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>1737</v>
+        <v>2995</v>
       </c>
       <c r="G35" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1737</v>
+        <v>2995</v>
       </c>
       <c r="H35" s="33">
-        <v>1737</v>
+        <v>2995</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
@@ -12669,7 +12669,7 @@
     <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>0_1980</v>
+        <v>0_3414</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -12677,21 +12677,21 @@
       </c>
       <c r="D36" s="35">
         <f t="shared" si="1"/>
-        <v>1979.9468949238421</v>
+        <v>3413.7015429721419</v>
       </c>
       <c r="E36">
         <v>1.1399999999999999</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>3414</v>
       </c>
       <c r="G36" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>3414</v>
       </c>
       <c r="H36" s="33">
-        <v>1980</v>
+        <v>3414</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
@@ -12705,7 +12705,7 @@
     <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>0_2258</v>
+        <v>0_3892</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -12713,21 +12713,21 @@
       </c>
       <c r="D37" s="35">
         <f t="shared" si="1"/>
-        <v>2257.13946021318</v>
+        <v>3891.6197589882413</v>
       </c>
       <c r="E37">
         <v>1.1399999999999999</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="0"/>
-        <v>2258</v>
+        <v>3892</v>
       </c>
       <c r="G37" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2258</v>
+        <v>3892</v>
       </c>
       <c r="H37" s="33">
-        <v>2258</v>
+        <v>3892</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
@@ -12741,7 +12741,7 @@
     <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>0_2574</v>
+        <v>0_4437</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -12749,21 +12749,21 @@
       </c>
       <c r="D38" s="35">
         <f t="shared" si="1"/>
-        <v>2573.1389846430247</v>
+        <v>4436.4465252465943</v>
       </c>
       <c r="E38">
         <v>1.1399999999999999</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="0"/>
-        <v>2574</v>
+        <v>4437</v>
       </c>
       <c r="G38" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2574</v>
+        <v>4437</v>
       </c>
       <c r="H38" s="33">
-        <v>2574</v>
+        <v>4437</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
@@ -12777,7 +12777,7 @@
     <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>0_2934</v>
+        <v>0_5058</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -12785,21 +12785,21 @@
       </c>
       <c r="D39" s="35">
         <f t="shared" si="1"/>
-        <v>2933.3784424930482</v>
+        <v>5057.5490387811169</v>
       </c>
       <c r="E39">
         <v>1.1399999999999999</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" si="0"/>
-        <v>2934</v>
+        <v>5058</v>
       </c>
       <c r="G39" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2934</v>
+        <v>5058</v>
       </c>
       <c r="H39" s="33">
-        <v>2934</v>
+        <v>5058</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
@@ -12813,7 +12813,7 @@
     <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>0_3345</v>
+        <v>0_5766</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -12821,21 +12821,21 @@
       </c>
       <c r="D40" s="35">
         <f t="shared" si="1"/>
-        <v>3344.0514244420747</v>
+        <v>5765.6059042104725</v>
       </c>
       <c r="E40">
         <v>1.1399999999999999</v>
       </c>
       <c r="F40" s="15">
         <f t="shared" si="0"/>
-        <v>3345</v>
+        <v>5766</v>
       </c>
       <c r="G40" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3345</v>
+        <v>5766</v>
       </c>
       <c r="H40" s="33">
-        <v>3345</v>
+        <v>5766</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -12849,7 +12849,7 @@
     <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>0_3813</v>
+        <v>0_6573</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -12857,21 +12857,21 @@
       </c>
       <c r="D41" s="35">
         <f t="shared" si="1"/>
-        <v>3812.2186238639647</v>
-      </c>
-      <c r="E41" s="13">
+        <v>6572.7907307999385</v>
+      </c>
+      <c r="E41">
         <v>1.1200000000000001</v>
       </c>
       <c r="F41" s="15">
         <f t="shared" si="0"/>
-        <v>3813</v>
+        <v>6573</v>
       </c>
       <c r="G41" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3813</v>
+        <v>6573</v>
       </c>
       <c r="H41" s="33">
-        <v>3813</v>
+        <v>6573</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
@@ -12885,7 +12885,7 @@
     <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>0_4270</v>
+        <v>0_7362</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -12893,21 +12893,21 @@
       </c>
       <c r="D42" s="35">
         <f t="shared" si="1"/>
-        <v>4269.6848587276409</v>
+        <v>7361.5256184959317</v>
       </c>
       <c r="E42" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="0"/>
-        <v>4270</v>
+        <v>7362</v>
       </c>
       <c r="G42" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>4270</v>
+        <v>7362</v>
       </c>
       <c r="H42" s="33">
-        <v>4270</v>
+        <v>7362</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
@@ -12921,7 +12921,7 @@
     <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>0_4783</v>
+        <v>0_8245</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -12929,21 +12929,21 @@
       </c>
       <c r="D43" s="35">
         <f t="shared" si="1"/>
-        <v>4782.0470417749584</v>
+        <v>8244.908692715444</v>
       </c>
       <c r="E43" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="0"/>
-        <v>4783</v>
+        <v>8245</v>
       </c>
       <c r="G43" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>4783</v>
+        <v>8245</v>
       </c>
       <c r="H43" s="33">
-        <v>4783</v>
+        <v>8245</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
@@ -12957,7 +12957,7 @@
     <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>0_5356</v>
+        <v>0_9235</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -12965,21 +12965,21 @@
       </c>
       <c r="D44" s="35">
         <f t="shared" si="1"/>
-        <v>5355.8926867879536</v>
+        <v>9234.2977358412973</v>
       </c>
       <c r="E44" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="0"/>
-        <v>5356</v>
+        <v>9235</v>
       </c>
       <c r="G44" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>5356</v>
+        <v>9235</v>
       </c>
       <c r="H44" s="33">
-        <v>5356</v>
+        <v>9235</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
@@ -12993,31 +12993,33 @@
     <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>0_5999</v>
+        <v>1_1,0_343</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="35">
         <f t="shared" si="1"/>
-        <v>5998.5998092025084</v>
+        <v>10342.413464142253</v>
       </c>
       <c r="E45" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="0"/>
-        <v>5999</v>
+        <v>10343</v>
       </c>
       <c r="G45" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>5999</v>
+        <v>00010343</v>
       </c>
       <c r="H45" s="42">
-        <v>5999</v>
-      </c>
-      <c r="I45" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="42">
+        <v>343</v>
+      </c>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
       <c r="L45" s="15"/>
@@ -13029,31 +13031,33 @@
     <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>0_6719</v>
+        <v>1_1,0_1584</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="35">
         <f t="shared" si="1"/>
-        <v>6718.43178630681</v>
+        <v>11583.503079839325</v>
       </c>
       <c r="E46" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="0"/>
-        <v>6719</v>
+        <v>11584</v>
       </c>
       <c r="G46" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>6719</v>
+        <v>00011584</v>
       </c>
       <c r="H46" s="42">
-        <v>6719</v>
-      </c>
-      <c r="I46" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="42">
+        <v>1584</v>
+      </c>
       <c r="J46" s="42"/>
       <c r="K46" s="42"/>
       <c r="L46" s="15"/>
@@ -13065,31 +13069,33 @@
     <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>0_7525</v>
+        <v>1_1,0_2974</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="35">
         <f t="shared" si="1"/>
-        <v>7524.6436006636277</v>
-      </c>
-      <c r="E47">
+        <v>12973.523449420045</v>
+      </c>
+      <c r="E47" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="0"/>
-        <v>7525</v>
+        <v>12974</v>
       </c>
       <c r="G47" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>7525</v>
+        <v>00012974</v>
       </c>
       <c r="H47" s="42">
-        <v>7525</v>
-      </c>
-      <c r="I47" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="42">
+        <v>2974</v>
+      </c>
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
       <c r="L47" s="15"/>
@@ -13101,31 +13107,33 @@
     <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>0_8278</v>
+        <v>1_1,0_4271</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="35">
         <f t="shared" si="1"/>
-        <v>8277.1079607299907</v>
+        <v>14270.875794362051</v>
       </c>
       <c r="E48">
         <v>1.1000000000000001</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="0"/>
-        <v>8278</v>
+        <v>14271</v>
       </c>
       <c r="G48" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>8278</v>
+        <v>00014271</v>
       </c>
       <c r="H48" s="42">
-        <v>8278</v>
-      </c>
-      <c r="I48" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="42">
+        <v>4271</v>
+      </c>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="15"/>
@@ -13137,31 +13145,33 @@
     <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>0_9105</v>
+        <v>1_1,0_5698</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="35">
         <f t="shared" si="1"/>
-        <v>9104.8187568029898</v>
+        <v>15697.963373798257</v>
       </c>
       <c r="E49">
         <v>1.1000000000000001</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="0"/>
-        <v>9105</v>
+        <v>15698</v>
       </c>
       <c r="G49" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>9105</v>
+        <v>00015698</v>
       </c>
       <c r="H49" s="42">
-        <v>9105</v>
-      </c>
-      <c r="I49" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="42">
+        <v>5698</v>
+      </c>
       <c r="J49" s="42"/>
       <c r="K49" s="42"/>
       <c r="L49" s="15"/>
@@ -13174,7 +13184,7 @@
     <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_16</v>
+        <v>1_1,0_7268</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -13182,24 +13192,24 @@
       </c>
       <c r="D50" s="35">
         <f t="shared" si="1"/>
-        <v>10015.30063248329</v>
+        <v>17267.759711178085</v>
       </c>
       <c r="E50">
         <v>1.1000000000000001</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="0"/>
-        <v>10016</v>
+        <v>17268</v>
       </c>
       <c r="G50" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00010016</v>
+        <v>00017268</v>
       </c>
       <c r="H50" s="42">
         <v>1</v>
       </c>
       <c r="I50" s="42">
-        <v>16</v>
+        <v>7268</v>
       </c>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
@@ -13213,7 +13223,7 @@
     <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_1017</v>
+        <v>1_1,0_8995</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -13221,24 +13231,24 @@
       </c>
       <c r="D51" s="35">
         <f t="shared" si="1"/>
-        <v>11016.83069573162</v>
+        <v>18994.535682295897</v>
       </c>
       <c r="E51">
         <v>1.1000000000000001</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="0"/>
-        <v>11017</v>
+        <v>18995</v>
       </c>
       <c r="G51" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00011017</v>
+        <v>00018995</v>
       </c>
       <c r="H51" s="42">
         <v>1</v>
       </c>
       <c r="I51" s="42">
-        <v>1017</v>
+        <v>8995</v>
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
@@ -13252,7 +13262,7 @@
     <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_2119</v>
+        <v>1_2,0_894</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -13260,24 +13270,24 @@
       </c>
       <c r="D52" s="35">
         <f t="shared" si="1"/>
-        <v>12118.513765304782</v>
+        <v>20893.989250525487</v>
       </c>
       <c r="E52">
         <v>1.1000000000000001</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="0"/>
-        <v>12119</v>
+        <v>20894</v>
       </c>
       <c r="G52" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00012119</v>
+        <v>00020894</v>
       </c>
       <c r="H52" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="42">
-        <v>2119</v>
+        <v>894</v>
       </c>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
@@ -13291,7 +13301,7 @@
     <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_3331</v>
+        <v>1_2,0_2984</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -13299,24 +13309,24 @@
       </c>
       <c r="D53" s="35">
         <f t="shared" si="1"/>
-        <v>13330.365141835262</v>
+        <v>22983.388175578038</v>
       </c>
       <c r="E53">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="0"/>
-        <v>13331</v>
+        <v>22984</v>
       </c>
       <c r="G53" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00013331</v>
+        <v>00022984</v>
       </c>
       <c r="H53" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="42">
-        <v>3331</v>
+        <v>2984</v>
       </c>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -13330,7 +13340,7 @@
     <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_4664</v>
+        <v>1_2,0_5052</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -13338,24 +13348,24 @@
       </c>
       <c r="D54" s="35">
         <f t="shared" si="1"/>
-        <v>14663.40165601879</v>
+        <v>25051.893111380065</v>
       </c>
       <c r="E54">
         <v>1.0900000000000001</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="0"/>
-        <v>14664</v>
+        <v>25052</v>
       </c>
       <c r="G54" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00014664</v>
+        <v>00025052</v>
       </c>
       <c r="H54" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="43">
-        <v>4664</v>
+        <v>5052</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="42"/>
@@ -13369,7 +13379,7 @@
     <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_5984</v>
+        <v>1_2,0_7307</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -13377,24 +13387,24 @@
       </c>
       <c r="D55" s="35">
         <f t="shared" si="1"/>
-        <v>15983.107805060483</v>
+        <v>27306.563491404271</v>
       </c>
       <c r="E55">
         <v>1.0900000000000001</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="0"/>
-        <v>15984</v>
+        <v>27307</v>
       </c>
       <c r="G55" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00015984</v>
+        <v>00027307</v>
       </c>
       <c r="H55" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="43">
-        <v>5984</v>
+        <v>7307</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="42"/>
@@ -13408,7 +13418,7 @@
     <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_7422</v>
+        <v>1_2,0_9765</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -13416,24 +13426,24 @@
       </c>
       <c r="D56" s="35">
         <f t="shared" si="1"/>
-        <v>17421.587507515927</v>
+        <v>29764.154205630657</v>
       </c>
       <c r="E56">
         <v>1.0900000000000001</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="0"/>
-        <v>17422</v>
+        <v>29765</v>
       </c>
       <c r="G56" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00017422</v>
+        <v>00029765</v>
       </c>
       <c r="H56" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="43">
-        <v>7422</v>
+        <v>9765</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="42"/>
@@ -13447,7 +13457,7 @@
     <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_8990</v>
+        <v>1_3,0_2443</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -13455,24 +13465,24 @@
       </c>
       <c r="D57" s="35">
         <f t="shared" si="1"/>
-        <v>18989.530383192363</v>
+        <v>32442.92808413742</v>
       </c>
       <c r="E57">
         <v>1.0900000000000001</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="0"/>
-        <v>18990</v>
+        <v>32443</v>
       </c>
       <c r="G57" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00018990</v>
+        <v>00032443</v>
       </c>
       <c r="H57" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="43">
-        <v>8990</v>
+        <v>2443</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="42"/>
@@ -13486,7 +13496,7 @@
     <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_699</v>
+        <v>1_3,0_5363</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -13494,24 +13504,24 @@
       </c>
       <c r="D58" s="35">
         <f t="shared" si="1"/>
-        <v>20698.588117679676</v>
+        <v>35362.791611709792</v>
       </c>
       <c r="E58">
         <v>1.0900000000000001</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="0"/>
-        <v>20699</v>
+        <v>35363</v>
       </c>
       <c r="G58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00020699</v>
+        <v>00035363</v>
       </c>
       <c r="H58" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="43">
-        <v>699</v>
+        <v>5363</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="42"/>
@@ -13525,7 +13535,7 @@
     <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_2562</v>
+        <v>1_3,0_8546</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -13533,24 +13543,24 @@
       </c>
       <c r="D59" s="35">
         <f t="shared" si="1"/>
-        <v>22561.461048270849</v>
+        <v>38545.442856763679</v>
       </c>
       <c r="E59">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="0"/>
-        <v>22562</v>
+        <v>38546</v>
       </c>
       <c r="G59" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00022562</v>
+        <v>00038546</v>
       </c>
       <c r="H59" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" s="43">
-        <v>2562</v>
+        <v>8546</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="42"/>
@@ -13564,7 +13574,7 @@
     <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_4592</v>
+        <v>1_4,0_1630</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -13572,24 +13582,24 @@
       </c>
       <c r="D60" s="35">
         <f t="shared" si="1"/>
-        <v>24591.992542615226</v>
+        <v>41629.078285304779</v>
       </c>
       <c r="E60">
         <v>1.08</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="0"/>
-        <v>24592</v>
+        <v>41630</v>
       </c>
       <c r="G60" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00024592</v>
+        <v>00041630</v>
       </c>
       <c r="H60" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" s="43">
-        <v>4592</v>
+        <v>1630</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="42"/>
@@ -13603,7 +13613,7 @@
     <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_6560</v>
+        <v>1_4,0_4960</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -13611,24 +13621,24 @@
       </c>
       <c r="D61" s="35">
         <f t="shared" si="1"/>
-        <v>26559.351946024446</v>
+        <v>44959.404548129161</v>
       </c>
       <c r="E61">
         <v>1.08</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="0"/>
-        <v>26560</v>
+        <v>44960</v>
       </c>
       <c r="G61" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00026560</v>
+        <v>00044960</v>
       </c>
       <c r="H61" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61" s="43">
-        <v>6560</v>
+        <v>4960</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="42"/>
@@ -13642,7 +13652,7 @@
     <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_8685</v>
+        <v>1_4,0_8557</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
@@ -13650,24 +13660,24 @@
       </c>
       <c r="D62" s="35">
         <f t="shared" si="1"/>
-        <v>28684.100101706405</v>
+        <v>48556.156911979495</v>
       </c>
       <c r="E62">
         <v>1.08</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="0"/>
-        <v>28685</v>
+        <v>48557</v>
       </c>
       <c r="G62" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00028685</v>
+        <v>00048557</v>
       </c>
       <c r="H62" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62" s="42">
-        <v>8685</v>
+        <v>8557</v>
       </c>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
@@ -13681,7 +13691,7 @@
     <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_979</v>
+        <v>1_5,0_2441</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
@@ -13689,24 +13699,24 @@
       </c>
       <c r="D63" s="35">
         <f t="shared" si="1"/>
-        <v>30978.828109842918</v>
+        <v>52440.649464937858</v>
       </c>
       <c r="E63">
         <v>1.08</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="0"/>
-        <v>30979</v>
+        <v>52441</v>
       </c>
       <c r="G63" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00030979</v>
+        <v>00052441</v>
       </c>
       <c r="H63" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63" s="42">
-        <v>979</v>
+        <v>2441</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
@@ -13720,7 +13730,7 @@
     <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_3458</v>
+        <v>1_5,0_6636</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
@@ -13728,24 +13738,24 @@
       </c>
       <c r="D64" s="35">
         <f t="shared" si="1"/>
-        <v>33457.134358630356</v>
+        <v>56635.901422132891</v>
       </c>
       <c r="E64">
         <v>1.08</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="0"/>
-        <v>33458</v>
+        <v>56636</v>
       </c>
       <c r="G64" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00033458</v>
+        <v>00056636</v>
       </c>
       <c r="H64" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I64" s="42">
-        <v>3458</v>
+        <v>6636</v>
       </c>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
@@ -13759,7 +13769,7 @@
     <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_6134</v>
+        <v>1_6,0_1167</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
@@ -13767,24 +13777,24 @@
       </c>
       <c r="D65" s="35">
         <f t="shared" si="1"/>
-        <v>36133.705107320784</v>
+        <v>61166.773535903529</v>
       </c>
       <c r="E65">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="0"/>
-        <v>36134</v>
+        <v>61167</v>
       </c>
       <c r="G65" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00036134</v>
+        <v>00061167</v>
       </c>
       <c r="H65" s="42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I65" s="42">
-        <v>6134</v>
+        <v>1167</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
@@ -13798,7 +13808,7 @@
     <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_9025</v>
+        <v>1_6,0_5449</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
@@ -13806,24 +13816,24 @@
       </c>
       <c r="D66" s="35">
         <f t="shared" si="1"/>
-        <v>39024.401515906451</v>
+        <v>65448.44768341678</v>
       </c>
       <c r="E66">
         <v>1.07</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="0"/>
-        <v>39025</v>
+        <v>65449</v>
       </c>
       <c r="G66" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00039025</v>
+        <v>00065449</v>
       </c>
       <c r="H66" s="42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I66" s="42">
-        <v>9025</v>
+        <v>5449</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="42"/>
@@ -13837,7 +13847,7 @@
     <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_1757</v>
+        <v>1_7,0_30</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
@@ -13845,24 +13855,24 @@
       </c>
       <c r="D67" s="35">
         <f t="shared" si="1"/>
-        <v>41756.109622019903</v>
+        <v>70029.839021255961</v>
       </c>
       <c r="E67">
         <v>1.07</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="0"/>
-        <v>41757</v>
+        <v>70030</v>
       </c>
       <c r="G67" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00041757</v>
+        <v>00070030</v>
       </c>
       <c r="H67" s="42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I67" s="42">
-        <v>1757</v>
+        <v>30</v>
       </c>
       <c r="J67" s="42"/>
       <c r="K67" s="42"/>
@@ -13876,7 +13886,7 @@
     <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_4680</v>
+        <v>1_7,0_4932</v>
       </c>
       <c r="C68">
         <f>COUNTIF(H68:W68,"&gt;-1")</f>
@@ -13884,24 +13894,24 @@
       </c>
       <c r="D68" s="35">
         <f t="shared" si="1"/>
-        <v>44679.037295561298</v>
+        <v>74931.927752743883</v>
       </c>
       <c r="E68">
         <v>1.07</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="0"/>
-        <v>44680</v>
+        <v>74932</v>
       </c>
       <c r="G68" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00044680</v>
+        <v>00074932</v>
       </c>
       <c r="H68" s="43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I68" s="43">
-        <v>4680</v>
+        <v>4932</v>
       </c>
       <c r="J68" s="43"/>
       <c r="K68" s="43"/>
@@ -13915,7 +13925,7 @@
     <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_7807</v>
+        <v>1_8,0_178</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -13923,24 +13933,24 @@
       </c>
       <c r="D69" s="35">
         <f t="shared" si="1"/>
-        <v>47806.569906250596</v>
+        <v>80177.162695435953</v>
       </c>
       <c r="E69">
         <v>1.07</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" ref="F69:F95" si="5">ROUNDUP(D69,0)</f>
-        <v>47807</v>
+        <v>80178</v>
       </c>
       <c r="G69" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00047807</v>
+        <v>00080178</v>
       </c>
       <c r="H69" s="43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I69" s="43">
-        <v>7807</v>
+        <v>178</v>
       </c>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
@@ -13954,7 +13964,7 @@
     <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>1_5,0_1154</v>
+        <v>1_8,0_5790</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -13962,24 +13972,24 @@
       </c>
       <c r="D70" s="35">
         <f t="shared" ref="D70:D95" si="6">D69*E69</f>
-        <v>51153.029799688142</v>
+        <v>85789.564084116471</v>
       </c>
       <c r="E70">
         <v>1.07</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>51154</v>
+        <v>85790</v>
       </c>
       <c r="G70" s="32" t="str">
         <f t="shared" ref="G70:G95" si="7">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
-        <v>00051154</v>
+        <v>00085790</v>
       </c>
       <c r="H70" s="43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I70" s="43">
-        <v>1154</v>
+        <v>5790</v>
       </c>
       <c r="J70" s="43"/>
       <c r="K70" s="43"/>
@@ -13993,7 +14003,7 @@
     <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>1_5,0_4734</v>
+        <v>1_9,0_1795</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C95" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
@@ -14001,24 +14011,24 @@
       </c>
       <c r="D71" s="35">
         <f t="shared" si="6"/>
-        <v>54733.741885666313</v>
+        <v>91794.83357000463</v>
       </c>
       <c r="E71">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>54734</v>
+        <v>91795</v>
       </c>
       <c r="G71" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00054734</v>
+        <v>00091795</v>
       </c>
       <c r="H71" s="43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I71" s="43">
-        <v>4734</v>
+        <v>1795</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="43"/>
@@ -14032,7 +14042,7 @@
     <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
-        <v>1_5,0_8566</v>
+        <v>1_9,0_7303</v>
       </c>
       <c r="C72">
         <f t="shared" si="9"/>
@@ -14040,24 +14050,24 @@
       </c>
       <c r="D72" s="35">
         <f t="shared" si="6"/>
-        <v>58565.103817662959</v>
+        <v>97302.523584204915</v>
       </c>
       <c r="E72">
         <v>1.06</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>58566</v>
+        <v>97303</v>
       </c>
       <c r="G72" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00058566</v>
+        <v>00097303</v>
       </c>
       <c r="H72" s="43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I72" s="43">
-        <v>8566</v>
+        <v>7303</v>
       </c>
       <c r="J72" s="43"/>
       <c r="K72" s="43"/>
@@ -14071,7 +14081,7 @@
     <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
-        <v>1_6,0_2080</v>
+        <v>1_10,0_3141</v>
       </c>
       <c r="C73">
         <f t="shared" si="9"/>
@@ -14079,24 +14089,24 @@
       </c>
       <c r="D73" s="35">
         <f t="shared" si="6"/>
-        <v>62079.010046722738</v>
+        <v>103140.67499925721</v>
       </c>
       <c r="E73">
         <v>1.06</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>62080</v>
+        <v>103141</v>
       </c>
       <c r="G73" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00062080</v>
+        <v>00103141</v>
       </c>
       <c r="H73" s="43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I73" s="43">
-        <v>2080</v>
+        <v>3141</v>
       </c>
       <c r="J73" s="43"/>
       <c r="K73" s="43"/>
@@ -14110,7 +14120,7 @@
     <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
-        <v>1_6,0_5804</v>
+        <v>1_10,0_9330</v>
       </c>
       <c r="C74">
         <f t="shared" si="9"/>
@@ -14118,24 +14128,24 @@
       </c>
       <c r="D74" s="35">
         <f t="shared" si="6"/>
-        <v>65803.750649526104</v>
+        <v>109329.11549921265</v>
       </c>
       <c r="E74">
         <v>1.06</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>65804</v>
+        <v>109330</v>
       </c>
       <c r="G74" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00065804</v>
+        <v>00109330</v>
       </c>
       <c r="H74" s="43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I74" s="43">
-        <v>5804</v>
+        <v>9330</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -14149,7 +14159,7 @@
     <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
-        <v>1_6,0_9752</v>
+        <v>1_11,0_5889</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
@@ -14157,24 +14167,24 @@
       </c>
       <c r="D75" s="35">
         <f t="shared" si="6"/>
-        <v>69751.975688497667</v>
+        <v>115888.86242916541</v>
       </c>
       <c r="E75">
         <v>1.06</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="5"/>
-        <v>69752</v>
+        <v>115889</v>
       </c>
       <c r="G75" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00069752</v>
+        <v>00115889</v>
       </c>
       <c r="H75" s="43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I75" s="43">
-        <v>9752</v>
+        <v>5889</v>
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="43"/>
@@ -14188,7 +14198,7 @@
     <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
-        <v>1_7,0_3938</v>
+        <v>1_12,0_2843</v>
       </c>
       <c r="C76">
         <f t="shared" si="9"/>
@@ -14196,24 +14206,24 @@
       </c>
       <c r="D76" s="35">
         <f t="shared" si="6"/>
-        <v>73937.094229807524</v>
+        <v>122842.19417491535</v>
       </c>
       <c r="E76">
         <v>1.06</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>73938</v>
+        <v>122843</v>
       </c>
       <c r="G76" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00073938</v>
+        <v>00122843</v>
       </c>
       <c r="H76" s="43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I76" s="43">
-        <v>3938</v>
+        <v>2843</v>
       </c>
       <c r="J76" s="43"/>
       <c r="K76" s="43"/>
@@ -14227,7 +14237,7 @@
     <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
-        <v>1_7,0_8374</v>
+        <v>1_13,0_213</v>
       </c>
       <c r="C77">
         <f t="shared" si="9"/>
@@ -14235,24 +14245,24 @@
       </c>
       <c r="D77" s="35">
         <f t="shared" si="6"/>
-        <v>78373.319883595977</v>
+        <v>130212.72582541028</v>
       </c>
       <c r="E77">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>78374</v>
+        <v>130213</v>
       </c>
       <c r="G77" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00078374</v>
+        <v>00130213</v>
       </c>
       <c r="H77" s="43">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I77" s="43">
-        <v>8374</v>
+        <v>213</v>
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
@@ -14266,7 +14276,7 @@
     <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
-        <v>1_8,0_3076</v>
+        <v>1_13,0_6724</v>
       </c>
       <c r="C78">
         <f t="shared" si="9"/>
@@ -14274,24 +14284,24 @@
       </c>
       <c r="D78" s="35">
         <f t="shared" si="6"/>
-        <v>83075.719076611742</v>
+        <v>136723.3621166808</v>
       </c>
       <c r="E78">
         <v>1.05</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>83076</v>
+        <v>136724</v>
       </c>
       <c r="G78" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00083076</v>
+        <v>00136724</v>
       </c>
       <c r="H78" s="43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I78" s="43">
-        <v>3076</v>
+        <v>6724</v>
       </c>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
@@ -14305,7 +14315,7 @@
     <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
-        <v>1_8,0_7230</v>
+        <v>1_14,0_3560</v>
       </c>
       <c r="C79">
         <f>COUNTIF(H79:W79,"&gt;-1")</f>
@@ -14313,24 +14323,24 @@
       </c>
       <c r="D79" s="35">
         <f t="shared" si="6"/>
-        <v>87229.505030442335</v>
+        <v>143559.53022251485</v>
       </c>
       <c r="E79">
         <v>1.05</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>87230</v>
+        <v>143560</v>
       </c>
       <c r="G79" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00087230</v>
+        <v>00143560</v>
       </c>
       <c r="H79" s="33">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I79" s="43">
-        <v>7230</v>
+        <v>3560</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="33"/>
@@ -14344,7 +14354,7 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
-        <v>1_9,0_1591</v>
+        <v>1_15,0_738</v>
       </c>
       <c r="C80">
         <f t="shared" si="9"/>
@@ -14352,30 +14362,30 @@
       </c>
       <c r="D80" s="35">
         <f t="shared" si="6"/>
-        <v>91590.980281964454</v>
+        <v>150737.50673364059</v>
       </c>
       <c r="E80">
         <v>1.05</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="5"/>
-        <v>91591</v>
+        <v>150738</v>
       </c>
       <c r="G80" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00091591</v>
+        <v>00150738</v>
       </c>
       <c r="H80">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I80" s="31">
-        <v>1591</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
-        <v>1_9,0_6171</v>
+        <v>1_15,0_8275</v>
       </c>
       <c r="C81">
         <f t="shared" si="9"/>
@@ -14383,30 +14393,30 @@
       </c>
       <c r="D81" s="35">
         <f t="shared" si="6"/>
-        <v>96170.529296062683</v>
+        <v>158274.38207032264</v>
       </c>
       <c r="E81">
         <v>1.05</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>96171</v>
+        <v>158275</v>
       </c>
       <c r="G81" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00096171</v>
+        <v>00158275</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I81" s="31">
-        <v>6171</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
-        <v>1_10,0_980</v>
+        <v>1_16,0_6189</v>
       </c>
       <c r="C82">
         <f t="shared" si="9"/>
@@ -14414,30 +14424,30 @@
       </c>
       <c r="D82" s="35">
         <f t="shared" si="6"/>
-        <v>100979.05576086583</v>
+        <v>166188.10117383878</v>
       </c>
       <c r="E82">
         <v>1.05</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="5"/>
-        <v>100980</v>
+        <v>166189</v>
       </c>
       <c r="G82" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00100980</v>
+        <v>00166189</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I82" s="31">
-        <v>980</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
-        <v>1_10,0_6029</v>
+        <v>1_17,0_4498</v>
       </c>
       <c r="C83">
         <f t="shared" si="9"/>
@@ -14445,30 +14455,30 @@
       </c>
       <c r="D83" s="35">
         <f t="shared" si="6"/>
-        <v>106028.00854890913</v>
+        <v>174497.50623253072</v>
       </c>
       <c r="E83">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="5"/>
-        <v>106029</v>
+        <v>174498</v>
       </c>
       <c r="G83" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00106029</v>
+        <v>00174498</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I83" s="31">
-        <v>6029</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
-        <v>1_11,0_1330</v>
+        <v>1_18,0_1478</v>
       </c>
       <c r="C84">
         <f t="shared" si="9"/>
@@ -14476,30 +14486,30 @@
       </c>
       <c r="D84" s="35">
         <f t="shared" si="6"/>
-        <v>111329.40897635459</v>
+        <v>181477.40648183195</v>
       </c>
       <c r="E84">
         <v>1.04</v>
       </c>
       <c r="F84" s="15">
         <f t="shared" si="5"/>
-        <v>111330</v>
+        <v>181478</v>
       </c>
       <c r="G84" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00111330</v>
+        <v>00181478</v>
       </c>
       <c r="H84">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I84" s="31">
-        <v>1330</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
-        <v>1_11,0_5783</v>
+        <v>1_18,0_8737</v>
       </c>
       <c r="C85">
         <f t="shared" si="9"/>
@@ -14507,30 +14517,30 @@
       </c>
       <c r="D85" s="35">
         <f t="shared" si="6"/>
-        <v>115782.58533540877</v>
+        <v>188736.50274110524</v>
       </c>
       <c r="E85">
         <v>1.04</v>
       </c>
       <c r="F85" s="15">
         <f t="shared" si="5"/>
-        <v>115783</v>
+        <v>188737</v>
       </c>
       <c r="G85" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00115783</v>
+        <v>00188737</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I85" s="31">
-        <v>5783</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
-        <v>1_12,0_414</v>
+        <v>1_19,0_6286</v>
       </c>
       <c r="C86">
         <f t="shared" si="9"/>
@@ -14538,30 +14548,30 @@
       </c>
       <c r="D86" s="35">
         <f t="shared" si="6"/>
-        <v>120413.88874882513</v>
+        <v>196285.96285074946</v>
       </c>
       <c r="E86">
         <v>1.04</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="5"/>
-        <v>120414</v>
+        <v>196286</v>
       </c>
       <c r="G86" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00120414</v>
+        <v>00196286</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I86" s="31">
-        <v>414</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
-        <v>1_12,0_5231</v>
+        <v>1_20,0_4138</v>
       </c>
       <c r="C87">
         <f t="shared" si="9"/>
@@ -14569,30 +14579,30 @@
       </c>
       <c r="D87" s="35">
         <f t="shared" si="6"/>
-        <v>125230.44429877815</v>
+        <v>204137.40136477945</v>
       </c>
       <c r="E87">
         <v>1.04</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="5"/>
-        <v>125231</v>
+        <v>204138</v>
       </c>
       <c r="G87" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00125231</v>
+        <v>00204138</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I87" s="31">
-        <v>5231</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
-        <v>1_13,0_240</v>
+        <v>1_21,0_2303</v>
       </c>
       <c r="C88">
         <f t="shared" si="9"/>
@@ -14600,30 +14610,30 @@
       </c>
       <c r="D88" s="35">
         <f t="shared" si="6"/>
-        <v>130239.66207072928</v>
+        <v>212302.89741937062</v>
       </c>
       <c r="E88">
         <v>1.04</v>
       </c>
       <c r="F88" s="15">
         <f t="shared" si="5"/>
-        <v>130240</v>
+        <v>212303</v>
       </c>
       <c r="G88" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00130240</v>
+        <v>00212303</v>
       </c>
       <c r="H88">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I88" s="31">
-        <v>240</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
-        <v>1_13,0_5450</v>
+        <v>1_22,0_796</v>
       </c>
       <c r="C89">
         <f t="shared" si="9"/>
@@ -14631,30 +14641,30 @@
       </c>
       <c r="D89" s="35">
         <f t="shared" si="6"/>
-        <v>135449.24855355846</v>
+        <v>220795.01331614546</v>
       </c>
       <c r="E89">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F89" s="15">
         <f t="shared" si="5"/>
-        <v>135450</v>
+        <v>220796</v>
       </c>
       <c r="G89" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00135450</v>
+        <v>00220796</v>
       </c>
       <c r="H89">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I89" s="31">
-        <v>5450</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
-        <v>1_14,0_868</v>
+        <v>1_22,0_7419</v>
       </c>
       <c r="C90">
         <f t="shared" si="9"/>
@@ -14662,30 +14672,30 @@
       </c>
       <c r="D90" s="35">
         <f t="shared" si="6"/>
-        <v>140867.2184957008</v>
+        <v>227418.86371562982</v>
       </c>
       <c r="E90">
         <v>1.03</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="5"/>
-        <v>140868</v>
+        <v>227419</v>
       </c>
       <c r="G90" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00140868</v>
+        <v>00227419</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I90" s="31">
-        <v>868</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
-        <v>1_14,0_5094</v>
+        <v>1_23,0_4242</v>
       </c>
       <c r="C91">
         <f t="shared" si="9"/>
@@ -14693,30 +14703,30 @@
       </c>
       <c r="D91" s="35">
         <f t="shared" si="6"/>
-        <v>145093.23505057182</v>
+        <v>234241.42962709873</v>
       </c>
       <c r="E91">
         <v>1.03</v>
       </c>
       <c r="F91" s="15">
         <f t="shared" si="5"/>
-        <v>145094</v>
+        <v>234242</v>
       </c>
       <c r="G91" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00145094</v>
+        <v>00234242</v>
       </c>
       <c r="H91">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I91" s="31">
-        <v>5094</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
-        <v>1_14,0_9447</v>
+        <v>1_24,0_1269</v>
       </c>
       <c r="C92">
         <f t="shared" si="9"/>
@@ -14724,30 +14734,30 @@
       </c>
       <c r="D92" s="35">
         <f t="shared" si="6"/>
-        <v>149446.03210208897</v>
+        <v>241268.67251591169</v>
       </c>
       <c r="E92">
         <v>1.03</v>
       </c>
       <c r="F92" s="15">
         <f t="shared" si="5"/>
-        <v>149447</v>
+        <v>241269</v>
       </c>
       <c r="G92" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00149447</v>
+        <v>00241269</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I92" s="31">
-        <v>9447</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
-        <v>1_15,0_3930</v>
+        <v>1_24,0_8507</v>
       </c>
       <c r="C93">
         <f t="shared" si="9"/>
@@ -14755,30 +14765,30 @@
       </c>
       <c r="D93" s="35">
         <f t="shared" si="6"/>
-        <v>153929.41306515163</v>
+        <v>248506.73269138904</v>
       </c>
       <c r="E93">
         <v>1.03</v>
       </c>
       <c r="F93" s="15">
         <f t="shared" si="5"/>
-        <v>153930</v>
+        <v>248507</v>
       </c>
       <c r="G93" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00153930</v>
+        <v>00248507</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I93" s="31">
-        <v>3930</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
-        <v>1_15,0_8548</v>
+        <v>1_25,0_5962</v>
       </c>
       <c r="C94">
         <f t="shared" si="9"/>
@@ -14786,30 +14796,30 @@
       </c>
       <c r="D94" s="35">
         <f t="shared" si="6"/>
-        <v>158547.29545710617</v>
+        <v>255961.93467213071</v>
       </c>
       <c r="E94">
         <v>1.03</v>
       </c>
       <c r="F94" s="15">
         <f t="shared" si="5"/>
-        <v>158548</v>
+        <v>255962</v>
       </c>
       <c r="G94" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00158548</v>
+        <v>00255962</v>
       </c>
       <c r="H94">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I94" s="31">
-        <v>8548</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
-        <v>1_16,0_3304</v>
+        <v>1_26,0_3641</v>
       </c>
       <c r="C95">
         <f t="shared" si="9"/>
@@ -14817,24 +14827,24 @@
       </c>
       <c r="D95" s="35">
         <f t="shared" si="6"/>
-        <v>163303.71432081936</v>
+        <v>263640.79271229461</v>
       </c>
       <c r="E95">
         <v>1.03</v>
       </c>
       <c r="F95" s="15">
         <f t="shared" si="5"/>
-        <v>163304</v>
+        <v>263641</v>
       </c>
       <c r="G95" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00163304</v>
+        <v>00263641</v>
       </c>
       <c r="H95">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I95" s="31">
-        <v>3304</v>
+        <v>3641</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/MaidLevel.xlsx
+++ b/docs/excel/MaidLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="3"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidLevel" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="313">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -847,271 +847,247 @@
     <t>0_2</t>
   </si>
   <si>
-    <t>0_317</t>
-  </si>
-  <si>
     <t>0_4</t>
   </si>
   <si>
     <t>0_6</t>
   </si>
   <si>
-    <t>0_9</t>
-  </si>
-  <si>
-    <t>0_14</t>
-  </si>
-  <si>
     <t>0_21</t>
   </si>
   <si>
-    <t>0_29</t>
-  </si>
-  <si>
-    <t>0_40</t>
-  </si>
-  <si>
-    <t>0_56</t>
-  </si>
-  <si>
-    <t>0_78</t>
-  </si>
-  <si>
-    <t>0_109</t>
-  </si>
-  <si>
-    <t>0_153</t>
-  </si>
-  <si>
-    <t>0_183</t>
-  </si>
-  <si>
-    <t>0_220</t>
-  </si>
-  <si>
-    <t>0_264</t>
-  </si>
-  <si>
     <t>0_380</t>
   </si>
   <si>
-    <t>0_456</t>
-  </si>
-  <si>
-    <t>0_538</t>
-  </si>
-  <si>
-    <t>0_634</t>
-  </si>
-  <si>
-    <t>0_749</t>
-  </si>
-  <si>
-    <t>0_883</t>
-  </si>
-  <si>
-    <t>0_1042</t>
-  </si>
-  <si>
-    <t>0_1230</t>
-  </si>
-  <si>
-    <t>0_1426</t>
-  </si>
-  <si>
-    <t>0_1654</t>
-  </si>
-  <si>
-    <t>0_1919</t>
-  </si>
-  <si>
-    <t>0_2226</t>
-  </si>
-  <si>
-    <t>0_2582</t>
-  </si>
-  <si>
-    <t>0_2995</t>
-  </si>
-  <si>
-    <t>0_3414</t>
-  </si>
-  <si>
-    <t>0_3892</t>
-  </si>
-  <si>
-    <t>0_4437</t>
-  </si>
-  <si>
-    <t>0_5058</t>
-  </si>
-  <si>
-    <t>0_5766</t>
-  </si>
-  <si>
-    <t>0_6573</t>
-  </si>
-  <si>
-    <t>0_7362</t>
-  </si>
-  <si>
-    <t>0_8245</t>
-  </si>
-  <si>
-    <t>0_9235</t>
-  </si>
-  <si>
-    <t>1_1,0_343</t>
-  </si>
-  <si>
-    <t>1_1,0_1584</t>
-  </si>
-  <si>
-    <t>1_1,0_2974</t>
-  </si>
-  <si>
-    <t>1_1,0_4271</t>
-  </si>
-  <si>
-    <t>1_1,0_5698</t>
-  </si>
-  <si>
-    <t>1_1,0_7268</t>
-  </si>
-  <si>
-    <t>1_1,0_8995</t>
-  </si>
-  <si>
-    <t>1_2,0_894</t>
-  </si>
-  <si>
-    <t>1_2,0_2984</t>
-  </si>
-  <si>
-    <t>1_2,0_5052</t>
-  </si>
-  <si>
-    <t>1_2,0_7307</t>
-  </si>
-  <si>
-    <t>1_2,0_9765</t>
-  </si>
-  <si>
-    <t>1_3,0_2443</t>
-  </si>
-  <si>
-    <t>1_3,0_5363</t>
-  </si>
-  <si>
-    <t>1_3,0_8546</t>
-  </si>
-  <si>
-    <t>1_4,0_1630</t>
-  </si>
-  <si>
-    <t>1_4,0_4960</t>
-  </si>
-  <si>
-    <t>1_4,0_8557</t>
-  </si>
-  <si>
-    <t>1_5,0_2441</t>
-  </si>
-  <si>
-    <t>1_5,0_6636</t>
-  </si>
-  <si>
-    <t>1_6,0_1167</t>
-  </si>
-  <si>
-    <t>1_6,0_5449</t>
-  </si>
-  <si>
-    <t>1_7,0_30</t>
-  </si>
-  <si>
-    <t>1_7,0_4932</t>
-  </si>
-  <si>
-    <t>1_8,0_178</t>
-  </si>
-  <si>
-    <t>1_8,0_5790</t>
-  </si>
-  <si>
-    <t>1_9,0_1795</t>
-  </si>
-  <si>
-    <t>1_9,0_7303</t>
-  </si>
-  <si>
-    <t>1_10,0_3141</t>
-  </si>
-  <si>
-    <t>1_10,0_9330</t>
-  </si>
-  <si>
-    <t>1_11,0_5889</t>
-  </si>
-  <si>
-    <t>1_12,0_2843</t>
-  </si>
-  <si>
-    <t>1_13,0_213</t>
-  </si>
-  <si>
-    <t>1_13,0_6724</t>
-  </si>
-  <si>
-    <t>1_14,0_3560</t>
-  </si>
-  <si>
-    <t>1_15,0_738</t>
-  </si>
-  <si>
-    <t>1_15,0_8275</t>
-  </si>
-  <si>
-    <t>1_16,0_6189</t>
-  </si>
-  <si>
-    <t>1_17,0_4498</t>
-  </si>
-  <si>
-    <t>1_18,0_1478</t>
-  </si>
-  <si>
-    <t>1_18,0_8737</t>
-  </si>
-  <si>
-    <t>1_19,0_6286</t>
-  </si>
-  <si>
-    <t>1_20,0_4138</t>
-  </si>
-  <si>
-    <t>1_21,0_2303</t>
-  </si>
-  <si>
-    <t>1_22,0_796</t>
-  </si>
-  <si>
-    <t>1_22,0_7419</t>
-  </si>
-  <si>
-    <t>1_23,0_4242</t>
-  </si>
-  <si>
-    <t>1_24,0_1269</t>
-  </si>
-  <si>
-    <t>1_24,0_8507</t>
-  </si>
-  <si>
-    <t>1_25,0_5962</t>
-  </si>
-  <si>
-    <t>1_26,0_3641</t>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>0_7</t>
+  </si>
+  <si>
+    <t>0_8</t>
+  </si>
+  <si>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>0_11</t>
+  </si>
+  <si>
+    <t>0_12</t>
+  </si>
+  <si>
+    <t>0_13</t>
+  </si>
+  <si>
+    <t>0_15</t>
+  </si>
+  <si>
+    <t>0_17</t>
+  </si>
+  <si>
+    <t>0_19</t>
+  </si>
+  <si>
+    <t>0_23</t>
+  </si>
+  <si>
+    <t>0_26</t>
+  </si>
+  <si>
+    <t>0_28</t>
+  </si>
+  <si>
+    <t>0_32</t>
+  </si>
+  <si>
+    <t>0_35</t>
+  </si>
+  <si>
+    <t>0_39</t>
+  </si>
+  <si>
+    <t>0_43</t>
+  </si>
+  <si>
+    <t>0_47</t>
+  </si>
+  <si>
+    <t>0_52</t>
+  </si>
+  <si>
+    <t>0_57</t>
+  </si>
+  <si>
+    <t>0_63</t>
+  </si>
+  <si>
+    <t>0_69</t>
+  </si>
+  <si>
+    <t>0_76</t>
+  </si>
+  <si>
+    <t>0_83</t>
+  </si>
+  <si>
+    <t>0_90</t>
+  </si>
+  <si>
+    <t>0_98</t>
+  </si>
+  <si>
+    <t>0_107</t>
+  </si>
+  <si>
+    <t>0_116</t>
+  </si>
+  <si>
+    <t>0_127</t>
+  </si>
+  <si>
+    <t>0_137</t>
+  </si>
+  <si>
+    <t>0_148</t>
+  </si>
+  <si>
+    <t>0_160</t>
+  </si>
+  <si>
+    <t>0_172</t>
+  </si>
+  <si>
+    <t>0_186</t>
+  </si>
+  <si>
+    <t>0_201</t>
+  </si>
+  <si>
+    <t>0_215</t>
+  </si>
+  <si>
+    <t>0_230</t>
+  </si>
+  <si>
+    <t>0_246</t>
+  </si>
+  <si>
+    <t>0_263</t>
+  </si>
+  <si>
+    <t>0_281</t>
+  </si>
+  <si>
+    <t>0_301</t>
+  </si>
+  <si>
+    <t>0_319</t>
+  </si>
+  <si>
+    <t>0_338</t>
+  </si>
+  <si>
+    <t>0_359</t>
+  </si>
+  <si>
+    <t>0_403</t>
+  </si>
+  <si>
+    <t>0_427</t>
+  </si>
+  <si>
+    <t>0_448</t>
+  </si>
+  <si>
+    <t>0_471</t>
+  </si>
+  <si>
+    <t>0_494</t>
+  </si>
+  <si>
+    <t>0_519</t>
+  </si>
+  <si>
+    <t>0_545</t>
+  </si>
+  <si>
+    <t>0_572</t>
+  </si>
+  <si>
+    <t>0_595</t>
+  </si>
+  <si>
+    <t>0_619</t>
+  </si>
+  <si>
+    <t>0_643</t>
+  </si>
+  <si>
+    <t>0_669</t>
+  </si>
+  <si>
+    <t>0_696</t>
+  </si>
+  <si>
+    <t>0_724</t>
+  </si>
+  <si>
+    <t>0_745</t>
+  </si>
+  <si>
+    <t>0_768</t>
+  </si>
+  <si>
+    <t>0_791</t>
+  </si>
+  <si>
+    <t>0_814</t>
+  </si>
+  <si>
+    <t>0_839</t>
+  </si>
+  <si>
+    <t>0_864</t>
+  </si>
+  <si>
+    <t>0_881</t>
+  </si>
+  <si>
+    <t>0_899</t>
+  </si>
+  <si>
+    <t>0_917</t>
+  </si>
+  <si>
+    <t>0_935</t>
+  </si>
+  <si>
+    <t>0_954</t>
+  </si>
+  <si>
+    <t>0_973</t>
+  </si>
+  <si>
+    <t>0_983</t>
+  </si>
+  <si>
+    <t>0_992</t>
+  </si>
+  <si>
+    <t>0_1002</t>
+  </si>
+  <si>
+    <t>0_1012</t>
+  </si>
+  <si>
+    <t>0_1023</t>
+  </si>
+  <si>
+    <t>0_1033</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,6 +1208,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1265,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,6 +1398,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1752,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F95"/>
     </sheetView>
   </sheetViews>
@@ -1983,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -2020,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
@@ -2057,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G9" s="24">
         <v>6</v>
@@ -2131,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="8">
         <v>8</v>
@@ -2168,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G12" s="8">
         <v>9</v>
@@ -2205,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
@@ -2242,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G14" s="8">
         <v>11</v>
@@ -2279,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -2316,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
@@ -2353,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G17" s="24">
         <v>14</v>
@@ -2390,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G18" s="24">
         <v>15</v>
@@ -2427,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G19" s="24">
         <v>16</v>
@@ -2464,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G20" s="24">
         <v>17</v>
@@ -2501,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G21" s="24">
         <v>18</v>
@@ -2538,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G22" s="24">
         <v>19</v>
@@ -2575,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G23" s="21">
         <v>20</v>
@@ -2612,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G24" s="21">
         <v>21</v>
@@ -2649,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G25" s="21">
         <v>22</v>
@@ -2686,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G26" s="21">
         <v>23</v>
@@ -2723,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G27" s="21">
         <v>24</v>
@@ -2760,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G28" s="21">
         <v>25</v>
@@ -2797,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G29" s="24">
         <v>26</v>
@@ -2834,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G30" s="24">
         <v>27</v>
@@ -2871,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G31" s="24">
         <v>28</v>
@@ -2908,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G32" s="24">
         <v>29</v>
@@ -2945,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G33" s="24">
         <v>30</v>
@@ -2982,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G34" s="24">
         <v>31</v>
@@ -3019,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G35" s="8">
         <v>32</v>
@@ -3056,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G36" s="8">
         <v>33</v>
@@ -3093,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G37" s="8">
         <v>34</v>
@@ -3130,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G38" s="8">
         <v>35</v>
@@ -3167,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G39" s="8">
         <v>36</v>
@@ -3204,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G40" s="8">
         <v>37</v>
@@ -3241,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G41" s="8">
         <v>38</v>
@@ -3278,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G42" s="8">
         <v>39</v>
@@ -3315,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G43" s="8">
         <v>40</v>
@@ -3352,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G44" s="8">
         <v>41</v>
@@ -3389,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G45" s="8">
         <v>42</v>
@@ -3426,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G46" s="8">
         <v>43</v>
@@ -3463,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G47" s="8">
         <v>44</v>
@@ -3500,7 +3490,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G48" s="8">
         <v>45</v>
@@ -3537,7 +3527,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G49" s="8">
         <v>46</v>
@@ -3574,7 +3564,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G50" s="8">
         <v>47</v>
@@ -3611,7 +3601,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G51" s="8">
         <v>48</v>
@@ -3648,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G52" s="8">
         <v>49</v>
@@ -3685,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G53" s="8">
         <v>50</v>
@@ -3722,7 +3712,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G54" s="8">
         <v>51</v>
@@ -3759,7 +3749,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G55" s="8">
         <v>52</v>
@@ -3796,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G56" s="8">
         <v>53</v>
@@ -3833,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G57" s="8">
         <v>54</v>
@@ -3870,7 +3860,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G58" s="8">
         <v>55</v>
@@ -3907,7 +3897,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G59" s="8">
         <v>56</v>
@@ -3944,7 +3934,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G60" s="8">
         <v>57</v>
@@ -3981,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G61" s="8">
         <v>58</v>
@@ -4018,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G62" s="8">
         <v>59</v>
@@ -4055,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="G63" s="8">
         <v>60</v>
@@ -4092,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G64" s="8">
         <v>61</v>
@@ -4129,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G65" s="8">
         <v>62</v>
@@ -4166,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G66" s="8">
         <v>63</v>
@@ -4203,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G67" s="8">
         <v>64</v>
@@ -4240,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G68" s="8">
         <v>65</v>
@@ -4277,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G69" s="8">
         <v>66</v>
@@ -4314,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G70" s="8">
         <v>67</v>
@@ -4351,7 +4341,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G71" s="8">
         <v>68</v>
@@ -4388,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G72" s="8">
         <v>69</v>
@@ -4425,7 +4415,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G73" s="8">
         <v>70</v>
@@ -4462,7 +4452,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G74" s="8">
         <v>71</v>
@@ -4499,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G75" s="8">
         <v>72</v>
@@ -4536,7 +4526,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G76" s="8">
         <v>73</v>
@@ -4573,7 +4563,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G77" s="8">
         <v>74</v>
@@ -4610,7 +4600,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G78" s="8">
         <v>75</v>
@@ -4647,7 +4637,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G79" s="8">
         <v>76</v>
@@ -4684,7 +4674,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="49" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G80" s="8">
         <v>77</v>
@@ -4711,7 +4701,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="49" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G81" s="8">
         <v>78</v>
@@ -4738,7 +4728,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G82" s="8">
         <v>79</v>
@@ -4765,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G83" s="8">
         <v>80</v>
@@ -4792,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="49" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G84" s="8">
         <v>81</v>
@@ -4819,7 +4809,7 @@
         <v>15</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G85" s="8">
         <v>82</v>
@@ -4846,7 +4836,7 @@
         <v>15</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G86" s="8">
         <v>83</v>
@@ -4873,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G87" s="8">
         <v>84</v>
@@ -4900,7 +4890,7 @@
         <v>15</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G88" s="8">
         <v>85</v>
@@ -4927,7 +4917,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G89" s="8">
         <v>86</v>
@@ -4954,7 +4944,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G90" s="8">
         <v>87</v>
@@ -4981,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G91" s="8">
         <v>88</v>
@@ -5008,7 +4998,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G92" s="8">
         <v>89</v>
@@ -5035,7 +5025,7 @@
         <v>16</v>
       </c>
       <c r="F93" s="49" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G93" s="8">
         <v>90</v>
@@ -5062,7 +5052,7 @@
         <v>16</v>
       </c>
       <c r="F94" s="49" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G94" s="8">
         <v>91</v>
@@ -5089,7 +5079,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="49" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -11479,7 +11469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B95"/>
     </sheetView>
   </sheetViews>
@@ -11563,8 +11553,8 @@
       <c r="D5" s="34">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" s="1">
+        <v>1.2</v>
       </c>
       <c r="F5" s="32">
         <f t="shared" ref="F5:F68" si="0">ROUNDUP(D5,0)</f>
@@ -11597,10 +11587,10 @@
       </c>
       <c r="D6" s="35">
         <f t="shared" ref="D6:D69" si="1">D5*E5</f>
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.2</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
@@ -11625,7 +11615,7 @@
     <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>0_4</v>
+        <v>0_2</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -11633,21 +11623,21 @@
       </c>
       <c r="D7" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
+        <v>1.44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0004</v>
+        <v>0002</v>
       </c>
       <c r="H7" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -11661,7 +11651,7 @@
     <row r="8" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0_6</v>
+        <v>0_2</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -11669,21 +11659,21 @@
       </c>
       <c r="D8" s="35">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1.5</v>
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0006</v>
+        <v>0002</v>
       </c>
       <c r="H8" s="33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -11697,7 +11687,7 @@
     <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0_9</v>
+        <v>0_2</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -11705,21 +11695,21 @@
       </c>
       <c r="D9" s="35">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
+        <v>1.9043999999999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0009</v>
+        <v>0002</v>
       </c>
       <c r="H9" s="33">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -11733,7 +11723,7 @@
     <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0_14</v>
+        <v>0_3</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -11741,21 +11731,21 @@
       </c>
       <c r="D10" s="35">
         <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="E10">
-        <v>1.5</v>
+        <v>2.1900599999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G10" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0014</v>
+        <v>0003</v>
       </c>
       <c r="H10" s="33">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -11769,7 +11759,7 @@
     <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0_21</v>
+        <v>0_3</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -11777,21 +11767,21 @@
       </c>
       <c r="D11" s="35">
         <f t="shared" si="1"/>
-        <v>20.25</v>
-      </c>
-      <c r="E11">
-        <v>1.4</v>
+        <v>2.5185689999999994</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G11" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0021</v>
+        <v>0003</v>
       </c>
       <c r="H11" s="33">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -11805,7 +11795,7 @@
     <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0_29</v>
+        <v>0_3</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -11813,21 +11803,21 @@
       </c>
       <c r="D12" s="35">
         <f t="shared" si="1"/>
-        <v>28.349999999999998</v>
-      </c>
-      <c r="E12">
-        <v>1.4</v>
+        <v>2.871168659999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0029</v>
+        <v>0003</v>
       </c>
       <c r="H12" s="33">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -11841,7 +11831,7 @@
     <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0_40</v>
+        <v>0_4</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -11849,21 +11839,21 @@
       </c>
       <c r="D13" s="35">
         <f t="shared" si="1"/>
-        <v>39.69</v>
-      </c>
-      <c r="E13">
-        <v>1.4</v>
+        <v>3.2731322723999985</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0040</v>
+        <v>0004</v>
       </c>
       <c r="H13" s="33">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -11877,7 +11867,7 @@
     <row r="14" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0_56</v>
+        <v>0_4</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -11885,21 +11875,21 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="1"/>
-        <v>55.565999999999995</v>
-      </c>
-      <c r="E14">
-        <v>1.4</v>
+        <v>3.7313707905359981</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G14" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0056</v>
+        <v>0004</v>
       </c>
       <c r="H14" s="33">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -11913,7 +11903,7 @@
     <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
-        <v>0_78</v>
+        <v>0_5</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -11921,21 +11911,21 @@
       </c>
       <c r="D15" s="35">
         <f t="shared" si="1"/>
-        <v>77.792399999999986</v>
-      </c>
-      <c r="E15">
-        <v>1.4</v>
+        <v>4.2537627012110377</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G15" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0078</v>
+        <v>0005</v>
       </c>
       <c r="H15" s="33">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -11949,7 +11939,7 @@
     <row r="16" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
-        <v>0_109</v>
+        <v>0_5</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -11957,21 +11947,21 @@
       </c>
       <c r="D16" s="35">
         <f t="shared" si="1"/>
-        <v>108.90935999999998</v>
-      </c>
-      <c r="E16">
-        <v>1.4</v>
+        <v>4.849289479380583</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="G16" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0109</v>
+        <v>0005</v>
       </c>
       <c r="H16" s="33">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -11985,7 +11975,7 @@
     <row r="17" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0_153</v>
+        <v>0_6</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -11993,21 +11983,21 @@
       </c>
       <c r="D17" s="35">
         <f t="shared" si="1"/>
-        <v>152.47310399999995</v>
-      </c>
-      <c r="E17">
-        <v>1.2</v>
+        <v>5.5281900064938645</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="G17" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0153</v>
+        <v>0006</v>
       </c>
       <c r="H17" s="33">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -12021,7 +12011,7 @@
     <row r="18" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0_183</v>
+        <v>0_7</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -12029,21 +12019,21 @@
       </c>
       <c r="D18" s="35">
         <f t="shared" si="1"/>
-        <v>182.96772479999993</v>
-      </c>
-      <c r="E18">
-        <v>1.2</v>
+        <v>6.2468547073380662</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0183</v>
+        <v>0007</v>
       </c>
       <c r="H18" s="33">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -12057,7 +12047,7 @@
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0_220</v>
+        <v>0_8</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -12065,21 +12055,21 @@
       </c>
       <c r="D19" s="35">
         <f t="shared" si="1"/>
-        <v>219.5612697599999</v>
-      </c>
-      <c r="E19">
-        <v>1.2</v>
+        <v>7.0589458192920143</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="G19" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0220</v>
+        <v>0008</v>
       </c>
       <c r="H19" s="33">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
@@ -12093,7 +12083,7 @@
     <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>0_264</v>
+        <v>0_8</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -12101,21 +12091,21 @@
       </c>
       <c r="D20" s="35">
         <f t="shared" si="1"/>
-        <v>263.47352371199986</v>
-      </c>
-      <c r="E20">
-        <v>1.2</v>
+        <v>7.9766087757999751</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="G20" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0264</v>
+        <v>0008</v>
       </c>
       <c r="H20" s="33">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
@@ -12129,7 +12119,7 @@
     <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
-        <v>0_317</v>
+        <v>0_10</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -12137,21 +12127,21 @@
       </c>
       <c r="D21" s="35">
         <f t="shared" si="1"/>
-        <v>316.16822845439981</v>
-      </c>
-      <c r="E21">
-        <v>1.2</v>
+        <v>9.0135679166539706</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="G21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0317</v>
+        <v>0010</v>
       </c>
       <c r="H21" s="33">
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -12165,7 +12155,7 @@
     <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
-        <v>0_380</v>
+        <v>0_11</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -12173,21 +12163,21 @@
       </c>
       <c r="D22" s="35">
         <f t="shared" si="1"/>
-        <v>379.40187414527975</v>
-      </c>
-      <c r="E22">
-        <v>1.2</v>
+        <v>10.185331745818987</v>
+      </c>
+      <c r="E22" s="52">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="G22" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0380</v>
+        <v>0011</v>
       </c>
       <c r="H22" s="33">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -12201,7 +12191,7 @@
     <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>0_456</v>
+        <v>0_12</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -12209,21 +12199,21 @@
       </c>
       <c r="D23" s="35">
         <f t="shared" si="1"/>
-        <v>455.28224897433569</v>
-      </c>
-      <c r="E23">
-        <v>1.18</v>
+        <v>11.509424872775455</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="G23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0456</v>
+        <v>0012</v>
       </c>
       <c r="H23" s="33">
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
@@ -12237,7 +12227,7 @@
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>0_538</v>
+        <v>0_13</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -12245,21 +12235,21 @@
       </c>
       <c r="D24" s="35">
         <f t="shared" si="1"/>
-        <v>537.23305378971611</v>
-      </c>
-      <c r="E24">
-        <v>1.18</v>
+        <v>12.890555857508511</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="G24" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0538</v>
+        <v>0013</v>
       </c>
       <c r="H24" s="33">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -12273,7 +12263,7 @@
     <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>0_634</v>
+        <v>0_15</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -12281,21 +12271,21 @@
       </c>
       <c r="D25" s="35">
         <f t="shared" si="1"/>
-        <v>633.935003471865</v>
-      </c>
-      <c r="E25">
-        <v>1.18</v>
+        <v>14.437422560409534</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="0"/>
-        <v>634</v>
+        <v>15</v>
       </c>
       <c r="G25" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0634</v>
+        <v>0015</v>
       </c>
       <c r="H25" s="33">
-        <v>634</v>
+        <v>15</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -12309,7 +12299,7 @@
     <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>0_749</v>
+        <v>0_17</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -12317,21 +12307,21 @@
       </c>
       <c r="D26" s="35">
         <f t="shared" si="1"/>
-        <v>748.04330409680063</v>
-      </c>
-      <c r="E26">
-        <v>1.18</v>
+        <v>16.169913267658679</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="0"/>
-        <v>749</v>
+        <v>17</v>
       </c>
       <c r="G26" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0749</v>
+        <v>0017</v>
       </c>
       <c r="H26" s="33">
-        <v>749</v>
+        <v>17</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -12345,7 +12335,7 @@
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>0_883</v>
+        <v>0_19</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -12353,21 +12343,21 @@
       </c>
       <c r="D27" s="35">
         <f t="shared" si="1"/>
-        <v>882.6910988342247</v>
-      </c>
-      <c r="E27">
-        <v>1.18</v>
+        <v>18.110302859777722</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="0"/>
-        <v>883</v>
+        <v>19</v>
       </c>
       <c r="G27" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>0883</v>
+        <v>0019</v>
       </c>
       <c r="H27" s="33">
-        <v>883</v>
+        <v>19</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -12381,7 +12371,7 @@
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>0_1042</v>
+        <v>0_21</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -12389,21 +12379,21 @@
       </c>
       <c r="D28" s="35">
         <f t="shared" si="1"/>
-        <v>1041.5754966243851</v>
-      </c>
-      <c r="E28">
-        <v>1.18</v>
+        <v>20.283539202951051</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="0"/>
-        <v>1042</v>
+        <v>21</v>
       </c>
       <c r="G28" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1042</v>
+        <v>0021</v>
       </c>
       <c r="H28" s="33">
-        <v>1042</v>
+        <v>21</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -12417,7 +12407,7 @@
     <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>0_1230</v>
+        <v>0_23</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -12425,21 +12415,21 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" si="1"/>
-        <v>1229.0590860167742</v>
-      </c>
-      <c r="E29">
-        <v>1.1599999999999999</v>
+        <v>22.71756390730518</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>23</v>
       </c>
       <c r="G29" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1230</v>
+        <v>0023</v>
       </c>
       <c r="H29" s="33">
-        <v>1230</v>
+        <v>23</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
@@ -12453,7 +12443,7 @@
     <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>0_1426</v>
+        <v>0_26</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -12461,21 +12451,21 @@
       </c>
       <c r="D30" s="35">
         <f t="shared" si="1"/>
-        <v>1425.7085397794581</v>
-      </c>
-      <c r="E30">
-        <v>1.1599999999999999</v>
+        <v>25.216495937108753</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="0"/>
-        <v>1426</v>
+        <v>26</v>
       </c>
       <c r="G30" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1426</v>
+        <v>0026</v>
       </c>
       <c r="H30" s="33">
-        <v>1426</v>
+        <v>26</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
@@ -12489,7 +12479,7 @@
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>0_1654</v>
+        <v>0_28</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -12497,21 +12487,21 @@
       </c>
       <c r="D31" s="35">
         <f t="shared" si="1"/>
-        <v>1653.8219061441712</v>
-      </c>
-      <c r="E31">
-        <v>1.1599999999999999</v>
+        <v>27.990310490190719</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="0"/>
-        <v>1654</v>
+        <v>28</v>
       </c>
       <c r="G31" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1654</v>
+        <v>0028</v>
       </c>
       <c r="H31" s="33">
-        <v>1654</v>
+        <v>28</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
@@ -12525,7 +12515,7 @@
     <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>0_1919</v>
+        <v>0_32</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -12533,21 +12523,21 @@
       </c>
       <c r="D32" s="35">
         <f t="shared" si="1"/>
-        <v>1918.4334111272385</v>
-      </c>
-      <c r="E32">
-        <v>1.1599999999999999</v>
+        <v>31.069244644111702</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="0"/>
-        <v>1919</v>
+        <v>32</v>
       </c>
       <c r="G32" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>1919</v>
+        <v>0032</v>
       </c>
       <c r="H32" s="33">
-        <v>1919</v>
+        <v>32</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
@@ -12561,7 +12551,7 @@
     <row r="33" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>0_2226</v>
+        <v>0_35</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -12569,21 +12559,21 @@
       </c>
       <c r="D33" s="35">
         <f t="shared" si="1"/>
-        <v>2225.3827569075966</v>
-      </c>
-      <c r="E33">
-        <v>1.1599999999999999</v>
+        <v>34.486861554963994</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="0"/>
-        <v>2226</v>
+        <v>35</v>
       </c>
       <c r="G33" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2226</v>
+        <v>0035</v>
       </c>
       <c r="H33" s="33">
-        <v>2226</v>
+        <v>35</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -12597,7 +12587,7 @@
     <row r="34" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>0_2582</v>
+        <v>0_39</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -12605,21 +12595,21 @@
       </c>
       <c r="D34" s="35">
         <f t="shared" si="1"/>
-        <v>2581.4439980128118</v>
-      </c>
-      <c r="E34">
-        <v>1.1599999999999999</v>
+        <v>38.280416326010034</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.1100000000000001</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="0"/>
-        <v>2582</v>
+        <v>39</v>
       </c>
       <c r="G34" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2582</v>
+        <v>0039</v>
       </c>
       <c r="H34" s="33">
-        <v>2582</v>
+        <v>39</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
@@ -12633,7 +12623,7 @@
     <row r="35" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>0_2995</v>
+        <v>0_43</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -12641,21 +12631,21 @@
       </c>
       <c r="D35" s="35">
         <f t="shared" si="1"/>
-        <v>2994.4750376948614</v>
-      </c>
-      <c r="E35">
-        <v>1.1399999999999999</v>
+        <v>42.491262121871138</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>2995</v>
+        <v>43</v>
       </c>
       <c r="G35" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>2995</v>
+        <v>0043</v>
       </c>
       <c r="H35" s="33">
-        <v>2995</v>
+        <v>43</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
@@ -12669,7 +12659,7 @@
     <row r="36" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>0_3414</v>
+        <v>0_47</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -12677,21 +12667,21 @@
       </c>
       <c r="D36" s="35">
         <f t="shared" si="1"/>
-        <v>3413.7015429721419</v>
-      </c>
-      <c r="E36">
-        <v>1.1399999999999999</v>
+        <v>46.740388334058252</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="0"/>
-        <v>3414</v>
+        <v>47</v>
       </c>
       <c r="G36" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3414</v>
+        <v>0047</v>
       </c>
       <c r="H36" s="33">
-        <v>3414</v>
+        <v>47</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
@@ -12705,7 +12695,7 @@
     <row r="37" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>0_3892</v>
+        <v>0_52</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -12713,21 +12703,21 @@
       </c>
       <c r="D37" s="35">
         <f t="shared" si="1"/>
-        <v>3891.6197589882413</v>
-      </c>
-      <c r="E37">
-        <v>1.1399999999999999</v>
+        <v>51.414427167464083</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="0"/>
-        <v>3892</v>
+        <v>52</v>
       </c>
       <c r="G37" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>3892</v>
+        <v>0052</v>
       </c>
       <c r="H37" s="33">
-        <v>3892</v>
+        <v>52</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
@@ -12741,7 +12731,7 @@
     <row r="38" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>0_4437</v>
+        <v>0_57</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -12749,21 +12739,21 @@
       </c>
       <c r="D38" s="35">
         <f t="shared" si="1"/>
-        <v>4436.4465252465943</v>
-      </c>
-      <c r="E38">
-        <v>1.1399999999999999</v>
+        <v>56.555869884210495</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="0"/>
-        <v>4437</v>
+        <v>57</v>
       </c>
       <c r="G38" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>4437</v>
+        <v>0057</v>
       </c>
       <c r="H38" s="33">
-        <v>4437</v>
+        <v>57</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
@@ -12777,7 +12767,7 @@
     <row r="39" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>0_5058</v>
+        <v>0_63</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -12785,21 +12775,21 @@
       </c>
       <c r="D39" s="35">
         <f t="shared" si="1"/>
-        <v>5057.5490387811169</v>
-      </c>
-      <c r="E39">
-        <v>1.1399999999999999</v>
+        <v>62.211456872631551</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" si="0"/>
-        <v>5058</v>
+        <v>63</v>
       </c>
       <c r="G39" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>5058</v>
+        <v>0063</v>
       </c>
       <c r="H39" s="33">
-        <v>5058</v>
+        <v>63</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
@@ -12813,7 +12803,7 @@
     <row r="40" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>0_5766</v>
+        <v>0_69</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -12821,21 +12811,21 @@
       </c>
       <c r="D40" s="35">
         <f t="shared" si="1"/>
-        <v>5765.6059042104725</v>
-      </c>
-      <c r="E40">
-        <v>1.1399999999999999</v>
+        <v>68.432602559894718</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F40" s="15">
         <f t="shared" si="0"/>
-        <v>5766</v>
+        <v>69</v>
       </c>
       <c r="G40" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>5766</v>
+        <v>0069</v>
       </c>
       <c r="H40" s="33">
-        <v>5766</v>
+        <v>69</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -12849,7 +12839,7 @@
     <row r="41" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>0_6573</v>
+        <v>0_76</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -12857,21 +12847,21 @@
       </c>
       <c r="D41" s="35">
         <f t="shared" si="1"/>
-        <v>6572.7907307999385</v>
-      </c>
-      <c r="E41">
-        <v>1.1200000000000001</v>
+        <v>75.275862815884196</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F41" s="15">
         <f t="shared" si="0"/>
-        <v>6573</v>
+        <v>76</v>
       </c>
       <c r="G41" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>6573</v>
+        <v>0076</v>
       </c>
       <c r="H41" s="33">
-        <v>6573</v>
+        <v>76</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
@@ -12885,7 +12875,7 @@
     <row r="42" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>0_7362</v>
+        <v>0_83</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -12893,21 +12883,21 @@
       </c>
       <c r="D42" s="35">
         <f t="shared" si="1"/>
-        <v>7361.5256184959317</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1.1200000000000001</v>
+        <v>82.050690469313778</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="0"/>
-        <v>7362</v>
+        <v>83</v>
       </c>
       <c r="G42" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>7362</v>
+        <v>0083</v>
       </c>
       <c r="H42" s="33">
-        <v>7362</v>
+        <v>83</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
@@ -12921,7 +12911,7 @@
     <row r="43" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>0_8245</v>
+        <v>0_90</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -12929,21 +12919,21 @@
       </c>
       <c r="D43" s="35">
         <f t="shared" si="1"/>
-        <v>8244.908692715444</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1.1200000000000001</v>
+        <v>89.435252611552031</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="0"/>
-        <v>8245</v>
+        <v>90</v>
       </c>
       <c r="G43" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>8245</v>
+        <v>0090</v>
       </c>
       <c r="H43" s="33">
-        <v>8245</v>
+        <v>90</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
@@ -12957,7 +12947,7 @@
     <row r="44" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>0_9235</v>
+        <v>0_98</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -12965,21 +12955,21 @@
       </c>
       <c r="D44" s="35">
         <f t="shared" si="1"/>
-        <v>9234.2977358412973</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1.1200000000000001</v>
+        <v>97.484425346591721</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="0"/>
-        <v>9235</v>
+        <v>98</v>
       </c>
       <c r="G44" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>9235</v>
+        <v>0098</v>
       </c>
       <c r="H44" s="33">
-        <v>9235</v>
+        <v>98</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
@@ -12993,33 +12983,31 @@
     <row r="45" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_343</v>
+        <v>0_107</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="35">
         <f t="shared" si="1"/>
-        <v>10342.413464142253</v>
-      </c>
-      <c r="E45" s="13">
-        <v>1.1200000000000001</v>
+        <v>106.25802362778498</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="0"/>
-        <v>10343</v>
+        <v>107</v>
       </c>
       <c r="G45" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00010343</v>
+        <v>0107</v>
       </c>
       <c r="H45" s="42">
-        <v>1</v>
-      </c>
-      <c r="I45" s="42">
-        <v>343</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
       <c r="L45" s="15"/>
@@ -13031,33 +13019,31 @@
     <row r="46" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_1584</v>
+        <v>0_116</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="35">
         <f t="shared" si="1"/>
-        <v>11583.503079839325</v>
-      </c>
-      <c r="E46" s="13">
-        <v>1.1200000000000001</v>
+        <v>115.82124575428564</v>
+      </c>
+      <c r="E46" s="53">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="0"/>
-        <v>11584</v>
+        <v>116</v>
       </c>
       <c r="G46" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00011584</v>
+        <v>0116</v>
       </c>
       <c r="H46" s="42">
-        <v>1</v>
-      </c>
-      <c r="I46" s="42">
-        <v>1584</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I46" s="42"/>
       <c r="J46" s="42"/>
       <c r="K46" s="42"/>
       <c r="L46" s="15"/>
@@ -13069,33 +13055,31 @@
     <row r="47" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_2974</v>
+        <v>0_127</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="35">
         <f t="shared" si="1"/>
-        <v>12973.523449420045</v>
-      </c>
-      <c r="E47" s="13">
-        <v>1.1000000000000001</v>
+        <v>126.24515787217136</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.08</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="0"/>
-        <v>12974</v>
+        <v>127</v>
       </c>
       <c r="G47" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00012974</v>
+        <v>0127</v>
       </c>
       <c r="H47" s="42">
-        <v>1</v>
-      </c>
-      <c r="I47" s="42">
-        <v>2974</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I47" s="42"/>
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
       <c r="L47" s="15"/>
@@ -13107,33 +13091,31 @@
     <row r="48" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_4271</v>
+        <v>0_137</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="35">
         <f t="shared" si="1"/>
-        <v>14270.875794362051</v>
-      </c>
-      <c r="E48">
-        <v>1.1000000000000001</v>
+        <v>136.34477050194508</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.08</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="0"/>
-        <v>14271</v>
+        <v>137</v>
       </c>
       <c r="G48" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00014271</v>
+        <v>0137</v>
       </c>
       <c r="H48" s="42">
-        <v>1</v>
-      </c>
-      <c r="I48" s="42">
-        <v>4271</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I48" s="42"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="15"/>
@@ -13145,33 +13127,31 @@
     <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_5698</v>
+        <v>0_148</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="35">
         <f t="shared" si="1"/>
-        <v>15697.963373798257</v>
-      </c>
-      <c r="E49">
-        <v>1.1000000000000001</v>
+        <v>147.2523521421007</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.08</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="0"/>
-        <v>15698</v>
+        <v>148</v>
       </c>
       <c r="G49" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00015698</v>
+        <v>0148</v>
       </c>
       <c r="H49" s="42">
-        <v>1</v>
-      </c>
-      <c r="I49" s="42">
-        <v>5698</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I49" s="42"/>
       <c r="J49" s="42"/>
       <c r="K49" s="42"/>
       <c r="L49" s="15"/>
@@ -13184,33 +13164,31 @@
     <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_7268</v>
+        <v>0_160</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="35">
         <f t="shared" si="1"/>
-        <v>17267.759711178085</v>
-      </c>
-      <c r="E50">
-        <v>1.1000000000000001</v>
+        <v>159.03254031346876</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.08</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="0"/>
-        <v>17268</v>
+        <v>160</v>
       </c>
       <c r="G50" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00017268</v>
+        <v>0160</v>
       </c>
       <c r="H50" s="42">
-        <v>1</v>
-      </c>
-      <c r="I50" s="42">
-        <v>7268</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
       <c r="L50" s="15"/>
@@ -13223,33 +13201,31 @@
     <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_8995</v>
+        <v>0_172</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="35">
         <f t="shared" si="1"/>
-        <v>18994.535682295897</v>
-      </c>
-      <c r="E51">
-        <v>1.1000000000000001</v>
+        <v>171.75514353854626</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.08</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="0"/>
-        <v>18995</v>
+        <v>172</v>
       </c>
       <c r="G51" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00018995</v>
+        <v>0172</v>
       </c>
       <c r="H51" s="42">
-        <v>1</v>
-      </c>
-      <c r="I51" s="42">
-        <v>8995</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
       <c r="L51" s="15"/>
@@ -13262,33 +13238,31 @@
     <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_894</v>
+        <v>0_186</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="35">
         <f t="shared" si="1"/>
-        <v>20893.989250525487</v>
-      </c>
-      <c r="E52">
-        <v>1.1000000000000001</v>
+        <v>185.49555502162997</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.08</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="0"/>
-        <v>20894</v>
+        <v>186</v>
       </c>
       <c r="G52" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00020894</v>
+        <v>0186</v>
       </c>
       <c r="H52" s="42">
-        <v>2</v>
-      </c>
-      <c r="I52" s="42">
-        <v>894</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="I52" s="42"/>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="15"/>
@@ -13301,33 +13275,31 @@
     <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_2984</v>
+        <v>0_201</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="35">
         <f t="shared" si="1"/>
-        <v>22983.388175578038</v>
-      </c>
-      <c r="E53">
-        <v>1.0900000000000001</v>
+        <v>200.33519942336039</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.07</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="0"/>
-        <v>22984</v>
+        <v>201</v>
       </c>
       <c r="G53" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00022984</v>
+        <v>0201</v>
       </c>
       <c r="H53" s="42">
-        <v>2</v>
-      </c>
-      <c r="I53" s="42">
-        <v>2984</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I53" s="42"/>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
       <c r="L53" s="15"/>
@@ -13340,33 +13312,31 @@
     <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_5052</v>
+        <v>0_215</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="35">
         <f t="shared" si="1"/>
-        <v>25051.893111380065</v>
-      </c>
-      <c r="E54">
-        <v>1.0900000000000001</v>
+        <v>214.35866338299564</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.07</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="0"/>
-        <v>25052</v>
+        <v>215</v>
       </c>
       <c r="G54" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00025052</v>
+        <v>0215</v>
       </c>
       <c r="H54" s="43">
-        <v>2</v>
-      </c>
-      <c r="I54" s="43">
-        <v>5052</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="I54" s="43"/>
       <c r="J54" s="43"/>
       <c r="K54" s="42"/>
       <c r="L54" s="15"/>
@@ -13379,33 +13349,31 @@
     <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_7307</v>
+        <v>0_230</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="35">
         <f t="shared" si="1"/>
-        <v>27306.563491404271</v>
-      </c>
-      <c r="E55">
-        <v>1.0900000000000001</v>
+        <v>229.36376981980536</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.07</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="0"/>
-        <v>27307</v>
+        <v>230</v>
       </c>
       <c r="G55" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00027307</v>
+        <v>0230</v>
       </c>
       <c r="H55" s="43">
-        <v>2</v>
-      </c>
-      <c r="I55" s="43">
-        <v>7307</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="I55" s="43"/>
       <c r="J55" s="43"/>
       <c r="K55" s="42"/>
       <c r="L55" s="15"/>
@@ -13418,33 +13386,31 @@
     <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_9765</v>
+        <v>0_246</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="35">
         <f t="shared" si="1"/>
-        <v>29764.154205630657</v>
-      </c>
-      <c r="E56">
-        <v>1.0900000000000001</v>
+        <v>245.41923370719175</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.07</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="0"/>
-        <v>29765</v>
+        <v>246</v>
       </c>
       <c r="G56" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00029765</v>
+        <v>0246</v>
       </c>
       <c r="H56" s="43">
-        <v>2</v>
-      </c>
-      <c r="I56" s="43">
-        <v>9765</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I56" s="43"/>
       <c r="J56" s="43"/>
       <c r="K56" s="42"/>
       <c r="L56" s="15"/>
@@ -13457,33 +13423,31 @@
     <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_2443</v>
+        <v>0_263</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="35">
         <f t="shared" si="1"/>
-        <v>32442.92808413742</v>
-      </c>
-      <c r="E57">
-        <v>1.0900000000000001</v>
+        <v>262.59858006669521</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.07</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="0"/>
-        <v>32443</v>
+        <v>263</v>
       </c>
       <c r="G57" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00032443</v>
+        <v>0263</v>
       </c>
       <c r="H57" s="43">
-        <v>3</v>
-      </c>
-      <c r="I57" s="43">
-        <v>2443</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="I57" s="43"/>
       <c r="J57" s="43"/>
       <c r="K57" s="42"/>
       <c r="L57" s="15"/>
@@ -13496,33 +13460,31 @@
     <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_5363</v>
+        <v>0_281</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="35">
         <f t="shared" si="1"/>
-        <v>35362.791611709792</v>
-      </c>
-      <c r="E58">
-        <v>1.0900000000000001</v>
+        <v>280.98048067136386</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1.07</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="0"/>
-        <v>35363</v>
+        <v>281</v>
       </c>
       <c r="G58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00035363</v>
+        <v>0281</v>
       </c>
       <c r="H58" s="43">
-        <v>3</v>
-      </c>
-      <c r="I58" s="43">
-        <v>5363</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I58" s="43"/>
       <c r="J58" s="43"/>
       <c r="K58" s="42"/>
       <c r="L58" s="15"/>
@@ -13535,33 +13497,31 @@
     <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_8546</v>
+        <v>0_301</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="35">
         <f t="shared" si="1"/>
-        <v>38545.442856763679</v>
-      </c>
-      <c r="E59">
-        <v>1.08</v>
+        <v>300.64911431835935</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1.06</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="0"/>
-        <v>38546</v>
+        <v>301</v>
       </c>
       <c r="G59" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00038546</v>
+        <v>0301</v>
       </c>
       <c r="H59" s="43">
-        <v>3</v>
-      </c>
-      <c r="I59" s="43">
-        <v>8546</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="I59" s="43"/>
       <c r="J59" s="43"/>
       <c r="K59" s="42"/>
       <c r="L59" s="15"/>
@@ -13574,33 +13534,31 @@
     <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_1630</v>
+        <v>0_319</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="35">
         <f t="shared" si="1"/>
-        <v>41629.078285304779</v>
-      </c>
-      <c r="E60">
-        <v>1.08</v>
+        <v>318.68806117746095</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1.06</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="0"/>
-        <v>41630</v>
+        <v>319</v>
       </c>
       <c r="G60" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00041630</v>
+        <v>0319</v>
       </c>
       <c r="H60" s="43">
-        <v>4</v>
-      </c>
-      <c r="I60" s="43">
-        <v>1630</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I60" s="43"/>
       <c r="J60" s="43"/>
       <c r="K60" s="42"/>
       <c r="L60" s="15"/>
@@ -13613,33 +13571,31 @@
     <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_4960</v>
+        <v>0_338</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="35">
         <f t="shared" si="1"/>
-        <v>44959.404548129161</v>
-      </c>
-      <c r="E61">
-        <v>1.08</v>
+        <v>337.80934484810865</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.06</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="0"/>
-        <v>44960</v>
+        <v>338</v>
       </c>
       <c r="G61" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00044960</v>
+        <v>0338</v>
       </c>
       <c r="H61" s="43">
-        <v>4</v>
-      </c>
-      <c r="I61" s="43">
-        <v>4960</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="I61" s="43"/>
       <c r="J61" s="43"/>
       <c r="K61" s="42"/>
       <c r="L61" s="15"/>
@@ -13652,33 +13608,31 @@
     <row r="62" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_8557</v>
+        <v>0_359</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="35">
         <f t="shared" si="1"/>
-        <v>48556.156911979495</v>
-      </c>
-      <c r="E62">
-        <v>1.08</v>
+        <v>358.0779055389952</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.06</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="0"/>
-        <v>48557</v>
+        <v>359</v>
       </c>
       <c r="G62" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00048557</v>
+        <v>0359</v>
       </c>
       <c r="H62" s="42">
-        <v>4</v>
-      </c>
-      <c r="I62" s="42">
-        <v>8557</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I62" s="42"/>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
       <c r="L62" s="15"/>
@@ -13691,33 +13645,31 @@
     <row r="63" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>1_5,0_2441</v>
+        <v>0_380</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="35">
         <f t="shared" si="1"/>
-        <v>52440.649464937858</v>
-      </c>
-      <c r="E63">
-        <v>1.08</v>
+        <v>379.56257987133495</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1.06</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="0"/>
-        <v>52441</v>
+        <v>380</v>
       </c>
       <c r="G63" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00052441</v>
+        <v>0380</v>
       </c>
       <c r="H63" s="42">
-        <v>5</v>
-      </c>
-      <c r="I63" s="42">
-        <v>2441</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="I63" s="42"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
       <c r="L63" s="15"/>
@@ -13730,33 +13682,31 @@
     <row r="64" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>1_5,0_6636</v>
+        <v>0_403</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="35">
         <f t="shared" si="1"/>
-        <v>56635.901422132891</v>
-      </c>
-      <c r="E64">
-        <v>1.08</v>
+        <v>402.33633466361505</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1.06</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="0"/>
-        <v>56636</v>
+        <v>403</v>
       </c>
       <c r="G64" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00056636</v>
+        <v>0403</v>
       </c>
       <c r="H64" s="42">
-        <v>5</v>
-      </c>
-      <c r="I64" s="42">
-        <v>6636</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="I64" s="42"/>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
       <c r="L64" s="15"/>
@@ -13769,33 +13719,31 @@
     <row r="65" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>1_6,0_1167</v>
+        <v>0_427</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="35">
         <f t="shared" si="1"/>
-        <v>61166.773535903529</v>
-      </c>
-      <c r="E65">
-        <v>1.07</v>
+        <v>426.47651474343195</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1.05</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="0"/>
-        <v>61167</v>
+        <v>427</v>
       </c>
       <c r="G65" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00061167</v>
+        <v>0427</v>
       </c>
       <c r="H65" s="42">
-        <v>6</v>
-      </c>
-      <c r="I65" s="42">
-        <v>1167</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="I65" s="42"/>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
       <c r="L65" s="15"/>
@@ -13808,33 +13756,31 @@
     <row r="66" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>1_6,0_5449</v>
+        <v>0_448</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="35">
         <f t="shared" si="1"/>
-        <v>65448.44768341678</v>
-      </c>
-      <c r="E66">
-        <v>1.07</v>
+        <v>447.80034048060355</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.05</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="0"/>
-        <v>65449</v>
+        <v>448</v>
       </c>
       <c r="G66" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00065449</v>
+        <v>0448</v>
       </c>
       <c r="H66" s="42">
-        <v>6</v>
-      </c>
-      <c r="I66" s="42">
-        <v>5449</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="I66" s="42"/>
       <c r="J66" s="43"/>
       <c r="K66" s="42"/>
       <c r="L66" s="15"/>
@@ -13847,33 +13793,31 @@
     <row r="67" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>1_7,0_30</v>
+        <v>0_471</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="35">
         <f t="shared" si="1"/>
-        <v>70029.839021255961</v>
-      </c>
-      <c r="E67">
-        <v>1.07</v>
+        <v>470.19035750463377</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.05</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="0"/>
-        <v>70030</v>
+        <v>471</v>
       </c>
       <c r="G67" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00070030</v>
+        <v>0471</v>
       </c>
       <c r="H67" s="42">
-        <v>7</v>
-      </c>
-      <c r="I67" s="42">
-        <v>30</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="I67" s="42"/>
       <c r="J67" s="42"/>
       <c r="K67" s="42"/>
       <c r="L67" s="15"/>
@@ -13886,33 +13830,31 @@
     <row r="68" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>1_7,0_4932</v>
+        <v>0_494</v>
       </c>
       <c r="C68">
         <f>COUNTIF(H68:W68,"&gt;-1")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="35">
         <f t="shared" si="1"/>
-        <v>74931.927752743883</v>
-      </c>
-      <c r="E68">
-        <v>1.07</v>
+        <v>493.69987537986549</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.05</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="0"/>
-        <v>74932</v>
+        <v>494</v>
       </c>
       <c r="G68" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00074932</v>
+        <v>0494</v>
       </c>
       <c r="H68" s="43">
-        <v>7</v>
-      </c>
-      <c r="I68" s="43">
-        <v>4932</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="I68" s="43"/>
       <c r="J68" s="43"/>
       <c r="K68" s="43"/>
       <c r="L68" s="15"/>
@@ -13925,33 +13867,31 @@
     <row r="69" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>1_8,0_178</v>
+        <v>0_519</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="35">
         <f t="shared" si="1"/>
-        <v>80177.162695435953</v>
-      </c>
-      <c r="E69">
-        <v>1.07</v>
+        <v>518.3848691488588</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.05</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" ref="F69:F95" si="5">ROUNDUP(D69,0)</f>
-        <v>80178</v>
+        <v>519</v>
       </c>
       <c r="G69" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>00080178</v>
+        <v>0519</v>
       </c>
       <c r="H69" s="43">
-        <v>8</v>
-      </c>
-      <c r="I69" s="43">
-        <v>178</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="I69" s="43"/>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
       <c r="L69" s="15"/>
@@ -13964,33 +13904,31 @@
     <row r="70" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>1_8,0_5790</v>
+        <v>0_545</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="35">
         <f t="shared" ref="D70:D95" si="6">D69*E69</f>
-        <v>85789.564084116471</v>
-      </c>
-      <c r="E70">
-        <v>1.07</v>
+        <v>544.30411260630171</v>
+      </c>
+      <c r="E70" s="53">
+        <v>1.05</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>85790</v>
+        <v>545</v>
       </c>
       <c r="G70" s="32" t="str">
         <f t="shared" ref="G70:G95" si="7">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
-        <v>00085790</v>
+        <v>0545</v>
       </c>
       <c r="H70" s="43">
-        <v>8</v>
-      </c>
-      <c r="I70" s="43">
-        <v>5790</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="I70" s="43"/>
       <c r="J70" s="43"/>
       <c r="K70" s="43"/>
       <c r="L70" s="15"/>
@@ -14003,33 +13941,31 @@
     <row r="71" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="8">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>1_9,0_1795</v>
+        <v>0_572</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C95" si="9">COUNTIF(H71:W71,"&gt;-1")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="35">
         <f t="shared" si="6"/>
-        <v>91794.83357000463</v>
-      </c>
-      <c r="E71">
-        <v>1.06</v>
+        <v>571.51931823661687</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.04</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>91795</v>
+        <v>572</v>
       </c>
       <c r="G71" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00091795</v>
+        <v>0572</v>
       </c>
       <c r="H71" s="43">
-        <v>9</v>
-      </c>
-      <c r="I71" s="43">
-        <v>1795</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="I71" s="43"/>
       <c r="J71" s="43"/>
       <c r="K71" s="43"/>
       <c r="L71" s="15"/>
@@ -14042,33 +13978,31 @@
     <row r="72" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="8"/>
-        <v>1_9,0_7303</v>
+        <v>0_595</v>
       </c>
       <c r="C72">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="35">
         <f t="shared" si="6"/>
-        <v>97302.523584204915</v>
-      </c>
-      <c r="E72">
-        <v>1.06</v>
+        <v>594.38009096608153</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.04</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>97303</v>
+        <v>595</v>
       </c>
       <c r="G72" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00097303</v>
+        <v>0595</v>
       </c>
       <c r="H72" s="43">
-        <v>9</v>
-      </c>
-      <c r="I72" s="43">
-        <v>7303</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="I72" s="43"/>
       <c r="J72" s="43"/>
       <c r="K72" s="43"/>
       <c r="L72" s="15"/>
@@ -14081,33 +14015,31 @@
     <row r="73" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="8"/>
-        <v>1_10,0_3141</v>
+        <v>0_619</v>
       </c>
       <c r="C73">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="35">
         <f t="shared" si="6"/>
-        <v>103140.67499925721</v>
-      </c>
-      <c r="E73">
-        <v>1.06</v>
+        <v>618.15529460472476</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.04</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>103141</v>
+        <v>619</v>
       </c>
       <c r="G73" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00103141</v>
+        <v>0619</v>
       </c>
       <c r="H73" s="43">
-        <v>10</v>
-      </c>
-      <c r="I73" s="43">
-        <v>3141</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="I73" s="43"/>
       <c r="J73" s="43"/>
       <c r="K73" s="43"/>
       <c r="L73" s="15"/>
@@ -14120,33 +14052,31 @@
     <row r="74" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="8"/>
-        <v>1_10,0_9330</v>
+        <v>0_643</v>
       </c>
       <c r="C74">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="35">
         <f t="shared" si="6"/>
-        <v>109329.11549921265</v>
-      </c>
-      <c r="E74">
-        <v>1.06</v>
+        <v>642.88150638891375</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.04</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>109330</v>
+        <v>643</v>
       </c>
       <c r="G74" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00109330</v>
+        <v>0643</v>
       </c>
       <c r="H74" s="43">
-        <v>10</v>
-      </c>
-      <c r="I74" s="43">
-        <v>9330</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="I74" s="43"/>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
       <c r="L74" s="15"/>
@@ -14159,33 +14089,31 @@
     <row r="75" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="8"/>
-        <v>1_11,0_5889</v>
+        <v>0_669</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="35">
         <f t="shared" si="6"/>
-        <v>115888.86242916541</v>
-      </c>
-      <c r="E75">
-        <v>1.06</v>
+        <v>668.59676664447034</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.04</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="5"/>
-        <v>115889</v>
+        <v>669</v>
       </c>
       <c r="G75" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00115889</v>
+        <v>0669</v>
       </c>
       <c r="H75" s="43">
-        <v>11</v>
-      </c>
-      <c r="I75" s="43">
-        <v>5889</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="I75" s="43"/>
       <c r="J75" s="43"/>
       <c r="K75" s="43"/>
       <c r="L75" s="15"/>
@@ -14198,33 +14126,31 @@
     <row r="76" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="8"/>
-        <v>1_12,0_2843</v>
+        <v>0_696</v>
       </c>
       <c r="C76">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="35">
         <f t="shared" si="6"/>
-        <v>122842.19417491535</v>
-      </c>
-      <c r="E76">
-        <v>1.06</v>
+        <v>695.34063731024912</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1.04</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>122843</v>
+        <v>696</v>
       </c>
       <c r="G76" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00122843</v>
+        <v>0696</v>
       </c>
       <c r="H76" s="43">
-        <v>12</v>
-      </c>
-      <c r="I76" s="43">
-        <v>2843</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="I76" s="43"/>
       <c r="J76" s="43"/>
       <c r="K76" s="43"/>
       <c r="L76" s="15"/>
@@ -14237,33 +14163,31 @@
     <row r="77" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="8"/>
-        <v>1_13,0_213</v>
+        <v>0_724</v>
       </c>
       <c r="C77">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="35">
         <f t="shared" si="6"/>
-        <v>130212.72582541028</v>
-      </c>
-      <c r="E77">
-        <v>1.05</v>
+        <v>723.1542628026591</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.03</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>130213</v>
+        <v>724</v>
       </c>
       <c r="G77" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00130213</v>
+        <v>0724</v>
       </c>
       <c r="H77" s="43">
-        <v>13</v>
-      </c>
-      <c r="I77" s="43">
-        <v>213</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="I77" s="43"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
       <c r="L77" s="15"/>
@@ -14276,33 +14200,31 @@
     <row r="78" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="8"/>
-        <v>1_13,0_6724</v>
+        <v>0_745</v>
       </c>
       <c r="C78">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="35">
         <f t="shared" si="6"/>
-        <v>136723.3621166808</v>
-      </c>
-      <c r="E78">
-        <v>1.05</v>
+        <v>744.84889068673886</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.03</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>136724</v>
+        <v>745</v>
       </c>
       <c r="G78" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00136724</v>
+        <v>0745</v>
       </c>
       <c r="H78" s="43">
-        <v>13</v>
-      </c>
-      <c r="I78" s="43">
-        <v>6724</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
       <c r="L78" s="15"/>
@@ -14315,33 +14237,31 @@
     <row r="79" spans="2:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="8"/>
-        <v>1_14,0_3560</v>
+        <v>0_768</v>
       </c>
       <c r="C79">
         <f>COUNTIF(H79:W79,"&gt;-1")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="35">
         <f t="shared" si="6"/>
-        <v>143559.53022251485</v>
-      </c>
-      <c r="E79">
-        <v>1.05</v>
+        <v>767.19435740734104</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1.03</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>143560</v>
+        <v>768</v>
       </c>
       <c r="G79" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00143560</v>
+        <v>0768</v>
       </c>
       <c r="H79" s="33">
-        <v>14</v>
-      </c>
-      <c r="I79" s="43">
-        <v>3560</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="I79" s="43"/>
       <c r="J79" s="33"/>
       <c r="K79" s="33"/>
       <c r="L79" s="15"/>
@@ -14354,497 +14274,449 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
         <f t="shared" si="8"/>
-        <v>1_15,0_738</v>
+        <v>0_791</v>
       </c>
       <c r="C80">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="35">
         <f t="shared" si="6"/>
-        <v>150737.50673364059</v>
-      </c>
-      <c r="E80">
-        <v>1.05</v>
+        <v>790.21018812956129</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1.03</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="5"/>
-        <v>150738</v>
+        <v>791</v>
       </c>
       <c r="G80" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00150738</v>
+        <v>0791</v>
       </c>
       <c r="H80">
-        <v>15</v>
-      </c>
-      <c r="I80" s="31">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
         <f t="shared" si="8"/>
-        <v>1_15,0_8275</v>
+        <v>0_814</v>
       </c>
       <c r="C81">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="35">
         <f t="shared" si="6"/>
-        <v>158274.38207032264</v>
-      </c>
-      <c r="E81">
-        <v>1.05</v>
+        <v>813.91649377344811</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1.03</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>158275</v>
+        <v>814</v>
       </c>
       <c r="G81" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00158275</v>
+        <v>0814</v>
       </c>
       <c r="H81">
-        <v>15</v>
-      </c>
-      <c r="I81" s="31">
-        <v>8275</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
         <f t="shared" si="8"/>
-        <v>1_16,0_6189</v>
+        <v>0_839</v>
       </c>
       <c r="C82">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="35">
         <f t="shared" si="6"/>
-        <v>166188.10117383878</v>
-      </c>
-      <c r="E82">
-        <v>1.05</v>
+        <v>838.33398858665157</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.03</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="5"/>
-        <v>166189</v>
+        <v>839</v>
       </c>
       <c r="G82" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00166189</v>
+        <v>0839</v>
       </c>
       <c r="H82">
-        <v>16</v>
-      </c>
-      <c r="I82" s="31">
-        <v>6189</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
         <f t="shared" si="8"/>
-        <v>1_17,0_4498</v>
+        <v>0_864</v>
       </c>
       <c r="C83">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="35">
         <f t="shared" si="6"/>
-        <v>174497.50623253072</v>
-      </c>
-      <c r="E83">
-        <v>1.04</v>
+        <v>863.48400824425119</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1.02</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="5"/>
-        <v>174498</v>
+        <v>864</v>
       </c>
       <c r="G83" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00174498</v>
+        <v>0864</v>
       </c>
       <c r="H83">
-        <v>17</v>
-      </c>
-      <c r="I83" s="31">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
         <f t="shared" si="8"/>
-        <v>1_18,0_1478</v>
+        <v>0_881</v>
       </c>
       <c r="C84">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="35">
         <f t="shared" si="6"/>
-        <v>181477.40648183195</v>
-      </c>
-      <c r="E84">
-        <v>1.04</v>
+        <v>880.7536884091362</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1.02</v>
       </c>
       <c r="F84" s="15">
         <f t="shared" si="5"/>
-        <v>181478</v>
+        <v>881</v>
       </c>
       <c r="G84" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00181478</v>
+        <v>0881</v>
       </c>
       <c r="H84">
-        <v>18</v>
-      </c>
-      <c r="I84" s="31">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
         <f t="shared" si="8"/>
-        <v>1_18,0_8737</v>
+        <v>0_899</v>
       </c>
       <c r="C85">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="35">
         <f t="shared" si="6"/>
-        <v>188736.50274110524</v>
-      </c>
-      <c r="E85">
-        <v>1.04</v>
+        <v>898.3687621773189</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.02</v>
       </c>
       <c r="F85" s="15">
         <f t="shared" si="5"/>
-        <v>188737</v>
+        <v>899</v>
       </c>
       <c r="G85" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00188737</v>
+        <v>0899</v>
       </c>
       <c r="H85">
-        <v>18</v>
-      </c>
-      <c r="I85" s="31">
-        <v>8737</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
         <f t="shared" si="8"/>
-        <v>1_19,0_6286</v>
+        <v>0_917</v>
       </c>
       <c r="C86">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="35">
         <f t="shared" si="6"/>
-        <v>196285.96285074946</v>
-      </c>
-      <c r="E86">
-        <v>1.04</v>
+        <v>916.33613742086527</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.02</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="5"/>
-        <v>196286</v>
+        <v>917</v>
       </c>
       <c r="G86" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00196286</v>
+        <v>0917</v>
       </c>
       <c r="H86">
-        <v>19</v>
-      </c>
-      <c r="I86" s="31">
-        <v>6286</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
         <f t="shared" si="8"/>
-        <v>1_20,0_4138</v>
+        <v>0_935</v>
       </c>
       <c r="C87">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="35">
         <f t="shared" si="6"/>
-        <v>204137.40136477945</v>
-      </c>
-      <c r="E87">
-        <v>1.04</v>
+        <v>934.66286016928257</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.02</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="5"/>
-        <v>204138</v>
+        <v>935</v>
       </c>
       <c r="G87" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00204138</v>
+        <v>0935</v>
       </c>
       <c r="H87">
-        <v>20</v>
-      </c>
-      <c r="I87" s="31">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
         <f t="shared" si="8"/>
-        <v>1_21,0_2303</v>
+        <v>0_954</v>
       </c>
       <c r="C88">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="35">
         <f t="shared" si="6"/>
-        <v>212302.89741937062</v>
-      </c>
-      <c r="E88">
-        <v>1.04</v>
+        <v>953.35611737266822</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.02</v>
       </c>
       <c r="F88" s="15">
         <f t="shared" si="5"/>
-        <v>212303</v>
+        <v>954</v>
       </c>
       <c r="G88" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00212303</v>
+        <v>0954</v>
       </c>
       <c r="H88">
-        <v>21</v>
-      </c>
-      <c r="I88" s="31">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
         <f t="shared" si="8"/>
-        <v>1_22,0_796</v>
+        <v>0_973</v>
       </c>
       <c r="C89">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="35">
         <f t="shared" si="6"/>
-        <v>220795.01331614546</v>
-      </c>
-      <c r="E89">
-        <v>1.03</v>
+        <v>972.42323972012161</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.01</v>
       </c>
       <c r="F89" s="15">
         <f t="shared" si="5"/>
-        <v>220796</v>
+        <v>973</v>
       </c>
       <c r="G89" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00220796</v>
+        <v>0973</v>
       </c>
       <c r="H89">
-        <v>22</v>
-      </c>
-      <c r="I89" s="31">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
         <f t="shared" si="8"/>
-        <v>1_22,0_7419</v>
+        <v>0_983</v>
       </c>
       <c r="C90">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="35">
         <f t="shared" si="6"/>
-        <v>227418.86371562982</v>
-      </c>
-      <c r="E90">
-        <v>1.03</v>
+        <v>982.14747211732288</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.01</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="5"/>
-        <v>227419</v>
+        <v>983</v>
       </c>
       <c r="G90" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00227419</v>
+        <v>0983</v>
       </c>
       <c r="H90">
-        <v>22</v>
-      </c>
-      <c r="I90" s="31">
-        <v>7419</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
         <f t="shared" si="8"/>
-        <v>1_23,0_4242</v>
+        <v>0_992</v>
       </c>
       <c r="C91">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="35">
         <f t="shared" si="6"/>
-        <v>234241.42962709873</v>
-      </c>
-      <c r="E91">
-        <v>1.03</v>
+        <v>991.96894683849609</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.01</v>
       </c>
       <c r="F91" s="15">
         <f t="shared" si="5"/>
-        <v>234242</v>
+        <v>992</v>
       </c>
       <c r="G91" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00234242</v>
+        <v>0992</v>
       </c>
       <c r="H91">
-        <v>23</v>
-      </c>
-      <c r="I91" s="31">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
         <f t="shared" si="8"/>
-        <v>1_24,0_1269</v>
+        <v>0_1002</v>
       </c>
       <c r="C92">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="35">
         <f t="shared" si="6"/>
-        <v>241268.67251591169</v>
-      </c>
-      <c r="E92">
-        <v>1.03</v>
+        <v>1001.888636306881</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.01</v>
       </c>
       <c r="F92" s="15">
         <f t="shared" si="5"/>
-        <v>241269</v>
+        <v>1002</v>
       </c>
       <c r="G92" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00241269</v>
+        <v>1002</v>
       </c>
       <c r="H92">
-        <v>24</v>
-      </c>
-      <c r="I92" s="31">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
         <f t="shared" si="8"/>
-        <v>1_24,0_8507</v>
+        <v>0_1012</v>
       </c>
       <c r="C93">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="35">
         <f t="shared" si="6"/>
-        <v>248506.73269138904</v>
-      </c>
-      <c r="E93">
-        <v>1.03</v>
+        <v>1011.9075226699499</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.01</v>
       </c>
       <c r="F93" s="15">
         <f t="shared" si="5"/>
-        <v>248507</v>
+        <v>1012</v>
       </c>
       <c r="G93" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00248507</v>
+        <v>1012</v>
       </c>
       <c r="H93">
-        <v>24</v>
-      </c>
-      <c r="I93" s="31">
-        <v>8507</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
         <f t="shared" si="8"/>
-        <v>1_25,0_5962</v>
+        <v>0_1023</v>
       </c>
       <c r="C94">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="35">
         <f t="shared" si="6"/>
-        <v>255961.93467213071</v>
-      </c>
-      <c r="E94">
-        <v>1.03</v>
+        <v>1022.0265978966494</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1.01</v>
       </c>
       <c r="F94" s="15">
         <f t="shared" si="5"/>
-        <v>255962</v>
+        <v>1023</v>
       </c>
       <c r="G94" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00255962</v>
+        <v>1023</v>
       </c>
       <c r="H94">
-        <v>25</v>
-      </c>
-      <c r="I94" s="31">
-        <v>5962</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
         <f t="shared" si="8"/>
-        <v>1_26,0_3641</v>
+        <v>0_1033</v>
       </c>
       <c r="C95">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="35">
         <f t="shared" si="6"/>
-        <v>263640.79271229461</v>
+        <v>1032.2468638756159</v>
       </c>
       <c r="E95">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F95" s="15">
         <f t="shared" si="5"/>
-        <v>263641</v>
+        <v>1033</v>
       </c>
       <c r="G95" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>00263641</v>
+        <v>1033</v>
       </c>
       <c r="H95">
-        <v>26</v>
-      </c>
-      <c r="I95" s="31">
-        <v>3641</v>
+        <v>1033</v>
       </c>
